--- a/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
+++ b/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
@@ -4,19 +4,37 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="No wind" sheetId="1" r:id="rId1"/>
     <sheet name="Tail On 65 MPH" sheetId="2" r:id="rId2"/>
     <sheet name="Tail OFf 65 MPH" sheetId="3" r:id="rId3"/>
     <sheet name="No Model 65 MPH" sheetId="4" r:id="rId4"/>
+    <sheet name="Airplane Characteristics" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="bspan">'Airplane Characteristics'!$C$5</definedName>
+    <definedName name="Cchord">'Airplane Characteristics'!$C$7</definedName>
+    <definedName name="CGw">'Airplane Characteristics'!$C$16</definedName>
+    <definedName name="Ct">'Airplane Characteristics'!$C$3</definedName>
+    <definedName name="lamda_t">'Airplane Characteristics'!$C$12</definedName>
+    <definedName name="lamda_w">'Airplane Characteristics'!$C$6</definedName>
+    <definedName name="lbar">'Airplane Characteristics'!$C$17</definedName>
     <definedName name="NoModel65mph" localSheetId="3">'No Model 65 MPH'!$A$1:$M$75</definedName>
-    <definedName name="nowind" localSheetId="0">'No wind'!$A$1:$G$71</definedName>
-    <definedName name="tailoff65mph" localSheetId="2">'Tail OFf 65 MPH'!$A$1:$G$76</definedName>
-    <definedName name="tailon65mph" localSheetId="1">'Tail On 65 MPH'!$A$1:$G$85</definedName>
+    <definedName name="nowind" localSheetId="0">'No wind'!$A$1:$H$70</definedName>
+    <definedName name="Rc_">'Airplane Characteristics'!$C$4</definedName>
+    <definedName name="tailoff65mph" localSheetId="2">'Tail OFf 65 MPH'!$A$1:$H$76</definedName>
+    <definedName name="tailon65mph" localSheetId="1">'Tail On 65 MPH'!$A$1:$H$85</definedName>
+    <definedName name="tamc">'Airplane Characteristics'!$C$15</definedName>
+    <definedName name="tmac">'Airplane Characteristics'!$C$15</definedName>
+    <definedName name="Trc">'Airplane Characteristics'!$C$10</definedName>
+    <definedName name="Ttc">'Airplane Characteristics'!$C$11</definedName>
+    <definedName name="TunHeight">'Airplane Characteristics'!$G$3</definedName>
+    <definedName name="TunLen">'Airplane Characteristics'!$G$4</definedName>
+    <definedName name="TunWidth">'Airplane Characteristics'!$G$2</definedName>
+    <definedName name="wing_area">'Airplane Characteristics'!$C$8</definedName>
+    <definedName name="wmac">'Airplane Characteristics'!$C$14</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -62,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Alpha (deg)</t>
   </si>
@@ -84,12 +102,144 @@
   <si>
     <t>Yaw (in-lbs)</t>
   </si>
+  <si>
+    <t>Drag (real)</t>
+  </si>
+  <si>
+    <t>Drag (Real)</t>
+  </si>
+  <si>
+    <t>tarea</t>
+  </si>
+  <si>
+    <t>Tail Area (in^2)</t>
+  </si>
+  <si>
+    <t>Ttc</t>
+  </si>
+  <si>
+    <t>Tail Tip Chord</t>
+  </si>
+  <si>
+    <t>Trc</t>
+  </si>
+  <si>
+    <t>Tail Root Chord</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Aspect Ratio</t>
+  </si>
+  <si>
+    <t>wing_area</t>
+  </si>
+  <si>
+    <t>Wing Area (in^2)</t>
+  </si>
+  <si>
+    <t>Cchord</t>
+  </si>
+  <si>
+    <t>Center Chord (in)</t>
+  </si>
+  <si>
+    <t>lamda</t>
+  </si>
+  <si>
+    <t>Taper Ratio</t>
+  </si>
+  <si>
+    <t>bspan</t>
+  </si>
+  <si>
+    <t>Wingspan (in)</t>
+  </si>
+  <si>
+    <t>Rc</t>
+  </si>
+  <si>
+    <t>Root Chord (in)</t>
+  </si>
+  <si>
+    <t>Ct</t>
+  </si>
+  <si>
+    <t>Tip Chord (in)</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Airplane Characteristics</t>
+  </si>
+  <si>
+    <t>Tail MAC (in)</t>
+  </si>
+  <si>
+    <t>Wing MAC (in)</t>
+  </si>
+  <si>
+    <t>wmac</t>
+  </si>
+  <si>
+    <t>tmac</t>
+  </si>
+  <si>
+    <t>Tail Taper Ratio</t>
+  </si>
+  <si>
+    <t>lamda_t</t>
+  </si>
+  <si>
+    <t>Wing CG</t>
+  </si>
+  <si>
+    <t>CGw</t>
+  </si>
+  <si>
+    <t>L bar tail</t>
+  </si>
+  <si>
+    <t>lbar</t>
+  </si>
+  <si>
+    <t>Wind Tunnel</t>
+  </si>
+  <si>
+    <t>TunWidth</t>
+  </si>
+  <si>
+    <t>Width (in)</t>
+  </si>
+  <si>
+    <t>Height (in)</t>
+  </si>
+  <si>
+    <t>TunHeight</t>
+  </si>
+  <si>
+    <t>Length (in)</t>
+  </si>
+  <si>
+    <t>TunLen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,16 +247,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,12 +278,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,13 +636,13 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,19 +653,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-7.976</v>
       </c>
@@ -488,19 +679,23 @@
         <v>-0.14199999999999999</v>
       </c>
       <c r="D2">
+        <f>-C2</f>
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E2">
         <v>3.484</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3.9260000000000002</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.126</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-7.976</v>
       </c>
@@ -511,19 +706,23 @@
         <v>-0.14199999999999999</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">-C3</f>
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E3">
         <v>3.484</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3.9260000000000002</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-7.9740000000000002</v>
       </c>
@@ -534,19 +733,23 @@
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E4">
         <v>3.4689999999999999</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.623</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-7.9740000000000002</v>
       </c>
@@ -557,19 +760,23 @@
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E5">
         <v>3.4689999999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.623</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-7.9740000000000002</v>
       </c>
@@ -580,19 +787,23 @@
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E6">
         <v>3.4689999999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.623</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-5.9989999999999997</v>
       </c>
@@ -603,19 +814,23 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="E7">
         <v>1.7969999999999999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.331</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.33400000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-5.9989999999999997</v>
       </c>
@@ -626,19 +841,23 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="E8">
         <v>1.7969999999999999</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.331</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.33400000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-5.9989999999999997</v>
       </c>
@@ -649,19 +868,23 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="E9">
         <v>1.7969999999999999</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.331</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.33400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-5.9930000000000003</v>
       </c>
@@ -672,19 +895,23 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="E10">
         <v>1.748</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1E-3</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.79700000000000004</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.311</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-5.9930000000000003</v>
       </c>
@@ -695,19 +922,23 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="E11">
         <v>1.748</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1E-3</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.79700000000000004</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.311</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-3.9950000000000001</v>
       </c>
@@ -718,19 +949,23 @@
         <v>-1.2999999999999999E-2</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E12">
         <v>-0.68</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.68100000000000005</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-3.9950000000000001</v>
       </c>
@@ -741,19 +976,23 @@
         <v>-1.2999999999999999E-2</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E13">
         <v>-0.68</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.68100000000000005</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-3.9950000000000001</v>
       </c>
@@ -764,19 +1003,23 @@
         <v>-1.2999999999999999E-2</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E14">
         <v>-0.68</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.68100000000000005</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-3.99</v>
       </c>
@@ -787,19 +1030,23 @@
         <v>-5.5E-2</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="E15">
         <v>-1.5960000000000001</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.52100000000000002</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-3.99</v>
       </c>
@@ -810,19 +1057,23 @@
         <v>-5.5E-2</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="E16">
         <v>-1.5960000000000001</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.52100000000000002</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-2.032</v>
       </c>
@@ -833,19 +1084,23 @@
         <v>0.05</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.05</v>
+      </c>
+      <c r="E17">
         <v>1.2869999999999999</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.0229999999999999</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-2.032</v>
       </c>
@@ -856,19 +1111,23 @@
         <v>0.05</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-0.05</v>
+      </c>
+      <c r="E18">
         <v>1.2869999999999999</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.0229999999999999</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.223</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-2.032</v>
       </c>
@@ -879,19 +1138,23 @@
         <v>0.05</v>
       </c>
       <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-0.05</v>
+      </c>
+      <c r="E19">
         <v>1.2869999999999999</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.0229999999999999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.223</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-2.032</v>
       </c>
@@ -902,19 +1165,23 @@
         <v>0.05</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-0.05</v>
+      </c>
+      <c r="E20">
         <v>1.2869999999999999</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.0229999999999999</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-0.223</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-2.032</v>
       </c>
@@ -925,19 +1192,23 @@
         <v>0.05</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-0.05</v>
+      </c>
+      <c r="E21">
         <v>1.2869999999999999</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.0229999999999999</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-0.223</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.7000000000000001E-2</v>
       </c>
@@ -948,19 +1219,23 @@
         <v>5.5E-2</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-5.5E-2</v>
+      </c>
+      <c r="E22">
         <v>-0.60199999999999998</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.65700000000000003</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.7000000000000001E-2</v>
       </c>
@@ -971,19 +1246,23 @@
         <v>5.5E-2</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-5.5E-2</v>
+      </c>
+      <c r="E23">
         <v>-0.60199999999999998</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.65700000000000003</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.7000000000000001E-2</v>
       </c>
@@ -994,19 +1273,23 @@
         <v>5.5E-2</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-5.5E-2</v>
+      </c>
+      <c r="E24">
         <v>-0.60199999999999998</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.65700000000000003</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.4E-2</v>
       </c>
@@ -1017,19 +1300,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="E25">
         <v>-0.43099999999999999</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>7.8E-2</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.524</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.4E-2</v>
       </c>
@@ -1040,19 +1327,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="E26">
         <v>-0.43099999999999999</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>7.8E-2</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.524</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.9510000000000001</v>
       </c>
@@ -1063,19 +1354,23 @@
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="D27">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E27">
         <v>0.59399999999999997</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.151</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.9510000000000001</v>
       </c>
@@ -1086,19 +1381,23 @@
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="D28">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E28">
         <v>0.59399999999999997</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.151</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.956</v>
       </c>
@@ -1109,19 +1408,23 @@
         <v>-4.2000000000000003E-2</v>
       </c>
       <c r="D29">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E29">
         <v>0.57199999999999995</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.91400000000000003</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.956</v>
       </c>
@@ -1132,19 +1435,23 @@
         <v>-4.2000000000000003E-2</v>
       </c>
       <c r="D30">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E30">
         <v>0.57199999999999995</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.91400000000000003</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1.956</v>
       </c>
@@ -1155,19 +1462,23 @@
         <v>-4.2000000000000003E-2</v>
       </c>
       <c r="D31">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E31">
         <v>0.57199999999999995</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.91400000000000003</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1178,19 +1489,23 @@
         <v>-3.9E-2</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="E32">
         <v>-1.4690000000000001</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-8.5000000000000006E-2</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-0.71499999999999997</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.06</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1201,19 +1516,23 @@
         <v>-3.9E-2</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="E33">
         <v>-1.4690000000000001</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-8.5000000000000006E-2</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-0.71499999999999997</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.06</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4.0389999999999997</v>
       </c>
@@ -1224,19 +1543,23 @@
         <v>-6.6000000000000003E-2</v>
       </c>
       <c r="D34">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E34">
         <v>-2.085</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1E-3</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.25</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.0389999999999997</v>
       </c>
@@ -1247,19 +1570,23 @@
         <v>-6.6000000000000003E-2</v>
       </c>
       <c r="D35">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E35">
         <v>-2.085</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1E-3</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.25</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4.0389999999999997</v>
       </c>
@@ -1270,19 +1597,23 @@
         <v>-6.6000000000000003E-2</v>
       </c>
       <c r="D36">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E36">
         <v>-2.085</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1E-3</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.25</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5.9909999999999997</v>
       </c>
@@ -1293,19 +1624,23 @@
         <v>-0.19900000000000001</v>
       </c>
       <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E37">
         <v>-4.4989999999999997</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1.349</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>-0.307</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.9909999999999997</v>
       </c>
@@ -1316,19 +1651,23 @@
         <v>-0.19900000000000001</v>
       </c>
       <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E38">
         <v>-4.4989999999999997</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1.349</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>-0.307</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5.9950000000000001</v>
       </c>
@@ -1339,19 +1678,23 @@
         <v>-0.17299999999999999</v>
       </c>
       <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E39">
         <v>-4.4589999999999996</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.54900000000000004</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>-0.16900000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5.9950000000000001</v>
       </c>
@@ -1362,19 +1705,23 @@
         <v>-0.17299999999999999</v>
       </c>
       <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E40">
         <v>-4.4589999999999996</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.54900000000000004</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>-0.16900000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5.9950000000000001</v>
       </c>
@@ -1385,19 +1732,23 @@
         <v>-0.17299999999999999</v>
       </c>
       <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E41">
         <v>-4.4589999999999996</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.54900000000000004</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>-0.16900000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7.968</v>
       </c>
@@ -1408,19 +1759,23 @@
         <v>-0.29899999999999999</v>
       </c>
       <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E42">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>-2.7E-2</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.129</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>-0.107</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7.9749999999999996</v>
       </c>
@@ -1431,19 +1786,23 @@
         <v>-0.26700000000000002</v>
       </c>
       <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E43">
         <v>-7.2889999999999997</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1.2929999999999999</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>-0.115</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7.9749999999999996</v>
       </c>
@@ -1454,19 +1813,23 @@
         <v>-0.26700000000000002</v>
       </c>
       <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E44">
         <v>-7.2889999999999997</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>1.2929999999999999</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>-0.115</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7.9749999999999996</v>
       </c>
@@ -1477,19 +1840,23 @@
         <v>-0.26700000000000002</v>
       </c>
       <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E45">
         <v>-7.2889999999999997</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1.2929999999999999</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>-0.115</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7.9749999999999996</v>
       </c>
@@ -1500,19 +1867,23 @@
         <v>-0.26700000000000002</v>
       </c>
       <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E46">
         <v>-7.2889999999999997</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>1.2929999999999999</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>-0.115</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10.02</v>
       </c>
@@ -1523,19 +1894,23 @@
         <v>-0.42499999999999999</v>
       </c>
       <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E47">
         <v>-10.71</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.54200000000000004</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>-0.127</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10.02</v>
       </c>
@@ -1546,19 +1921,23 @@
         <v>-0.42499999999999999</v>
       </c>
       <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E48">
         <v>-10.71</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.54200000000000004</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>-0.127</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10.048999999999999</v>
       </c>
@@ -1569,19 +1948,23 @@
         <v>-0.33</v>
       </c>
       <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="E49">
         <v>-9.6750000000000007</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.35499999999999998</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>-8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10.048999999999999</v>
       </c>
@@ -1592,19 +1975,23 @@
         <v>-0.33</v>
       </c>
       <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="E50">
         <v>-9.6750000000000007</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.35499999999999998</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>-8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10.048999999999999</v>
       </c>
@@ -1615,19 +2002,23 @@
         <v>-0.33</v>
       </c>
       <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="E51">
         <v>-9.6750000000000007</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.35499999999999998</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>-8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11.957000000000001</v>
       </c>
@@ -1638,19 +2029,23 @@
         <v>-0.46500000000000002</v>
       </c>
       <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="E52">
         <v>-9.2240000000000002</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>1.7130000000000001</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>-0.124</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11.957000000000001</v>
       </c>
@@ -1661,19 +2056,23 @@
         <v>-0.46500000000000002</v>
       </c>
       <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="E53">
         <v>-9.2240000000000002</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>1.7130000000000001</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>-0.124</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11.973000000000001</v>
       </c>
@@ -1684,19 +2083,23 @@
         <v>-0.42299999999999999</v>
       </c>
       <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E54">
         <v>-8.8230000000000004</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>-3.9E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11.973000000000001</v>
       </c>
@@ -1707,19 +2110,23 @@
         <v>-0.42299999999999999</v>
       </c>
       <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E55">
         <v>-8.8230000000000004</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>-3.9E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11.973000000000001</v>
       </c>
@@ -1730,19 +2137,23 @@
         <v>-0.42299999999999999</v>
       </c>
       <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E56">
         <v>-8.8230000000000004</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>-3.9E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14</v>
       </c>
@@ -1753,19 +2164,23 @@
         <v>-0.52400000000000002</v>
       </c>
       <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E57">
         <v>-13.256</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>-0.04</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>14</v>
       </c>
@@ -1776,19 +2191,23 @@
         <v>-0.52400000000000002</v>
       </c>
       <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E58">
         <v>-13.256</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>-0.04</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>14.006</v>
       </c>
@@ -1799,19 +2218,23 @@
         <v>-0.53400000000000003</v>
       </c>
       <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E59">
         <v>-13.721</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>-0.78600000000000003</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>14.006</v>
       </c>
@@ -1822,19 +2245,23 @@
         <v>-0.53400000000000003</v>
       </c>
       <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E60">
         <v>-13.721</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>-0.78600000000000003</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14.006</v>
       </c>
@@ -1845,19 +2272,23 @@
         <v>-0.53400000000000003</v>
       </c>
       <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E61">
         <v>-13.721</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>-0.78600000000000003</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>15.974</v>
       </c>
@@ -1868,19 +2299,23 @@
         <v>-0.58499999999999996</v>
       </c>
       <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E62">
         <v>-15.637</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>1.4950000000000001</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>-0.17100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>15.974</v>
       </c>
@@ -1891,19 +2326,23 @@
         <v>-0.58499999999999996</v>
       </c>
       <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E63">
         <v>-15.637</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>1.4950000000000001</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>-0.17100000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>15.98</v>
       </c>
@@ -1914,19 +2353,23 @@
         <v>-0.57599999999999996</v>
       </c>
       <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E64">
         <v>-15.361000000000001</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>0.29599999999999999</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>-0.114</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15.98</v>
       </c>
@@ -1937,19 +2380,23 @@
         <v>-0.57599999999999996</v>
       </c>
       <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E65">
         <v>-15.361000000000001</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>0.29599999999999999</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>-0.114</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15.98</v>
       </c>
@@ -1960,42 +2407,50 @@
         <v>-0.57599999999999996</v>
       </c>
       <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E66">
         <v>-15.361000000000001</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>0.29599999999999999</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>-0.114</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>-1.6E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="B67">
-        <v>5.6000000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C67">
-        <v>1.7000000000000001E-2</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="D67">
-        <v>-1.1399999999999999</v>
+        <f t="shared" ref="D67:D70" si="1">-C67</f>
+        <v>6.3E-2</v>
       </c>
       <c r="E67">
-        <v>1.0999999999999999E-2</v>
+        <v>-1.49</v>
       </c>
       <c r="F67">
-        <v>0.66200000000000003</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="G67">
-        <v>-6.2E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="H67">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-2.5999999999999999E-2</v>
       </c>
@@ -2006,19 +2461,23 @@
         <v>-6.3E-2</v>
       </c>
       <c r="D68">
+        <f t="shared" si="1"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E68">
         <v>-1.49</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>1.2849999999999999</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-2.5999999999999999E-2</v>
       </c>
@@ -2029,19 +2488,23 @@
         <v>-6.3E-2</v>
       </c>
       <c r="D69">
+        <f t="shared" si="1"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E69">
         <v>-1.49</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>1.2849999999999999</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-2.5999999999999999E-2</v>
       </c>
@@ -2052,38 +2515,19 @@
         <v>-6.3E-2</v>
       </c>
       <c r="D70">
+        <f t="shared" si="1"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E70">
         <v>-1.49</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>1.2849999999999999</v>
       </c>
-      <c r="G70">
-        <v>-9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="B71">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="C71">
-        <v>-6.3E-2</v>
-      </c>
-      <c r="D71">
-        <v>-1.49</v>
-      </c>
-      <c r="E71">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F71">
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="G71">
+      <c r="H70">
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
@@ -2094,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C28"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,13 +2549,13 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2122,19 +2566,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4.7E-2</v>
       </c>
@@ -2145,19 +2592,23 @@
         <v>-0.92700000000000005</v>
       </c>
       <c r="D2">
+        <f>-C2</f>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E2">
         <v>-9.0210000000000008</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.32300000000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.752</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-4.7E-2</v>
       </c>
@@ -2168,19 +2619,23 @@
         <v>-0.92700000000000005</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">-C3</f>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E3">
         <v>-9.0210000000000008</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.32300000000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.752</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.7E-2</v>
       </c>
@@ -2191,19 +2646,23 @@
         <v>-0.92700000000000005</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E4">
         <v>-9.0210000000000008</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.32300000000000001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.752</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-4.7E-2</v>
       </c>
@@ -2214,19 +2673,23 @@
         <v>-0.92700000000000005</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E5">
         <v>-9.0210000000000008</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.32300000000000001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.752</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-4.2000000000000003E-2</v>
       </c>
@@ -2237,19 +2700,23 @@
         <v>-0.86699999999999999</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E6">
         <v>-10.814</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-1.2529999999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-4.7E-2</v>
       </c>
@@ -2260,19 +2727,23 @@
         <v>-0.89200000000000002</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E7">
         <v>-11.063000000000001</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.17</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.623</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-4.7E-2</v>
       </c>
@@ -2283,19 +2754,23 @@
         <v>-0.89200000000000002</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E8">
         <v>-11.063000000000001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.17</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.623</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-4.7E-2</v>
       </c>
@@ -2306,19 +2781,23 @@
         <v>-0.89200000000000002</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E9">
         <v>-11.063000000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.17</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.623</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4.7E-2</v>
       </c>
@@ -2329,19 +2808,23 @@
         <v>-0.89200000000000002</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E10">
         <v>-11.063000000000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.17</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.623</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4.4999999999999998E-2</v>
       </c>
@@ -2352,19 +2835,23 @@
         <v>-0.89100000000000001</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E11">
         <v>-10.696999999999999</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.156</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.51</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.125</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4.5999999999999999E-2</v>
       </c>
@@ -2375,19 +2862,23 @@
         <v>-0.81299999999999994</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E12">
         <v>-11.031000000000001</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.13100000000000001</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.7E-2</v>
       </c>
@@ -2398,19 +2889,23 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E13">
         <v>-12.673</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.35899999999999999</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-4.7E-2</v>
       </c>
@@ -2421,19 +2916,23 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E14">
         <v>-12.673</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.35899999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-4.7E-2</v>
       </c>
@@ -2444,19 +2943,23 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E15">
         <v>-12.673</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.35899999999999999</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-4.7E-2</v>
       </c>
@@ -2467,19 +2970,23 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E16">
         <v>-12.673</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.35899999999999999</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-8.0860000000000003</v>
       </c>
@@ -2490,19 +2997,23 @@
         <v>-0.70899999999999996</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E17">
         <v>-4.8330000000000002</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-1.335</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-1.304</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-8.0860000000000003</v>
       </c>
@@ -2513,19 +3024,23 @@
         <v>-0.70899999999999996</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E18">
         <v>-4.8330000000000002</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-1.335</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-1.304</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-8.0860000000000003</v>
       </c>
@@ -2536,19 +3051,23 @@
         <v>-0.70899999999999996</v>
       </c>
       <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E19">
         <v>-4.8330000000000002</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-1.335</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-1.304</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-8.0860000000000003</v>
       </c>
@@ -2559,19 +3078,23 @@
         <v>-0.70899999999999996</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E20">
         <v>-4.8330000000000002</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-1.335</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-1.304</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-8.0860000000000003</v>
       </c>
@@ -2582,19 +3105,23 @@
         <v>-0.70899999999999996</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E21">
         <v>-4.8330000000000002</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-1.335</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-1.304</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-6.0060000000000002</v>
       </c>
@@ -2605,19 +3132,23 @@
         <v>-0.83599999999999997</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E22">
         <v>-3.1179999999999999</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.23699999999999999</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.629</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-6.0060000000000002</v>
       </c>
@@ -2628,19 +3159,23 @@
         <v>-0.83599999999999997</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E23">
         <v>-3.1179999999999999</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.23699999999999999</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-0.629</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-6.0060000000000002</v>
       </c>
@@ -2651,19 +3186,23 @@
         <v>-0.83599999999999997</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E24">
         <v>-3.1179999999999999</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.23699999999999999</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.629</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-6.0060000000000002</v>
       </c>
@@ -2674,19 +3213,23 @@
         <v>-0.83599999999999997</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E25">
         <v>-3.1179999999999999</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.23699999999999999</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-0.629</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-6.0060000000000002</v>
       </c>
@@ -2697,19 +3240,23 @@
         <v>-0.83599999999999997</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E26">
         <v>-3.1179999999999999</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.23699999999999999</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-0.629</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-3.9950000000000001</v>
       </c>
@@ -2720,19 +3267,23 @@
         <v>-0.79800000000000004</v>
       </c>
       <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E27">
         <v>-9.5239999999999991</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-2.2709999999999999</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-0.247</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.9950000000000001</v>
       </c>
@@ -2743,19 +3294,23 @@
         <v>-0.75700000000000001</v>
       </c>
       <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E28">
         <v>-8.7729999999999997</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-0.70599999999999996</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-0.30599999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-3.9950000000000001</v>
       </c>
@@ -2766,19 +3321,23 @@
         <v>-0.75700000000000001</v>
       </c>
       <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E29">
         <v>-8.7729999999999997</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-0.70599999999999996</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-0.30599999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-3.9950000000000001</v>
       </c>
@@ -2789,19 +3348,23 @@
         <v>-0.75700000000000001</v>
       </c>
       <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E30">
         <v>-8.7729999999999997</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-0.70599999999999996</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-0.30599999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-3.9950000000000001</v>
       </c>
@@ -2812,19 +3375,23 @@
         <v>-0.75700000000000001</v>
       </c>
       <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E31">
         <v>-8.7729999999999997</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-0.70599999999999996</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.30599999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-2.0299999999999998</v>
       </c>
@@ -2835,19 +3402,23 @@
         <v>-0.68700000000000006</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="E32">
         <v>-7.6029999999999998</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.192</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-2.0299999999999998</v>
       </c>
@@ -2858,19 +3429,23 @@
         <v>-0.68700000000000006</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="E33">
         <v>-7.6029999999999998</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.192</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-0.31</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.976</v>
       </c>
@@ -2881,19 +3456,23 @@
         <v>-0.83099999999999996</v>
       </c>
       <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E34">
         <v>-7.63</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.216</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.442</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-0.22600000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.976</v>
       </c>
@@ -2904,19 +3483,23 @@
         <v>-0.83099999999999996</v>
       </c>
       <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E35">
         <v>-7.63</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.216</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.442</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.22600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.976</v>
       </c>
@@ -2927,19 +3510,23 @@
         <v>-0.83099999999999996</v>
       </c>
       <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E36">
         <v>-7.63</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.216</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.442</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-0.22600000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.9E-2</v>
       </c>
@@ -2950,19 +3537,23 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E37">
         <v>-9.9580000000000002</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-0.96599999999999997</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.9E-2</v>
       </c>
@@ -2973,19 +3564,23 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E38">
         <v>-9.9580000000000002</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-0.96599999999999997</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.9E-2</v>
       </c>
@@ -2996,19 +3591,23 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E39">
         <v>-9.9580000000000002</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>-0.96599999999999997</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1.9E-2</v>
       </c>
@@ -3019,19 +3618,23 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E40">
         <v>-9.9580000000000002</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>-0.96599999999999997</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.9E-2</v>
       </c>
@@ -3042,19 +3645,23 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E41">
         <v>-9.9580000000000002</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>-0.96599999999999997</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1.992</v>
       </c>
@@ -3065,19 +3672,23 @@
         <v>-0.996</v>
       </c>
       <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.996</v>
+      </c>
+      <c r="E42">
         <v>-12.76</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.112</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>-0.60099999999999998</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.992</v>
       </c>
@@ -3088,19 +3699,23 @@
         <v>-0.996</v>
       </c>
       <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.996</v>
+      </c>
+      <c r="E43">
         <v>-12.76</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.112</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>-0.60099999999999998</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.99</v>
       </c>
@@ -3111,19 +3726,23 @@
         <v>-1.0860000000000001</v>
       </c>
       <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="E44">
         <v>-14.260999999999999</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.17799999999999999</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>-0.248</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.99</v>
       </c>
@@ -3134,19 +3753,23 @@
         <v>-1.0860000000000001</v>
       </c>
       <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="E45">
         <v>-14.260999999999999</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.17799999999999999</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>-0.248</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.99</v>
       </c>
@@ -3157,19 +3780,23 @@
         <v>-1.0860000000000001</v>
       </c>
       <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="E46">
         <v>-14.260999999999999</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.17799999999999999</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>-0.248</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3.9750000000000001</v>
       </c>
@@ -3180,19 +3807,23 @@
         <v>-1.165</v>
       </c>
       <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1.165</v>
+      </c>
+      <c r="E47">
         <v>-17.616</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.121</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>-0.316</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3.9750000000000001</v>
       </c>
@@ -3203,19 +3834,23 @@
         <v>-1.165</v>
       </c>
       <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1.165</v>
+      </c>
+      <c r="E48">
         <v>-17.616</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>0.121</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>-0.316</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.0259999999999998</v>
       </c>
@@ -3226,19 +3861,23 @@
         <v>-1.272</v>
       </c>
       <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1.272</v>
+      </c>
+      <c r="E49">
         <v>-18.001000000000001</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>0.104</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>-0.18099999999999999</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.46</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4.0259999999999998</v>
       </c>
@@ -3249,19 +3888,23 @@
         <v>-1.272</v>
       </c>
       <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1.272</v>
+      </c>
+      <c r="E50">
         <v>-18.001000000000001</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>0.104</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>-0.18099999999999999</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.46</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4.0259999999999998</v>
       </c>
@@ -3272,19 +3915,23 @@
         <v>-1.272</v>
       </c>
       <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1.272</v>
+      </c>
+      <c r="E51">
         <v>-18.001000000000001</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.104</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>-0.18099999999999999</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>0.46</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6.0010000000000003</v>
       </c>
@@ -3295,19 +3942,23 @@
         <v>-1.554</v>
       </c>
       <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1.554</v>
+      </c>
+      <c r="E52">
         <v>-24.145</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.21299999999999999</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6.0149999999999997</v>
       </c>
@@ -3318,19 +3969,23 @@
         <v>-1.4950000000000001</v>
       </c>
       <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="E53">
         <v>-23.291</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6.0149999999999997</v>
       </c>
@@ -3341,19 +3996,23 @@
         <v>-1.4950000000000001</v>
       </c>
       <c r="D54">
+        <f t="shared" si="0"/>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="E54">
         <v>-23.291</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6.0149999999999997</v>
       </c>
@@ -3364,19 +4023,23 @@
         <v>-1.4950000000000001</v>
       </c>
       <c r="D55">
+        <f t="shared" si="0"/>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="E55">
         <v>-23.291</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6.0149999999999997</v>
       </c>
@@ -3387,19 +4050,23 @@
         <v>-1.4950000000000001</v>
       </c>
       <c r="D56">
+        <f t="shared" si="0"/>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="E56">
         <v>-23.291</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7.9880000000000004</v>
       </c>
@@ -3410,19 +4077,23 @@
         <v>-1.7070000000000001</v>
       </c>
       <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="E57">
         <v>-26.684000000000001</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>-0.71199999999999997</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>0.877</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7.9880000000000004</v>
       </c>
@@ -3433,19 +4104,23 @@
         <v>-1.7070000000000001</v>
       </c>
       <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="E58">
         <v>-26.684000000000001</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>-0.71199999999999997</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>0.877</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8.0570000000000004</v>
       </c>
@@ -3456,19 +4131,23 @@
         <v>-1.6180000000000001</v>
       </c>
       <c r="D59">
+        <f t="shared" si="0"/>
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E59">
         <v>-25.286999999999999</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8.0570000000000004</v>
       </c>
@@ -3479,19 +4158,23 @@
         <v>-1.6180000000000001</v>
       </c>
       <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E60">
         <v>-25.286999999999999</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8.0570000000000004</v>
       </c>
@@ -3502,19 +4185,23 @@
         <v>-1.6180000000000001</v>
       </c>
       <c r="D61">
+        <f t="shared" si="0"/>
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E61">
         <v>-25.286999999999999</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9.9619999999999997</v>
       </c>
@@ -3525,19 +4212,23 @@
         <v>-1.861</v>
       </c>
       <c r="D62">
+        <f t="shared" si="0"/>
+        <v>1.861</v>
+      </c>
+      <c r="E62">
         <v>-26.69</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>-0.63600000000000001</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>1.022</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9.9619999999999997</v>
       </c>
@@ -3548,19 +4239,23 @@
         <v>-1.861</v>
       </c>
       <c r="D63">
+        <f t="shared" si="0"/>
+        <v>1.861</v>
+      </c>
+      <c r="E63">
         <v>-26.69</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>-0.63600000000000001</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>1.022</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9.9619999999999997</v>
       </c>
@@ -3571,19 +4266,23 @@
         <v>-1.861</v>
       </c>
       <c r="D64">
+        <f t="shared" si="0"/>
+        <v>1.861</v>
+      </c>
+      <c r="E64">
         <v>-26.69</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>-0.63600000000000001</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>1.022</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10.037000000000001</v>
       </c>
@@ -3594,19 +4293,23 @@
         <v>-1.8220000000000001</v>
       </c>
       <c r="D65">
+        <f t="shared" si="0"/>
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="E65">
         <v>-27.331</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>-1.722</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>1.173</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10.037000000000001</v>
       </c>
@@ -3617,19 +4320,23 @@
         <v>-1.8220000000000001</v>
       </c>
       <c r="D66">
+        <f t="shared" si="0"/>
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="E66">
         <v>-27.331</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>-1.722</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>1.173</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11.99</v>
       </c>
@@ -3640,19 +4347,23 @@
         <v>-1.986</v>
       </c>
       <c r="D67">
+        <f t="shared" ref="D67:D85" si="1">-C67</f>
+        <v>1.986</v>
+      </c>
+      <c r="E67">
         <v>-30.355</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>-9.4E-2</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>-2.113</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11.99</v>
       </c>
@@ -3663,19 +4374,23 @@
         <v>-1.986</v>
       </c>
       <c r="D68">
+        <f t="shared" si="1"/>
+        <v>1.986</v>
+      </c>
+      <c r="E68">
         <v>-30.355</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>-9.4E-2</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>-2.113</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12.003</v>
       </c>
@@ -3686,19 +4401,23 @@
         <v>-2.0659999999999998</v>
       </c>
       <c r="D69">
+        <f t="shared" si="1"/>
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="E69">
         <v>-30.969000000000001</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>0.04</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>1E-3</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12.003</v>
       </c>
@@ -3709,19 +4428,23 @@
         <v>-2.0659999999999998</v>
       </c>
       <c r="D70">
+        <f t="shared" si="1"/>
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="E70">
         <v>-30.969000000000001</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>0.04</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>1E-3</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>0.9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12.003</v>
       </c>
@@ -3732,19 +4455,23 @@
         <v>-2.0659999999999998</v>
       </c>
       <c r="D71">
+        <f t="shared" si="1"/>
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="E71">
         <v>-30.969000000000001</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>0.04</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>1E-3</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>0.9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>13.958</v>
       </c>
@@ -3755,19 +4482,23 @@
         <v>-2.4369999999999998</v>
       </c>
       <c r="D72">
+        <f t="shared" si="1"/>
+        <v>2.4369999999999998</v>
+      </c>
+      <c r="E72">
         <v>-35.000999999999998</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>-0.253</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>1.321</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>13.958</v>
       </c>
@@ -3778,19 +4509,23 @@
         <v>-2.4369999999999998</v>
       </c>
       <c r="D73">
+        <f t="shared" si="1"/>
+        <v>2.4369999999999998</v>
+      </c>
+      <c r="E73">
         <v>-35.000999999999998</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>-0.253</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>1.321</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13.976000000000001</v>
       </c>
@@ -3801,19 +4536,23 @@
         <v>-2.4900000000000002</v>
       </c>
       <c r="D74">
+        <f t="shared" si="1"/>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E74">
         <v>-35.188000000000002</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>-0.111</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>1.224</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13.976000000000001</v>
       </c>
@@ -3824,19 +4563,23 @@
         <v>-2.4900000000000002</v>
       </c>
       <c r="D75">
+        <f t="shared" si="1"/>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E75">
         <v>-35.188000000000002</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>-0.111</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>1.224</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15.951000000000001</v>
       </c>
@@ -3847,19 +4590,23 @@
         <v>-2.4540000000000002</v>
       </c>
       <c r="D76">
+        <f t="shared" si="1"/>
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="E76">
         <v>-35.536999999999999</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>-0.216</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>-2.1930000000000001</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>1.4510000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>15.951000000000001</v>
       </c>
@@ -3870,19 +4617,23 @@
         <v>-2.4540000000000002</v>
       </c>
       <c r="D77">
+        <f t="shared" si="1"/>
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="E77">
         <v>-35.536999999999999</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>-0.216</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>-2.1930000000000001</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>1.4510000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>15.996</v>
       </c>
@@ -3893,19 +4644,23 @@
         <v>-2.5739999999999998</v>
       </c>
       <c r="D78">
+        <f t="shared" si="1"/>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="E78">
         <v>-37.679000000000002</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>-0.17899999999999999</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>15.996</v>
       </c>
@@ -3916,19 +4671,23 @@
         <v>-2.5739999999999998</v>
       </c>
       <c r="D79">
+        <f t="shared" si="1"/>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="E79">
         <v>-37.679000000000002</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>-0.17899999999999999</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>15.996</v>
       </c>
@@ -3939,19 +4698,23 @@
         <v>-2.5739999999999998</v>
       </c>
       <c r="D80">
+        <f t="shared" si="1"/>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="E80">
         <v>-37.679000000000002</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>-0.17899999999999999</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -3962,19 +4725,23 @@
         <v>-1.111</v>
       </c>
       <c r="D81">
+        <f t="shared" si="1"/>
+        <v>1.111</v>
+      </c>
+      <c r="E81">
         <v>-12.635999999999999</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>0.193</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>0.129</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -3985,19 +4752,23 @@
         <v>-1.111</v>
       </c>
       <c r="D82">
+        <f t="shared" si="1"/>
+        <v>1.111</v>
+      </c>
+      <c r="E82">
         <v>-12.635999999999999</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>0.193</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>0.129</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -4008,19 +4779,23 @@
         <v>-1.123</v>
       </c>
       <c r="D83">
+        <f t="shared" si="1"/>
+        <v>1.123</v>
+      </c>
+      <c r="E83">
         <v>-10.741</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>0.221</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>0.23699999999999999</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -4031,19 +4806,23 @@
         <v>-1.123</v>
       </c>
       <c r="D84">
+        <f t="shared" si="1"/>
+        <v>1.123</v>
+      </c>
+      <c r="E84">
         <v>-10.741</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>0.221</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>0.23699999999999999</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -4054,15 +4833,19 @@
         <v>-1.123</v>
       </c>
       <c r="D85">
+        <f t="shared" si="1"/>
+        <v>1.123</v>
+      </c>
+      <c r="E85">
         <v>-10.741</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>0.221</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>0.23699999999999999</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>5.5E-2</v>
       </c>
     </row>
@@ -4073,10 +4856,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4084,13 +4867,13 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4101,19 +4884,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -4124,19 +4910,23 @@
         <v>-0.84399999999999997</v>
       </c>
       <c r="D2">
+        <f>-C2</f>
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E2">
         <v>-8.27</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-2.4E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.249</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -4147,19 +4937,23 @@
         <v>-0.84399999999999997</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">-C3</f>
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E3">
         <v>-8.27</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-2.4E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.249</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -4170,19 +4964,23 @@
         <v>-0.85699999999999998</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E4">
         <v>-7.5019999999999998</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.32800000000000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -4193,19 +4991,23 @@
         <v>-0.85699999999999998</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E5">
         <v>-7.5019999999999998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.32800000000000001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -4216,19 +5018,23 @@
         <v>-0.85699999999999998</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E6">
         <v>-7.5019999999999998</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.32800000000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-7.9809999999999999</v>
       </c>
@@ -4239,19 +5045,23 @@
         <v>-0.90600000000000003</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E7">
         <v>-10.952999999999999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.83899999999999997</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-1.387</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-7.9809999999999999</v>
       </c>
@@ -4262,19 +5072,23 @@
         <v>-0.90600000000000003</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E8">
         <v>-10.952999999999999</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.83899999999999997</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-1.387</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-7.9980000000000002</v>
       </c>
@@ -4285,19 +5099,23 @@
         <v>-0.90600000000000003</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E9">
         <v>-9.6660000000000004</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.54</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-1.4139999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-7.9980000000000002</v>
       </c>
@@ -4308,19 +5126,23 @@
         <v>-0.90600000000000003</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E10">
         <v>-9.6660000000000004</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.54</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-1.4139999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-7.9980000000000002</v>
       </c>
@@ -4331,19 +5153,23 @@
         <v>-0.90600000000000003</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E11">
         <v>-9.6660000000000004</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.54</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-1.4139999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-6.0140000000000002</v>
       </c>
@@ -4354,19 +5180,23 @@
         <v>-0.59899999999999998</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E12">
         <v>-6.1449999999999996</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.248</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.86799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-6.0140000000000002</v>
       </c>
@@ -4377,19 +5207,23 @@
         <v>-0.59899999999999998</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E13">
         <v>-6.1449999999999996</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.248</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.86799999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-6.0140000000000002</v>
       </c>
@@ -4400,19 +5234,23 @@
         <v>-0.59899999999999998</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E14">
         <v>-6.1449999999999996</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.248</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.86799999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.0019999999999998</v>
       </c>
@@ -4423,19 +5261,23 @@
         <v>-0.65200000000000002</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E15">
         <v>-6.0510000000000002</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.112</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.91100000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.0019999999999998</v>
       </c>
@@ -4446,19 +5288,23 @@
         <v>-0.65200000000000002</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E16">
         <v>-6.0510000000000002</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.112</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.91100000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.9990000000000001</v>
       </c>
@@ -4469,19 +5315,23 @@
         <v>-0.66900000000000004</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E17">
         <v>-6.72</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.81200000000000006</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.60199999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3.9990000000000001</v>
       </c>
@@ -4492,19 +5342,23 @@
         <v>-0.66900000000000004</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E18">
         <v>-6.72</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.81200000000000006</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.60199999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.9990000000000001</v>
       </c>
@@ -4515,19 +5369,23 @@
         <v>-0.66900000000000004</v>
       </c>
       <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E19">
         <v>-6.72</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.81200000000000006</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.60199999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.9929999999999999</v>
       </c>
@@ -4538,19 +5396,23 @@
         <v>-0.66</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="E20">
         <v>-6.798</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.77800000000000002</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-0.69599999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.9929999999999999</v>
       </c>
@@ -4561,19 +5423,23 @@
         <v>-0.66</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="E21">
         <v>-6.798</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-0.77800000000000002</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-0.69599999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.976</v>
       </c>
@@ -4584,19 +5450,23 @@
         <v>-0.69299999999999995</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E22">
         <v>-7.8289999999999997</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-0.33800000000000002</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.976</v>
       </c>
@@ -4607,19 +5477,23 @@
         <v>-0.69299999999999995</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E23">
         <v>-7.8289999999999997</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-0.33800000000000002</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.976</v>
       </c>
@@ -4630,19 +5504,23 @@
         <v>-0.69299999999999995</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E24">
         <v>-7.8289999999999997</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-0.33800000000000002</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.966</v>
       </c>
@@ -4653,19 +5531,23 @@
         <v>-0.69899999999999995</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="E25">
         <v>-7.7</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-0.52200000000000002</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-0.51800000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.966</v>
       </c>
@@ -4676,19 +5558,23 @@
         <v>-0.69899999999999995</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="E26">
         <v>-7.7</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-0.52200000000000002</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-0.51800000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -4699,19 +5585,23 @@
         <v>-0.71799999999999997</v>
       </c>
       <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E27">
         <v>-10.061999999999999</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-0.442</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-0.32300000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -4722,19 +5612,23 @@
         <v>-0.71799999999999997</v>
       </c>
       <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E28">
         <v>-10.061999999999999</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-0.442</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-0.32300000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -4745,19 +5639,23 @@
         <v>-0.71799999999999997</v>
       </c>
       <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E29">
         <v>-10.061999999999999</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-0.442</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-0.32300000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -4768,19 +5666,23 @@
         <v>-0.71799999999999997</v>
       </c>
       <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E30">
         <v>-10.061999999999999</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-0.442</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-0.32300000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -4791,19 +5693,23 @@
         <v>-0.69499999999999995</v>
       </c>
       <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="E31">
         <v>-9.6509999999999998</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-0.42299999999999999</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.28399999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.966</v>
       </c>
@@ -4814,19 +5720,23 @@
         <v>-0.81699999999999995</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="E32">
         <v>-11.257</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-0.63400000000000001</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.0270000000000001</v>
       </c>
@@ -4837,19 +5747,23 @@
         <v>-0.78100000000000003</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E33">
         <v>-10.622999999999999</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-0.80900000000000005</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.0270000000000001</v>
       </c>
@@ -4860,19 +5774,23 @@
         <v>-0.78100000000000003</v>
       </c>
       <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E34">
         <v>-10.622999999999999</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-0.80900000000000005</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.0270000000000001</v>
       </c>
@@ -4883,19 +5801,23 @@
         <v>-0.78100000000000003</v>
       </c>
       <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E35">
         <v>-10.622999999999999</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-0.80900000000000005</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.0270000000000001</v>
       </c>
@@ -4906,19 +5828,23 @@
         <v>-0.78100000000000003</v>
       </c>
       <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E36">
         <v>-10.622999999999999</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-0.80900000000000005</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.976</v>
       </c>
@@ -4929,19 +5855,23 @@
         <v>-0.97199999999999998</v>
       </c>
       <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E37">
         <v>-14.09</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-0.69699999999999995</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.976</v>
       </c>
@@ -4952,19 +5882,23 @@
         <v>-0.97199999999999998</v>
       </c>
       <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E38">
         <v>-14.09</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-0.69699999999999995</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.976</v>
       </c>
@@ -4975,19 +5909,23 @@
         <v>-0.97199999999999998</v>
       </c>
       <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E39">
         <v>-14.09</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>-0.69699999999999995</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.0709999999999997</v>
       </c>
@@ -4998,19 +5936,23 @@
         <v>-0.96499999999999997</v>
       </c>
       <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E40">
         <v>-13.504</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>2.7E-2</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>-0.72799999999999998</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4.0709999999999997</v>
       </c>
@@ -5021,19 +5963,23 @@
         <v>-0.96499999999999997</v>
       </c>
       <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E41">
         <v>-13.504</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>2.7E-2</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>-0.72799999999999998</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.9749999999999996</v>
       </c>
@@ -5044,19 +5990,23 @@
         <v>-1.0549999999999999</v>
       </c>
       <c r="D42">
+        <f t="shared" si="0"/>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="E42">
         <v>-13.507999999999999</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>1.4E-2</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>-1.006</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.9749999999999996</v>
       </c>
@@ -5067,19 +6017,23 @@
         <v>-1.0549999999999999</v>
       </c>
       <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="E43">
         <v>-13.507999999999999</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>1.4E-2</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>-1.006</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.9749999999999996</v>
       </c>
@@ -5090,19 +6044,23 @@
         <v>-1.0549999999999999</v>
       </c>
       <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="E44">
         <v>-13.507999999999999</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>1.4E-2</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>-1.006</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.9960000000000004</v>
       </c>
@@ -5113,19 +6071,23 @@
         <v>-0.98499999999999999</v>
       </c>
       <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E45">
         <v>-14.054</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>-1.036</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.9960000000000004</v>
       </c>
@@ -5136,19 +6098,23 @@
         <v>-0.98499999999999999</v>
       </c>
       <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E46">
         <v>-14.054</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>-1.036</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8.0299999999999994</v>
       </c>
@@ -5159,19 +6125,23 @@
         <v>-1.22</v>
       </c>
       <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1.22</v>
+      </c>
+      <c r="E47">
         <v>-16.538</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>-0.113</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>-0.60799999999999998</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8.0299999999999994</v>
       </c>
@@ -5182,19 +6152,23 @@
         <v>-1.22</v>
       </c>
       <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1.22</v>
+      </c>
+      <c r="E48">
         <v>-16.538</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>-0.113</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>-0.60799999999999998</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8.0299999999999994</v>
       </c>
@@ -5205,19 +6179,23 @@
         <v>-1.22</v>
       </c>
       <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1.22</v>
+      </c>
+      <c r="E49">
         <v>-16.538</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>-0.113</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>-0.60799999999999998</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8.0310000000000006</v>
       </c>
@@ -5228,19 +6206,23 @@
         <v>-1.288</v>
       </c>
       <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1.288</v>
+      </c>
+      <c r="E50">
         <v>-17.311</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>-0.54600000000000004</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.495</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8.0310000000000006</v>
       </c>
@@ -5251,19 +6233,23 @@
         <v>-1.288</v>
       </c>
       <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1.288</v>
+      </c>
+      <c r="E51">
         <v>-17.311</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>-0.54600000000000004</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>0.495</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9.984</v>
       </c>
@@ -5274,19 +6260,23 @@
         <v>-1.367</v>
       </c>
       <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1.367</v>
+      </c>
+      <c r="E52">
         <v>-19.227</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>-0.91200000000000003</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9.984</v>
       </c>
@@ -5297,19 +6287,23 @@
         <v>-1.367</v>
       </c>
       <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1.367</v>
+      </c>
+      <c r="E53">
         <v>-19.227</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>-0.91200000000000003</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9.984</v>
       </c>
@@ -5320,19 +6314,23 @@
         <v>-1.367</v>
       </c>
       <c r="D54">
+        <f t="shared" si="0"/>
+        <v>1.367</v>
+      </c>
+      <c r="E54">
         <v>-19.227</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>-0.91200000000000003</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9.984</v>
       </c>
@@ -5343,19 +6341,23 @@
         <v>-1.367</v>
       </c>
       <c r="D55">
+        <f t="shared" si="0"/>
+        <v>1.367</v>
+      </c>
+      <c r="E55">
         <v>-19.227</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>-0.91200000000000003</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10.005000000000001</v>
       </c>
@@ -5366,19 +6368,23 @@
         <v>-1.331</v>
       </c>
       <c r="D56">
+        <f t="shared" si="0"/>
+        <v>1.331</v>
+      </c>
+      <c r="E56">
         <v>-18.356000000000002</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>-0.998</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>0.751</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11.971</v>
       </c>
@@ -5389,19 +6395,23 @@
         <v>-1.544</v>
       </c>
       <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1.544</v>
+      </c>
+      <c r="E57">
         <v>-22.334</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>-2.1179999999999999</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11.971</v>
       </c>
@@ -5412,19 +6422,23 @@
         <v>-1.544</v>
       </c>
       <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1.544</v>
+      </c>
+      <c r="E58">
         <v>-22.334</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>-2.1179999999999999</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11.971</v>
       </c>
@@ -5435,19 +6449,23 @@
         <v>-1.544</v>
       </c>
       <c r="D59">
+        <f t="shared" si="0"/>
+        <v>1.544</v>
+      </c>
+      <c r="E59">
         <v>-22.334</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>-2.1179999999999999</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11.988</v>
       </c>
@@ -5458,19 +6476,23 @@
         <v>-1.5429999999999999</v>
       </c>
       <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="E60">
         <v>-22.271999999999998</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>-0.192</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>-2.2989999999999999</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11.988</v>
       </c>
@@ -5481,19 +6503,23 @@
         <v>-1.5429999999999999</v>
       </c>
       <c r="D61">
+        <f t="shared" si="0"/>
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="E61">
         <v>-22.271999999999998</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>-0.192</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>-2.2989999999999999</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13.962999999999999</v>
       </c>
@@ -5504,19 +6530,23 @@
         <v>-1.72</v>
       </c>
       <c r="D62">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
+      </c>
+      <c r="E62">
         <v>-23.86</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>-0.121</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>-0.58599999999999997</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13.962999999999999</v>
       </c>
@@ -5527,19 +6557,23 @@
         <v>-1.72</v>
       </c>
       <c r="D63">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
+      </c>
+      <c r="E63">
         <v>-23.86</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>-0.121</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>-0.58599999999999997</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13.962999999999999</v>
       </c>
@@ -5550,19 +6584,23 @@
         <v>-1.72</v>
       </c>
       <c r="D64">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
+      </c>
+      <c r="E64">
         <v>-23.86</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>-0.121</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>-0.58599999999999997</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13.976000000000001</v>
       </c>
@@ -5573,19 +6611,23 @@
         <v>-1.7130000000000001</v>
       </c>
       <c r="D65">
+        <f t="shared" si="0"/>
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="E65">
         <v>-24.382999999999999</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>-0.13400000000000001</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>-0.73699999999999999</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13.976000000000001</v>
       </c>
@@ -5596,19 +6638,23 @@
         <v>-1.7130000000000001</v>
       </c>
       <c r="D66">
+        <f t="shared" si="0"/>
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="E66">
         <v>-24.382999999999999</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>-0.13400000000000001</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>-0.73699999999999999</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>16</v>
       </c>
@@ -5619,19 +6665,23 @@
         <v>-2.101</v>
       </c>
       <c r="D67">
+        <f t="shared" ref="D67:D76" si="1">-C67</f>
+        <v>2.101</v>
+      </c>
+      <c r="E67">
         <v>-27.094000000000001</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>-0.20399999999999999</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>-0.89500000000000002</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>1.095</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16</v>
       </c>
@@ -5642,19 +6692,23 @@
         <v>-2.101</v>
       </c>
       <c r="D68">
+        <f t="shared" si="1"/>
+        <v>2.101</v>
+      </c>
+      <c r="E68">
         <v>-27.094000000000001</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>-0.20399999999999999</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>-0.89500000000000002</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>1.095</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
@@ -5665,19 +6719,23 @@
         <v>-2.101</v>
       </c>
       <c r="D69">
+        <f t="shared" si="1"/>
+        <v>2.101</v>
+      </c>
+      <c r="E69">
         <v>-27.094000000000001</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>-0.20399999999999999</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>-0.89500000000000002</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>1.095</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
@@ -5688,19 +6746,23 @@
         <v>-2.101</v>
       </c>
       <c r="D70">
+        <f t="shared" si="1"/>
+        <v>2.101</v>
+      </c>
+      <c r="E70">
         <v>-27.094000000000001</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>-0.20399999999999999</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>-0.89500000000000002</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>1.095</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16.016999999999999</v>
       </c>
@@ -5711,19 +6773,23 @@
         <v>-2.056</v>
       </c>
       <c r="D71">
+        <f t="shared" si="1"/>
+        <v>2.056</v>
+      </c>
+      <c r="E71">
         <v>-25.111000000000001</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>-0.14099999999999999</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>-0.67900000000000005</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>1.153</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.4E-2</v>
       </c>
@@ -5734,19 +6800,23 @@
         <v>-0.81200000000000006</v>
       </c>
       <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E72">
         <v>-10.491</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>-0.41699999999999998</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>-0.32</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.4E-2</v>
       </c>
@@ -5757,19 +6827,23 @@
         <v>-0.81200000000000006</v>
       </c>
       <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E73">
         <v>-10.491</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>-0.41699999999999998</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>-0.32</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2.4E-2</v>
       </c>
@@ -5780,19 +6854,23 @@
         <v>-0.81200000000000006</v>
       </c>
       <c r="D74">
+        <f t="shared" si="1"/>
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E74">
         <v>-10.491</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>-0.41699999999999998</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>-0.32</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.3E-2</v>
       </c>
@@ -5803,19 +6881,23 @@
         <v>-0.80200000000000005</v>
       </c>
       <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E75">
         <v>-11.724</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>-0.34899999999999998</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>-0.23899999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.3E-2</v>
       </c>
@@ -5826,15 +6908,19 @@
         <v>-0.80200000000000005</v>
       </c>
       <c r="D76">
+        <f t="shared" si="1"/>
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E76">
         <v>-11.724</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>-0.34899999999999998</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>-0.23899999999999999</v>
       </c>
     </row>
@@ -5845,10 +6931,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5856,16 +6942,16 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5876,19 +6962,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2.5999999999999999E-2</v>
       </c>
@@ -5899,19 +6988,23 @@
         <v>-0.49099999999999999</v>
       </c>
       <c r="D2">
+        <f>-C2</f>
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="E2">
         <v>-7.8760000000000003</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.13500000000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.8090000000000002</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-2.5999999999999999E-2</v>
       </c>
@@ -5922,19 +7015,23 @@
         <v>-0.49099999999999999</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">-C3</f>
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="E3">
         <v>-7.8760000000000003</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.13500000000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.8090000000000002</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1.6E-2</v>
       </c>
@@ -5945,19 +7042,23 @@
         <v>-0.36699999999999999</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="E4">
         <v>-5.2690000000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-0.113</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.8079999999999998</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1.6E-2</v>
       </c>
@@ -5968,19 +7069,23 @@
         <v>-0.36699999999999999</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="E5">
         <v>-5.2690000000000001</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.113</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.8079999999999998</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1.7000000000000001E-2</v>
       </c>
@@ -5991,19 +7096,23 @@
         <v>-0.432</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.432</v>
+      </c>
+      <c r="E6">
         <v>-3.7629999999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.21</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.7529999999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-8.0630000000000006</v>
       </c>
@@ -6014,19 +7123,23 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="E7">
         <v>3.1190000000000002</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3.1379999999999999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-8.0739999999999998</v>
       </c>
@@ -6037,19 +7150,23 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E8">
         <v>3.1480000000000001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.04</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3.2589999999999999</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-8.0739999999999998</v>
       </c>
@@ -6060,19 +7177,23 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E9">
         <v>3.1480000000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.04</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3.2589999999999999</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-8.0739999999999998</v>
       </c>
@@ -6083,19 +7204,23 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E10">
         <v>3.1480000000000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.04</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3.2589999999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-8.0739999999999998</v>
       </c>
@@ -6106,19 +7231,23 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E11">
         <v>3.1480000000000001</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.04</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3.2589999999999999</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-5.992</v>
       </c>
@@ -6129,19 +7258,23 @@
         <v>-3.2000000000000001E-2</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E12">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.12</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3.0249999999999999</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.504</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-5.992</v>
       </c>
@@ -6152,19 +7285,23 @@
         <v>-3.2000000000000001E-2</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E13">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.12</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3.0249999999999999</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.504</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-5.992</v>
       </c>
@@ -6175,19 +7312,23 @@
         <v>-3.2000000000000001E-2</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E14">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.12</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3.0249999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.504</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-5.9359999999999999</v>
       </c>
@@ -6198,19 +7339,23 @@
         <v>-5.8000000000000003E-2</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E15">
         <v>-0.183</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4.6769999999999996</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-5.9359999999999999</v>
       </c>
@@ -6221,19 +7366,23 @@
         <v>-5.8000000000000003E-2</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E16">
         <v>-0.183</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4.6769999999999996</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.472</v>
       </c>
@@ -6244,19 +7393,23 @@
         <v>-0.16</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="E17">
         <v>0.46800000000000003</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.123</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3.5489999999999999</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.50700000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3.4609999999999999</v>
       </c>
@@ -6267,19 +7420,23 @@
         <v>-0.191</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.191</v>
+      </c>
+      <c r="E18">
         <v>2.246</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3.226</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.4609999999999999</v>
       </c>
@@ -6290,19 +7447,23 @@
         <v>-0.191</v>
       </c>
       <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.191</v>
+      </c>
+      <c r="E19">
         <v>2.246</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3.226</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.4609999999999999</v>
       </c>
@@ -6313,19 +7474,23 @@
         <v>-0.191</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.191</v>
+      </c>
+      <c r="E20">
         <v>2.246</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3.226</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.4609999999999999</v>
       </c>
@@ -6336,19 +7501,23 @@
         <v>-0.191</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.191</v>
+      </c>
+      <c r="E21">
         <v>2.246</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3.226</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-2.044</v>
       </c>
@@ -6359,19 +7528,23 @@
         <v>-0.20300000000000001</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E22">
         <v>0.79900000000000004</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-0.217</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2.9780000000000002</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-2.044</v>
       </c>
@@ -6382,19 +7555,23 @@
         <v>-0.20300000000000001</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E23">
         <v>0.79900000000000004</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-0.217</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2.9780000000000002</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-2.044</v>
       </c>
@@ -6405,19 +7582,23 @@
         <v>-0.20300000000000001</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E24">
         <v>0.79900000000000004</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.217</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2.9780000000000002</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2.0529999999999999</v>
       </c>
@@ -6428,19 +7609,23 @@
         <v>-0.29599999999999999</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E25">
         <v>-1.9890000000000001</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3.7090000000000001</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-2.0529999999999999</v>
       </c>
@@ -6451,19 +7636,23 @@
         <v>-0.29599999999999999</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E26">
         <v>-1.9890000000000001</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3.7090000000000001</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -6474,19 +7663,23 @@
         <v>-0.621</v>
       </c>
       <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.621</v>
+      </c>
+      <c r="E27">
         <v>-10.225</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-0.158</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2.4590000000000001</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.68400000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -6497,19 +7690,23 @@
         <v>-0.621</v>
       </c>
       <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.621</v>
+      </c>
+      <c r="E28">
         <v>-10.225</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-0.158</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2.4590000000000001</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.68400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -6520,19 +7717,23 @@
         <v>-0.621</v>
       </c>
       <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.621</v>
+      </c>
+      <c r="E29">
         <v>-10.225</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-0.158</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2.4590000000000001</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.68400000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.3E-2</v>
       </c>
@@ -6543,19 +7744,23 @@
         <v>-0.56499999999999995</v>
       </c>
       <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E30">
         <v>-9.7970000000000006</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>3.9609999999999999</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.3E-2</v>
       </c>
@@ -6566,19 +7771,23 @@
         <v>-0.56499999999999995</v>
       </c>
       <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E31">
         <v>-9.7970000000000006</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3.9609999999999999</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.9810000000000001</v>
       </c>
@@ -6589,19 +7798,23 @@
         <v>-0.56200000000000006</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E32">
         <v>-5.4729999999999999</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>4.4160000000000004</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.74</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1.9810000000000001</v>
       </c>
@@ -6612,19 +7825,23 @@
         <v>-0.56200000000000006</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E33">
         <v>-5.4729999999999999</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>4.4160000000000004</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.74</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.9810000000000001</v>
       </c>
@@ -6635,19 +7852,23 @@
         <v>-0.56200000000000006</v>
       </c>
       <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E34">
         <v>-5.4729999999999999</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>4.4160000000000004</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.74</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.9930000000000001</v>
       </c>
@@ -6658,19 +7879,23 @@
         <v>-0.51700000000000002</v>
       </c>
       <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E35">
         <v>-6.89</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-0.23899999999999999</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2.3660000000000001</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.875</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.9930000000000001</v>
       </c>
@@ -6681,19 +7906,23 @@
         <v>-0.51700000000000002</v>
       </c>
       <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E36">
         <v>-6.89</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-0.23899999999999999</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>2.3660000000000001</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.875</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4.01</v>
       </c>
@@ -6704,19 +7933,23 @@
         <v>-0.621</v>
       </c>
       <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.621</v>
+      </c>
+      <c r="E37">
         <v>-5.2709999999999999</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-0.186</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>3.2709999999999999</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.69</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4.01</v>
       </c>
@@ -6727,19 +7960,23 @@
         <v>-0.621</v>
       </c>
       <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.621</v>
+      </c>
+      <c r="E38">
         <v>-5.2709999999999999</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-0.186</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>3.2709999999999999</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.69</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4.01</v>
       </c>
@@ -6750,19 +7987,23 @@
         <v>-0.621</v>
       </c>
       <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.621</v>
+      </c>
+      <c r="E39">
         <v>-5.2709999999999999</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-0.186</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>3.2709999999999999</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.69</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.0229999999999997</v>
       </c>
@@ -6773,19 +8014,23 @@
         <v>-0.66200000000000003</v>
       </c>
       <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E40">
         <v>-6.4980000000000002</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>3.7210000000000001</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4.0229999999999997</v>
       </c>
@@ -6796,19 +8041,23 @@
         <v>-0.66200000000000003</v>
       </c>
       <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E41">
         <v>-6.4980000000000002</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>3.7210000000000001</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.9580000000000002</v>
       </c>
@@ -6819,19 +8068,23 @@
         <v>-0.68799999999999994</v>
       </c>
       <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E42">
         <v>-9.2230000000000008</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>-0.27800000000000002</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>1.64</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.9580000000000002</v>
       </c>
@@ -6842,19 +8095,23 @@
         <v>-0.68799999999999994</v>
       </c>
       <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E43">
         <v>-9.2230000000000008</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>-0.27800000000000002</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1.64</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.992</v>
       </c>
@@ -6865,19 +8122,23 @@
         <v>-0.78200000000000003</v>
       </c>
       <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="E44">
         <v>-12.205</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>-0.184</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>3.2759999999999998</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.992</v>
       </c>
@@ -6888,19 +8149,23 @@
         <v>-0.78200000000000003</v>
       </c>
       <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="E45">
         <v>-12.205</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>-0.184</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>3.2759999999999998</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.992</v>
       </c>
@@ -6911,19 +8176,23 @@
         <v>-0.78200000000000003</v>
       </c>
       <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="E46">
         <v>-12.205</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>-0.184</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>3.2759999999999998</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7.9649999999999999</v>
       </c>
@@ -6934,19 +8203,23 @@
         <v>-0.90700000000000003</v>
       </c>
       <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="E47">
         <v>-8.3490000000000002</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>2.69</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7.9649999999999999</v>
       </c>
@@ -6957,19 +8230,23 @@
         <v>-0.90700000000000003</v>
       </c>
       <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="E48">
         <v>-8.3490000000000002</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>2.69</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7.9729999999999999</v>
       </c>
@@ -6980,19 +8257,23 @@
         <v>-0.92800000000000005</v>
       </c>
       <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E49">
         <v>-8.7249999999999996</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>-0.255</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>2.6389999999999998</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7.9729999999999999</v>
       </c>
@@ -7003,19 +8284,23 @@
         <v>-0.92800000000000005</v>
       </c>
       <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E50">
         <v>-8.7249999999999996</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>-0.255</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>2.6389999999999998</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7.9729999999999999</v>
       </c>
@@ -7026,19 +8311,23 @@
         <v>-0.92800000000000005</v>
       </c>
       <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E51">
         <v>-8.7249999999999996</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>-0.255</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>2.6389999999999998</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9.9719999999999995</v>
       </c>
@@ -7049,19 +8338,23 @@
         <v>-0.86199999999999999</v>
       </c>
       <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="E52">
         <v>-13.055999999999999</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>3.944</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9.9719999999999995</v>
       </c>
@@ -7072,19 +8365,23 @@
         <v>-0.86199999999999999</v>
       </c>
       <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="E53">
         <v>-13.055999999999999</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>3.944</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9.9719999999999995</v>
       </c>
@@ -7095,19 +8392,23 @@
         <v>-0.86199999999999999</v>
       </c>
       <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="E54">
         <v>-13.055999999999999</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>3.944</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9.9939999999999998</v>
       </c>
@@ -7118,19 +8419,23 @@
         <v>-0.82599999999999996</v>
       </c>
       <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E55">
         <v>-13.273</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>-0.29499999999999998</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>1.6419999999999999</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11.99</v>
       </c>
@@ -7141,19 +8446,23 @@
         <v>-1.2170000000000001</v>
       </c>
       <c r="D56">
+        <f t="shared" si="0"/>
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="E56">
         <v>-18.081</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>-0.187</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>2.9060000000000001</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11.99</v>
       </c>
@@ -7164,19 +8473,23 @@
         <v>-1.2170000000000001</v>
       </c>
       <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="E57">
         <v>-18.081</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>-0.187</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>2.9060000000000001</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11.99</v>
       </c>
@@ -7187,19 +8500,23 @@
         <v>-1.2170000000000001</v>
       </c>
       <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="E58">
         <v>-18.081</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>-0.187</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>2.9060000000000001</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12.02</v>
       </c>
@@ -7210,19 +8527,23 @@
         <v>-1.022</v>
       </c>
       <c r="D59">
+        <f t="shared" si="0"/>
+        <v>1.022</v>
+      </c>
+      <c r="E59">
         <v>-17.446999999999999</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>-0.313</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>2.7229999999999999</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12.02</v>
       </c>
@@ -7233,19 +8554,23 @@
         <v>-1.022</v>
       </c>
       <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1.022</v>
+      </c>
+      <c r="E60">
         <v>-17.446999999999999</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>-0.313</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>2.7229999999999999</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14</v>
       </c>
@@ -7256,19 +8581,23 @@
         <v>-1.262</v>
       </c>
       <c r="D61">
+        <f t="shared" si="0"/>
+        <v>1.262</v>
+      </c>
+      <c r="E61">
         <v>-20.454000000000001</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>-0.183</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>2.6080000000000001</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14</v>
       </c>
@@ -7279,19 +8608,23 @@
         <v>-1.262</v>
       </c>
       <c r="D62">
+        <f t="shared" si="0"/>
+        <v>1.262</v>
+      </c>
+      <c r="E62">
         <v>-20.454000000000001</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>-0.183</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>2.6080000000000001</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>14</v>
       </c>
@@ -7302,19 +8635,23 @@
         <v>-1.262</v>
       </c>
       <c r="D63">
+        <f t="shared" si="0"/>
+        <v>1.262</v>
+      </c>
+      <c r="E63">
         <v>-20.454000000000001</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>-0.183</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>2.6080000000000001</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>14.007</v>
       </c>
@@ -7325,19 +8662,23 @@
         <v>-1.1220000000000001</v>
       </c>
       <c r="D64">
+        <f t="shared" si="0"/>
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="E64">
         <v>-19.524999999999999</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>-0.33800000000000002</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>1.042</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>0.498</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14.007</v>
       </c>
@@ -7348,19 +8689,23 @@
         <v>-1.1220000000000001</v>
       </c>
       <c r="D65">
+        <f t="shared" si="0"/>
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="E65">
         <v>-19.524999999999999</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>-0.33800000000000002</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>1.042</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>0.498</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15.964</v>
       </c>
@@ -7371,19 +8716,23 @@
         <v>-1.3720000000000001</v>
       </c>
       <c r="D66">
+        <f t="shared" si="0"/>
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="E66">
         <v>-19.475999999999999</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>-0.27300000000000002</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>1.9259999999999999</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>15.964</v>
       </c>
@@ -7394,19 +8743,23 @@
         <v>-1.3720000000000001</v>
       </c>
       <c r="D67">
+        <f t="shared" ref="D67:D75" si="1">-C67</f>
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="E67">
         <v>-19.475999999999999</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>-0.27300000000000002</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>1.9259999999999999</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15.964</v>
       </c>
@@ -7417,19 +8770,23 @@
         <v>-1.3720000000000001</v>
       </c>
       <c r="D68">
+        <f t="shared" si="1"/>
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="E68">
         <v>-19.475999999999999</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>-0.27300000000000002</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>1.9259999999999999</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>15.959</v>
       </c>
@@ -7440,19 +8797,23 @@
         <v>-1.367</v>
       </c>
       <c r="D69">
+        <f t="shared" si="1"/>
+        <v>1.367</v>
+      </c>
+      <c r="E69">
         <v>-18.544</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>-0.114</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>3.1589999999999998</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>15.959</v>
       </c>
@@ -7463,19 +8824,23 @@
         <v>-1.367</v>
       </c>
       <c r="D70">
+        <f t="shared" si="1"/>
+        <v>1.367</v>
+      </c>
+      <c r="E70">
         <v>-18.544</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>-0.114</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>3.1589999999999998</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-4.4999999999999998E-2</v>
       </c>
@@ -7486,19 +8851,23 @@
         <v>-0.22700000000000001</v>
       </c>
       <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E71">
         <v>-0.36599999999999999</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>-0.17799999999999999</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>3.66</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-4.4999999999999998E-2</v>
       </c>
@@ -7509,19 +8878,23 @@
         <v>-0.22700000000000001</v>
       </c>
       <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E72">
         <v>-0.36599999999999999</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>-0.17799999999999999</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>3.66</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-4.4999999999999998E-2</v>
       </c>
@@ -7532,19 +8905,23 @@
         <v>-0.22700000000000001</v>
       </c>
       <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E73">
         <v>-0.36599999999999999</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>-0.17799999999999999</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>3.66</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-5.6000000000000001E-2</v>
       </c>
@@ -7555,19 +8932,23 @@
         <v>-0.36299999999999999</v>
       </c>
       <c r="D74">
+        <f t="shared" si="1"/>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E74">
         <v>-4.0220000000000002</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>3.7570000000000001</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-5.6000000000000001E-2</v>
       </c>
@@ -7578,19 +8959,309 @@
         <v>-0.36299999999999999</v>
       </c>
       <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E75">
         <v>-4.0220000000000002</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>3.7570000000000001</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>0.76400000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.5790000000000002</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Ct/Rc_</f>
+        <v>0.49980612640558347</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <f>(Rc_/28)*30</f>
+        <v>2.7632142857142856</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5">
+        <f>0.5*(Cchord+Ct)*bspan</f>
+        <v>121.56642857142856</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <f>bspan^2/wing_area</f>
+        <v>29.613438860587689</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3">
+        <f>Ttc/Trc</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <f>(Ttc+Trc)*2.75</f>
+        <v>7.5625</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <f>(2*Rc_)/3*((1+lamda_w+lamda_w^2)/(1+lamda_w))</f>
+        <v>2.0057037228541885</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <f>(2*Trc)/3*((1+lamda_t+lamda_t^2)/(1+lamda_t))</f>
+        <v>1.4090909090909089</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1">
+        <f>0.25*wmac</f>
+        <v>0.50142593071354713</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
+++ b/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
@@ -15,26 +15,39 @@
   </sheets>
   <definedNames>
     <definedName name="bspan">'Airplane Characteristics'!$C$5</definedName>
-    <definedName name="Cchord">'Airplane Characteristics'!$C$7</definedName>
-    <definedName name="CGw">'Airplane Characteristics'!$C$16</definedName>
+    <definedName name="Bval">'Airplane Characteristics'!$G$5</definedName>
+    <definedName name="Cchord">'Airplane Characteristics'!$C$8</definedName>
+    <definedName name="CGw">'Airplane Characteristics'!$C$22</definedName>
     <definedName name="Ct">'Airplane Characteristics'!$C$3</definedName>
-    <definedName name="lamda_t">'Airplane Characteristics'!$C$12</definedName>
+    <definedName name="flength">'Airplane Characteristics'!$C$34</definedName>
+    <definedName name="h_vt">'Airplane Characteristics'!$C$30</definedName>
+    <definedName name="l_vt">'Airplane Characteristics'!$C$31</definedName>
+    <definedName name="lamda_t">'Airplane Characteristics'!$C$16</definedName>
+    <definedName name="lamda_vt">'Airplane Characteristics'!$C$28</definedName>
     <definedName name="lamda_w">'Airplane Characteristics'!$C$6</definedName>
-    <definedName name="lbar">'Airplane Characteristics'!$C$17</definedName>
+    <definedName name="lbar">'Airplane Characteristics'!$C$23</definedName>
     <definedName name="NoModel65mph" localSheetId="3">'No Model 65 MPH'!$A$1:$M$75</definedName>
     <definedName name="nowind" localSheetId="0">'No wind'!$A$1:$H$70</definedName>
     <definedName name="Rc_">'Airplane Characteristics'!$C$4</definedName>
+    <definedName name="t_tail">'Airplane Characteristics'!$C$17</definedName>
+    <definedName name="t_wing">'Airplane Characteristics'!$C$7</definedName>
     <definedName name="tailoff65mph" localSheetId="2">'Tail OFf 65 MPH'!$A$1:$H$76</definedName>
     <definedName name="tailon65mph" localSheetId="1">'Tail On 65 MPH'!$A$1:$H$85</definedName>
-    <definedName name="tamc">'Airplane Characteristics'!$C$15</definedName>
-    <definedName name="tmac">'Airplane Characteristics'!$C$15</definedName>
-    <definedName name="Trc">'Airplane Characteristics'!$C$10</definedName>
-    <definedName name="Ttc">'Airplane Characteristics'!$C$11</definedName>
+    <definedName name="tamc">'Airplane Characteristics'!$C$21</definedName>
+    <definedName name="tau1_">'Airplane Characteristics'!$G$6</definedName>
+    <definedName name="tmac">'Airplane Characteristics'!$C$21</definedName>
+    <definedName name="Trc">'Airplane Characteristics'!$C$14</definedName>
+    <definedName name="Ttc">'Airplane Characteristics'!$C$15</definedName>
     <definedName name="TunHeight">'Airplane Characteristics'!$G$3</definedName>
     <definedName name="TunLen">'Airplane Characteristics'!$G$4</definedName>
     <definedName name="TunWidth">'Airplane Characteristics'!$G$2</definedName>
-    <definedName name="wing_area">'Airplane Characteristics'!$C$8</definedName>
-    <definedName name="wmac">'Airplane Characteristics'!$C$14</definedName>
+    <definedName name="vol_tail">'Airplane Characteristics'!$C$19</definedName>
+    <definedName name="vol_wing">'Airplane Characteristics'!$C$10</definedName>
+    <definedName name="vtMAC">'Airplane Characteristics'!$C$29</definedName>
+    <definedName name="vtRc">'Airplane Characteristics'!$C$26</definedName>
+    <definedName name="vtTc">'Airplane Characteristics'!$C$27</definedName>
+    <definedName name="wing_area">'Airplane Characteristics'!$C$9</definedName>
+    <definedName name="wmac">'Airplane Characteristics'!$C$20</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -80,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>Alpha (deg)</t>
   </si>
@@ -178,9 +191,6 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Airplane Characteristics</t>
-  </si>
-  <si>
     <t>Tail MAC (in)</t>
   </si>
   <si>
@@ -231,13 +241,92 @@
   <si>
     <t>TunLen</t>
   </si>
+  <si>
+    <t xml:space="preserve">B Value </t>
+  </si>
+  <si>
+    <t>Bval</t>
+  </si>
+  <si>
+    <t>tau1</t>
+  </si>
+  <si>
+    <t>Correction Factors</t>
+  </si>
+  <si>
+    <t>Fuselage Characteristics</t>
+  </si>
+  <si>
+    <t>flength</t>
+  </si>
+  <si>
+    <t>Tail Thickness</t>
+  </si>
+  <si>
+    <t>t_tail</t>
+  </si>
+  <si>
+    <t>Tail Volume (in^3)</t>
+  </si>
+  <si>
+    <t>vol_tail</t>
+  </si>
+  <si>
+    <t>Wing Thickness (in)</t>
+  </si>
+  <si>
+    <t>t_wing</t>
+  </si>
+  <si>
+    <t>Wing Volume (in^3)</t>
+  </si>
+  <si>
+    <t>vol_wing</t>
+  </si>
+  <si>
+    <t>Horizontal Tail Characteristics</t>
+  </si>
+  <si>
+    <t>Wing Characteristics</t>
+  </si>
+  <si>
+    <t>Vertical Tail Characteristics</t>
+  </si>
+  <si>
+    <t>vtRc</t>
+  </si>
+  <si>
+    <t>Tip Chord</t>
+  </si>
+  <si>
+    <t>vtTc</t>
+  </si>
+  <si>
+    <t>MAC (in)</t>
+  </si>
+  <si>
+    <t>vtMAC</t>
+  </si>
+  <si>
+    <t>lamda_vt</t>
+  </si>
+  <si>
+    <t>h_vt</t>
+  </si>
+  <si>
+    <t>l_vt</t>
+  </si>
+  <si>
+    <t>Extrapolated Length (in)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -270,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -293,11 +382,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -307,7 +405,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8982,15 +9088,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
@@ -8998,12 +9104,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="E1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -9019,10 +9125,10 @@
         <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3">
         <v>40</v>
@@ -9039,10 +9145,10 @@
         <v>1.2889999999999999</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="G3" s="3">
         <v>28</v>
@@ -9059,10 +9165,10 @@
         <v>2.5790000000000002</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G4" s="3">
         <v>54</v>
@@ -9076,11 +9182,19 @@
         <v>23</v>
       </c>
       <c r="C5" s="3">
-        <v>60</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+        <f>24+3/8</f>
+        <v>24.375</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="7">
+        <f>TunWidth/TunHeight</f>
+        <v>1.4285714285714286</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -9093,174 +9207,371 @@
         <f>Ct/Rc_</f>
         <v>0.49980612640558347</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.85499999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f>(Rc_/28)*30</f>
         <v>2.7632142857142856</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5">
-        <f>0.5*(Cchord+Ct)*bspan</f>
-        <v>121.56642857142856</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5">
+        <f>0.5*(Cchord+Ct)*bspan</f>
+        <v>49.386361607142852</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4">
+        <f>wing_area*t_wing</f>
+        <v>17.285226562499997</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C11" s="4">
         <f>bspan^2/wing_area</f>
-        <v>29.613438860587689</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+        <v>12.030459537113748</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C14" s="3">
         <v>1.75</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="C16" s="3">
         <f>Ttc/Trc</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C18" s="1">
         <f>(Ttc+Trc)*2.75</f>
         <v>7.5625</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C18*t_tail</f>
+        <v>1.285625</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="C20" s="1">
         <f>(2*Rc_)/3*((1+lamda_w+lamda_w^2)/(1+lamda_w))</f>
         <v>2.0057037228541885</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1">
         <f>(2*Trc)/3*((1+lamda_t+lamda_t^2)/(1+lamda_t))</f>
         <v>1.4090909090909089</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="C22" s="1">
         <f>0.25*wmac</f>
         <v>0.50142593071354713</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="7">
+        <f>vtTc/vtRc</f>
+        <v>0.66101694915254228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="7">
+        <f>(2*vtRc)/3*((1+lamda_vt+lamda_vt^2)/(1+lamda_vt))</f>
+        <v>2.4840136054421769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
+++ b/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
@@ -19,8 +19,15 @@
     <definedName name="Cchord">'Airplane Characteristics'!$C$8</definedName>
     <definedName name="CGw">'Airplane Characteristics'!$C$22</definedName>
     <definedName name="Ct">'Airplane Characteristics'!$C$3</definedName>
+    <definedName name="eps_sbF">'Airplane Characteristics'!$G$15</definedName>
+    <definedName name="eps_strut">'Airplane Characteristics'!$G$17</definedName>
+    <definedName name="eps_tot">'Airplane Characteristics'!$G$16</definedName>
+    <definedName name="fdiam">'Airplane Characteristics'!$C$35</definedName>
     <definedName name="flength">'Airplane Characteristics'!$C$34</definedName>
+    <definedName name="fvol">'Airplane Characteristics'!$C$36</definedName>
     <definedName name="h_vt">'Airplane Characteristics'!$C$30</definedName>
+    <definedName name="K1_">'Airplane Characteristics'!$G$10</definedName>
+    <definedName name="K3_">'Airplane Characteristics'!$G$11</definedName>
     <definedName name="l_vt">'Airplane Characteristics'!$C$31</definedName>
     <definedName name="lamda_t">'Airplane Characteristics'!$C$16</definedName>
     <definedName name="lamda_vt">'Airplane Characteristics'!$C$28</definedName>
@@ -29,14 +36,18 @@
     <definedName name="NoModel65mph" localSheetId="3">'No Model 65 MPH'!$A$1:$M$75</definedName>
     <definedName name="nowind" localSheetId="0">'No wind'!$A$1:$H$70</definedName>
     <definedName name="Rc_">'Airplane Characteristics'!$C$4</definedName>
+    <definedName name="strut_area">'Airplane Characteristics'!$G$30</definedName>
     <definedName name="t_tail">'Airplane Characteristics'!$C$17</definedName>
     <definedName name="t_wing">'Airplane Characteristics'!$C$7</definedName>
     <definedName name="tailoff65mph" localSheetId="2">'Tail OFf 65 MPH'!$A$1:$H$76</definedName>
     <definedName name="tailon65mph" localSheetId="1">'Tail On 65 MPH'!$A$1:$H$85</definedName>
     <definedName name="tamc">'Airplane Characteristics'!$C$21</definedName>
+    <definedName name="tau_wing">'Airplane Characteristics'!$G$13</definedName>
     <definedName name="tau1_">'Airplane Characteristics'!$G$6</definedName>
     <definedName name="tmac">'Airplane Characteristics'!$C$21</definedName>
     <definedName name="Trc">'Airplane Characteristics'!$C$14</definedName>
+    <definedName name="tstrut_h">'Airplane Characteristics'!$G$29</definedName>
+    <definedName name="tstrut_t">'Airplane Characteristics'!$G$28</definedName>
     <definedName name="Ttc">'Airplane Characteristics'!$C$15</definedName>
     <definedName name="TunHeight">'Airplane Characteristics'!$G$3</definedName>
     <definedName name="TunLen">'Airplane Characteristics'!$G$4</definedName>
@@ -46,8 +57,11 @@
     <definedName name="vtMAC">'Airplane Characteristics'!$C$29</definedName>
     <definedName name="vtRc">'Airplane Characteristics'!$C$26</definedName>
     <definedName name="vtTc">'Airplane Characteristics'!$C$27</definedName>
+    <definedName name="width_ratio">'Airplane Characteristics'!$G$14</definedName>
     <definedName name="wing_area">'Airplane Characteristics'!$C$9</definedName>
     <definedName name="wmac">'Airplane Characteristics'!$C$20</definedName>
+    <definedName name="wstrut_h">'Airplane Characteristics'!$G$27</definedName>
+    <definedName name="wstrut_t">'Airplane Characteristics'!$G$26</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -93,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
   <si>
     <t>Alpha (deg)</t>
   </si>
@@ -318,6 +332,90 @@
   </si>
   <si>
     <t>Extrapolated Length (in)</t>
+  </si>
+  <si>
+    <t>Diameter (in)</t>
+  </si>
+  <si>
+    <t>fdiam</t>
+  </si>
+  <si>
+    <t>Volume (in^3)</t>
+  </si>
+  <si>
+    <t>fvol</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>Epsilon Solid Blockage Wing</t>
+  </si>
+  <si>
+    <t>eps_sbW</t>
+  </si>
+  <si>
+    <t>tau_wing</t>
+  </si>
+  <si>
+    <t>Model span/tunnel span</t>
+  </si>
+  <si>
+    <t>width_ratio</t>
+  </si>
+  <si>
+    <t>Epsilon Solid Blockage Fuse</t>
+  </si>
+  <si>
+    <t>eps_sbF</t>
+  </si>
+  <si>
+    <t>eps_tot</t>
+  </si>
+  <si>
+    <t>Epsilon Total Plane</t>
+  </si>
+  <si>
+    <t>Strut Characteristics</t>
+  </si>
+  <si>
+    <t>wstrut_t</t>
+  </si>
+  <si>
+    <t>wstrut_h</t>
+  </si>
+  <si>
+    <t>tstrut_t</t>
+  </si>
+  <si>
+    <t>tstrut_h</t>
+  </si>
+  <si>
+    <t>Wing Strut Thickness (in)</t>
+  </si>
+  <si>
+    <t>Wing Strut Height (in)</t>
+  </si>
+  <si>
+    <t>Tail Strut Thickness (in)</t>
+  </si>
+  <si>
+    <t>Tail Strut Height (in)</t>
+  </si>
+  <si>
+    <t>Frontal Area (in^2)</t>
+  </si>
+  <si>
+    <t>strut_area</t>
+  </si>
+  <si>
+    <t>Epsilon Struts</t>
+  </si>
+  <si>
+    <t>eps_strut</t>
   </si>
 </sst>
 </file>
@@ -395,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -408,9 +506,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9091,15 +9186,15 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -9274,9 +9369,15 @@
         <f>wing_area*t_wing</f>
         <v>17.285226562499997</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -9289,14 +9390,27 @@
         <f>bspan^2/wing_area</f>
         <v>12.030459537113748</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="3">
+        <f>(K1_*tau_wing*vol_wing)/(TunWidth*TunHeight)^(3/2)</f>
+        <v>4.1245809622273853E-4</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -9304,9 +9418,15 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -9318,9 +9438,16 @@
       <c r="C14" s="3">
         <v>1.75</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1">
+        <f>bspan/TunWidth</f>
+        <v>0.609375</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -9332,9 +9459,16 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="3">
+        <f>(K3_*tau1_*fvol)/(TunWidth*TunHeight)^(3/2)</f>
+        <v>4.5822183527197455E-4</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -9347,9 +9481,16 @@
         <f>Ttc/Trc</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="3">
+        <f>G12+eps_sbF</f>
+        <v>8.7067993149471303E-4</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -9361,9 +9502,16 @@
       <c r="C17" s="3">
         <v>0.17</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="3">
+        <f>0.25*strut_area/(TunWidth*TunHeight)</f>
+        <v>2.4674107142857141E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -9391,9 +9539,6 @@
         <f>C18*t_tail</f>
         <v>1.285625</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -9452,6 +9597,11 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -9463,6 +9613,15 @@
       <c r="C26" s="3">
         <v>2.95</v>
       </c>
+      <c r="E26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -9474,6 +9633,15 @@
       <c r="C27" s="3">
         <v>1.95</v>
       </c>
+      <c r="E27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="3">
+        <v>12.375</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -9486,6 +9654,15 @@
         <f>vtTc/vtRc</f>
         <v>0.66101694915254228</v>
       </c>
+      <c r="E28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.13600000000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -9498,6 +9675,15 @@
         <f>(2*vtRc)/3*((1+lamda_vt+lamda_vt^2)/(1+lamda_vt))</f>
         <v>2.4840136054421769</v>
       </c>
+      <c r="E29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="3">
+        <v>12.125</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -9509,6 +9695,16 @@
       <c r="C30" s="3">
         <v>2.15</v>
       </c>
+      <c r="E30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="3">
+        <f>2*(wstrut_t*wstrut_h)+(tstrut_t*tstrut_h)</f>
+        <v>11.053999999999998</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -9520,20 +9716,29 @@
       <c r="C31" s="3">
         <v>0.3</v>
       </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
@@ -9543,30 +9748,47 @@
       <c r="C34" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="1">
+        <f>0.45*flength*fdiam^2</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A33:C33"/>
+    <mergeCell ref="E25:G25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E9:G9"/>

--- a/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
+++ b/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
@@ -4,24 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="No wind" sheetId="1" r:id="rId1"/>
-    <sheet name="Tail On 65 MPH" sheetId="2" r:id="rId2"/>
-    <sheet name="Tail OFf 65 MPH" sheetId="3" r:id="rId3"/>
-    <sheet name="No Model 65 MPH" sheetId="4" r:id="rId4"/>
-    <sheet name="Airplane Characteristics" sheetId="5" r:id="rId5"/>
+    <sheet name="Cd vs Cl^2 with Tail" sheetId="6" r:id="rId2"/>
+    <sheet name="Cd vs Cl^2 No Tail" sheetId="7" r:id="rId3"/>
+    <sheet name="Tail On 65 MPH" sheetId="2" r:id="rId4"/>
+    <sheet name="Tail OFf 65 MPH" sheetId="3" r:id="rId5"/>
+    <sheet name="No Model 65 MPH" sheetId="4" r:id="rId6"/>
+    <sheet name="Airplane Characteristics" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="bspan">'Airplane Characteristics'!$C$5</definedName>
     <definedName name="Bval">'Airplane Characteristics'!$G$5</definedName>
     <definedName name="Cchord">'Airplane Characteristics'!$C$8</definedName>
+    <definedName name="CDO_t">'Airplane Characteristics'!$G$18</definedName>
+    <definedName name="CDO_wot">'Airplane Characteristics'!$G$19</definedName>
     <definedName name="CGw">'Airplane Characteristics'!$C$22</definedName>
     <definedName name="Ct">'Airplane Characteristics'!$C$3</definedName>
     <definedName name="eps_sbF">'Airplane Characteristics'!$G$15</definedName>
     <definedName name="eps_strut">'Airplane Characteristics'!$G$17</definedName>
     <definedName name="eps_tot">'Airplane Characteristics'!$G$16</definedName>
+    <definedName name="eps_tot_nt">'Airplane Characteristics'!$G$23</definedName>
+    <definedName name="eps_tot_t">'Airplane Characteristics'!$G$22</definedName>
+    <definedName name="eps_wb_nt">'Airplane Characteristics'!$G$21</definedName>
+    <definedName name="eps_wb_t">'Airplane Characteristics'!$G$20</definedName>
     <definedName name="fdiam">'Airplane Characteristics'!$C$35</definedName>
     <definedName name="flength">'Airplane Characteristics'!$C$34</definedName>
     <definedName name="fvol">'Airplane Characteristics'!$C$36</definedName>
@@ -33,14 +41,14 @@
     <definedName name="lamda_vt">'Airplane Characteristics'!$C$28</definedName>
     <definedName name="lamda_w">'Airplane Characteristics'!$C$6</definedName>
     <definedName name="lbar">'Airplane Characteristics'!$C$23</definedName>
-    <definedName name="NoModel65mph" localSheetId="3">'No Model 65 MPH'!$A$1:$M$75</definedName>
+    <definedName name="NoModel65mph" localSheetId="5">'No Model 65 MPH'!$A$1:$M$75</definedName>
     <definedName name="nowind" localSheetId="0">'No wind'!$A$1:$H$70</definedName>
     <definedName name="Rc_">'Airplane Characteristics'!$C$4</definedName>
     <definedName name="strut_area">'Airplane Characteristics'!$G$30</definedName>
     <definedName name="t_tail">'Airplane Characteristics'!$C$17</definedName>
     <definedName name="t_wing">'Airplane Characteristics'!$C$7</definedName>
-    <definedName name="tailoff65mph" localSheetId="2">'Tail OFf 65 MPH'!$A$1:$H$76</definedName>
-    <definedName name="tailon65mph" localSheetId="1">'Tail On 65 MPH'!$A$1:$H$85</definedName>
+    <definedName name="tailoff65mph" localSheetId="4">'Tail OFf 65 MPH'!$A$1:$H$76</definedName>
+    <definedName name="tailon65mph" localSheetId="3">'Tail On 65 MPH'!$A$1:$H$85</definedName>
     <definedName name="tamc">'Airplane Characteristics'!$C$21</definedName>
     <definedName name="tau_wing">'Airplane Characteristics'!$G$13</definedName>
     <definedName name="tau1_">'Airplane Characteristics'!$G$6</definedName>
@@ -107,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
   <si>
     <t>Alpha (deg)</t>
   </si>
@@ -417,6 +425,51 @@
   <si>
     <t>eps_strut</t>
   </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CL^2</t>
+  </si>
+  <si>
+    <t>CD0 with Tail</t>
+  </si>
+  <si>
+    <t>CDO_t</t>
+  </si>
+  <si>
+    <t>CD0 w/o Tail</t>
+  </si>
+  <si>
+    <t>CDO_wot</t>
+  </si>
+  <si>
+    <t>eps_wb_t</t>
+  </si>
+  <si>
+    <t>Epsilon Wake Blockage Tail</t>
+  </si>
+  <si>
+    <t>Epsilon Wake Blockage no Tail</t>
+  </si>
+  <si>
+    <t>eps_wb_nt</t>
+  </si>
+  <si>
+    <t>Epsilon Total with Tail</t>
+  </si>
+  <si>
+    <t>eps_tot_t</t>
+  </si>
+  <si>
+    <t>Epsilon Total without Tail</t>
+  </si>
+  <si>
+    <t>eps_tot_nt</t>
+  </si>
 </sst>
 </file>
 
@@ -457,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -481,6 +534,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -493,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -503,12 +567,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,6 +587,1363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.6753465627876489E-2"/>
+                  <c:y val="3.2457533686668136E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13243006927509285"/>
+                  <c:y val="1.8108077765838334E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$K$2:$K$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>1.2584357375224169E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2584357375224169E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2584357375224169E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2584357375224169E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2527876101835618E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3002435012007012E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3002435012007012E-8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3002435012007012E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3002435012007012E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4170701929633841E-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0543213097676161E-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1263868536527303E-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1263868536527303E-8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1263868536527303E-8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1263868536527303E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8402406736801484E-10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8402406736801484E-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8402406736801484E-10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8402406736801484E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8402406736801484E-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8159671341318259E-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8159671341318259E-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8159671341318259E-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8159671341318259E-9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8159671341318259E-9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9241095335290972E-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8151714710040527E-9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8151714710040527E-9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8151714710040527E-9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8151714710040527E-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7069802039397532E-9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.7069802039397532E-9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.7950729941904794E-9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.7950729941904794E-9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7950729941904794E-9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.865782346723716E-9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.865782346723716E-9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.865782346723716E-9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.865782346723716E-9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.865782346723716E-9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6070527863160038E-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6070527863160038E-8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5181493784307306E-8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5181493784307306E-8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5181493784307306E-8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2018969615112213E-8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2018969615112213E-8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3755599979633578E-8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3755599979633578E-8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3755599979633578E-8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.9006944549743138E-8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5899509986650089E-8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.5899509986650089E-8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.5899509986650089E-8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5899509986650089E-8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.2451610590209183E-8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2451610590209183E-8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.2572792786668466E-8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.2572792786668466E-8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.2572792786668466E-8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.0122279891789308E-8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.0122279891789308E-8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.0122279891789308E-8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.8150266582653179E-8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.8150266582653179E-8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.6420895815066445E-8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.6420895815066445E-8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.2987478665526836E-8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.2987478665526836E-8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.2987478665526836E-8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.304555807343669E-8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.304555807343669E-8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.304555807343669E-8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.304555807343669E-8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.5019817239917768E-8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.5019817239917768E-8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.7916973214904878E-8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.7916973214904878E-8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.7916973214904878E-8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1228232802873681E-8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.1228232802873681E-8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2440268845348902E-8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2440268845348902E-8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2440268845348902E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$J$2:$J$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>2.5958781966149043E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5958781966149043E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5958781966149043E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5958781966149043E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4278601903615122E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4978676929670925E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4978676929670925E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4978676929670925E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4978676929670925E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4950673928628693E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2766439847334595E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6462835984909216E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6462835984909216E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6462835984909216E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6462835984909216E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9854127738942471E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9854127738942471E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9854127738942471E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9854127738942471E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9854127738942471E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3410508871305931E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3410508871305931E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3410508871305931E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3410508871305931E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3410508871305931E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2346394831701119E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1198271788969605E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1198271788969605E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1198271788969605E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1198271788969605E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9238061716013371E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9238061716013371E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3270493866094771E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3270493866094771E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3270493866094771E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6462835984909216E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6462835984909216E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6462835984909216E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6462835984909216E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6462835984909216E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7890989038063049E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.7890989038063049E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0411259131863927E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0411259131863927E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0411259131863927E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.2623496214200252E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.2623496214200252E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5619817325719073E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5619817325719073E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5619817325719073E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.3516663619628489E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.186448655813681E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.186448655813681E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.186448655813681E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.186448655813681E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.7801122779089987E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7801122779089987E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.5308855686331342E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.5308855686331342E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.5308855686331342E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.2113584939593704E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.2113584939593704E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.2113584939593704E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.1021467898946664E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.1021467898946664E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.56139600698727E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.56139600698727E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.7854200153251258E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.7854200153251258E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.7854200153251258E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.8243313539919319E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.8243313539919319E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.972747259515762E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.972747259515762E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.8719364557637269E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.8719364557637269E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.2079724682705106E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.2079724682705106E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.2079724682705106E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.1111334157919726E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.1111334157919726E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.144737017042651E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.144737017042651E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.144737017042651E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="177796224"/>
+        <c:axId val="42635648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="177796224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Cl^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42635648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42635648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Cd</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177796224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9013456740099376E-2"/>
+                  <c:y val="-6.3752070060584158E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$K$2:$K$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>1.1275759661100918E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1275759661100918E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.03215212232782E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03215212232782E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.03215212232782E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9864673624145251E-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9864673624145251E-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6470455698990487E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6470455698990487E-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6470455698990487E-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5457646410912763E-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5457646410912763E-9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5457646410912763E-9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1141961768773769E-9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1141961768773769E-9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9482531504250854E-9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9482531504250854E-9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9482531504250854E-9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5110780182597858E-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5110780182597858E-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6085050284770384E-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6085050284770384E-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.6085050284770384E-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9730765255189415E-9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9730765255189415E-9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.7548382485520328E-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.7548382485520328E-9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.7548382485520328E-9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.7548382485520328E-9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0916641773038979E-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3066376076220462E-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1617293868659589E-8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1617293868659589E-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1617293868659589E-8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1617293868659589E-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8369607479011841E-8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8369607479011841E-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8369607479011841E-8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9998246138135176E-8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9998246138135176E-8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6434020113908154E-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.6434020113908154E-8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.6434020113908154E-8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.409344546060333E-8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.409344546060333E-8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.9697790343752666E-8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.9697790343752666E-8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.9697790343752666E-8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1440610146829791E-8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1440610146829791E-8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.6142714776703785E-8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.6142714776703785E-8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6142714776703785E-8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6142714776703785E-8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7475053963234767E-8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.6988756057094834E-8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.6988756057094834E-8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.6988756057094834E-8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.7757473661034664E-8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7757473661034664E-8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.9518777873795869E-8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.9518777873795869E-8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.9518777873795869E-8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.919656243074495E-8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.919656243074495E-8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.9452004394523068E-8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.9452004394523068E-8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.9452004394523068E-8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.9452004394523068E-8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.005499827160886E-8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1896633354290844E-8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.1896633354290844E-8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.1896633354290844E-8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1557007027640089E-8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1557007027640089E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$J$2:$J$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>2.3634532879643787E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3634532879643787E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3998571893192802E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3998571893192802E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3998571893192802E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5370718944262172E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5370718944262172E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5370718944262172E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5370718944262172E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5370718944262172E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6773797624296954E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6773797624296954E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6773797624296954E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8257956679535248E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8257956679535248E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8734007697253192E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8734007697253192E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8734007697253192E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8481980687873104E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8481980687873104E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9406079722266759E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9406079722266759E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9406079722266759E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9574097728520151E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9574097728520151E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0106154748322558E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0106154748322558E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0106154748322558E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0106154748322558E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9462085724351223E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2878451851503523E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1870343813983172E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1870343813983172E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1870343813983172E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1870343813983172E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7218917013049479E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7218917013049479E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7218917013049479E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7022896005753855E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7022896005753855E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9543166099554732E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.9543166099554732E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9543166099554732E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.7582956026598494E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.7582956026598494E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.4163661271523011E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.4163661271523011E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.4163661271523011E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.6067865342394785E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.6067865342394785E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.8280102424731111E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8280102424731111E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8280102424731111E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.8280102424731111E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.727199438721076E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.3236633609206169E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.3236633609206169E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.3236633609206169E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.3208630608163937E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.3208630608163937E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8165161792638996E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.8165161792638996E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8165161792638996E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.7969140785343379E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.7969140785343379E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.8834305189729384E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.8834305189729384E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.8834305189729384E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.8834305189729384E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.7574170142828945E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2738436846292367E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2738436846292367E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2738436846292367E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2458406835870047E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2458406835870047E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="54112256"/>
+        <c:axId val="54114176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54112256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Cl^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54114176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54114176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Cd</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54112256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674835" cy="6297521"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674835" cy="6297521"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2739,10 +4162,3346 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="B2">
+        <v>4.0060000000000002</v>
+      </c>
+      <c r="C2">
+        <v>-0.92700000000000005</v>
+      </c>
+      <c r="D2">
+        <f>-C2</f>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E2">
+        <v>-9.0210000000000008</v>
+      </c>
+      <c r="F2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.752</v>
+      </c>
+      <c r="H2">
+        <v>-0.02</v>
+      </c>
+      <c r="I2">
+        <f>B2/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.121800221751813E-4</v>
+      </c>
+      <c r="J2">
+        <f>D2/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.5958781966149043E-5</v>
+      </c>
+      <c r="K2">
+        <f>I2^2</f>
+        <v>1.2584357375224169E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="B3">
+        <v>4.0060000000000002</v>
+      </c>
+      <c r="C3">
+        <v>-0.92700000000000005</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">-C3</f>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E3">
+        <v>-9.0210000000000008</v>
+      </c>
+      <c r="F3">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.752</v>
+      </c>
+      <c r="H3">
+        <v>-0.02</v>
+      </c>
+      <c r="I3">
+        <f>B3/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.121800221751813E-4</v>
+      </c>
+      <c r="J3">
+        <f>D3/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.5958781966149043E-5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">I3^2</f>
+        <v>1.2584357375224169E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="B4">
+        <v>4.0060000000000002</v>
+      </c>
+      <c r="C4">
+        <v>-0.92700000000000005</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E4">
+        <v>-9.0210000000000008</v>
+      </c>
+      <c r="F4">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.752</v>
+      </c>
+      <c r="H4">
+        <v>-0.02</v>
+      </c>
+      <c r="I4">
+        <f>B4/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.121800221751813E-4</v>
+      </c>
+      <c r="J4">
+        <f>D4/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.5958781966149043E-5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1.2584357375224169E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="B5">
+        <v>4.0060000000000002</v>
+      </c>
+      <c r="C5">
+        <v>-0.92700000000000005</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E5">
+        <v>-9.0210000000000008</v>
+      </c>
+      <c r="F5">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.752</v>
+      </c>
+      <c r="H5">
+        <v>-0.02</v>
+      </c>
+      <c r="I5">
+        <f>B5/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.121800221751813E-4</v>
+      </c>
+      <c r="J5">
+        <f>D5/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.5958781966149043E-5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1.2584357375224169E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="B6">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="C6">
+        <v>-0.86699999999999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E6">
+        <v>-10.814</v>
+      </c>
+      <c r="F6">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G6">
+        <v>-1.2529999999999999</v>
+      </c>
+      <c r="H6">
+        <v>-0.04</v>
+      </c>
+      <c r="I6">
+        <f>B6/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.1192799516580121E-4</v>
+      </c>
+      <c r="J6">
+        <f>D6/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.4278601903615122E-5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>1.2527876101835618E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="B7">
+        <v>4.0720000000000001</v>
+      </c>
+      <c r="C7">
+        <v>-0.89200000000000002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E7">
+        <v>-11.063000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.17</v>
+      </c>
+      <c r="G7">
+        <v>-0.623</v>
+      </c>
+      <c r="H7">
+        <v>-0.06</v>
+      </c>
+      <c r="I7">
+        <f>B7/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.1402822024396861E-4</v>
+      </c>
+      <c r="J7">
+        <f>D7/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.4978676929670925E-5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1.3002435012007012E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="B8">
+        <v>4.0720000000000001</v>
+      </c>
+      <c r="C8">
+        <v>-0.89200000000000002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E8">
+        <v>-11.063000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.17</v>
+      </c>
+      <c r="G8">
+        <v>-0.623</v>
+      </c>
+      <c r="H8">
+        <v>-0.06</v>
+      </c>
+      <c r="I8">
+        <f>B8/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.1402822024396861E-4</v>
+      </c>
+      <c r="J8">
+        <f>D8/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.4978676929670925E-5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1.3002435012007012E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="B9">
+        <v>4.0720000000000001</v>
+      </c>
+      <c r="C9">
+        <v>-0.89200000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E9">
+        <v>-11.063000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.17</v>
+      </c>
+      <c r="G9">
+        <v>-0.623</v>
+      </c>
+      <c r="H9">
+        <v>-0.06</v>
+      </c>
+      <c r="I9">
+        <f>B9/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.1402822024396861E-4</v>
+      </c>
+      <c r="J9">
+        <f>D9/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.4978676929670925E-5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1.3002435012007012E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="B10">
+        <v>4.0720000000000001</v>
+      </c>
+      <c r="C10">
+        <v>-0.89200000000000002</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E10">
+        <v>-11.063000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.17</v>
+      </c>
+      <c r="G10">
+        <v>-0.623</v>
+      </c>
+      <c r="H10">
+        <v>-0.06</v>
+      </c>
+      <c r="I10">
+        <f>B10/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.1402822024396861E-4</v>
+      </c>
+      <c r="J10">
+        <f>D10/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.4978676929670925E-5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>1.3002435012007012E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="B11">
+        <v>4.2510000000000003</v>
+      </c>
+      <c r="C11">
+        <v>-0.89100000000000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E11">
+        <v>-10.696999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.156</v>
+      </c>
+      <c r="G11">
+        <v>-0.51</v>
+      </c>
+      <c r="H11">
+        <v>-0.125</v>
+      </c>
+      <c r="I11">
+        <f>B11/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.1904075743052814E-4</v>
+      </c>
+      <c r="J11">
+        <f>D11/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.4950673928628693E-5</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>1.4170701929633841E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="B12">
+        <v>3.3980000000000001</v>
+      </c>
+      <c r="C12">
+        <v>-0.81299999999999994</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E12">
+        <v>-11.031000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G12">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H12">
+        <v>-0.05</v>
+      </c>
+      <c r="I12">
+        <f>B12/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.5154197541504263E-5</v>
+      </c>
+      <c r="J12">
+        <f>D12/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.2766439847334595E-5</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>9.0543213097676161E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="B13">
+        <v>3.79</v>
+      </c>
+      <c r="C13">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E13">
+        <v>-12.673</v>
+      </c>
+      <c r="F13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G13">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="H13">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="I13">
+        <f>B13/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.061313739500592E-4</v>
+      </c>
+      <c r="J13">
+        <f>D13/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.6462835984909216E-5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1.1263868536527303E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="B14">
+        <v>3.79</v>
+      </c>
+      <c r="C14">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E14">
+        <v>-12.673</v>
+      </c>
+      <c r="F14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G14">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="H14">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="I14">
+        <f>B14/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.061313739500592E-4</v>
+      </c>
+      <c r="J14">
+        <f>D14/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.6462835984909216E-5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>1.1263868536527303E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="B15">
+        <v>3.79</v>
+      </c>
+      <c r="C15">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E15">
+        <v>-12.673</v>
+      </c>
+      <c r="F15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G15">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="H15">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="I15">
+        <f>B15/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.061313739500592E-4</v>
+      </c>
+      <c r="J15">
+        <f>D15/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.6462835984909216E-5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1.1263868536527303E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="B16">
+        <v>3.79</v>
+      </c>
+      <c r="C16">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E16">
+        <v>-12.673</v>
+      </c>
+      <c r="F16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G16">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="H16">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="I16">
+        <f>B16/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.061313739500592E-4</v>
+      </c>
+      <c r="J16">
+        <f>D16/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.6462835984909216E-5</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1.1263868536527303E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-8.0860000000000003</v>
+      </c>
+      <c r="B17">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="C17">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E17">
+        <v>-4.8330000000000002</v>
+      </c>
+      <c r="F17">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G17">
+        <v>-1.335</v>
+      </c>
+      <c r="H17">
+        <v>-1.304</v>
+      </c>
+      <c r="I17">
+        <f>B17/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.4166589899446194E-5</v>
+      </c>
+      <c r="J17">
+        <f>D17/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9854127738942471E-5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>5.8402406736801484E-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-8.0860000000000003</v>
+      </c>
+      <c r="B18">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="C18">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E18">
+        <v>-4.8330000000000002</v>
+      </c>
+      <c r="F18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G18">
+        <v>-1.335</v>
+      </c>
+      <c r="H18">
+        <v>-1.304</v>
+      </c>
+      <c r="I18">
+        <f>B18/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.4166589899446194E-5</v>
+      </c>
+      <c r="J18">
+        <f>D18/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9854127738942471E-5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>5.8402406736801484E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-8.0860000000000003</v>
+      </c>
+      <c r="B19">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="C19">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E19">
+        <v>-4.8330000000000002</v>
+      </c>
+      <c r="F19">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G19">
+        <v>-1.335</v>
+      </c>
+      <c r="H19">
+        <v>-1.304</v>
+      </c>
+      <c r="I19">
+        <f>B19/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.4166589899446194E-5</v>
+      </c>
+      <c r="J19">
+        <f>D19/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9854127738942471E-5</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>5.8402406736801484E-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-8.0860000000000003</v>
+      </c>
+      <c r="B20">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="C20">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E20">
+        <v>-4.8330000000000002</v>
+      </c>
+      <c r="F20">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G20">
+        <v>-1.335</v>
+      </c>
+      <c r="H20">
+        <v>-1.304</v>
+      </c>
+      <c r="I20">
+        <f>B20/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.4166589899446194E-5</v>
+      </c>
+      <c r="J20">
+        <f>D20/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9854127738942471E-5</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>5.8402406736801484E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-8.0860000000000003</v>
+      </c>
+      <c r="B21">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="C21">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E21">
+        <v>-4.8330000000000002</v>
+      </c>
+      <c r="F21">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G21">
+        <v>-1.335</v>
+      </c>
+      <c r="H21">
+        <v>-1.304</v>
+      </c>
+      <c r="I21">
+        <f>B21/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.4166589899446194E-5</v>
+      </c>
+      <c r="J21">
+        <f>D21/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9854127738942471E-5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>5.8402406736801484E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-6.0060000000000002</v>
+      </c>
+      <c r="B22">
+        <v>1.895</v>
+      </c>
+      <c r="C22">
+        <v>-0.83599999999999997</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E22">
+        <v>-3.1179999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H22">
+        <v>-0.629</v>
+      </c>
+      <c r="I22">
+        <f>B22/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.3065686975029598E-5</v>
+      </c>
+      <c r="J22">
+        <f>D22/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3410508871305931E-5</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>2.8159671341318259E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-6.0060000000000002</v>
+      </c>
+      <c r="B23">
+        <v>1.895</v>
+      </c>
+      <c r="C23">
+        <v>-0.83599999999999997</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E23">
+        <v>-3.1179999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G23">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H23">
+        <v>-0.629</v>
+      </c>
+      <c r="I23">
+        <f>B23/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.3065686975029598E-5</v>
+      </c>
+      <c r="J23">
+        <f>D23/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3410508871305931E-5</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>2.8159671341318259E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-6.0060000000000002</v>
+      </c>
+      <c r="B24">
+        <v>1.895</v>
+      </c>
+      <c r="C24">
+        <v>-0.83599999999999997</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E24">
+        <v>-3.1179999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H24">
+        <v>-0.629</v>
+      </c>
+      <c r="I24">
+        <f>B24/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.3065686975029598E-5</v>
+      </c>
+      <c r="J24">
+        <f>D24/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3410508871305931E-5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>2.8159671341318259E-9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-6.0060000000000002</v>
+      </c>
+      <c r="B25">
+        <v>1.895</v>
+      </c>
+      <c r="C25">
+        <v>-0.83599999999999997</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E25">
+        <v>-3.1179999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H25">
+        <v>-0.629</v>
+      </c>
+      <c r="I25">
+        <f>B25/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.3065686975029598E-5</v>
+      </c>
+      <c r="J25">
+        <f>D25/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3410508871305931E-5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>2.8159671341318259E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-6.0060000000000002</v>
+      </c>
+      <c r="B26">
+        <v>1.895</v>
+      </c>
+      <c r="C26">
+        <v>-0.83599999999999997</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E26">
+        <v>-3.1179999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G26">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H26">
+        <v>-0.629</v>
+      </c>
+      <c r="I26">
+        <f>B26/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.3065686975029598E-5</v>
+      </c>
+      <c r="J26">
+        <f>D26/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3410508871305931E-5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>2.8159671341318259E-9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-3.9950000000000001</v>
+      </c>
+      <c r="B27">
+        <v>2.2370000000000001</v>
+      </c>
+      <c r="C27">
+        <v>-0.79800000000000004</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E27">
+        <v>-9.5239999999999991</v>
+      </c>
+      <c r="F27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G27">
+        <v>-2.2709999999999999</v>
+      </c>
+      <c r="H27">
+        <v>-0.247</v>
+      </c>
+      <c r="I27">
+        <f>B27/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>6.2642713331472938E-5</v>
+      </c>
+      <c r="J27">
+        <f>D27/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.2346394831701119E-5</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>3.9241095335290972E-9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-3.9950000000000001</v>
+      </c>
+      <c r="B28">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="C28">
+        <v>-0.75700000000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E28">
+        <v>-8.7729999999999997</v>
+      </c>
+      <c r="F28">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G28">
+        <v>-0.70599999999999996</v>
+      </c>
+      <c r="H28">
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="I28">
+        <f>B28/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>6.9391436582650837E-5</v>
+      </c>
+      <c r="J28">
+        <f>D28/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1198271788969605E-5</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>4.8151714710040527E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-3.9950000000000001</v>
+      </c>
+      <c r="B29">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="C29">
+        <v>-0.75700000000000001</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E29">
+        <v>-8.7729999999999997</v>
+      </c>
+      <c r="F29">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G29">
+        <v>-0.70599999999999996</v>
+      </c>
+      <c r="H29">
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="I29">
+        <f>B29/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>6.9391436582650837E-5</v>
+      </c>
+      <c r="J29">
+        <f>D29/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1198271788969605E-5</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>4.8151714710040527E-9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-3.9950000000000001</v>
+      </c>
+      <c r="B30">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="C30">
+        <v>-0.75700000000000001</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E30">
+        <v>-8.7729999999999997</v>
+      </c>
+      <c r="F30">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G30">
+        <v>-0.70599999999999996</v>
+      </c>
+      <c r="H30">
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="I30">
+        <f>B30/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>6.9391436582650837E-5</v>
+      </c>
+      <c r="J30">
+        <f>D30/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1198271788969605E-5</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>4.8151714710040527E-9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-3.9950000000000001</v>
+      </c>
+      <c r="B31">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="C31">
+        <v>-0.75700000000000001</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E31">
+        <v>-8.7729999999999997</v>
+      </c>
+      <c r="F31">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G31">
+        <v>-0.70599999999999996</v>
+      </c>
+      <c r="H31">
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="I31">
+        <f>B31/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>6.9391436582650837E-5</v>
+      </c>
+      <c r="J31">
+        <f>D31/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1198271788969605E-5</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>4.8151714710040527E-9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="B32">
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="C32">
+        <v>-0.68700000000000006</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="E32">
+        <v>-7.6029999999999998</v>
+      </c>
+      <c r="F32">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.192</v>
+      </c>
+      <c r="H32">
+        <v>-0.31</v>
+      </c>
+      <c r="I32">
+        <f>B32/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>8.7789408267397234E-5</v>
+      </c>
+      <c r="J32">
+        <f>D32/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9238061716013371E-5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>7.7069802039397532E-9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="B33">
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="C33">
+        <v>-0.68700000000000006</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="E33">
+        <v>-7.6029999999999998</v>
+      </c>
+      <c r="F33">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.192</v>
+      </c>
+      <c r="H33">
+        <v>-0.31</v>
+      </c>
+      <c r="I33">
+        <f>B33/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>8.7789408267397234E-5</v>
+      </c>
+      <c r="J33">
+        <f>D33/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9238061716013371E-5</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>7.7069802039397532E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-1.976</v>
+      </c>
+      <c r="B34">
+        <v>3.3490000000000002</v>
+      </c>
+      <c r="C34">
+        <v>-0.83099999999999996</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E34">
+        <v>-7.63</v>
+      </c>
+      <c r="F34">
+        <v>0.216</v>
+      </c>
+      <c r="G34">
+        <v>0.442</v>
+      </c>
+      <c r="H34">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="I34">
+        <f>B34/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.378205049043489E-5</v>
+      </c>
+      <c r="J34">
+        <f>D34/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3270493866094771E-5</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>8.7950729941904794E-9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-1.976</v>
+      </c>
+      <c r="B35">
+        <v>3.3490000000000002</v>
+      </c>
+      <c r="C35">
+        <v>-0.83099999999999996</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E35">
+        <v>-7.63</v>
+      </c>
+      <c r="F35">
+        <v>0.216</v>
+      </c>
+      <c r="G35">
+        <v>0.442</v>
+      </c>
+      <c r="H35">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="I35">
+        <f>B35/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.378205049043489E-5</v>
+      </c>
+      <c r="J35">
+        <f>D35/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3270493866094771E-5</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>8.7950729941904794E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-1.976</v>
+      </c>
+      <c r="B36">
+        <v>3.3490000000000002</v>
+      </c>
+      <c r="C36">
+        <v>-0.83099999999999996</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E36">
+        <v>-7.63</v>
+      </c>
+      <c r="F36">
+        <v>0.216</v>
+      </c>
+      <c r="G36">
+        <v>0.442</v>
+      </c>
+      <c r="H36">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="I36">
+        <f>B36/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.378205049043489E-5</v>
+      </c>
+      <c r="J36">
+        <f>D36/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3270493866094771E-5</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>8.7950729941904794E-9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.9E-2</v>
+      </c>
+      <c r="B37">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="C37">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E37">
+        <v>-9.9580000000000002</v>
+      </c>
+      <c r="F37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G37">
+        <v>-0.96599999999999997</v>
+      </c>
+      <c r="H37">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I37">
+        <f>B37/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.932664469679682E-5</v>
+      </c>
+      <c r="J37">
+        <f>D37/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.6462835984909216E-5</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>9.865782346723716E-9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.9E-2</v>
+      </c>
+      <c r="B38">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="C38">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E38">
+        <v>-9.9580000000000002</v>
+      </c>
+      <c r="F38">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G38">
+        <v>-0.96599999999999997</v>
+      </c>
+      <c r="H38">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I38">
+        <f>B38/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.932664469679682E-5</v>
+      </c>
+      <c r="J38">
+        <f>D38/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.6462835984909216E-5</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>9.865782346723716E-9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.9E-2</v>
+      </c>
+      <c r="B39">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="C39">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E39">
+        <v>-9.9580000000000002</v>
+      </c>
+      <c r="F39">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G39">
+        <v>-0.96599999999999997</v>
+      </c>
+      <c r="H39">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I39">
+        <f>B39/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.932664469679682E-5</v>
+      </c>
+      <c r="J39">
+        <f>D39/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.6462835984909216E-5</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>9.865782346723716E-9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.9E-2</v>
+      </c>
+      <c r="B40">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="C40">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E40">
+        <v>-9.9580000000000002</v>
+      </c>
+      <c r="F40">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G40">
+        <v>-0.96599999999999997</v>
+      </c>
+      <c r="H40">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I40">
+        <f>B40/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.932664469679682E-5</v>
+      </c>
+      <c r="J40">
+        <f>D40/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.6462835984909216E-5</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>9.865782346723716E-9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.9E-2</v>
+      </c>
+      <c r="B41">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="C41">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E41">
+        <v>-9.9580000000000002</v>
+      </c>
+      <c r="F41">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G41">
+        <v>-0.96599999999999997</v>
+      </c>
+      <c r="H41">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I41">
+        <f>B41/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.932664469679682E-5</v>
+      </c>
+      <c r="J41">
+        <f>D41/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.6462835984909216E-5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>9.865782346723716E-9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1.992</v>
+      </c>
+      <c r="B42">
+        <v>4.5270000000000001</v>
+      </c>
+      <c r="C42">
+        <v>-0.996</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.996</v>
+      </c>
+      <c r="E42">
+        <v>-12.76</v>
+      </c>
+      <c r="F42">
+        <v>0.112</v>
+      </c>
+      <c r="G42">
+        <v>-0.60099999999999998</v>
+      </c>
+      <c r="H42">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I42">
+        <f>B42/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.2676958571818415E-4</v>
+      </c>
+      <c r="J42">
+        <f>D42/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.7890989038063049E-5</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>1.6070527863160038E-8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1.992</v>
+      </c>
+      <c r="B43">
+        <v>4.5270000000000001</v>
+      </c>
+      <c r="C43">
+        <v>-0.996</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.996</v>
+      </c>
+      <c r="E43">
+        <v>-12.76</v>
+      </c>
+      <c r="F43">
+        <v>0.112</v>
+      </c>
+      <c r="G43">
+        <v>-0.60099999999999998</v>
+      </c>
+      <c r="H43">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I43">
+        <f>B43/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.2676958571818415E-4</v>
+      </c>
+      <c r="J43">
+        <f>D43/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.7890989038063049E-5</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>1.6070527863160038E-8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.99</v>
+      </c>
+      <c r="B44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C44">
+        <v>-1.0860000000000001</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="E44">
+        <v>-14.260999999999999</v>
+      </c>
+      <c r="F44">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G44">
+        <v>-0.248</v>
+      </c>
+      <c r="H44">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I44">
+        <f>B44/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.232132045858207E-4</v>
+      </c>
+      <c r="J44">
+        <f>D44/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.0411259131863927E-5</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>1.5181493784307306E-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1.99</v>
+      </c>
+      <c r="B45">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C45">
+        <v>-1.0860000000000001</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="E45">
+        <v>-14.260999999999999</v>
+      </c>
+      <c r="F45">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G45">
+        <v>-0.248</v>
+      </c>
+      <c r="H45">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I45">
+        <f>B45/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.232132045858207E-4</v>
+      </c>
+      <c r="J45">
+        <f>D45/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.0411259131863927E-5</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>1.5181493784307306E-8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.99</v>
+      </c>
+      <c r="B46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C46">
+        <v>-1.0860000000000001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="E46">
+        <v>-14.260999999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G46">
+        <v>-0.248</v>
+      </c>
+      <c r="H46">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I46">
+        <f>B46/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.232132045858207E-4</v>
+      </c>
+      <c r="J46">
+        <f>D46/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.0411259131863927E-5</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>1.5181493784307306E-8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3.9750000000000001</v>
+      </c>
+      <c r="B47">
+        <v>5.2990000000000004</v>
+      </c>
+      <c r="C47">
+        <v>-1.165</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1.165</v>
+      </c>
+      <c r="E47">
+        <v>-17.616</v>
+      </c>
+      <c r="F47">
+        <v>0.121</v>
+      </c>
+      <c r="G47">
+        <v>-0.316</v>
+      </c>
+      <c r="H47">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I47">
+        <f>B47/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.4838790252278726E-4</v>
+      </c>
+      <c r="J47">
+        <f>D47/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.2623496214200252E-5</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>2.2018969615112213E-8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3.9750000000000001</v>
+      </c>
+      <c r="B48">
+        <v>5.2990000000000004</v>
+      </c>
+      <c r="C48">
+        <v>-1.165</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1.165</v>
+      </c>
+      <c r="E48">
+        <v>-17.616</v>
+      </c>
+      <c r="F48">
+        <v>0.121</v>
+      </c>
+      <c r="G48">
+        <v>-0.316</v>
+      </c>
+      <c r="H48">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I48">
+        <f>B48/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.4838790252278726E-4</v>
+      </c>
+      <c r="J48">
+        <f>D48/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.2623496214200252E-5</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>2.2018969615112213E-8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4.0259999999999998</v>
+      </c>
+      <c r="B49">
+        <v>5.5039999999999996</v>
+      </c>
+      <c r="C49">
+        <v>-1.272</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1.272</v>
+      </c>
+      <c r="E49">
+        <v>-18.001000000000001</v>
+      </c>
+      <c r="F49">
+        <v>0.104</v>
+      </c>
+      <c r="G49">
+        <v>-0.18099999999999999</v>
+      </c>
+      <c r="H49">
+        <v>0.46</v>
+      </c>
+      <c r="I49">
+        <f>B49/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.5412851773644479E-4</v>
+      </c>
+      <c r="J49">
+        <f>D49/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.5619817325719073E-5</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>2.3755599979633578E-8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4.0259999999999998</v>
+      </c>
+      <c r="B50">
+        <v>5.5039999999999996</v>
+      </c>
+      <c r="C50">
+        <v>-1.272</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1.272</v>
+      </c>
+      <c r="E50">
+        <v>-18.001000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.104</v>
+      </c>
+      <c r="G50">
+        <v>-0.18099999999999999</v>
+      </c>
+      <c r="H50">
+        <v>0.46</v>
+      </c>
+      <c r="I50">
+        <f>B50/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.5412851773644479E-4</v>
+      </c>
+      <c r="J50">
+        <f>D50/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.5619817325719073E-5</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>2.3755599979633578E-8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4.0259999999999998</v>
+      </c>
+      <c r="B51">
+        <v>5.5039999999999996</v>
+      </c>
+      <c r="C51">
+        <v>-1.272</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1.272</v>
+      </c>
+      <c r="E51">
+        <v>-18.001000000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.104</v>
+      </c>
+      <c r="G51">
+        <v>-0.18099999999999999</v>
+      </c>
+      <c r="H51">
+        <v>0.46</v>
+      </c>
+      <c r="I51">
+        <f>B51/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.5412851773644479E-4</v>
+      </c>
+      <c r="J51">
+        <f>D51/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.5619817325719073E-5</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>2.3755599979633578E-8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6.0010000000000003</v>
+      </c>
+      <c r="B52">
+        <v>6.0819999999999999</v>
+      </c>
+      <c r="C52">
+        <v>-1.554</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1.554</v>
+      </c>
+      <c r="E52">
+        <v>-24.145</v>
+      </c>
+      <c r="F52">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G52">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="H52">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="I52">
+        <f>B52/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.7031425233885489E-4</v>
+      </c>
+      <c r="J52">
+        <f>D52/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.3516663619628489E-5</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>2.9006944549743138E-8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>6.0149999999999997</v>
+      </c>
+      <c r="B53">
+        <v>5.7469999999999999</v>
+      </c>
+      <c r="C53">
+        <v>-1.4950000000000001</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="E53">
+        <v>-23.291</v>
+      </c>
+      <c r="F53">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G53">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H53">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I53">
+        <f>B53/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6093324698970716E-4</v>
+      </c>
+      <c r="J53">
+        <f>D53/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.186448655813681E-5</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>2.5899509986650089E-8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>6.0149999999999997</v>
+      </c>
+      <c r="B54">
+        <v>5.7469999999999999</v>
+      </c>
+      <c r="C54">
+        <v>-1.4950000000000001</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="E54">
+        <v>-23.291</v>
+      </c>
+      <c r="F54">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G54">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H54">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I54">
+        <f>B54/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6093324698970716E-4</v>
+      </c>
+      <c r="J54">
+        <f>D54/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.186448655813681E-5</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>2.5899509986650089E-8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6.0149999999999997</v>
+      </c>
+      <c r="B55">
+        <v>5.7469999999999999</v>
+      </c>
+      <c r="C55">
+        <v>-1.4950000000000001</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="E55">
+        <v>-23.291</v>
+      </c>
+      <c r="F55">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G55">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H55">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I55">
+        <f>B55/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6093324698970716E-4</v>
+      </c>
+      <c r="J55">
+        <f>D55/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.186448655813681E-5</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>2.5899509986650089E-8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>6.0149999999999997</v>
+      </c>
+      <c r="B56">
+        <v>5.7469999999999999</v>
+      </c>
+      <c r="C56">
+        <v>-1.4950000000000001</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="E56">
+        <v>-23.291</v>
+      </c>
+      <c r="F56">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G56">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H56">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I56">
+        <f>B56/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6093324698970716E-4</v>
+      </c>
+      <c r="J56">
+        <f>D56/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.186448655813681E-5</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>2.5899509986650089E-8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7.9880000000000004</v>
+      </c>
+      <c r="B57">
+        <v>6.4329999999999998</v>
+      </c>
+      <c r="C57">
+        <v>-1.7070000000000001</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="E57">
+        <v>-26.684000000000001</v>
+      </c>
+      <c r="F57">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G57">
+        <v>-0.71199999999999997</v>
+      </c>
+      <c r="H57">
+        <v>0.877</v>
+      </c>
+      <c r="I57">
+        <f>B57/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.801433057046783E-4</v>
+      </c>
+      <c r="J57">
+        <f>D57/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.7801122779089987E-5</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>3.2451610590209183E-8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7.9880000000000004</v>
+      </c>
+      <c r="B58">
+        <v>6.4329999999999998</v>
+      </c>
+      <c r="C58">
+        <v>-1.7070000000000001</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="E58">
+        <v>-26.684000000000001</v>
+      </c>
+      <c r="F58">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G58">
+        <v>-0.71199999999999997</v>
+      </c>
+      <c r="H58">
+        <v>0.877</v>
+      </c>
+      <c r="I58">
+        <f>B58/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.801433057046783E-4</v>
+      </c>
+      <c r="J58">
+        <f>D58/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.7801122779089987E-5</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>3.2451610590209183E-8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>8.0570000000000004</v>
+      </c>
+      <c r="B59">
+        <v>6.4450000000000003</v>
+      </c>
+      <c r="C59">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E59">
+        <v>-25.286999999999999</v>
+      </c>
+      <c r="F59">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="G59">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="H59">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="I59">
+        <f>B59/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.8047934171718508E-4</v>
+      </c>
+      <c r="J59">
+        <f>D59/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.5308855686331342E-5</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>3.2572792786668466E-8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>8.0570000000000004</v>
+      </c>
+      <c r="B60">
+        <v>6.4450000000000003</v>
+      </c>
+      <c r="C60">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E60">
+        <v>-25.286999999999999</v>
+      </c>
+      <c r="F60">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="G60">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="H60">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="I60">
+        <f>B60/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.8047934171718508E-4</v>
+      </c>
+      <c r="J60">
+        <f>D60/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.5308855686331342E-5</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>3.2572792786668466E-8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8.0570000000000004</v>
+      </c>
+      <c r="B61">
+        <v>6.4450000000000003</v>
+      </c>
+      <c r="C61">
+        <v>-1.6180000000000001</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E61">
+        <v>-25.286999999999999</v>
+      </c>
+      <c r="F61">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="G61">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="H61">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="I61">
+        <f>B61/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.8047934171718508E-4</v>
+      </c>
+      <c r="J61">
+        <f>D61/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.5308855686331342E-5</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>3.2572792786668466E-8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>9.9619999999999997</v>
+      </c>
+      <c r="B62">
+        <v>7.1529999999999996</v>
+      </c>
+      <c r="C62">
+        <v>-1.861</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>1.861</v>
+      </c>
+      <c r="E62">
+        <v>-26.69</v>
+      </c>
+      <c r="F62">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G62">
+        <v>-0.63600000000000001</v>
+      </c>
+      <c r="H62">
+        <v>1.022</v>
+      </c>
+      <c r="I62">
+        <f>B62/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.0030546645508532E-4</v>
+      </c>
+      <c r="J62">
+        <f>D62/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.2113584939593704E-5</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>4.0122279891789308E-8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9.9619999999999997</v>
+      </c>
+      <c r="B63">
+        <v>7.1529999999999996</v>
+      </c>
+      <c r="C63">
+        <v>-1.861</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>1.861</v>
+      </c>
+      <c r="E63">
+        <v>-26.69</v>
+      </c>
+      <c r="F63">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G63">
+        <v>-0.63600000000000001</v>
+      </c>
+      <c r="H63">
+        <v>1.022</v>
+      </c>
+      <c r="I63">
+        <f>B63/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.0030546645508532E-4</v>
+      </c>
+      <c r="J63">
+        <f>D63/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.2113584939593704E-5</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>4.0122279891789308E-8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>9.9619999999999997</v>
+      </c>
+      <c r="B64">
+        <v>7.1529999999999996</v>
+      </c>
+      <c r="C64">
+        <v>-1.861</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>1.861</v>
+      </c>
+      <c r="E64">
+        <v>-26.69</v>
+      </c>
+      <c r="F64">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G64">
+        <v>-0.63600000000000001</v>
+      </c>
+      <c r="H64">
+        <v>1.022</v>
+      </c>
+      <c r="I64">
+        <f>B64/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.0030546645508532E-4</v>
+      </c>
+      <c r="J64">
+        <f>D64/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.2113584939593704E-5</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>4.0122279891789308E-8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="B65">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="C65">
+        <v>-1.8220000000000001</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="E65">
+        <v>-27.331</v>
+      </c>
+      <c r="F65">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="G65">
+        <v>-1.722</v>
+      </c>
+      <c r="H65">
+        <v>1.173</v>
+      </c>
+      <c r="I65">
+        <f>B65/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9532093226956801E-4</v>
+      </c>
+      <c r="J65">
+        <f>D65/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.1021467898946664E-5</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>3.8150266582653179E-8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="B66">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="C66">
+        <v>-1.8220000000000001</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="E66">
+        <v>-27.331</v>
+      </c>
+      <c r="F66">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="G66">
+        <v>-1.722</v>
+      </c>
+      <c r="H66">
+        <v>1.173</v>
+      </c>
+      <c r="I66">
+        <f>B66/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9532093226956801E-4</v>
+      </c>
+      <c r="J66">
+        <f>D66/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.1021467898946664E-5</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>3.8150266582653179E-8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>11.99</v>
+      </c>
+      <c r="B67">
+        <v>7.694</v>
+      </c>
+      <c r="C67">
+        <v>-1.986</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D85" si="2">-C67</f>
+        <v>1.986</v>
+      </c>
+      <c r="E67">
+        <v>-30.355</v>
+      </c>
+      <c r="F67">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="G67">
+        <v>-2.113</v>
+      </c>
+      <c r="H67">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="I67">
+        <f>B67/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1545509001893282E-4</v>
+      </c>
+      <c r="J67">
+        <f>D67/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.56139600698727E-5</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K85" si="3">I67^2</f>
+        <v>4.6420895815066445E-8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>11.99</v>
+      </c>
+      <c r="B68">
+        <v>7.694</v>
+      </c>
+      <c r="C68">
+        <v>-1.986</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>1.986</v>
+      </c>
+      <c r="E68">
+        <v>-30.355</v>
+      </c>
+      <c r="F68">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="G68">
+        <v>-2.113</v>
+      </c>
+      <c r="H68">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="I68">
+        <f>B68/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1545509001893282E-4</v>
+      </c>
+      <c r="J68">
+        <f>D68/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.56139600698727E-5</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>4.6420895815066445E-8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>12.003</v>
+      </c>
+      <c r="B69">
+        <v>7.4039999999999999</v>
+      </c>
+      <c r="C69">
+        <v>-2.0659999999999998</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="E69">
+        <v>-30.969000000000001</v>
+      </c>
+      <c r="F69">
+        <v>0.04</v>
+      </c>
+      <c r="G69">
+        <v>1E-3</v>
+      </c>
+      <c r="H69">
+        <v>0.9</v>
+      </c>
+      <c r="I69">
+        <f>B69/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.0733421971668554E-4</v>
+      </c>
+      <c r="J69">
+        <f>D69/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.7854200153251258E-5</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>4.2987478665526836E-8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>12.003</v>
+      </c>
+      <c r="B70">
+        <v>7.4039999999999999</v>
+      </c>
+      <c r="C70">
+        <v>-2.0659999999999998</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="E70">
+        <v>-30.969000000000001</v>
+      </c>
+      <c r="F70">
+        <v>0.04</v>
+      </c>
+      <c r="G70">
+        <v>1E-3</v>
+      </c>
+      <c r="H70">
+        <v>0.9</v>
+      </c>
+      <c r="I70">
+        <f>B70/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.0733421971668554E-4</v>
+      </c>
+      <c r="J70">
+        <f>D70/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.7854200153251258E-5</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>4.2987478665526836E-8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>12.003</v>
+      </c>
+      <c r="B71">
+        <v>7.4039999999999999</v>
+      </c>
+      <c r="C71">
+        <v>-2.0659999999999998</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="E71">
+        <v>-30.969000000000001</v>
+      </c>
+      <c r="F71">
+        <v>0.04</v>
+      </c>
+      <c r="G71">
+        <v>1E-3</v>
+      </c>
+      <c r="H71">
+        <v>0.9</v>
+      </c>
+      <c r="I71">
+        <f>B71/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.0733421971668554E-4</v>
+      </c>
+      <c r="J71">
+        <f>D71/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.7854200153251258E-5</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>4.2987478665526836E-8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>13.958</v>
+      </c>
+      <c r="B72">
+        <v>7.4089999999999998</v>
+      </c>
+      <c r="C72">
+        <v>-2.4369999999999998</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>2.4369999999999998</v>
+      </c>
+      <c r="E72">
+        <v>-35.000999999999998</v>
+      </c>
+      <c r="F72">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="G72">
+        <v>-0.253</v>
+      </c>
+      <c r="H72">
+        <v>1.321</v>
+      </c>
+      <c r="I72">
+        <f>B72/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.074742347218967E-4</v>
+      </c>
+      <c r="J72">
+        <f>D72/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>6.8243313539919319E-5</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>4.304555807343669E-8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>13.958</v>
+      </c>
+      <c r="B73">
+        <v>7.4089999999999998</v>
+      </c>
+      <c r="C73">
+        <v>-2.4369999999999998</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>2.4369999999999998</v>
+      </c>
+      <c r="E73">
+        <v>-35.000999999999998</v>
+      </c>
+      <c r="F73">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="G73">
+        <v>-0.253</v>
+      </c>
+      <c r="H73">
+        <v>1.321</v>
+      </c>
+      <c r="I73">
+        <f>B73/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.074742347218967E-4</v>
+      </c>
+      <c r="J73">
+        <f>D73/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>6.8243313539919319E-5</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>4.304555807343669E-8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>13.976000000000001</v>
+      </c>
+      <c r="B74">
+        <v>7.4089999999999998</v>
+      </c>
+      <c r="C74">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E74">
+        <v>-35.188000000000002</v>
+      </c>
+      <c r="F74">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G74">
+        <v>-0.111</v>
+      </c>
+      <c r="H74">
+        <v>1.224</v>
+      </c>
+      <c r="I74">
+        <f>B74/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.074742347218967E-4</v>
+      </c>
+      <c r="J74">
+        <f>D74/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>6.972747259515762E-5</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>4.304555807343669E-8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>13.976000000000001</v>
+      </c>
+      <c r="B75">
+        <v>7.4089999999999998</v>
+      </c>
+      <c r="C75">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E75">
+        <v>-35.188000000000002</v>
+      </c>
+      <c r="F75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G75">
+        <v>-0.111</v>
+      </c>
+      <c r="H75">
+        <v>1.224</v>
+      </c>
+      <c r="I75">
+        <f>B75/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.074742347218967E-4</v>
+      </c>
+      <c r="J75">
+        <f>D75/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>6.972747259515762E-5</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>4.304555807343669E-8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>15.951000000000001</v>
+      </c>
+      <c r="B76">
+        <v>7.577</v>
+      </c>
+      <c r="C76">
+        <v>-2.4540000000000002</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="E76">
+        <v>-35.536999999999999</v>
+      </c>
+      <c r="F76">
+        <v>-0.216</v>
+      </c>
+      <c r="G76">
+        <v>-2.1930000000000001</v>
+      </c>
+      <c r="H76">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="I76">
+        <f>B76/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1217873889699167E-4</v>
+      </c>
+      <c r="J76">
+        <f>D76/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>6.8719364557637269E-5</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="3"/>
+        <v>4.5019817239917768E-8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>15.951000000000001</v>
+      </c>
+      <c r="B77">
+        <v>7.577</v>
+      </c>
+      <c r="C77">
+        <v>-2.4540000000000002</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="E77">
+        <v>-35.536999999999999</v>
+      </c>
+      <c r="F77">
+        <v>-0.216</v>
+      </c>
+      <c r="G77">
+        <v>-2.1930000000000001</v>
+      </c>
+      <c r="H77">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="I77">
+        <f>B77/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1217873889699167E-4</v>
+      </c>
+      <c r="J77">
+        <f>D77/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>6.8719364557637269E-5</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="3"/>
+        <v>4.5019817239917768E-8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>15.996</v>
+      </c>
+      <c r="B78">
+        <v>7.8170000000000002</v>
+      </c>
+      <c r="C78">
+        <v>-2.5739999999999998</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="E78">
+        <v>-37.679000000000002</v>
+      </c>
+      <c r="F78">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="G78">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="H78">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="I78">
+        <f>B78/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1889945914712735E-4</v>
+      </c>
+      <c r="J78">
+        <f>D78/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>7.2079724682705106E-5</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="3"/>
+        <v>4.7916973214904878E-8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>15.996</v>
+      </c>
+      <c r="B79">
+        <v>7.8170000000000002</v>
+      </c>
+      <c r="C79">
+        <v>-2.5739999999999998</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="E79">
+        <v>-37.679000000000002</v>
+      </c>
+      <c r="F79">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="G79">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="H79">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="I79">
+        <f>B79/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1889945914712735E-4</v>
+      </c>
+      <c r="J79">
+        <f>D79/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>7.2079724682705106E-5</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="3"/>
+        <v>4.7916973214904878E-8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>15.996</v>
+      </c>
+      <c r="B80">
+        <v>7.8170000000000002</v>
+      </c>
+      <c r="C80">
+        <v>-2.5739999999999998</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="E80">
+        <v>-37.679000000000002</v>
+      </c>
+      <c r="F80">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="G80">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="H80">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="I80">
+        <f>B80/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1889945914712735E-4</v>
+      </c>
+      <c r="J80">
+        <f>D80/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>7.2079724682705106E-5</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="3"/>
+        <v>4.7916973214904878E-8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="B81">
+        <v>3.7839999999999998</v>
+      </c>
+      <c r="C81">
+        <v>-1.111</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>1.111</v>
+      </c>
+      <c r="E81">
+        <v>-12.635999999999999</v>
+      </c>
+      <c r="F81">
+        <v>0.193</v>
+      </c>
+      <c r="G81">
+        <v>0.129</v>
+      </c>
+      <c r="H81">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I81">
+        <f>B81/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0596335594380579E-4</v>
+      </c>
+      <c r="J81">
+        <f>D81/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.1111334157919726E-5</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="3"/>
+        <v>1.1228232802873681E-8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="B82">
+        <v>3.7839999999999998</v>
+      </c>
+      <c r="C82">
+        <v>-1.111</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>1.111</v>
+      </c>
+      <c r="E82">
+        <v>-12.635999999999999</v>
+      </c>
+      <c r="F82">
+        <v>0.193</v>
+      </c>
+      <c r="G82">
+        <v>0.129</v>
+      </c>
+      <c r="H82">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I82">
+        <f>B82/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0596335594380579E-4</v>
+      </c>
+      <c r="J82">
+        <f>D82/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.1111334157919726E-5</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="3"/>
+        <v>1.1228232802873681E-8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B83">
+        <v>3.9830000000000001</v>
+      </c>
+      <c r="C83">
+        <v>-1.123</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>1.123</v>
+      </c>
+      <c r="E83">
+        <v>-10.741</v>
+      </c>
+      <c r="F83">
+        <v>0.221</v>
+      </c>
+      <c r="G83">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H83">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I83">
+        <f>B83/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.1153595315120996E-4</v>
+      </c>
+      <c r="J83">
+        <f>D83/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.144737017042651E-5</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="3"/>
+        <v>1.2440268845348902E-8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B84">
+        <v>3.9830000000000001</v>
+      </c>
+      <c r="C84">
+        <v>-1.123</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>1.123</v>
+      </c>
+      <c r="E84">
+        <v>-10.741</v>
+      </c>
+      <c r="F84">
+        <v>0.221</v>
+      </c>
+      <c r="G84">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H84">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I84">
+        <f>B84/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.1153595315120996E-4</v>
+      </c>
+      <c r="J84">
+        <f>D84/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.144737017042651E-5</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="3"/>
+        <v>1.2440268845348902E-8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B85">
+        <v>3.9830000000000001</v>
+      </c>
+      <c r="C85">
+        <v>-1.123</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>1.123</v>
+      </c>
+      <c r="E85">
+        <v>-10.741</v>
+      </c>
+      <c r="F85">
+        <v>0.221</v>
+      </c>
+      <c r="G85">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H85">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I85">
+        <f>B85/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.1153595315120996E-4</v>
+      </c>
+      <c r="J85">
+        <f>D85/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.144737017042651E-5</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="3"/>
+        <v>1.2440268845348902E-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,7 +7515,7 @@
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2767,7 +7526,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2781,2326 +7540,17 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="B2">
-        <v>4.0060000000000002</v>
-      </c>
-      <c r="C2">
-        <v>-0.92700000000000005</v>
-      </c>
-      <c r="D2">
-        <f>-C2</f>
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="E2">
-        <v>-9.0210000000000008</v>
-      </c>
-      <c r="F2">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.752</v>
-      </c>
-      <c r="H2">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="B3">
-        <v>4.0060000000000002</v>
-      </c>
-      <c r="C3">
-        <v>-0.92700000000000005</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">-C3</f>
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="E3">
-        <v>-9.0210000000000008</v>
-      </c>
-      <c r="F3">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="G3">
-        <v>0.752</v>
-      </c>
-      <c r="H3">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="B4">
-        <v>4.0060000000000002</v>
-      </c>
-      <c r="C4">
-        <v>-0.92700000000000005</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="E4">
-        <v>-9.0210000000000008</v>
-      </c>
-      <c r="F4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="G4">
-        <v>0.752</v>
-      </c>
-      <c r="H4">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="B5">
-        <v>4.0060000000000002</v>
-      </c>
-      <c r="C5">
-        <v>-0.92700000000000005</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="E5">
-        <v>-9.0210000000000008</v>
-      </c>
-      <c r="F5">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.752</v>
-      </c>
-      <c r="H5">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="B6">
-        <v>3.9969999999999999</v>
-      </c>
-      <c r="C6">
-        <v>-0.86699999999999999</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="E6">
-        <v>-10.814</v>
-      </c>
-      <c r="F6">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="G6">
-        <v>-1.2529999999999999</v>
-      </c>
-      <c r="H6">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="B7">
-        <v>4.0720000000000001</v>
-      </c>
-      <c r="C7">
-        <v>-0.89200000000000002</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="E7">
-        <v>-11.063000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.17</v>
-      </c>
-      <c r="G7">
-        <v>-0.623</v>
-      </c>
-      <c r="H7">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="B8">
-        <v>4.0720000000000001</v>
-      </c>
-      <c r="C8">
-        <v>-0.89200000000000002</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="E8">
-        <v>-11.063000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.17</v>
-      </c>
-      <c r="G8">
-        <v>-0.623</v>
-      </c>
-      <c r="H8">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="B9">
-        <v>4.0720000000000001</v>
-      </c>
-      <c r="C9">
-        <v>-0.89200000000000002</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="E9">
-        <v>-11.063000000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.17</v>
-      </c>
-      <c r="G9">
-        <v>-0.623</v>
-      </c>
-      <c r="H9">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="B10">
-        <v>4.0720000000000001</v>
-      </c>
-      <c r="C10">
-        <v>-0.89200000000000002</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="E10">
-        <v>-11.063000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.17</v>
-      </c>
-      <c r="G10">
-        <v>-0.623</v>
-      </c>
-      <c r="H10">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="B11">
-        <v>4.2510000000000003</v>
-      </c>
-      <c r="C11">
-        <v>-0.89100000000000001</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="E11">
-        <v>-10.696999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.156</v>
-      </c>
-      <c r="G11">
-        <v>-0.51</v>
-      </c>
-      <c r="H11">
-        <v>-0.125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-      <c r="B12">
-        <v>3.3980000000000001</v>
-      </c>
-      <c r="C12">
-        <v>-0.81299999999999994</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="E12">
-        <v>-11.031000000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="G12">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H12">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="B13">
-        <v>3.79</v>
-      </c>
-      <c r="C13">
-        <v>-0.94499999999999995</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E13">
-        <v>-12.673</v>
-      </c>
-      <c r="F13">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G13">
-        <v>-0.35899999999999999</v>
-      </c>
-      <c r="H13">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="B14">
-        <v>3.79</v>
-      </c>
-      <c r="C14">
-        <v>-0.94499999999999995</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E14">
-        <v>-12.673</v>
-      </c>
-      <c r="F14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G14">
-        <v>-0.35899999999999999</v>
-      </c>
-      <c r="H14">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="B15">
-        <v>3.79</v>
-      </c>
-      <c r="C15">
-        <v>-0.94499999999999995</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E15">
-        <v>-12.673</v>
-      </c>
-      <c r="F15">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G15">
-        <v>-0.35899999999999999</v>
-      </c>
-      <c r="H15">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="B16">
-        <v>3.79</v>
-      </c>
-      <c r="C16">
-        <v>-0.94499999999999995</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E16">
-        <v>-12.673</v>
-      </c>
-      <c r="F16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G16">
-        <v>-0.35899999999999999</v>
-      </c>
-      <c r="H16">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>-8.0860000000000003</v>
-      </c>
-      <c r="B17">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="C17">
-        <v>-0.70899999999999996</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="E17">
-        <v>-4.8330000000000002</v>
-      </c>
-      <c r="F17">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G17">
-        <v>-1.335</v>
-      </c>
-      <c r="H17">
-        <v>-1.304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>-8.0860000000000003</v>
-      </c>
-      <c r="B18">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="C18">
-        <v>-0.70899999999999996</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="E18">
-        <v>-4.8330000000000002</v>
-      </c>
-      <c r="F18">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G18">
-        <v>-1.335</v>
-      </c>
-      <c r="H18">
-        <v>-1.304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>-8.0860000000000003</v>
-      </c>
-      <c r="B19">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="C19">
-        <v>-0.70899999999999996</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="E19">
-        <v>-4.8330000000000002</v>
-      </c>
-      <c r="F19">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G19">
-        <v>-1.335</v>
-      </c>
-      <c r="H19">
-        <v>-1.304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-8.0860000000000003</v>
-      </c>
-      <c r="B20">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="C20">
-        <v>-0.70899999999999996</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="E20">
-        <v>-4.8330000000000002</v>
-      </c>
-      <c r="F20">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G20">
-        <v>-1.335</v>
-      </c>
-      <c r="H20">
-        <v>-1.304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-8.0860000000000003</v>
-      </c>
-      <c r="B21">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="C21">
-        <v>-0.70899999999999996</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="E21">
-        <v>-4.8330000000000002</v>
-      </c>
-      <c r="F21">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G21">
-        <v>-1.335</v>
-      </c>
-      <c r="H21">
-        <v>-1.304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>-6.0060000000000002</v>
-      </c>
-      <c r="B22">
-        <v>1.895</v>
-      </c>
-      <c r="C22">
-        <v>-0.83599999999999997</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="E22">
-        <v>-3.1179999999999999</v>
-      </c>
-      <c r="F22">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="G22">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H22">
-        <v>-0.629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>-6.0060000000000002</v>
-      </c>
-      <c r="B23">
-        <v>1.895</v>
-      </c>
-      <c r="C23">
-        <v>-0.83599999999999997</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="E23">
-        <v>-3.1179999999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="G23">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H23">
-        <v>-0.629</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>-6.0060000000000002</v>
-      </c>
-      <c r="B24">
-        <v>1.895</v>
-      </c>
-      <c r="C24">
-        <v>-0.83599999999999997</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="E24">
-        <v>-3.1179999999999999</v>
-      </c>
-      <c r="F24">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="G24">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H24">
-        <v>-0.629</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>-6.0060000000000002</v>
-      </c>
-      <c r="B25">
-        <v>1.895</v>
-      </c>
-      <c r="C25">
-        <v>-0.83599999999999997</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="E25">
-        <v>-3.1179999999999999</v>
-      </c>
-      <c r="F25">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="G25">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H25">
-        <v>-0.629</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>-6.0060000000000002</v>
-      </c>
-      <c r="B26">
-        <v>1.895</v>
-      </c>
-      <c r="C26">
-        <v>-0.83599999999999997</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="E26">
-        <v>-3.1179999999999999</v>
-      </c>
-      <c r="F26">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="G26">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H26">
-        <v>-0.629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>-3.9950000000000001</v>
-      </c>
-      <c r="B27">
-        <v>2.2370000000000001</v>
-      </c>
-      <c r="C27">
-        <v>-0.79800000000000004</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="E27">
-        <v>-9.5239999999999991</v>
-      </c>
-      <c r="F27">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G27">
-        <v>-2.2709999999999999</v>
-      </c>
-      <c r="H27">
-        <v>-0.247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>-3.9950000000000001</v>
-      </c>
-      <c r="B28">
-        <v>2.4780000000000002</v>
-      </c>
-      <c r="C28">
-        <v>-0.75700000000000001</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="E28">
-        <v>-8.7729999999999997</v>
-      </c>
-      <c r="F28">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="G28">
-        <v>-0.70599999999999996</v>
-      </c>
-      <c r="H28">
-        <v>-0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>-3.9950000000000001</v>
-      </c>
-      <c r="B29">
-        <v>2.4780000000000002</v>
-      </c>
-      <c r="C29">
-        <v>-0.75700000000000001</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="E29">
-        <v>-8.7729999999999997</v>
-      </c>
-      <c r="F29">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="G29">
-        <v>-0.70599999999999996</v>
-      </c>
-      <c r="H29">
-        <v>-0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>-3.9950000000000001</v>
-      </c>
-      <c r="B30">
-        <v>2.4780000000000002</v>
-      </c>
-      <c r="C30">
-        <v>-0.75700000000000001</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="E30">
-        <v>-8.7729999999999997</v>
-      </c>
-      <c r="F30">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="G30">
-        <v>-0.70599999999999996</v>
-      </c>
-      <c r="H30">
-        <v>-0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>-3.9950000000000001</v>
-      </c>
-      <c r="B31">
-        <v>2.4780000000000002</v>
-      </c>
-      <c r="C31">
-        <v>-0.75700000000000001</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="E31">
-        <v>-8.7729999999999997</v>
-      </c>
-      <c r="F31">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="G31">
-        <v>-0.70599999999999996</v>
-      </c>
-      <c r="H31">
-        <v>-0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>-2.0299999999999998</v>
-      </c>
-      <c r="B32">
-        <v>3.1349999999999998</v>
-      </c>
-      <c r="C32">
-        <v>-0.68700000000000006</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="E32">
-        <v>-7.6029999999999998</v>
-      </c>
-      <c r="F32">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G32">
-        <v>0.192</v>
-      </c>
-      <c r="H32">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>-2.0299999999999998</v>
-      </c>
-      <c r="B33">
-        <v>3.1349999999999998</v>
-      </c>
-      <c r="C33">
-        <v>-0.68700000000000006</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="E33">
-        <v>-7.6029999999999998</v>
-      </c>
-      <c r="F33">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G33">
-        <v>0.192</v>
-      </c>
-      <c r="H33">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>-1.976</v>
-      </c>
-      <c r="B34">
-        <v>3.3490000000000002</v>
-      </c>
-      <c r="C34">
-        <v>-0.83099999999999996</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="E34">
-        <v>-7.63</v>
-      </c>
-      <c r="F34">
-        <v>0.216</v>
-      </c>
-      <c r="G34">
-        <v>0.442</v>
-      </c>
-      <c r="H34">
-        <v>-0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>-1.976</v>
-      </c>
-      <c r="B35">
-        <v>3.3490000000000002</v>
-      </c>
-      <c r="C35">
-        <v>-0.83099999999999996</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="E35">
-        <v>-7.63</v>
-      </c>
-      <c r="F35">
-        <v>0.216</v>
-      </c>
-      <c r="G35">
-        <v>0.442</v>
-      </c>
-      <c r="H35">
-        <v>-0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>-1.976</v>
-      </c>
-      <c r="B36">
-        <v>3.3490000000000002</v>
-      </c>
-      <c r="C36">
-        <v>-0.83099999999999996</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="E36">
-        <v>-7.63</v>
-      </c>
-      <c r="F36">
-        <v>0.216</v>
-      </c>
-      <c r="G36">
-        <v>0.442</v>
-      </c>
-      <c r="H36">
-        <v>-0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1.9E-2</v>
-      </c>
-      <c r="B37">
-        <v>3.5470000000000002</v>
-      </c>
-      <c r="C37">
-        <v>-0.94499999999999995</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E37">
-        <v>-9.9580000000000002</v>
-      </c>
-      <c r="F37">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G37">
-        <v>-0.96599999999999997</v>
-      </c>
-      <c r="H37">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1.9E-2</v>
-      </c>
-      <c r="B38">
-        <v>3.5470000000000002</v>
-      </c>
-      <c r="C38">
-        <v>-0.94499999999999995</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E38">
-        <v>-9.9580000000000002</v>
-      </c>
-      <c r="F38">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G38">
-        <v>-0.96599999999999997</v>
-      </c>
-      <c r="H38">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1.9E-2</v>
-      </c>
-      <c r="B39">
-        <v>3.5470000000000002</v>
-      </c>
-      <c r="C39">
-        <v>-0.94499999999999995</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E39">
-        <v>-9.9580000000000002</v>
-      </c>
-      <c r="F39">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G39">
-        <v>-0.96599999999999997</v>
-      </c>
-      <c r="H39">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1.9E-2</v>
-      </c>
-      <c r="B40">
-        <v>3.5470000000000002</v>
-      </c>
-      <c r="C40">
-        <v>-0.94499999999999995</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E40">
-        <v>-9.9580000000000002</v>
-      </c>
-      <c r="F40">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G40">
-        <v>-0.96599999999999997</v>
-      </c>
-      <c r="H40">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1.9E-2</v>
-      </c>
-      <c r="B41">
-        <v>3.5470000000000002</v>
-      </c>
-      <c r="C41">
-        <v>-0.94499999999999995</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E41">
-        <v>-9.9580000000000002</v>
-      </c>
-      <c r="F41">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G41">
-        <v>-0.96599999999999997</v>
-      </c>
-      <c r="H41">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1.992</v>
-      </c>
-      <c r="B42">
-        <v>4.5270000000000001</v>
-      </c>
-      <c r="C42">
-        <v>-0.996</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>0.996</v>
-      </c>
-      <c r="E42">
-        <v>-12.76</v>
-      </c>
-      <c r="F42">
-        <v>0.112</v>
-      </c>
-      <c r="G42">
-        <v>-0.60099999999999998</v>
-      </c>
-      <c r="H42">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1.992</v>
-      </c>
-      <c r="B43">
-        <v>4.5270000000000001</v>
-      </c>
-      <c r="C43">
-        <v>-0.996</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>0.996</v>
-      </c>
-      <c r="E43">
-        <v>-12.76</v>
-      </c>
-      <c r="F43">
-        <v>0.112</v>
-      </c>
-      <c r="G43">
-        <v>-0.60099999999999998</v>
-      </c>
-      <c r="H43">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1.99</v>
-      </c>
-      <c r="B44">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C44">
-        <v>-1.0860000000000001</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="E44">
-        <v>-14.260999999999999</v>
-      </c>
-      <c r="F44">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="G44">
-        <v>-0.248</v>
-      </c>
-      <c r="H44">
-        <v>0.14899999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1.99</v>
-      </c>
-      <c r="B45">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C45">
-        <v>-1.0860000000000001</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="E45">
-        <v>-14.260999999999999</v>
-      </c>
-      <c r="F45">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="G45">
-        <v>-0.248</v>
-      </c>
-      <c r="H45">
-        <v>0.14899999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1.99</v>
-      </c>
-      <c r="B46">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C46">
-        <v>-1.0860000000000001</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="E46">
-        <v>-14.260999999999999</v>
-      </c>
-      <c r="F46">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="G46">
-        <v>-0.248</v>
-      </c>
-      <c r="H46">
-        <v>0.14899999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>3.9750000000000001</v>
-      </c>
-      <c r="B47">
-        <v>5.2990000000000004</v>
-      </c>
-      <c r="C47">
-        <v>-1.165</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>1.165</v>
-      </c>
-      <c r="E47">
-        <v>-17.616</v>
-      </c>
-      <c r="F47">
-        <v>0.121</v>
-      </c>
-      <c r="G47">
-        <v>-0.316</v>
-      </c>
-      <c r="H47">
-        <v>0.50600000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>3.9750000000000001</v>
-      </c>
-      <c r="B48">
-        <v>5.2990000000000004</v>
-      </c>
-      <c r="C48">
-        <v>-1.165</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>1.165</v>
-      </c>
-      <c r="E48">
-        <v>-17.616</v>
-      </c>
-      <c r="F48">
-        <v>0.121</v>
-      </c>
-      <c r="G48">
-        <v>-0.316</v>
-      </c>
-      <c r="H48">
-        <v>0.50600000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>4.0259999999999998</v>
-      </c>
-      <c r="B49">
-        <v>5.5039999999999996</v>
-      </c>
-      <c r="C49">
-        <v>-1.272</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>1.272</v>
-      </c>
-      <c r="E49">
-        <v>-18.001000000000001</v>
-      </c>
-      <c r="F49">
-        <v>0.104</v>
-      </c>
-      <c r="G49">
-        <v>-0.18099999999999999</v>
-      </c>
-      <c r="H49">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>4.0259999999999998</v>
-      </c>
-      <c r="B50">
-        <v>5.5039999999999996</v>
-      </c>
-      <c r="C50">
-        <v>-1.272</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>1.272</v>
-      </c>
-      <c r="E50">
-        <v>-18.001000000000001</v>
-      </c>
-      <c r="F50">
-        <v>0.104</v>
-      </c>
-      <c r="G50">
-        <v>-0.18099999999999999</v>
-      </c>
-      <c r="H50">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>4.0259999999999998</v>
-      </c>
-      <c r="B51">
-        <v>5.5039999999999996</v>
-      </c>
-      <c r="C51">
-        <v>-1.272</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>1.272</v>
-      </c>
-      <c r="E51">
-        <v>-18.001000000000001</v>
-      </c>
-      <c r="F51">
-        <v>0.104</v>
-      </c>
-      <c r="G51">
-        <v>-0.18099999999999999</v>
-      </c>
-      <c r="H51">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>6.0010000000000003</v>
-      </c>
-      <c r="B52">
-        <v>6.0819999999999999</v>
-      </c>
-      <c r="C52">
-        <v>-1.554</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>1.554</v>
-      </c>
-      <c r="E52">
-        <v>-24.145</v>
-      </c>
-      <c r="F52">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="G52">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="H52">
-        <v>0.65600000000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>6.0149999999999997</v>
-      </c>
-      <c r="B53">
-        <v>5.7469999999999999</v>
-      </c>
-      <c r="C53">
-        <v>-1.4950000000000001</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="E53">
-        <v>-23.291</v>
-      </c>
-      <c r="F53">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G53">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="H53">
-        <v>0.65700000000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>6.0149999999999997</v>
-      </c>
-      <c r="B54">
-        <v>5.7469999999999999</v>
-      </c>
-      <c r="C54">
-        <v>-1.4950000000000001</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="E54">
-        <v>-23.291</v>
-      </c>
-      <c r="F54">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G54">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="H54">
-        <v>0.65700000000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>6.0149999999999997</v>
-      </c>
-      <c r="B55">
-        <v>5.7469999999999999</v>
-      </c>
-      <c r="C55">
-        <v>-1.4950000000000001</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="E55">
-        <v>-23.291</v>
-      </c>
-      <c r="F55">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G55">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="H55">
-        <v>0.65700000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>6.0149999999999997</v>
-      </c>
-      <c r="B56">
-        <v>5.7469999999999999</v>
-      </c>
-      <c r="C56">
-        <v>-1.4950000000000001</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="E56">
-        <v>-23.291</v>
-      </c>
-      <c r="F56">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G56">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="H56">
-        <v>0.65700000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>7.9880000000000004</v>
-      </c>
-      <c r="B57">
-        <v>6.4329999999999998</v>
-      </c>
-      <c r="C57">
-        <v>-1.7070000000000001</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="E57">
-        <v>-26.684000000000001</v>
-      </c>
-      <c r="F57">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G57">
-        <v>-0.71199999999999997</v>
-      </c>
-      <c r="H57">
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>7.9880000000000004</v>
-      </c>
-      <c r="B58">
-        <v>6.4329999999999998</v>
-      </c>
-      <c r="C58">
-        <v>-1.7070000000000001</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="E58">
-        <v>-26.684000000000001</v>
-      </c>
-      <c r="F58">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G58">
-        <v>-0.71199999999999997</v>
-      </c>
-      <c r="H58">
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>8.0570000000000004</v>
-      </c>
-      <c r="B59">
-        <v>6.4450000000000003</v>
-      </c>
-      <c r="C59">
-        <v>-1.6180000000000001</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>1.6180000000000001</v>
-      </c>
-      <c r="E59">
-        <v>-25.286999999999999</v>
-      </c>
-      <c r="F59">
-        <v>-8.5999999999999993E-2</v>
-      </c>
-      <c r="G59">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="H59">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>8.0570000000000004</v>
-      </c>
-      <c r="B60">
-        <v>6.4450000000000003</v>
-      </c>
-      <c r="C60">
-        <v>-1.6180000000000001</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>1.6180000000000001</v>
-      </c>
-      <c r="E60">
-        <v>-25.286999999999999</v>
-      </c>
-      <c r="F60">
-        <v>-8.5999999999999993E-2</v>
-      </c>
-      <c r="G60">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="H60">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>8.0570000000000004</v>
-      </c>
-      <c r="B61">
-        <v>6.4450000000000003</v>
-      </c>
-      <c r="C61">
-        <v>-1.6180000000000001</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>1.6180000000000001</v>
-      </c>
-      <c r="E61">
-        <v>-25.286999999999999</v>
-      </c>
-      <c r="F61">
-        <v>-8.5999999999999993E-2</v>
-      </c>
-      <c r="G61">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="H61">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>9.9619999999999997</v>
-      </c>
-      <c r="B62">
-        <v>7.1529999999999996</v>
-      </c>
-      <c r="C62">
-        <v>-1.861</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>1.861</v>
-      </c>
-      <c r="E62">
-        <v>-26.69</v>
-      </c>
-      <c r="F62">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G62">
-        <v>-0.63600000000000001</v>
-      </c>
-      <c r="H62">
-        <v>1.022</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>9.9619999999999997</v>
-      </c>
-      <c r="B63">
-        <v>7.1529999999999996</v>
-      </c>
-      <c r="C63">
-        <v>-1.861</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>1.861</v>
-      </c>
-      <c r="E63">
-        <v>-26.69</v>
-      </c>
-      <c r="F63">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G63">
-        <v>-0.63600000000000001</v>
-      </c>
-      <c r="H63">
-        <v>1.022</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>9.9619999999999997</v>
-      </c>
-      <c r="B64">
-        <v>7.1529999999999996</v>
-      </c>
-      <c r="C64">
-        <v>-1.861</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>1.861</v>
-      </c>
-      <c r="E64">
-        <v>-26.69</v>
-      </c>
-      <c r="F64">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G64">
-        <v>-0.63600000000000001</v>
-      </c>
-      <c r="H64">
-        <v>1.022</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>10.037000000000001</v>
-      </c>
-      <c r="B65">
-        <v>6.9749999999999996</v>
-      </c>
-      <c r="C65">
-        <v>-1.8220000000000001</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>1.8220000000000001</v>
-      </c>
-      <c r="E65">
-        <v>-27.331</v>
-      </c>
-      <c r="F65">
-        <v>-8.4000000000000005E-2</v>
-      </c>
-      <c r="G65">
-        <v>-1.722</v>
-      </c>
-      <c r="H65">
-        <v>1.173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>10.037000000000001</v>
-      </c>
-      <c r="B66">
-        <v>6.9749999999999996</v>
-      </c>
-      <c r="C66">
-        <v>-1.8220000000000001</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>1.8220000000000001</v>
-      </c>
-      <c r="E66">
-        <v>-27.331</v>
-      </c>
-      <c r="F66">
-        <v>-8.4000000000000005E-2</v>
-      </c>
-      <c r="G66">
-        <v>-1.722</v>
-      </c>
-      <c r="H66">
-        <v>1.173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>11.99</v>
-      </c>
-      <c r="B67">
-        <v>7.694</v>
-      </c>
-      <c r="C67">
-        <v>-1.986</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D85" si="1">-C67</f>
-        <v>1.986</v>
-      </c>
-      <c r="E67">
-        <v>-30.355</v>
-      </c>
-      <c r="F67">
-        <v>-9.4E-2</v>
-      </c>
-      <c r="G67">
-        <v>-2.113</v>
-      </c>
-      <c r="H67">
-        <v>0.85899999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>11.99</v>
-      </c>
-      <c r="B68">
-        <v>7.694</v>
-      </c>
-      <c r="C68">
-        <v>-1.986</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="1"/>
-        <v>1.986</v>
-      </c>
-      <c r="E68">
-        <v>-30.355</v>
-      </c>
-      <c r="F68">
-        <v>-9.4E-2</v>
-      </c>
-      <c r="G68">
-        <v>-2.113</v>
-      </c>
-      <c r="H68">
-        <v>0.85899999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>12.003</v>
-      </c>
-      <c r="B69">
-        <v>7.4039999999999999</v>
-      </c>
-      <c r="C69">
-        <v>-2.0659999999999998</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="1"/>
-        <v>2.0659999999999998</v>
-      </c>
-      <c r="E69">
-        <v>-30.969000000000001</v>
-      </c>
-      <c r="F69">
-        <v>0.04</v>
-      </c>
-      <c r="G69">
-        <v>1E-3</v>
-      </c>
-      <c r="H69">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>12.003</v>
-      </c>
-      <c r="B70">
-        <v>7.4039999999999999</v>
-      </c>
-      <c r="C70">
-        <v>-2.0659999999999998</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="1"/>
-        <v>2.0659999999999998</v>
-      </c>
-      <c r="E70">
-        <v>-30.969000000000001</v>
-      </c>
-      <c r="F70">
-        <v>0.04</v>
-      </c>
-      <c r="G70">
-        <v>1E-3</v>
-      </c>
-      <c r="H70">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>12.003</v>
-      </c>
-      <c r="B71">
-        <v>7.4039999999999999</v>
-      </c>
-      <c r="C71">
-        <v>-2.0659999999999998</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="1"/>
-        <v>2.0659999999999998</v>
-      </c>
-      <c r="E71">
-        <v>-30.969000000000001</v>
-      </c>
-      <c r="F71">
-        <v>0.04</v>
-      </c>
-      <c r="G71">
-        <v>1E-3</v>
-      </c>
-      <c r="H71">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>13.958</v>
-      </c>
-      <c r="B72">
-        <v>7.4089999999999998</v>
-      </c>
-      <c r="C72">
-        <v>-2.4369999999999998</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="1"/>
-        <v>2.4369999999999998</v>
-      </c>
-      <c r="E72">
-        <v>-35.000999999999998</v>
-      </c>
-      <c r="F72">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="G72">
-        <v>-0.253</v>
-      </c>
-      <c r="H72">
-        <v>1.321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>13.958</v>
-      </c>
-      <c r="B73">
-        <v>7.4089999999999998</v>
-      </c>
-      <c r="C73">
-        <v>-2.4369999999999998</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="1"/>
-        <v>2.4369999999999998</v>
-      </c>
-      <c r="E73">
-        <v>-35.000999999999998</v>
-      </c>
-      <c r="F73">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="G73">
-        <v>-0.253</v>
-      </c>
-      <c r="H73">
-        <v>1.321</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>13.976000000000001</v>
-      </c>
-      <c r="B74">
-        <v>7.4089999999999998</v>
-      </c>
-      <c r="C74">
-        <v>-2.4900000000000002</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="1"/>
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="E74">
-        <v>-35.188000000000002</v>
-      </c>
-      <c r="F74">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G74">
-        <v>-0.111</v>
-      </c>
-      <c r="H74">
-        <v>1.224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>13.976000000000001</v>
-      </c>
-      <c r="B75">
-        <v>7.4089999999999998</v>
-      </c>
-      <c r="C75">
-        <v>-2.4900000000000002</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="1"/>
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="E75">
-        <v>-35.188000000000002</v>
-      </c>
-      <c r="F75">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G75">
-        <v>-0.111</v>
-      </c>
-      <c r="H75">
-        <v>1.224</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>15.951000000000001</v>
-      </c>
-      <c r="B76">
-        <v>7.577</v>
-      </c>
-      <c r="C76">
-        <v>-2.4540000000000002</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="1"/>
-        <v>2.4540000000000002</v>
-      </c>
-      <c r="E76">
-        <v>-35.536999999999999</v>
-      </c>
-      <c r="F76">
-        <v>-0.216</v>
-      </c>
-      <c r="G76">
-        <v>-2.1930000000000001</v>
-      </c>
-      <c r="H76">
-        <v>1.4510000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>15.951000000000001</v>
-      </c>
-      <c r="B77">
-        <v>7.577</v>
-      </c>
-      <c r="C77">
-        <v>-2.4540000000000002</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="1"/>
-        <v>2.4540000000000002</v>
-      </c>
-      <c r="E77">
-        <v>-35.536999999999999</v>
-      </c>
-      <c r="F77">
-        <v>-0.216</v>
-      </c>
-      <c r="G77">
-        <v>-2.1930000000000001</v>
-      </c>
-      <c r="H77">
-        <v>1.4510000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>15.996</v>
-      </c>
-      <c r="B78">
-        <v>7.8170000000000002</v>
-      </c>
-      <c r="C78">
-        <v>-2.5739999999999998</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="1"/>
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="E78">
-        <v>-37.679000000000002</v>
-      </c>
-      <c r="F78">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="G78">
-        <v>-0.17899999999999999</v>
-      </c>
-      <c r="H78">
-        <v>1.2330000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>15.996</v>
-      </c>
-      <c r="B79">
-        <v>7.8170000000000002</v>
-      </c>
-      <c r="C79">
-        <v>-2.5739999999999998</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="1"/>
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="E79">
-        <v>-37.679000000000002</v>
-      </c>
-      <c r="F79">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="G79">
-        <v>-0.17899999999999999</v>
-      </c>
-      <c r="H79">
-        <v>1.2330000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>15.996</v>
-      </c>
-      <c r="B80">
-        <v>7.8170000000000002</v>
-      </c>
-      <c r="C80">
-        <v>-2.5739999999999998</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="1"/>
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="E80">
-        <v>-37.679000000000002</v>
-      </c>
-      <c r="F80">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="G80">
-        <v>-0.17899999999999999</v>
-      </c>
-      <c r="H80">
-        <v>1.2330000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="B81">
-        <v>3.7839999999999998</v>
-      </c>
-      <c r="C81">
-        <v>-1.111</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="1"/>
-        <v>1.111</v>
-      </c>
-      <c r="E81">
-        <v>-12.635999999999999</v>
-      </c>
-      <c r="F81">
-        <v>0.193</v>
-      </c>
-      <c r="G81">
-        <v>0.129</v>
-      </c>
-      <c r="H81">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="B82">
-        <v>3.7839999999999998</v>
-      </c>
-      <c r="C82">
-        <v>-1.111</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="1"/>
-        <v>1.111</v>
-      </c>
-      <c r="E82">
-        <v>-12.635999999999999</v>
-      </c>
-      <c r="F82">
-        <v>0.193</v>
-      </c>
-      <c r="G82">
-        <v>0.129</v>
-      </c>
-      <c r="H82">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="B83">
-        <v>3.9830000000000001</v>
-      </c>
-      <c r="C83">
-        <v>-1.123</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="1"/>
-        <v>1.123</v>
-      </c>
-      <c r="E83">
-        <v>-10.741</v>
-      </c>
-      <c r="F83">
-        <v>0.221</v>
-      </c>
-      <c r="G83">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="H83">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="B84">
-        <v>3.9830000000000001</v>
-      </c>
-      <c r="C84">
-        <v>-1.123</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="1"/>
-        <v>1.123</v>
-      </c>
-      <c r="E84">
-        <v>-10.741</v>
-      </c>
-      <c r="F84">
-        <v>0.221</v>
-      </c>
-      <c r="G84">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="H84">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="B85">
-        <v>3.9830000000000001</v>
-      </c>
-      <c r="C85">
-        <v>-1.123</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="1"/>
-        <v>1.123</v>
-      </c>
-      <c r="E85">
-        <v>-10.741</v>
-      </c>
-      <c r="F85">
-        <v>0.221</v>
-      </c>
-      <c r="G85">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="H85">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -5126,8 +7576,20 @@
       <c r="H2">
         <v>-0.249</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>B2/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0618737995214365E-4</v>
+      </c>
+      <c r="J2">
+        <f>D2/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3634532879643787E-5</v>
+      </c>
+      <c r="K2">
+        <f>I2^2</f>
+        <v>1.1275759661100918E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -5153,8 +7615,20 @@
       <c r="H3">
         <v>-0.249</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f>B3/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0618737995214365E-4</v>
+      </c>
+      <c r="J3">
+        <f>D3/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3634532879643787E-5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">I3^2</f>
+        <v>1.1275759661100918E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -5180,8 +7654,20 @@
       <c r="H4">
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>B4/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0159488778121762E-4</v>
+      </c>
+      <c r="J4">
+        <f>D4/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3998571893192802E-5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1.03215212232782E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -5207,8 +7693,20 @@
       <c r="H5">
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f>B5/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0159488778121762E-4</v>
+      </c>
+      <c r="J5">
+        <f>D5/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3998571893192802E-5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1.03215212232782E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -5234,8 +7732,20 @@
       <c r="H6">
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f>B6/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0159488778121762E-4</v>
+      </c>
+      <c r="J6">
+        <f>D6/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.3998571893192802E-5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>1.03215212232782E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-7.9809999999999999</v>
       </c>
@@ -5261,8 +7771,20 @@
       <c r="H7">
         <v>-1.387</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f>B7/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9966139743111398E-5</v>
+      </c>
+      <c r="J7">
+        <f>D7/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.5370718944262172E-5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3.9864673624145251E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-7.9809999999999999</v>
       </c>
@@ -5288,8 +7810,20 @@
       <c r="H8">
         <v>-1.387</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f>B8/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9966139743111398E-5</v>
+      </c>
+      <c r="J8">
+        <f>D8/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.5370718944262172E-5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>3.9864673624145251E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-7.9980000000000002</v>
       </c>
@@ -5315,8 +7849,20 @@
       <c r="H9">
         <v>-1.4139999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f>B9/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6269743605536778E-5</v>
+      </c>
+      <c r="J9">
+        <f>D9/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.5370718944262172E-5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.6470455698990487E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-7.9980000000000002</v>
       </c>
@@ -5342,8 +7888,20 @@
       <c r="H10">
         <v>-1.4139999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f>B10/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6269743605536778E-5</v>
+      </c>
+      <c r="J10">
+        <f>D10/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.5370718944262172E-5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>2.6470455698990487E-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-7.9980000000000002</v>
       </c>
@@ -5369,8 +7927,20 @@
       <c r="H11">
         <v>-1.4139999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>B11/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6269743605536778E-5</v>
+      </c>
+      <c r="J11">
+        <f>D11/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.5370718944262172E-5</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>2.6470455698990487E-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-6.0140000000000002</v>
       </c>
@@ -5396,8 +7966,20 @@
       <c r="H12">
         <v>-0.86799999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f>B12/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.9316213463293693E-5</v>
+      </c>
+      <c r="J12">
+        <f>D12/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6773797624296954E-5</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>1.5457646410912763E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-6.0140000000000002</v>
       </c>
@@ -5423,8 +8005,20 @@
       <c r="H13">
         <v>-0.86799999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f>B13/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.9316213463293693E-5</v>
+      </c>
+      <c r="J13">
+        <f>D13/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6773797624296954E-5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1.5457646410912763E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-6.0140000000000002</v>
       </c>
@@ -5450,8 +8044,20 @@
       <c r="H14">
         <v>-0.86799999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f>B14/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.9316213463293693E-5</v>
+      </c>
+      <c r="J14">
+        <f>D14/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6773797624296954E-5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>1.5457646410912763E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.0019999999999998</v>
       </c>
@@ -5477,8 +8083,20 @@
       <c r="H15">
         <v>-0.91100000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f>B15/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.3379577242340516E-5</v>
+      </c>
+      <c r="J15">
+        <f>D15/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.8257956679535248E-5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1.1141961768773769E-9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.0019999999999998</v>
       </c>
@@ -5504,8 +8122,20 @@
       <c r="H16">
         <v>-0.91100000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f>B16/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.3379577242340516E-5</v>
+      </c>
+      <c r="J16">
+        <f>D16/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.8257956679535248E-5</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1.1141961768773769E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.9990000000000001</v>
       </c>
@@ -5531,8 +8161,20 @@
       <c r="H17">
         <v>-0.60199999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f>B17/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.4297819020887804E-5</v>
+      </c>
+      <c r="J17">
+        <f>D17/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.8734007697253192E-5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>2.9482531504250854E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3.9990000000000001</v>
       </c>
@@ -5558,8 +8200,20 @@
       <c r="H18">
         <v>-0.60199999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f>B18/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.4297819020887804E-5</v>
+      </c>
+      <c r="J18">
+        <f>D18/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.8734007697253192E-5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>2.9482531504250854E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.9990000000000001</v>
       </c>
@@ -5585,8 +8239,20 @@
       <c r="H19">
         <v>-0.60199999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f>B19/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.4297819020887804E-5</v>
+      </c>
+      <c r="J19">
+        <f>D19/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.8734007697253192E-5</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>2.9482531504250854E-9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.9929999999999999</v>
       </c>
@@ -5612,8 +8278,20 @@
       <c r="H20">
         <v>-0.69599999999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f>B20/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.9254350205362863E-5</v>
+      </c>
+      <c r="J20">
+        <f>D20/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.8481980687873104E-5</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>3.5110780182597858E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.9929999999999999</v>
       </c>
@@ -5639,8 +8317,20 @@
       <c r="H21">
         <v>-0.69599999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f>B21/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.9254350205362863E-5</v>
+      </c>
+      <c r="J21">
+        <f>D21/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.8481980687873104E-5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>3.5110780182597858E-9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.976</v>
       </c>
@@ -5666,8 +8356,20 @@
       <c r="H22">
         <v>-0.52500000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f>B22/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>8.1292712025599431E-5</v>
+      </c>
+      <c r="J22">
+        <f>D22/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9406079722266759E-5</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>6.6085050284770384E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.976</v>
       </c>
@@ -5693,8 +8395,20 @@
       <c r="H23">
         <v>-0.52500000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f>B23/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>8.1292712025599431E-5</v>
+      </c>
+      <c r="J23">
+        <f>D23/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9406079722266759E-5</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>6.6085050284770384E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.976</v>
       </c>
@@ -5720,8 +8434,20 @@
       <c r="H24">
         <v>-0.52500000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f>B24/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>8.1292712025599431E-5</v>
+      </c>
+      <c r="J24">
+        <f>D24/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9406079722266759E-5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>6.6085050284770384E-9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.966</v>
       </c>
@@ -5747,8 +8473,20 @@
       <c r="H25">
         <v>-0.51800000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f>B25/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>8.3504949107935763E-5</v>
+      </c>
+      <c r="J25">
+        <f>D25/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9574097728520151E-5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>6.9730765255189415E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.966</v>
       </c>
@@ -5774,8 +8512,20 @@
       <c r="H26">
         <v>-0.51800000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f>B26/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>8.3504949107935763E-5</v>
+      </c>
+      <c r="J26">
+        <f>D26/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9574097728520151E-5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>6.9730765255189415E-9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -5801,8 +8551,20 @@
       <c r="H27">
         <v>-0.32300000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>B27/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.876658467595218E-5</v>
+      </c>
+      <c r="J27">
+        <f>D27/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.0106154748322558E-5</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>9.7548382485520328E-9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -5828,8 +8590,20 @@
       <c r="H28">
         <v>-0.32300000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f>B28/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.876658467595218E-5</v>
+      </c>
+      <c r="J28">
+        <f>D28/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.0106154748322558E-5</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>9.7548382485520328E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -5855,8 +8629,20 @@
       <c r="H29">
         <v>-0.32300000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f>B29/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.876658467595218E-5</v>
+      </c>
+      <c r="J29">
+        <f>D29/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.0106154748322558E-5</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>9.7548382485520328E-9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -5882,8 +8668,20 @@
       <c r="H30">
         <v>-0.32300000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f>B30/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.876658467595218E-5</v>
+      </c>
+      <c r="J30">
+        <f>D30/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.0106154748322558E-5</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>9.7548382485520328E-9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -5909,8 +8707,20 @@
       <c r="H31">
         <v>-0.28399999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f>B31/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>9.5350218548799866E-5</v>
+      </c>
+      <c r="J31">
+        <f>D31/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9462085724351223E-5</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>9.0916641773038979E-9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.966</v>
       </c>
@@ -5936,8 +8746,20 @@
       <c r="H32">
         <v>-8.3000000000000004E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f>B32/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.1430825025439092E-4</v>
+      </c>
+      <c r="J32">
+        <f>D32/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.2878451851503523E-5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>1.3066376076220462E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.0270000000000001</v>
       </c>
@@ -5963,8 +8785,20 @@
       <c r="H33">
         <v>-7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f>B33/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0778355101155087E-4</v>
+      </c>
+      <c r="J33">
+        <f>D33/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1870343813983172E-5</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>1.1617293868659589E-8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.0270000000000001</v>
       </c>
@@ -5990,8 +8824,20 @@
       <c r="H34">
         <v>-7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f>B34/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0778355101155087E-4</v>
+      </c>
+      <c r="J34">
+        <f>D34/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1870343813983172E-5</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>1.1617293868659589E-8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.0270000000000001</v>
       </c>
@@ -6017,8 +8863,20 @@
       <c r="H35">
         <v>-7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f>B35/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0778355101155087E-4</v>
+      </c>
+      <c r="J35">
+        <f>D35/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1870343813983172E-5</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>1.1617293868659589E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.0270000000000001</v>
       </c>
@@ -6044,8 +8902,20 @@
       <c r="H36">
         <v>-7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f>B36/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0778355101155087E-4</v>
+      </c>
+      <c r="J36">
+        <f>D36/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.1870343813983172E-5</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>1.1617293868659589E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.976</v>
       </c>
@@ -6071,8 +8941,20 @@
       <c r="H37">
         <v>0.19400000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f>B37/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.3553452504440276E-4</v>
+      </c>
+      <c r="J37">
+        <f>D37/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.7218917013049479E-5</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>1.8369607479011841E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.976</v>
       </c>
@@ -6098,8 +8980,20 @@
       <c r="H38">
         <v>0.19400000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f>B38/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.3553452504440276E-4</v>
+      </c>
+      <c r="J38">
+        <f>D38/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.7218917013049479E-5</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>1.8369607479011841E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.976</v>
       </c>
@@ -6125,8 +9019,20 @@
       <c r="H39">
         <v>0.19400000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f>B39/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.3553452504440276E-4</v>
+      </c>
+      <c r="J39">
+        <f>D39/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.7218917013049479E-5</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>1.8369607479011841E-8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.0709999999999997</v>
       </c>
@@ -6152,8 +9058,20 @@
       <c r="H40">
         <v>0.17299999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f>B40/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.4141515526327146E-4</v>
+      </c>
+      <c r="J40">
+        <f>D40/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.7022896005753855E-5</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>1.9998246138135176E-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4.0709999999999997</v>
       </c>
@@ -6179,8 +9097,20 @@
       <c r="H41">
         <v>0.17299999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f>B41/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.4141515526327146E-4</v>
+      </c>
+      <c r="J41">
+        <f>D41/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.7022896005753855E-5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>1.9998246138135176E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.9749999999999996</v>
       </c>
@@ -6206,8 +9136,20 @@
       <c r="H42">
         <v>0.34100000000000003</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f>B42/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6258542405119886E-4</v>
+      </c>
+      <c r="J42">
+        <f>D42/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.9543166099554732E-5</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>2.6434020113908154E-8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.9749999999999996</v>
       </c>
@@ -6233,8 +9175,20 @@
       <c r="H43">
         <v>0.34100000000000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f>B43/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6258542405119886E-4</v>
+      </c>
+      <c r="J43">
+        <f>D43/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.9543166099554732E-5</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>2.6434020113908154E-8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.9749999999999996</v>
       </c>
@@ -6260,8 +9214,20 @@
       <c r="H44">
         <v>0.34100000000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f>B44/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.6258542405119886E-4</v>
+      </c>
+      <c r="J44">
+        <f>D44/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.9543166099554732E-5</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>2.6434020113908154E-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.9960000000000004</v>
       </c>
@@ -6287,8 +9253,20 @@
       <c r="H45">
         <v>0.22700000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f>B45/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.5522063477709183E-4</v>
+      </c>
+      <c r="J45">
+        <f>D45/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.7582956026598494E-5</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>2.409344546060333E-8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.9960000000000004</v>
       </c>
@@ -6314,8 +9292,20 @@
       <c r="H46">
         <v>0.22700000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f>B46/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.5522063477709183E-4</v>
+      </c>
+      <c r="J46">
+        <f>D46/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.7582956026598494E-5</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>2.409344546060333E-8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8.0299999999999994</v>
       </c>
@@ -6341,8 +9331,20 @@
       <c r="H47">
         <v>0.42599999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f>B47/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.7233046841389559E-4</v>
+      </c>
+      <c r="J47">
+        <f>D47/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.4163661271523011E-5</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>2.9697790343752666E-8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8.0299999999999994</v>
       </c>
@@ -6368,8 +9370,20 @@
       <c r="H48">
         <v>0.42599999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f>B48/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.7233046841389559E-4</v>
+      </c>
+      <c r="J48">
+        <f>D48/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.4163661271523011E-5</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>2.9697790343752666E-8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8.0299999999999994</v>
       </c>
@@ -6395,8 +9409,20 @@
       <c r="H49">
         <v>0.42599999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f>B49/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.7233046841389559E-4</v>
+      </c>
+      <c r="J49">
+        <f>D49/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.4163661271523011E-5</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>2.9697790343752666E-8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8.0310000000000006</v>
       </c>
@@ -6422,8 +9448,20 @@
       <c r="H50">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f>B50/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.7731500259941286E-4</v>
+      </c>
+      <c r="J50">
+        <f>D50/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.6067865342394785E-5</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>3.1440610146829791E-8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8.0310000000000006</v>
       </c>
@@ -6449,8 +9487,20 @@
       <c r="H51">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f>B51/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.7731500259941286E-4</v>
+      </c>
+      <c r="J51">
+        <f>D51/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.6067865342394785E-5</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>3.1440610146829791E-8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9.984</v>
       </c>
@@ -6476,8 +9526,20 @@
       <c r="H52">
         <v>0.88700000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f>B52/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9011237407571288E-4</v>
+      </c>
+      <c r="J52">
+        <f>D52/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.8280102424731111E-5</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>3.6142714776703785E-8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9.984</v>
       </c>
@@ -6503,8 +9565,20 @@
       <c r="H53">
         <v>0.88700000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f>B53/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9011237407571288E-4</v>
+      </c>
+      <c r="J53">
+        <f>D53/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.8280102424731111E-5</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>3.6142714776703785E-8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9.984</v>
       </c>
@@ -6530,8 +9604,20 @@
       <c r="H54">
         <v>0.88700000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f>B54/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9011237407571288E-4</v>
+      </c>
+      <c r="J54">
+        <f>D54/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.8280102424731111E-5</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>3.6142714776703785E-8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9.984</v>
       </c>
@@ -6557,8 +9643,20 @@
       <c r="H55">
         <v>0.88700000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f>B55/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9011237407571288E-4</v>
+      </c>
+      <c r="J55">
+        <f>D55/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.8280102424731111E-5</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>3.6142714776703785E-8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10.005000000000001</v>
       </c>
@@ -6584,8 +9682,20 @@
       <c r="H56">
         <v>0.751</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f>B56/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9358474620494965E-4</v>
+      </c>
+      <c r="J56">
+        <f>D56/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>3.727199438721076E-5</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>3.7475053963234767E-8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11.971</v>
       </c>
@@ -6611,8 +9721,20 @@
       <c r="H57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f>B57/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9232461115804923E-4</v>
+      </c>
+      <c r="J57">
+        <f>D57/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.3236633609206169E-5</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>3.6988756057094834E-8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11.971</v>
       </c>
@@ -6638,8 +9760,20 @@
       <c r="H58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f>B58/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9232461115804923E-4</v>
+      </c>
+      <c r="J58">
+        <f>D58/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.3236633609206169E-5</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>3.6988756057094834E-8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11.971</v>
       </c>
@@ -6665,8 +9799,20 @@
       <c r="H59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f>B59/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9232461115804923E-4</v>
+      </c>
+      <c r="J59">
+        <f>D59/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.3236633609206169E-5</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>3.6988756057094834E-8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11.988</v>
       </c>
@@ -6692,8 +9838,20 @@
       <c r="H60">
         <v>0.94899999999999995</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f>B60/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9431282423204769E-4</v>
+      </c>
+      <c r="J60">
+        <f>D60/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.3208630608163937E-5</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>3.7757473661034664E-8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11.988</v>
       </c>
@@ -6719,8 +9877,20 @@
       <c r="H61">
         <v>0.94899999999999995</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f>B61/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9431282423204769E-4</v>
+      </c>
+      <c r="J61">
+        <f>D61/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.3208630608163937E-5</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>3.7757473661034664E-8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13.962999999999999</v>
       </c>
@@ -6746,8 +9916,20 @@
       <c r="H62">
         <v>0.86399999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f>B62/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9879330439880481E-4</v>
+      </c>
+      <c r="J62">
+        <f>D62/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.8165161792638996E-5</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>3.9518777873795869E-8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13.962999999999999</v>
       </c>
@@ -6773,8 +9955,20 @@
       <c r="H63">
         <v>0.86399999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f>B63/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9879330439880481E-4</v>
+      </c>
+      <c r="J63">
+        <f>D63/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.8165161792638996E-5</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>3.9518777873795869E-8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13.962999999999999</v>
       </c>
@@ -6800,8 +9994,20 @@
       <c r="H64">
         <v>0.86399999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f>B64/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9879330439880481E-4</v>
+      </c>
+      <c r="J64">
+        <f>D64/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.8165161792638996E-5</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>3.9518777873795869E-8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13.976000000000001</v>
       </c>
@@ -6827,8 +10033,20 @@
       <c r="H65">
         <v>0.86799999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f>B65/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9798121736858007E-4</v>
+      </c>
+      <c r="J65">
+        <f>D65/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.7969140785343379E-5</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>3.919656243074495E-8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13.976000000000001</v>
       </c>
@@ -6854,8 +10072,20 @@
       <c r="H66">
         <v>0.86799999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f>B66/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.9798121736858007E-4</v>
+      </c>
+      <c r="J66">
+        <f>D66/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>4.7969140785343379E-5</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>3.919656243074495E-8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>16</v>
       </c>
@@ -6866,7 +10096,7 @@
         <v>-2.101</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D76" si="1">-C67</f>
+        <f t="shared" ref="D67:D76" si="2">-C67</f>
         <v>2.101</v>
       </c>
       <c r="E67">
@@ -6881,8 +10111,20 @@
       <c r="H67">
         <v>1.095</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f>B67/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.986252863925514E-4</v>
+      </c>
+      <c r="J67">
+        <f>D67/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.8834305189729384E-5</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K85" si="3">I67^2</f>
+        <v>3.9452004394523068E-8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16</v>
       </c>
@@ -6893,7 +10135,7 @@
         <v>-2.101</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.101</v>
       </c>
       <c r="E68">
@@ -6908,8 +10150,20 @@
       <c r="H68">
         <v>1.095</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f>B68/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.986252863925514E-4</v>
+      </c>
+      <c r="J68">
+        <f>D68/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.8834305189729384E-5</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>3.9452004394523068E-8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
@@ -6920,7 +10174,7 @@
         <v>-2.101</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.101</v>
       </c>
       <c r="E69">
@@ -6935,8 +10189,20 @@
       <c r="H69">
         <v>1.095</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f>B69/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.986252863925514E-4</v>
+      </c>
+      <c r="J69">
+        <f>D69/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.8834305189729384E-5</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>3.9452004394523068E-8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
@@ -6947,7 +10213,7 @@
         <v>-2.101</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.101</v>
       </c>
       <c r="E70">
@@ -6962,8 +10228,20 @@
       <c r="H70">
         <v>1.095</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f>B70/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.986252863925514E-4</v>
+      </c>
+      <c r="J70">
+        <f>D70/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.8834305189729384E-5</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>3.9452004394523068E-8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16.016999999999999</v>
       </c>
@@ -6974,7 +10252,7 @@
         <v>-2.056</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.056</v>
       </c>
       <c r="E71">
@@ -6989,8 +10267,20 @@
       <c r="H71">
         <v>1.153</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f>B71/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.0013744844883194E-4</v>
+      </c>
+      <c r="J71">
+        <f>D71/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>5.7574170142828945E-5</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>4.005499827160886E-8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.4E-2</v>
       </c>
@@ -7001,7 +10291,7 @@
         <v>-0.81200000000000006</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81200000000000006</v>
       </c>
       <c r="E72">
@@ -7016,8 +10306,20 @@
       <c r="H72">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f>B72/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0907168905949355E-4</v>
+      </c>
+      <c r="J72">
+        <f>D72/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.2738436846292367E-5</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>1.1896633354290844E-8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.4E-2</v>
       </c>
@@ -7028,7 +10330,7 @@
         <v>-0.81200000000000006</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81200000000000006</v>
       </c>
       <c r="E73">
@@ -7043,8 +10345,20 @@
       <c r="H73">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f>B73/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0907168905949355E-4</v>
+      </c>
+      <c r="J73">
+        <f>D73/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.2738436846292367E-5</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>1.1896633354290844E-8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2.4E-2</v>
       </c>
@@ -7055,7 +10369,7 @@
         <v>-0.81200000000000006</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81200000000000006</v>
       </c>
       <c r="E74">
@@ -7070,8 +10384,20 @@
       <c r="H74">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f>B74/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0907168905949355E-4</v>
+      </c>
+      <c r="J74">
+        <f>D74/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.2738436846292367E-5</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>1.1896633354290844E-8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.3E-2</v>
       </c>
@@ -7082,7 +10408,7 @@
         <v>-0.80200000000000005</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80200000000000005</v>
       </c>
       <c r="E75">
@@ -7097,8 +10423,20 @@
       <c r="H75">
         <v>-0.23899999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f>B75/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0750352100112856E-4</v>
+      </c>
+      <c r="J75">
+        <f>D75/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.2458406835870047E-5</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>1.1557007027640089E-8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.3E-2</v>
       </c>
@@ -7109,7 +10447,7 @@
         <v>-0.80200000000000005</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80200000000000005</v>
       </c>
       <c r="E76">
@@ -7123,6 +10461,18 @@
       </c>
       <c r="H76">
         <v>-0.23899999999999999</v>
+      </c>
+      <c r="I76">
+        <f>B76/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>1.0750352100112856E-4</v>
+      </c>
+      <c r="J76">
+        <f>D76/(0.5*0.002377*(65*12)^2*wing_area)</f>
+        <v>2.2458406835870047E-5</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="3"/>
+        <v>1.1557007027640089E-8</v>
       </c>
     </row>
   </sheetData>
@@ -9186,15 +12536,15 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -9286,7 +12636,7 @@
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <f>TunWidth/TunHeight</f>
         <v>1.4285714285714286</v>
       </c>
@@ -9322,9 +12672,9 @@
       <c r="C7" s="1">
         <v>0.35</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -9337,9 +12687,9 @@
         <f>(Rc_/28)*30</f>
         <v>2.7632142857142856</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -9524,9 +12874,15 @@
         <f>(Ttc+Trc)*2.75</f>
         <v>7.5625</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.5489999999999999E-5</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -9539,6 +12895,15 @@
         <f>C18*t_tail</f>
         <v>1.285625</v>
       </c>
+      <c r="E19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.5509999999999999E-5</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -9551,9 +12916,16 @@
         <f>(2*Rc_)/3*((1+lamda_w+lamda_w^2)/(1+lamda_w))</f>
         <v>2.0057037228541885</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="3">
+        <f>(wing_area/(4*TunWidth*TunHeight))*CDO_t</f>
+        <v>1.7075775475326845E-7</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -9566,9 +12938,16 @@
         <f>(2*Trc)/3*((1+lamda_t+lamda_t^2)/(1+lamda_t))</f>
         <v>1.4090909090909089</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="E21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="3">
+        <f>(wing_area/(4*TunWidth*TunHeight))*CDO_wot</f>
+        <v>1.7097822958187177E-7</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -9581,6 +12960,16 @@
         <f>0.25*wmac</f>
         <v>0.50142593071354713</v>
       </c>
+      <c r="E22" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="12">
+        <f>eps_wb_t+eps_strut+eps_tot</f>
+        <v>3.3382614035351805E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -9590,6 +12979,16 @@
         <v>41</v>
       </c>
       <c r="C23" s="3"/>
+      <c r="E23" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="12">
+        <f>eps_wb_nt+eps_strut+eps_tot</f>
+        <v>3.3382616240100089E-3</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -9644,13 +13043,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <f>vtTc/vtRc</f>
         <v>0.66101694915254228</v>
       </c>
@@ -9671,7 +13070,7 @@
       <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <f>(2*vtRc)/3*((1+lamda_vt+lamda_vt^2)/(1+lamda_vt))</f>
         <v>2.4840136054421769</v>
       </c>
@@ -9716,27 +13115,27 @@
       <c r="C31" s="3">
         <v>0.3</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -9748,9 +13147,9 @@
       <c r="C34" s="3">
         <v>12</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -9776,14 +13175,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
+++ b/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="No wind" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="121">
   <si>
     <t>Alpha (deg)</t>
   </si>
@@ -470,6 +470,15 @@
   <si>
     <t>eps_tot_nt</t>
   </si>
+  <si>
+    <t>Dynamic Pressure (Corrected)</t>
+  </si>
+  <si>
+    <t>CL (corrected)</t>
+  </si>
+  <si>
+    <t>CD (corrected)</t>
+  </si>
 </sst>
 </file>
 
@@ -557,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -575,6 +584,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4162,10 +4172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4178,9 +4188,12 @@
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4214,8 +4227,17 @@
       <c r="K1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4.7E-2</v>
       </c>
@@ -4253,8 +4275,20 @@
         <f>I2^2</f>
         <v>1.2584357375224169E-8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M2">
+        <f>B2/(L2*wing_area)</f>
+        <v>1.1143478347379423E-4</v>
+      </c>
+      <c r="N2">
+        <f>D2/(L2*wing_area)</f>
+        <v>2.5786331572692774E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-4.7E-2</v>
       </c>
@@ -4292,8 +4326,20 @@
         <f t="shared" ref="K3:K66" si="1">I3^2</f>
         <v>1.2584357375224169E-8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M3">
+        <f>B3/(L3*wing_area)</f>
+        <v>1.1143478347379423E-4</v>
+      </c>
+      <c r="N3">
+        <f>D3/(L3*wing_area)</f>
+        <v>2.5786331572692774E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.7E-2</v>
       </c>
@@ -4331,8 +4377,20 @@
         <f t="shared" si="1"/>
         <v>1.2584357375224169E-8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M4">
+        <f>B4/(L4*wing_area)</f>
+        <v>1.1143478347379423E-4</v>
+      </c>
+      <c r="N4">
+        <f>D4/(L4*wing_area)</f>
+        <v>2.5786331572692774E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-4.7E-2</v>
       </c>
@@ -4370,8 +4428,20 @@
         <f t="shared" si="1"/>
         <v>1.2584357375224169E-8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M5">
+        <f>B5/(L5*wing_area)</f>
+        <v>1.1143478347379423E-4</v>
+      </c>
+      <c r="N5">
+        <f>D5/(L5*wing_area)</f>
+        <v>2.5786331572692774E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-4.2000000000000003E-2</v>
       </c>
@@ -4409,8 +4479,20 @@
         <f t="shared" si="1"/>
         <v>1.2527876101835618E-8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M6">
+        <f>B6/(L6*wing_area)</f>
+        <v>1.1118443074007875E-4</v>
+      </c>
+      <c r="N6">
+        <f>D6/(L6*wing_area)</f>
+        <v>2.4117313347923014E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-4.7E-2</v>
       </c>
@@ -4448,8 +4530,20 @@
         <f t="shared" si="1"/>
         <v>1.3002435012007012E-8</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M7">
+        <f>B7/(L7*wing_area)</f>
+        <v>1.1327070352104096E-4</v>
+      </c>
+      <c r="N7">
+        <f>D7/(L7*wing_area)</f>
+        <v>2.4812737608243746E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-4.7E-2</v>
       </c>
@@ -4487,8 +4581,20 @@
         <f t="shared" si="1"/>
         <v>1.3002435012007012E-8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M8">
+        <f>B8/(L8*wing_area)</f>
+        <v>1.1327070352104096E-4</v>
+      </c>
+      <c r="N8">
+        <f>D8/(L8*wing_area)</f>
+        <v>2.4812737608243746E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-4.7E-2</v>
       </c>
@@ -4526,8 +4632,20 @@
         <f t="shared" si="1"/>
         <v>1.3002435012007012E-8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M9">
+        <f>B9/(L9*wing_area)</f>
+        <v>1.1327070352104096E-4</v>
+      </c>
+      <c r="N9">
+        <f>D9/(L9*wing_area)</f>
+        <v>2.4812737608243746E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4.7E-2</v>
       </c>
@@ -4565,8 +4683,20 @@
         <f t="shared" si="1"/>
         <v>1.3002435012007012E-8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M10">
+        <f>B10/(L10*wing_area)</f>
+        <v>1.1327070352104096E-4</v>
+      </c>
+      <c r="N10">
+        <f>D10/(L10*wing_area)</f>
+        <v>2.4812737608243746E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4.4999999999999998E-2</v>
       </c>
@@ -4604,8 +4734,20 @@
         <f t="shared" si="1"/>
         <v>1.4170701929633841E-8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M11">
+        <f>B11/(L11*wing_area)</f>
+        <v>1.1824994122493741E-4</v>
+      </c>
+      <c r="N11">
+        <f>D11/(L11*wing_area)</f>
+        <v>2.4784920637830915E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4.5999999999999999E-2</v>
       </c>
@@ -4643,8 +4785,20 @@
         <f t="shared" si="1"/>
         <v>9.0543213097676161E-9</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M12">
+        <f>B12/(L12*wing_area)</f>
+        <v>9.4522065462794E-5</v>
+      </c>
+      <c r="N12">
+        <f>D12/(L12*wing_area)</f>
+        <v>2.2615196945630227E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.7E-2</v>
       </c>
@@ -4682,8 +4836,20 @@
         <f t="shared" si="1"/>
         <v>1.1263868536527303E-8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M13">
+        <f>B13/(L13*wing_area)</f>
+        <v>1.0542631786462309E-4</v>
+      </c>
+      <c r="N13">
+        <f>D13/(L13*wing_area)</f>
+        <v>2.6287037040123699E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-4.7E-2</v>
       </c>
@@ -4721,8 +4887,20 @@
         <f t="shared" si="1"/>
         <v>1.1263868536527303E-8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M14">
+        <f>B14/(L14*wing_area)</f>
+        <v>1.0542631786462309E-4</v>
+      </c>
+      <c r="N14">
+        <f>D14/(L14*wing_area)</f>
+        <v>2.6287037040123699E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-4.7E-2</v>
       </c>
@@ -4760,8 +4938,20 @@
         <f t="shared" si="1"/>
         <v>1.1263868536527303E-8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M15">
+        <f>B15/(L15*wing_area)</f>
+        <v>1.0542631786462309E-4</v>
+      </c>
+      <c r="N15">
+        <f>D15/(L15*wing_area)</f>
+        <v>2.6287037040123699E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-4.7E-2</v>
       </c>
@@ -4799,8 +4989,20 @@
         <f t="shared" si="1"/>
         <v>1.1263868536527303E-8</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M16">
+        <f>B16/(L16*wing_area)</f>
+        <v>1.0542631786462309E-4</v>
+      </c>
+      <c r="N16">
+        <f>D16/(L16*wing_area)</f>
+        <v>2.6287037040123699E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-8.0860000000000003</v>
       </c>
@@ -4838,8 +5040,20 @@
         <f t="shared" si="1"/>
         <v>5.8402406736801484E-10</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M17">
+        <f>B17/(L17*wing_area)</f>
+        <v>2.4006045466271695E-5</v>
+      </c>
+      <c r="N17">
+        <f>D17/(L17*wing_area)</f>
+        <v>1.972223202269598E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-8.0860000000000003</v>
       </c>
@@ -4877,8 +5091,20 @@
         <f t="shared" si="1"/>
         <v>5.8402406736801484E-10</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M18">
+        <f>B18/(L18*wing_area)</f>
+        <v>2.4006045466271695E-5</v>
+      </c>
+      <c r="N18">
+        <f>D18/(L18*wing_area)</f>
+        <v>1.972223202269598E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-8.0860000000000003</v>
       </c>
@@ -4916,8 +5142,20 @@
         <f t="shared" si="1"/>
         <v>5.8402406736801484E-10</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M19">
+        <f>B19/(L19*wing_area)</f>
+        <v>2.4006045466271695E-5</v>
+      </c>
+      <c r="N19">
+        <f>D19/(L19*wing_area)</f>
+        <v>1.972223202269598E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-8.0860000000000003</v>
       </c>
@@ -4955,8 +5193,20 @@
         <f t="shared" si="1"/>
         <v>5.8402406736801484E-10</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M20">
+        <f>B20/(L20*wing_area)</f>
+        <v>2.4006045466271695E-5</v>
+      </c>
+      <c r="N20">
+        <f>D20/(L20*wing_area)</f>
+        <v>1.972223202269598E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-8.0860000000000003</v>
       </c>
@@ -4994,8 +5244,20 @@
         <f t="shared" si="1"/>
         <v>5.8402406736801484E-10</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M21">
+        <f>B21/(L21*wing_area)</f>
+        <v>2.4006045466271695E-5</v>
+      </c>
+      <c r="N21">
+        <f>D21/(L21*wing_area)</f>
+        <v>1.972223202269598E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-6.0060000000000002</v>
       </c>
@@ -5033,8 +5295,20 @@
         <f t="shared" si="1"/>
         <v>2.8159671341318259E-9</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M22">
+        <f>B22/(L22*wing_area)</f>
+        <v>5.2713158932311547E-5</v>
+      </c>
+      <c r="N22">
+        <f>D22/(L22*wing_area)</f>
+        <v>2.3254987265125305E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-6.0060000000000002</v>
       </c>
@@ -5072,8 +5346,20 @@
         <f t="shared" si="1"/>
         <v>2.8159671341318259E-9</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M23">
+        <f>B23/(L23*wing_area)</f>
+        <v>5.2713158932311547E-5</v>
+      </c>
+      <c r="N23">
+        <f>D23/(L23*wing_area)</f>
+        <v>2.3254987265125305E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-6.0060000000000002</v>
       </c>
@@ -5111,8 +5397,20 @@
         <f t="shared" si="1"/>
         <v>2.8159671341318259E-9</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M24">
+        <f>B24/(L24*wing_area)</f>
+        <v>5.2713158932311547E-5</v>
+      </c>
+      <c r="N24">
+        <f>D24/(L24*wing_area)</f>
+        <v>2.3254987265125305E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-6.0060000000000002</v>
       </c>
@@ -5150,8 +5448,20 @@
         <f t="shared" si="1"/>
         <v>2.8159671341318259E-9</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M25">
+        <f>B25/(L25*wing_area)</f>
+        <v>5.2713158932311547E-5</v>
+      </c>
+      <c r="N25">
+        <f>D25/(L25*wing_area)</f>
+        <v>2.3254987265125305E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-6.0060000000000002</v>
       </c>
@@ -5189,8 +5499,20 @@
         <f t="shared" si="1"/>
         <v>2.8159671341318259E-9</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M26">
+        <f>B26/(L26*wing_area)</f>
+        <v>5.2713158932311547E-5</v>
+      </c>
+      <c r="N26">
+        <f>D26/(L26*wing_area)</f>
+        <v>2.3254987265125305E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-3.9950000000000001</v>
       </c>
@@ -5228,8 +5550,20 @@
         <f t="shared" si="1"/>
         <v>3.9241095335290972E-9</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M27">
+        <f>B27/(L27*wing_area)</f>
+        <v>6.2226562813499171E-5</v>
+      </c>
+      <c r="N27">
+        <f>D27/(L27*wing_area)</f>
+        <v>2.2197942389437792E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.9950000000000001</v>
       </c>
@@ -5267,8 +5601,20 @@
         <f t="shared" si="1"/>
         <v>4.8151714710040527E-9</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M28">
+        <f>B28/(L28*wing_area)</f>
+        <v>6.8930452682991033E-5</v>
+      </c>
+      <c r="N28">
+        <f>D28/(L28*wing_area)</f>
+        <v>2.105744660251179E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-3.9950000000000001</v>
       </c>
@@ -5306,8 +5652,20 @@
         <f t="shared" si="1"/>
         <v>4.8151714710040527E-9</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M29">
+        <f>B29/(L29*wing_area)</f>
+        <v>6.8930452682991033E-5</v>
+      </c>
+      <c r="N29">
+        <f>D29/(L29*wing_area)</f>
+        <v>2.105744660251179E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-3.9950000000000001</v>
       </c>
@@ -5345,8 +5703,20 @@
         <f t="shared" si="1"/>
         <v>4.8151714710040527E-9</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M30">
+        <f>B30/(L30*wing_area)</f>
+        <v>6.8930452682991033E-5</v>
+      </c>
+      <c r="N30">
+        <f>D30/(L30*wing_area)</f>
+        <v>2.105744660251179E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-3.9950000000000001</v>
       </c>
@@ -5384,8 +5754,20 @@
         <f t="shared" si="1"/>
         <v>4.8151714710040527E-9</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M31">
+        <f>B31/(L31*wing_area)</f>
+        <v>6.8930452682991033E-5</v>
+      </c>
+      <c r="N31">
+        <f>D31/(L31*wing_area)</f>
+        <v>2.105744660251179E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-2.0299999999999998</v>
       </c>
@@ -5423,8 +5805,20 @@
         <f t="shared" si="1"/>
         <v>7.7069802039397532E-9</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M32">
+        <f>B32/(L32*wing_area)</f>
+        <v>8.7206202244219884E-5</v>
+      </c>
+      <c r="N32">
+        <f>D32/(L32*wing_area)</f>
+        <v>1.911025867361374E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-2.0299999999999998</v>
       </c>
@@ -5462,8 +5856,20 @@
         <f t="shared" si="1"/>
         <v>7.7069802039397532E-9</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M33">
+        <f>B33/(L33*wing_area)</f>
+        <v>8.7206202244219884E-5</v>
+      </c>
+      <c r="N33">
+        <f>D33/(L33*wing_area)</f>
+        <v>1.911025867361374E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.976</v>
       </c>
@@ -5501,8 +5907,20 @@
         <f t="shared" si="1"/>
         <v>8.7950729941904794E-9</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M34">
+        <f>B34/(L34*wing_area)</f>
+        <v>9.3159033912565363E-5</v>
+      </c>
+      <c r="N34">
+        <f>D34/(L34*wing_area)</f>
+        <v>2.3115902413061155E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.976</v>
       </c>
@@ -5540,8 +5958,20 @@
         <f t="shared" si="1"/>
         <v>8.7950729941904794E-9</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M35">
+        <f>B35/(L35*wing_area)</f>
+        <v>9.3159033912565363E-5</v>
+      </c>
+      <c r="N35">
+        <f>D35/(L35*wing_area)</f>
+        <v>2.3115902413061155E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.976</v>
       </c>
@@ -5579,8 +6009,20 @@
         <f t="shared" si="1"/>
         <v>8.7950729941904794E-9</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M36">
+        <f>B36/(L36*wing_area)</f>
+        <v>9.3159033912565363E-5</v>
+      </c>
+      <c r="N36">
+        <f>D36/(L36*wing_area)</f>
+        <v>2.3115902413061155E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.9E-2</v>
       </c>
@@ -5618,8 +6060,20 @@
         <f t="shared" si="1"/>
         <v>9.865782346723716E-9</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M37">
+        <f>B37/(L37*wing_area)</f>
+        <v>9.8666794054305578E-5</v>
+      </c>
+      <c r="N37">
+        <f>D37/(L37*wing_area)</f>
+        <v>2.6287037040123699E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.9E-2</v>
       </c>
@@ -5657,8 +6111,20 @@
         <f t="shared" si="1"/>
         <v>9.865782346723716E-9</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M38">
+        <f>B38/(L38*wing_area)</f>
+        <v>9.8666794054305578E-5</v>
+      </c>
+      <c r="N38">
+        <f>D38/(L38*wing_area)</f>
+        <v>2.6287037040123699E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.9E-2</v>
       </c>
@@ -5696,8 +6162,20 @@
         <f t="shared" si="1"/>
         <v>9.865782346723716E-9</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M39">
+        <f>B39/(L39*wing_area)</f>
+        <v>9.8666794054305578E-5</v>
+      </c>
+      <c r="N39">
+        <f>D39/(L39*wing_area)</f>
+        <v>2.6287037040123699E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1.9E-2</v>
       </c>
@@ -5735,8 +6213,20 @@
         <f t="shared" si="1"/>
         <v>9.865782346723716E-9</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M40">
+        <f>B40/(L40*wing_area)</f>
+        <v>9.8666794054305578E-5</v>
+      </c>
+      <c r="N40">
+        <f>D40/(L40*wing_area)</f>
+        <v>2.6287037040123699E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.9E-2</v>
       </c>
@@ -5774,8 +6264,20 @@
         <f t="shared" si="1"/>
         <v>9.865782346723716E-9</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M41">
+        <f>B41/(L41*wing_area)</f>
+        <v>9.8666794054305578E-5</v>
+      </c>
+      <c r="N41">
+        <f>D41/(L41*wing_area)</f>
+        <v>2.6287037040123699E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1.992</v>
       </c>
@@ -5813,8 +6315,20 @@
         <f t="shared" si="1"/>
         <v>1.6070527863160038E-8</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M42">
+        <f>B42/(L42*wing_area)</f>
+        <v>1.259274250588783E-4</v>
+      </c>
+      <c r="N42">
+        <f>D42/(L42*wing_area)</f>
+        <v>2.7705702531177993E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.992</v>
       </c>
@@ -5852,8 +6366,20 @@
         <f t="shared" si="1"/>
         <v>1.6070527863160038E-8</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M43">
+        <f>B43/(L43*wing_area)</f>
+        <v>1.259274250588783E-4</v>
+      </c>
+      <c r="N43">
+        <f>D43/(L43*wing_area)</f>
+        <v>2.7705702531177993E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.99</v>
       </c>
@@ -5891,8 +6417,20 @@
         <f t="shared" si="1"/>
         <v>1.5181493784307306E-8</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M44">
+        <f>B44/(L44*wing_area)</f>
+        <v>1.2239466981644898E-4</v>
+      </c>
+      <c r="N44">
+        <f>D44/(L44*wing_area)</f>
+        <v>3.0209229868332636E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.99</v>
       </c>
@@ -5930,8 +6468,20 @@
         <f t="shared" si="1"/>
         <v>1.5181493784307306E-8</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M45">
+        <f>B45/(L45*wing_area)</f>
+        <v>1.2239466981644898E-4</v>
+      </c>
+      <c r="N45">
+        <f>D45/(L45*wing_area)</f>
+        <v>3.0209229868332636E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.99</v>
       </c>
@@ -5969,8 +6519,20 @@
         <f t="shared" si="1"/>
         <v>1.5181493784307306E-8</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M46">
+        <f>B46/(L46*wing_area)</f>
+        <v>1.2239466981644898E-4</v>
+      </c>
+      <c r="N46">
+        <f>D46/(L46*wing_area)</f>
+        <v>3.0209229868332636E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3.9750000000000001</v>
       </c>
@@ -6008,8 +6570,20 @@
         <f t="shared" si="1"/>
         <v>2.2018969615112213E-8</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M47">
+        <f>B47/(L47*wing_area)</f>
+        <v>1.4740212621758254E-4</v>
+      </c>
+      <c r="N47">
+        <f>D47/(L47*wing_area)</f>
+        <v>3.2406770530946151E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3.9750000000000001</v>
       </c>
@@ -6047,8 +6621,20 @@
         <f t="shared" si="1"/>
         <v>2.2018969615112213E-8</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M48">
+        <f>B48/(L48*wing_area)</f>
+        <v>1.4740212621758254E-4</v>
+      </c>
+      <c r="N48">
+        <f>D48/(L48*wing_area)</f>
+        <v>3.2406770530946151E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.0259999999999998</v>
       </c>
@@ -6086,8 +6672,20 @@
         <f t="shared" si="1"/>
         <v>2.3755599979633578E-8</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M49">
+        <f>B49/(L49*wing_area)</f>
+        <v>1.5310460515221251E-4</v>
+      </c>
+      <c r="N49">
+        <f>D49/(L49*wing_area)</f>
+        <v>3.5383186365118883E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4.0259999999999998</v>
       </c>
@@ -6125,8 +6723,20 @@
         <f t="shared" si="1"/>
         <v>2.3755599979633578E-8</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M50">
+        <f>B50/(L50*wing_area)</f>
+        <v>1.5310460515221251E-4</v>
+      </c>
+      <c r="N50">
+        <f>D50/(L50*wing_area)</f>
+        <v>3.5383186365118883E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4.0259999999999998</v>
       </c>
@@ -6164,8 +6774,20 @@
         <f t="shared" si="1"/>
         <v>2.3755599979633578E-8</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M51">
+        <f>B51/(L51*wing_area)</f>
+        <v>1.5310460515221251E-4</v>
+      </c>
+      <c r="N51">
+        <f>D51/(L51*wing_area)</f>
+        <v>3.5383186365118883E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6.0010000000000003</v>
       </c>
@@ -6203,8 +6825,20 @@
         <f t="shared" si="1"/>
         <v>2.9006944549743138E-8</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M52">
+        <f>B52/(L52*wing_area)</f>
+        <v>1.6918281405082787E-4</v>
+      </c>
+      <c r="N52">
+        <f>D52/(L52*wing_area)</f>
+        <v>4.3227572021536751E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6.0149999999999997</v>
       </c>
@@ -6242,8 +6876,20 @@
         <f t="shared" si="1"/>
         <v>2.5899509986650089E-8</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M53">
+        <f>B53/(L53*wing_area)</f>
+        <v>1.5986412896253004E-4</v>
+      </c>
+      <c r="N53">
+        <f>D53/(L53*wing_area)</f>
+        <v>4.1586370767179821E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6.0149999999999997</v>
       </c>
@@ -6281,8 +6927,20 @@
         <f t="shared" si="1"/>
         <v>2.5899509986650089E-8</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M54">
+        <f>B54/(L54*wing_area)</f>
+        <v>1.5986412896253004E-4</v>
+      </c>
+      <c r="N54">
+        <f>D54/(L54*wing_area)</f>
+        <v>4.1586370767179821E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6.0149999999999997</v>
       </c>
@@ -6320,8 +6978,20 @@
         <f t="shared" si="1"/>
         <v>2.5899509986650089E-8</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M55">
+        <f>B55/(L55*wing_area)</f>
+        <v>1.5986412896253004E-4</v>
+      </c>
+      <c r="N55">
+        <f>D55/(L55*wing_area)</f>
+        <v>4.1586370767179821E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6.0149999999999997</v>
       </c>
@@ -6359,8 +7029,20 @@
         <f t="shared" si="1"/>
         <v>2.5899509986650089E-8</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M56">
+        <f>B56/(L56*wing_area)</f>
+        <v>1.5986412896253004E-4</v>
+      </c>
+      <c r="N56">
+        <f>D56/(L56*wing_area)</f>
+        <v>4.1586370767179821E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7.9880000000000004</v>
       </c>
@@ -6398,8 +7080,20 @@
         <f t="shared" si="1"/>
         <v>3.2451610590209183E-8</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M57">
+        <f>B57/(L57*wing_area)</f>
+        <v>1.7894657066573096E-4</v>
+      </c>
+      <c r="N57">
+        <f>D57/(L57*wing_area)</f>
+        <v>4.7483568494699638E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7.9880000000000004</v>
       </c>
@@ -6437,8 +7131,20 @@
         <f t="shared" si="1"/>
         <v>3.2451610590209183E-8</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M58">
+        <f>B58/(L58*wing_area)</f>
+        <v>1.7894657066573096E-4</v>
+      </c>
+      <c r="N58">
+        <f>D58/(L58*wing_area)</f>
+        <v>4.7483568494699638E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8.0570000000000004</v>
       </c>
@@ -6476,8 +7182,20 @@
         <f t="shared" si="1"/>
         <v>3.2572792786668466E-8</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M59">
+        <f>B59/(L59*wing_area)</f>
+        <v>1.7928037431068491E-4</v>
+      </c>
+      <c r="N59">
+        <f>D59/(L59*wing_area)</f>
+        <v>4.500785812795783E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8.0570000000000004</v>
       </c>
@@ -6515,8 +7233,20 @@
         <f t="shared" si="1"/>
         <v>3.2572792786668466E-8</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M60">
+        <f>B60/(L60*wing_area)</f>
+        <v>1.7928037431068491E-4</v>
+      </c>
+      <c r="N60">
+        <f>D60/(L60*wing_area)</f>
+        <v>4.500785812795783E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8.0570000000000004</v>
       </c>
@@ -6554,8 +7284,20 @@
         <f t="shared" si="1"/>
         <v>3.2572792786668466E-8</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M61">
+        <f>B61/(L61*wing_area)</f>
+        <v>1.7928037431068491E-4</v>
+      </c>
+      <c r="N61">
+        <f>D61/(L61*wing_area)</f>
+        <v>4.500785812795783E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9.9619999999999997</v>
       </c>
@@ -6593,8 +7335,20 @@
         <f t="shared" si="1"/>
         <v>4.0122279891789308E-8</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M62">
+        <f>B62/(L62*wing_area)</f>
+        <v>1.9897478936296807E-4</v>
+      </c>
+      <c r="N62">
+        <f>D62/(L62*wing_area)</f>
+        <v>5.1767381938275346E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9.9619999999999997</v>
       </c>
@@ -6632,8 +7386,20 @@
         <f t="shared" si="1"/>
         <v>4.0122279891789308E-8</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M63">
+        <f>B63/(L63*wing_area)</f>
+        <v>1.9897478936296807E-4</v>
+      </c>
+      <c r="N63">
+        <f>D63/(L63*wing_area)</f>
+        <v>5.1767381938275346E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9.9619999999999997</v>
       </c>
@@ -6671,8 +7437,20 @@
         <f t="shared" si="1"/>
         <v>4.0122279891789308E-8</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M64">
+        <f>B64/(L64*wing_area)</f>
+        <v>1.9897478936296807E-4</v>
+      </c>
+      <c r="N64">
+        <f>D64/(L64*wing_area)</f>
+        <v>5.1767381938275346E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10.037000000000001</v>
       </c>
@@ -6710,8 +7488,20 @@
         <f t="shared" si="1"/>
         <v>3.8150266582653179E-8</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M65">
+        <f>B65/(L65*wing_area)</f>
+        <v>1.9402336862948445E-4</v>
+      </c>
+      <c r="N65">
+        <f>D65/(L65*wing_area)</f>
+        <v>5.0682520092175009E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10.037000000000001</v>
       </c>
@@ -6749,8 +7539,20 @@
         <f t="shared" si="1"/>
         <v>3.8150266582653179E-8</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M66">
+        <f>B66/(L66*wing_area)</f>
+        <v>1.9402336862948445E-4</v>
+      </c>
+      <c r="N66">
+        <f>D66/(L66*wing_area)</f>
+        <v>5.0682520092175009E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11.99</v>
       </c>
@@ -6788,8 +7590,20 @@
         <f t="shared" ref="K67:K85" si="3">I67^2</f>
         <v>4.6420895815066445E-8</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M67">
+        <f>B67/(L67*wing_area)</f>
+        <v>2.1402377035630873E-4</v>
+      </c>
+      <c r="N67">
+        <f>D67/(L67*wing_area)</f>
+        <v>5.524450323987901E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11.99</v>
       </c>
@@ -6827,8 +7641,20 @@
         <f t="shared" si="3"/>
         <v>4.6420895815066445E-8</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M68">
+        <f>B68/(L68*wing_area)</f>
+        <v>2.1402377035630873E-4</v>
+      </c>
+      <c r="N68">
+        <f>D68/(L68*wing_area)</f>
+        <v>5.524450323987901E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12.003</v>
       </c>
@@ -6866,8 +7692,20 @@
         <f t="shared" si="3"/>
         <v>4.2987478665526836E-8</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M69">
+        <f>B69/(L69*wing_area)</f>
+        <v>2.0595684893658821E-4</v>
+      </c>
+      <c r="N69">
+        <f>D69/(L69*wing_area)</f>
+        <v>5.7469860872905352E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12.003</v>
       </c>
@@ -6905,8 +7743,20 @@
         <f t="shared" si="3"/>
         <v>4.2987478665526836E-8</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M70">
+        <f>B70/(L70*wing_area)</f>
+        <v>2.0595684893658821E-4</v>
+      </c>
+      <c r="N70">
+        <f>D70/(L70*wing_area)</f>
+        <v>5.7469860872905352E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12.003</v>
       </c>
@@ -6944,8 +7794,20 @@
         <f t="shared" si="3"/>
         <v>4.2987478665526836E-8</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M71">
+        <f>B71/(L71*wing_area)</f>
+        <v>2.0595684893658821E-4</v>
+      </c>
+      <c r="N71">
+        <f>D71/(L71*wing_area)</f>
+        <v>5.7469860872905352E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>13.958</v>
       </c>
@@ -6983,8 +7845,20 @@
         <f t="shared" si="3"/>
         <v>4.304555807343669E-8</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M72">
+        <f>B72/(L72*wing_area)</f>
+        <v>2.0609593378865236E-4</v>
+      </c>
+      <c r="N72">
+        <f>D72/(L72*wing_area)</f>
+        <v>6.7789956896065028E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>13.958</v>
       </c>
@@ -7022,8 +7896,20 @@
         <f t="shared" si="3"/>
         <v>4.304555807343669E-8</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M73">
+        <f>B73/(L73*wing_area)</f>
+        <v>2.0609593378865236E-4</v>
+      </c>
+      <c r="N73">
+        <f>D73/(L73*wing_area)</f>
+        <v>6.7789956896065028E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13.976000000000001</v>
       </c>
@@ -7061,8 +7947,20 @@
         <f t="shared" si="3"/>
         <v>4.304555807343669E-8</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M74">
+        <f>B74/(L74*wing_area)</f>
+        <v>2.0609593378865236E-4</v>
+      </c>
+      <c r="N74">
+        <f>D74/(L74*wing_area)</f>
+        <v>6.9264256327944987E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13.976000000000001</v>
       </c>
@@ -7100,8 +7998,20 @@
         <f t="shared" si="3"/>
         <v>4.304555807343669E-8</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M75">
+        <f>B75/(L75*wing_area)</f>
+        <v>2.0609593378865236E-4</v>
+      </c>
+      <c r="N75">
+        <f>D75/(L75*wing_area)</f>
+        <v>6.9264256327944987E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15.951000000000001</v>
       </c>
@@ -7139,8 +8049,20 @@
         <f t="shared" si="3"/>
         <v>4.5019817239917768E-8</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M76">
+        <f>B76/(L76*wing_area)</f>
+        <v>2.1076918481800769E-4</v>
+      </c>
+      <c r="N76">
+        <f>D76/(L76*wing_area)</f>
+        <v>6.8262845393083138E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>15.951000000000001</v>
       </c>
@@ -7178,8 +8100,20 @@
         <f t="shared" si="3"/>
         <v>4.5019817239917768E-8</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M77">
+        <f>B77/(L77*wing_area)</f>
+        <v>2.1076918481800769E-4</v>
+      </c>
+      <c r="N77">
+        <f>D77/(L77*wing_area)</f>
+        <v>6.8262845393083138E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>15.996</v>
       </c>
@@ -7217,8 +8151,20 @@
         <f t="shared" si="3"/>
         <v>4.7916973214904878E-8</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M78">
+        <f>B78/(L78*wing_area)</f>
+        <v>2.1744525771708674E-4</v>
+      </c>
+      <c r="N78">
+        <f>D78/(L78*wing_area)</f>
+        <v>7.1600881842622639E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>15.996</v>
       </c>
@@ -7256,8 +8202,20 @@
         <f t="shared" si="3"/>
         <v>4.7916973214904878E-8</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M79">
+        <f>B79/(L79*wing_area)</f>
+        <v>2.1744525771708674E-4</v>
+      </c>
+      <c r="N79">
+        <f>D79/(L79*wing_area)</f>
+        <v>7.1600881842622639E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>15.996</v>
       </c>
@@ -7295,8 +8253,20 @@
         <f t="shared" si="3"/>
         <v>4.7916973214904878E-8</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M80">
+        <f>B80/(L80*wing_area)</f>
+        <v>2.1744525771708674E-4</v>
+      </c>
+      <c r="N80">
+        <f>D80/(L80*wing_area)</f>
+        <v>7.1600881842622639E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -7334,8 +8304,20 @@
         <f t="shared" si="3"/>
         <v>1.1228232802873681E-8</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M81">
+        <f>B81/(L81*wing_area)</f>
+        <v>1.052594160421461E-4</v>
+      </c>
+      <c r="N81">
+        <f>D81/(L81*wing_area)</f>
+        <v>3.0904654128653364E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -7373,8 +8355,20 @@
         <f t="shared" si="3"/>
         <v>1.1228232802873681E-8</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M82">
+        <f>B82/(L82*wing_area)</f>
+        <v>1.052594160421461E-4</v>
+      </c>
+      <c r="N82">
+        <f>D82/(L82*wing_area)</f>
+        <v>3.0904654128653364E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -7412,8 +8406,20 @@
         <f t="shared" si="3"/>
         <v>1.2440268845348902E-8</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M83">
+        <f>B83/(L83*wing_area)</f>
+        <v>1.1079499315429915E-4</v>
+      </c>
+      <c r="N83">
+        <f>D83/(L83*wing_area)</f>
+        <v>3.1238457773607318E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -7451,8 +8457,20 @@
         <f t="shared" si="3"/>
         <v>1.2440268845348902E-8</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M84">
+        <f>B84/(L84*wing_area)</f>
+        <v>1.1079499315429915E-4</v>
+      </c>
+      <c r="N84">
+        <f>D84/(L84*wing_area)</f>
+        <v>3.1238457773607318E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -7489,6 +8507,18 @@
       <c r="K85">
         <f t="shared" si="3"/>
         <v>1.2440268845348902E-8</v>
+      </c>
+      <c r="L85" s="13">
+        <f>0.5*(65*12)^2*0.002377*(1+eps_tot_t)^2</f>
+        <v>727.91914084511302</v>
+      </c>
+      <c r="M85">
+        <f>B85/(L85*wing_area)</f>
+        <v>1.1079499315429915E-4</v>
+      </c>
+      <c r="N85">
+        <f>D85/(L85*wing_area)</f>
+        <v>3.1238457773607318E-5</v>
       </c>
     </row>
   </sheetData>
@@ -12535,8 +13565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
+++ b/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="No wind" sheetId="1" r:id="rId1"/>
     <sheet name="Cd vs Cl^2 with Tail" sheetId="6" r:id="rId2"/>
     <sheet name="Cd vs Cl^2 No Tail" sheetId="7" r:id="rId3"/>
     <sheet name="CL vs Alpha " sheetId="8" r:id="rId4"/>
-    <sheet name="Tail On 65 MPH" sheetId="2" r:id="rId5"/>
-    <sheet name="Tail OFf 65 MPH" sheetId="3" r:id="rId6"/>
-    <sheet name="No Model 65 MPH" sheetId="4" r:id="rId7"/>
-    <sheet name="Airplane Characteristics" sheetId="5" r:id="rId8"/>
+    <sheet name="CD vs Alpha" sheetId="9" r:id="rId5"/>
+    <sheet name="Tail On 65 MPH" sheetId="2" r:id="rId6"/>
+    <sheet name="Tail OFf 65 MPH" sheetId="3" r:id="rId7"/>
+    <sheet name="No Model 65 MPH" sheetId="4" r:id="rId8"/>
+    <sheet name="Airplane Characteristics" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="atnt">'Airplane Characteristics'!$K$11</definedName>
@@ -52,14 +53,14 @@
     <definedName name="lamda_vt">'Airplane Characteristics'!$C$28</definedName>
     <definedName name="lamda_w">'Airplane Characteristics'!$C$6</definedName>
     <definedName name="lbar">'Airplane Characteristics'!$C$23</definedName>
-    <definedName name="NoModel65mph" localSheetId="6">'No Model 65 MPH'!$A$1:$M$75</definedName>
+    <definedName name="NoModel65mph" localSheetId="7">'No Model 65 MPH'!$A$1:$M$75</definedName>
     <definedName name="nowind" localSheetId="0">'No wind'!$A$1:$H$70</definedName>
     <definedName name="Rc_">'Airplane Characteristics'!$C$4</definedName>
     <definedName name="strut_area">'Airplane Characteristics'!$G$30</definedName>
     <definedName name="t_tail">'Airplane Characteristics'!$C$17</definedName>
     <definedName name="t_wing">'Airplane Characteristics'!$C$7</definedName>
-    <definedName name="tailoff65mph" localSheetId="5">'Tail OFf 65 MPH'!$A$1:$I$76</definedName>
-    <definedName name="tailon65mph" localSheetId="4">'Tail On 65 MPH'!$A$1:$I$85</definedName>
+    <definedName name="tailoff65mph" localSheetId="6">'Tail OFf 65 MPH'!$A$1:$I$76</definedName>
+    <definedName name="tailon65mph" localSheetId="5">'Tail On 65 MPH'!$A$1:$I$85</definedName>
     <definedName name="tamc">'Airplane Characteristics'!$C$21</definedName>
     <definedName name="tau_wing">'Airplane Characteristics'!$G$13</definedName>
     <definedName name="tau1_">'Airplane Characteristics'!$G$6</definedName>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="152">
   <si>
     <t>Alpha (deg)</t>
   </si>
@@ -4080,6 +4081,2065 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>CD vs Alpha both With and Without Tail with Freestream Airspeed of 65 fps, Static Temperature 70 ⁰F, and Standard Atmospheric Pressure</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Non-Corrected With Tail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$A$2:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.992</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.0010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.9880000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.9880000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.0570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.0570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.0570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.037000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.037000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.99</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.99</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.958</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.958</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$O$2:$O$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>2.5786331572692774E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5786331572692774E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5786331572692774E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5786331572692774E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4117313347923014E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4812737608243746E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4812737608243746E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4812737608243746E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4812737608243746E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4784920637830915E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2615196945630227E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6287037040123699E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6287037040123699E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6287037040123699E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6287037040123699E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.972223202269598E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.972223202269598E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.972223202269598E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.972223202269598E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.972223202269598E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3254987265125305E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3254987265125305E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3254987265125305E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3254987265125305E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3254987265125305E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2197942389437792E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.105744660251179E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.105744660251179E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.105744660251179E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.105744660251179E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.911025867361374E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.911025867361374E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3115902413061155E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3115902413061155E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3115902413061155E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6287037040123699E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6287037040123699E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6287037040123699E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6287037040123699E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6287037040123699E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7705702531177993E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.7705702531177993E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0209229868332636E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0209229868332636E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0209229868332636E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.2406770530946151E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.2406770530946151E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5383186365118883E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5383186365118883E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5383186365118883E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.3227572021536751E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.1586370767179821E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.1586370767179821E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.1586370767179821E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.1586370767179821E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.7483568494699638E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7483568494699638E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.500785812795783E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.500785812795783E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.500785812795783E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.1767381938275346E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.1767381938275346E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.1767381938275346E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.0682520092175009E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.0682520092175009E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.524450323987901E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.524450323987901E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.7469860872905352E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.7469860872905352E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.7469860872905352E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.7789956896065028E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.7789956896065028E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.9264256327944987E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.9264256327944987E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.8262845393083138E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.8262845393083138E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.1600881842622639E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.1600881842622639E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.1600881842622639E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Corrected With Tail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$B$2:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>6.0574343520103699E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0574343520103699E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0574343520103699E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0574343520103699E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5574343520103689E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0574343520103699E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0574343520103699E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0574343520103699E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0574343520103699E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2574343520103701E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.15743435201037E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0574343520103699E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0574343520103699E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0574343520103699E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0574343520103699E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.9784256564798968</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.9784256564798968</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.9784256564798968</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.9784256564798968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.9784256564798968</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.8984256564798967</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.8984256564798967</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.8984256564798967</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.8984256564798967</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.8984256564798967</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.8874256564798966</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.8874256564798966</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.8874256564798966</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.8874256564798966</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.8874256564798966</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.9224256564798961</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9224256564798961</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8684256564798962</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.8684256564798962</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.8684256564798962</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.12657434352010369</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.12657434352010369</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.12657434352010369</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.12657434352010369</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.12657434352010369</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0995743435201035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0995743435201035</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0975743435201037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0975743435201037</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0975743435201037</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0825743435201041</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.0825743435201041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.1335743435201033</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.1335743435201033</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.1335743435201033</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.1085743435201039</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.1225743435201032</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1225743435201032</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.1225743435201032</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.1225743435201032</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.095574343520104</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.095574343520104</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.1645743435201048</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.1645743435201048</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.1645743435201048</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.069574343520104</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.069574343520104</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.069574343520104</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.144574343520105</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.144574343520105</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.097574343520105</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.097574343520105</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.110574343520105</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.110574343520105</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.110574343520105</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14.065574343520105</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.065574343520105</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.083574343520105</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14.083574343520105</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.058574343520103</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.058574343520103</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.103574343520105</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.103574343520105</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16.103574343520105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$P$2:$P$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>9.0237351488127168E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0237351488127168E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0237351488127168E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0237351488127168E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3547169240429565E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0501411843636885E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0501411843636885E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0501411843636885E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0501411843636885E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0223242139508579E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8526005217501698E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5244406162436412E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5244406162436412E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5244406162436412E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5244406162436412E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9313388207479393E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9313388207479393E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9313388207479393E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9313388207479393E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9313388207479393E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2067660020934669E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2067660020934669E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2067660020934669E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2067660020934669E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2067660020934669E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7022987796833323E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5882492009907321E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5882492009907321E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5882492009907321E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5882492009907321E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2383937823269619E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2383937823269619E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6389581562717032E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6389581562717032E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6389581562717032E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5244406162436412E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.5244406162436412E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.5244406162436412E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5244406162436412E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.5244406162436412E-6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2472069964203796E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2472069964203796E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4975597301358439E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4975597301358439E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4975597301358439E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4557657666627493E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4557657666627493E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7534073500800225E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7534073500800225E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7534073500800225E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.2382138045699268E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0740936791342339E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0740936791342339E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0740936791342339E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.0740936791342339E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1732008736263115E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.1732008736263115E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9256298369521307E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.9256298369521307E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9256298369521307E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.7880822049251472E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.7880822049251472E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.7880822049251472E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.6795960203151135E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.6795960203151135E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.1472883982947247E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.1472883982947247E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.3698241615973589E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.3698241615973589E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.3698241615973589E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.637058972668075E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.637058972668075E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.7844889158560709E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.7844889158560709E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.6843478223698861E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.9912735465746445E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.3250771915285945E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.3250771915285945E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.3250771915285945E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Non-Corrected No Tail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$A$2:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.9980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.9980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.9980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.0019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.0019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.9929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.9929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.966</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.966</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.966</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.976</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.976</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.976</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.0709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.9960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.9960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.0310000000000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.0310000000000006</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.984</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.984</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.984</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.984</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.005000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.971</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.971</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.971</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.988</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.988</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13.962999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.962999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.962999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.016999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$O$2:$O$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>2.3477523028427936E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3477523028427936E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3839143643794718E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3839143643794718E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3839143643794718E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5202175194023358E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5202175194023358E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5202175194023358E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5202175194023358E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5202175194023358E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6662365277284756E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6662365277284756E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6662365277284756E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8136664709164712E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8136664709164712E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8609553206182812E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8609553206182812E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8609553206182812E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8359200472467347E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8359200472467347E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.927716049609071E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.927716049609071E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.927716049609071E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9444062318567687E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9444062318567687E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9972584756411446E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9972584756411446E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9972584756411446E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9972584756411446E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9332794436916371E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2726464827281547E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1725053892419694E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1725053892419694E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1725053892419694E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1725053892419694E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7038095241270089E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7038095241270089E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7038095241270089E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6843376448380284E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6843376448380284E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9346903785534923E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.9346903785534923E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9346903785534923E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.739971585663687E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.739971585663687E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3936703903651758E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3936703903651758E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3936703903651758E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5828257891724153E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5828257891724153E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.8025798554337669E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8025798554337669E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8025798554337669E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.8025798554337669E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7024387619475813E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.2949402317408458E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.2949402317408458E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.2949402317408458E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.2921585346995624E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.2921585346995624E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.7845189110066413E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.7845189110066413E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.7845189110066413E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.7650470317176615E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.7650470317176615E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.8443454837354381E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.8443454837354381E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.8443454837354381E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.8443454837354381E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.7191691168777066E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Corrected No Tail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$B$2:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>0.1135743435201037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1135743435201037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1135743435201037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1135743435201037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1135743435201037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.8734256564798963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.8734256564798963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.8904256564798967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.8904256564798967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.8904256564798967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.9064256564798967</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.9064256564798967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.9064256564798967</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.8944256564798962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.8944256564798962</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.8914256564798966</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.8914256564798966</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.8914256564798966</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.8854256564798964</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8854256564798964</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.8684256564798962</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.8684256564798962</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.8684256564798962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.8584256564798962</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8584256564798962</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1205743435201037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1205743435201037</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1205743435201037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1205743435201037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.13357434352010369</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0735743435201037</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1345743435201037</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1345743435201037</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1345743435201037</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1345743435201037</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0835743435201035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0835743435201035</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.0835743435201035</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1785743435201033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1785743435201033</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.0825743435201032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.0825743435201032</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.0825743435201032</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.103574343520104</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.103574343520104</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.1375743435201038</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.1375743435201038</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.1375743435201038</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.138574343520105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.138574343520105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.091574343520104</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.091574343520104</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.091574343520104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.091574343520104</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.112574343520105</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.078574343520105</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.078574343520105</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.078574343520105</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.095574343520104</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.095574343520104</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.070574343520104</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.070574343520104</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.070574343520104</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.083574343520105</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.083574343520105</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.107574343520103</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.107574343520103</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.107574343520103</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.107574343520103</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.124574343520102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$P$2:$P$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>6.7149266045478789E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7149266045478789E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0765472199146603E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0765472199146603E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0765472199146603E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4793331378806771E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4793331378806771E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4793331378806771E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4793331378806771E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4793331378806771E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.547503803309412E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.547503803309412E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.547503803309412E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6949337464974076E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6949337464974076E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3434598613578344E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3434598613578344E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3434598613578344E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3184245879862878E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3184245879862878E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2550839645746589E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2550839645746589E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2550839645746589E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2717741468223566E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2717741468223566E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.209988332531388E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.209988332531388E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.209988332531388E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.209988332531388E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5701980130363139E-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.4928322603073495E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.4914213254454974E-6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.4914213254454974E-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.4914213254454974E-6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.4914213254454974E-6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.1889823769514307E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.1889823769514307E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.1889823769514307E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.9942635840616264E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.9942635840616264E-6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.5014698096974409E-6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.5014698096974409E-6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.5014698096974409E-6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.5542818807993878E-6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.5542818807993878E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.1851441452152346E-6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.1851441452152346E-6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.1851441452152346E-6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.007669813328763E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.007669813328763E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4139238665313794E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.4139238665313794E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4139238665313794E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4139238665313794E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.3137827730451939E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.1777830604766945E-6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.1777830604766945E-6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.1777830604766945E-6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.1499660900638604E-6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.1499660900638604E-6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6425821940682135E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6425821940682135E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6425821940682135E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6231103147792337E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6231103147792337E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0093344910017687E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0093344910017687E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.0093344910017687E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.0093344910017687E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8841581241440373E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146273792"/>
+        <c:axId val="146275328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146273792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Alpha (deg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146275328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146275328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>CD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146273792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -4106,7 +6166,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4168,6 +6239,33 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -6412,8 +8510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R85"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6541,12 +8639,12 @@
         <v>1.1143478347379423E-4</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O33" si="3">E2/(M2*wing_area)</f>
+        <f>E2/(M2*wing_area)</f>
         <v>2.5786331572692774E-5</v>
       </c>
       <c r="P2">
-        <f>O2-'No Model 65 MPH'!I2</f>
-        <v>1.2036858060956875E-5</v>
+        <f>O2-'No Model 65 MPH'!$O$12</f>
+        <v>9.0237351488127168E-6</v>
       </c>
       <c r="Q2">
         <f>F2/(M2*wing_area*wmac)</f>
@@ -6572,7 +8670,7 @@
         <v>-0.92700000000000005</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="4">-D3</f>
+        <f t="shared" ref="E3:E66" si="3">-D3</f>
         <v>0.92700000000000005</v>
       </c>
       <c r="F3">
@@ -6596,7 +8694,7 @@
         <v>2.5958781966149043E-5</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="5">J3^2</f>
+        <f t="shared" ref="L3:L66" si="4">J3^2</f>
         <v>1.2584357375224169E-8</v>
       </c>
       <c r="M3" s="11">
@@ -6604,16 +8702,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N2:N33" si="6">C3/(M3*wing_area)</f>
+        <f t="shared" ref="N2:N33" si="5">C3/(M3*wing_area)</f>
         <v>1.1143478347379423E-4</v>
       </c>
       <c r="O3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O2:O33" si="6">E3/(M3*wing_area)</f>
         <v>2.5786331572692774E-5</v>
       </c>
       <c r="P3">
-        <f>O3-'No Model 65 MPH'!I3</f>
-        <v>1.2036858060956875E-5</v>
+        <f>O3-'No Model 65 MPH'!$O$12</f>
+        <v>9.0237351488127168E-6</v>
       </c>
       <c r="Q3">
         <f>F3/(M3*wing_area*wmac)</f>
@@ -6639,7 +8737,7 @@
         <v>-0.92700000000000005</v>
       </c>
       <c r="E4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.92700000000000005</v>
       </c>
       <c r="F4">
@@ -6663,7 +8761,7 @@
         <v>2.5958781966149043E-5</v>
       </c>
       <c r="L4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2584357375224169E-8</v>
       </c>
       <c r="M4" s="11">
@@ -6671,16 +8769,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N4">
+        <f t="shared" si="5"/>
+        <v>1.1143478347379423E-4</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="6"/>
-        <v>1.1143478347379423E-4</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="3"/>
         <v>2.5786331572692774E-5</v>
       </c>
       <c r="P4">
-        <f>O4-'No Model 65 MPH'!I4</f>
-        <v>1.5509230190193638E-5</v>
+        <f>O4-'No Model 65 MPH'!$O$12</f>
+        <v>9.0237351488127168E-6</v>
       </c>
       <c r="Q4">
         <f>F4/(M4*wing_area*wmac)</f>
@@ -6706,7 +8804,7 @@
         <v>-0.92700000000000005</v>
       </c>
       <c r="E5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.92700000000000005</v>
       </c>
       <c r="F5">
@@ -6730,7 +8828,7 @@
         <v>2.5958781966149043E-5</v>
       </c>
       <c r="L5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2584357375224169E-8</v>
       </c>
       <c r="M5" s="11">
@@ -6738,16 +8836,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N5">
+        <f t="shared" si="5"/>
+        <v>1.1143478347379423E-4</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="6"/>
-        <v>1.1143478347379423E-4</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="3"/>
         <v>2.5786331572692774E-5</v>
       </c>
       <c r="P5">
-        <f>O5-'No Model 65 MPH'!I5</f>
-        <v>1.5509230190193638E-5</v>
+        <f>O5-'No Model 65 MPH'!$O$12</f>
+        <v>9.0237351488127168E-6</v>
       </c>
       <c r="Q5">
         <f>F5/(M5*wing_area*wmac)</f>
@@ -6773,7 +8871,7 @@
         <v>-0.86699999999999999</v>
       </c>
       <c r="E6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.86699999999999999</v>
       </c>
       <c r="F6">
@@ -6797,7 +8895,7 @@
         <v>2.4278601903615122E-5</v>
       </c>
       <c r="L6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2527876101835618E-8</v>
       </c>
       <c r="M6" s="11">
@@ -6805,16 +8903,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N6">
+        <f t="shared" si="5"/>
+        <v>1.1118443074007875E-4</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="6"/>
-        <v>1.1118443074007875E-4</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
         <v>2.4117313347923014E-5</v>
       </c>
       <c r="P6">
-        <f>O6-'No Model 65 MPH'!I6</f>
-        <v>1.2020016897678801E-5</v>
+        <f>O6-'No Model 65 MPH'!$O$12</f>
+        <v>7.3547169240429565E-6</v>
       </c>
       <c r="Q6">
         <f>F6/(M6*wing_area*wmac)</f>
@@ -6840,7 +8938,7 @@
         <v>-0.89200000000000002</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.89200000000000002</v>
       </c>
       <c r="F7">
@@ -6864,7 +8962,7 @@
         <v>2.4978676929670925E-5</v>
       </c>
       <c r="L7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3002435012007012E-8</v>
       </c>
       <c r="M7" s="11">
@@ -6872,16 +8970,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N7">
+        <f t="shared" si="5"/>
+        <v>1.1327070352104096E-4</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="6"/>
-        <v>1.1327070352104096E-4</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
         <v>2.4812737608243746E-5</v>
       </c>
       <c r="P7">
-        <f>O7-'No Model 65 MPH'!I7</f>
-        <v>2.6072872655144185E-5</v>
+        <f>O7-'No Model 65 MPH'!$O$12</f>
+        <v>8.0501411843636885E-6</v>
       </c>
       <c r="Q7">
         <f>F7/(M7*wing_area*wmac)</f>
@@ -6907,7 +9005,7 @@
         <v>-0.89200000000000002</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.89200000000000002</v>
       </c>
       <c r="F8">
@@ -6931,7 +9029,7 @@
         <v>2.4978676929670925E-5</v>
       </c>
       <c r="L8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3002435012007012E-8</v>
       </c>
       <c r="M8" s="11">
@@ -6939,16 +9037,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N8">
+        <f t="shared" si="5"/>
+        <v>1.1327070352104096E-4</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="6"/>
-        <v>1.1327070352104096E-4</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
         <v>2.4812737608243746E-5</v>
       </c>
       <c r="P8">
-        <f>O8-'No Model 65 MPH'!I8</f>
-        <v>2.4616716600948122E-5</v>
+        <f>O8-'No Model 65 MPH'!$O$12</f>
+        <v>8.0501411843636885E-6</v>
       </c>
       <c r="Q8">
         <f>F8/(M8*wing_area*wmac)</f>
@@ -6974,7 +9072,7 @@
         <v>-0.89200000000000002</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.89200000000000002</v>
       </c>
       <c r="F9">
@@ -6998,7 +9096,7 @@
         <v>2.4978676929670925E-5</v>
       </c>
       <c r="L9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3002435012007012E-8</v>
       </c>
       <c r="M9" s="11">
@@ -7006,16 +9104,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N9">
+        <f t="shared" si="5"/>
+        <v>1.1327070352104096E-4</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="6"/>
-        <v>1.1327070352104096E-4</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
         <v>2.4812737608243746E-5</v>
       </c>
       <c r="P9">
-        <f>O9-'No Model 65 MPH'!I9</f>
-        <v>2.4616716600948122E-5</v>
+        <f>O9-'No Model 65 MPH'!$O$12</f>
+        <v>8.0501411843636885E-6</v>
       </c>
       <c r="Q9">
         <f>F9/(M9*wing_area*wmac)</f>
@@ -7041,7 +9139,7 @@
         <v>-0.89200000000000002</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.89200000000000002</v>
       </c>
       <c r="F10">
@@ -7065,7 +9163,7 @@
         <v>2.4978676929670925E-5</v>
       </c>
       <c r="L10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3002435012007012E-8</v>
       </c>
       <c r="M10" s="11">
@@ -7073,16 +9171,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N10">
+        <f t="shared" si="5"/>
+        <v>1.1327070352104096E-4</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="6"/>
-        <v>1.1327070352104096E-4</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
         <v>2.4812737608243746E-5</v>
       </c>
       <c r="P10">
-        <f>O10-'No Model 65 MPH'!I10</f>
-        <v>2.4616716600948122E-5</v>
+        <f>O10-'No Model 65 MPH'!$O$12</f>
+        <v>8.0501411843636885E-6</v>
       </c>
       <c r="Q10">
         <f>F10/(M10*wing_area*wmac)</f>
@@ -7108,7 +9206,7 @@
         <v>-0.89100000000000001</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.89100000000000001</v>
       </c>
       <c r="F11">
@@ -7132,7 +9230,7 @@
         <v>2.4950673928628693E-5</v>
       </c>
       <c r="L11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.4170701929633841E-8</v>
       </c>
       <c r="M11" s="11">
@@ -7140,16 +9238,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N11">
+        <f t="shared" si="5"/>
+        <v>1.1824994122493741E-4</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="6"/>
-        <v>1.1824994122493741E-4</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
         <v>2.4784920637830915E-5</v>
       </c>
       <c r="P11">
-        <f>O11-'No Model 65 MPH'!I11</f>
-        <v>2.4588899630535292E-5</v>
+        <f>O11-'No Model 65 MPH'!$O$12</f>
+        <v>8.0223242139508579E-6</v>
       </c>
       <c r="Q11">
         <f>F11/(M11*wing_area*wmac)</f>
@@ -7175,7 +9273,7 @@
         <v>-0.81299999999999994</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.81299999999999994</v>
       </c>
       <c r="F12">
@@ -7199,7 +9297,7 @@
         <v>2.2766439847334595E-5</v>
       </c>
       <c r="L12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.0543213097676161E-9</v>
       </c>
       <c r="M12" s="11">
@@ -7207,16 +9305,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N12">
+        <f t="shared" si="5"/>
+        <v>9.4522065462794E-5</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="6"/>
-        <v>9.4522065462794E-5</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
         <v>2.2615196945630227E-5</v>
       </c>
       <c r="P12">
-        <f>O12-'No Model 65 MPH'!I12</f>
-        <v>2.1719100912278804E-5</v>
+        <f>O12-'No Model 65 MPH'!$O$12</f>
+        <v>5.8526005217501698E-6</v>
       </c>
       <c r="Q12">
         <f>F12/(M12*wing_area*wmac)</f>
@@ -7242,7 +9340,7 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="F13">
@@ -7266,7 +9364,7 @@
         <v>2.6462835984909216E-5</v>
       </c>
       <c r="L13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1263868536527303E-8</v>
       </c>
       <c r="M13" s="11">
@@ -7274,16 +9372,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N13">
+        <f t="shared" si="5"/>
+        <v>1.0542631786462309E-4</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="6"/>
-        <v>1.0542631786462309E-4</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="3"/>
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P13">
-        <f>O13-'No Model 65 MPH'!I13</f>
-        <v>2.5390941006772276E-5</v>
+        <f>O13-'No Model 65 MPH'!$O$12</f>
+        <v>9.5244406162436412E-6</v>
       </c>
       <c r="Q13">
         <f>F13/(M13*wing_area*wmac)</f>
@@ -7309,7 +9407,7 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="F14">
@@ -7333,7 +9431,7 @@
         <v>2.6462835984909216E-5</v>
       </c>
       <c r="L14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1263868536527303E-8</v>
       </c>
       <c r="M14" s="11">
@@ -7341,16 +9439,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N14">
+        <f t="shared" si="5"/>
+        <v>1.0542631786462309E-4</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="6"/>
-        <v>1.0542631786462309E-4</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="3"/>
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P14">
-        <f>O14-'No Model 65 MPH'!I14</f>
-        <v>2.5390941006772276E-5</v>
+        <f>O14-'No Model 65 MPH'!$O$12</f>
+        <v>9.5244406162436412E-6</v>
       </c>
       <c r="Q14">
         <f>F14/(M14*wing_area*wmac)</f>
@@ -7376,7 +9474,7 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="F15">
@@ -7400,7 +9498,7 @@
         <v>2.6462835984909216E-5</v>
       </c>
       <c r="L15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1263868536527303E-8</v>
       </c>
       <c r="M15" s="11">
@@ -7408,16 +9506,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N15">
+        <f t="shared" si="5"/>
+        <v>1.0542631786462309E-4</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="6"/>
-        <v>1.0542631786462309E-4</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P15">
-        <f>O15-'No Model 65 MPH'!I15</f>
-        <v>2.4662862979674244E-5</v>
+        <f>O15-'No Model 65 MPH'!$O$12</f>
+        <v>9.5244406162436412E-6</v>
       </c>
       <c r="Q15">
         <f>F15/(M15*wing_area*wmac)</f>
@@ -7443,7 +9541,7 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="F16">
@@ -7467,7 +9565,7 @@
         <v>2.6462835984909216E-5</v>
       </c>
       <c r="L16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1263868536527303E-8</v>
       </c>
       <c r="M16" s="11">
@@ -7475,16 +9573,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N16">
+        <f t="shared" si="5"/>
+        <v>1.0542631786462309E-4</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="6"/>
-        <v>1.0542631786462309E-4</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="3"/>
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P16">
-        <f>O16-'No Model 65 MPH'!I16</f>
-        <v>2.4662862979674244E-5</v>
+        <f>O16-'No Model 65 MPH'!$O$12</f>
+        <v>9.5244406162436412E-6</v>
       </c>
       <c r="Q16">
         <f>F16/(M16*wing_area*wmac)</f>
@@ -7510,7 +9608,7 @@
         <v>-0.70899999999999996</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.70899999999999996</v>
       </c>
       <c r="F17">
@@ -7534,7 +9632,7 @@
         <v>1.9854127738942471E-5</v>
       </c>
       <c r="L17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.8402406736801484E-10</v>
       </c>
       <c r="M17" s="11">
@@ -7542,16 +9640,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N17">
+        <f t="shared" si="5"/>
+        <v>2.4006045466271695E-5</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="6"/>
-        <v>2.4006045466271695E-5</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
         <v>1.972223202269598E-5</v>
       </c>
       <c r="P17">
-        <f>O17-'No Model 65 MPH'!I17</f>
-        <v>1.5241751855938865E-5</v>
+        <f>O17-'No Model 65 MPH'!$O$8</f>
+        <v>1.9313388207479393E-5</v>
       </c>
       <c r="Q17">
         <f>F17/(M17*wing_area*wmac)</f>
@@ -7577,7 +9675,7 @@
         <v>-0.70899999999999996</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.70899999999999996</v>
       </c>
       <c r="F18">
@@ -7601,7 +9699,7 @@
         <v>1.9854127738942471E-5</v>
       </c>
       <c r="L18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.8402406736801484E-10</v>
       </c>
       <c r="M18" s="11">
@@ -7609,16 +9707,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N18">
+        <f t="shared" si="5"/>
+        <v>2.4006045466271695E-5</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="6"/>
-        <v>2.4006045466271695E-5</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="3"/>
         <v>1.972223202269598E-5</v>
       </c>
       <c r="P18">
-        <f>O18-'No Model 65 MPH'!I18</f>
-        <v>1.4373658823629674E-5</v>
+        <f>O18-'No Model 65 MPH'!$O$8</f>
+        <v>1.9313388207479393E-5</v>
       </c>
       <c r="Q18">
         <f>F18/(M18*wing_area*wmac)</f>
@@ -7644,7 +9742,7 @@
         <v>-0.70899999999999996</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.70899999999999996</v>
       </c>
       <c r="F19">
@@ -7668,7 +9766,7 @@
         <v>1.9854127738942471E-5</v>
       </c>
       <c r="L19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.8402406736801484E-10</v>
       </c>
       <c r="M19" s="11">
@@ -7676,16 +9774,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N19">
+        <f t="shared" si="5"/>
+        <v>2.4006045466271695E-5</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="6"/>
-        <v>2.4006045466271695E-5</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="3"/>
         <v>1.972223202269598E-5</v>
       </c>
       <c r="P19">
-        <f>O19-'No Model 65 MPH'!I19</f>
-        <v>1.4373658823629674E-5</v>
+        <f>O19-'No Model 65 MPH'!$O$8</f>
+        <v>1.9313388207479393E-5</v>
       </c>
       <c r="Q19">
         <f>F19/(M19*wing_area*wmac)</f>
@@ -7711,7 +9809,7 @@
         <v>-0.70899999999999996</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.70899999999999996</v>
       </c>
       <c r="F20">
@@ -7735,7 +9833,7 @@
         <v>1.9854127738942471E-5</v>
       </c>
       <c r="L20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.8402406736801484E-10</v>
       </c>
       <c r="M20" s="11">
@@ -7743,16 +9841,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N20">
+        <f t="shared" si="5"/>
+        <v>2.4006045466271695E-5</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="6"/>
-        <v>2.4006045466271695E-5</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="3"/>
         <v>1.972223202269598E-5</v>
       </c>
       <c r="P20">
-        <f>O20-'No Model 65 MPH'!I20</f>
-        <v>1.4373658823629674E-5</v>
+        <f>O20-'No Model 65 MPH'!$O$8</f>
+        <v>1.9313388207479393E-5</v>
       </c>
       <c r="Q20">
         <f>F20/(M20*wing_area*wmac)</f>
@@ -7778,7 +9876,7 @@
         <v>-0.70899999999999996</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.70899999999999996</v>
       </c>
       <c r="F21">
@@ -7802,7 +9900,7 @@
         <v>1.9854127738942471E-5</v>
       </c>
       <c r="L21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.8402406736801484E-10</v>
       </c>
       <c r="M21" s="11">
@@ -7810,16 +9908,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N21">
+        <f t="shared" si="5"/>
+        <v>2.4006045466271695E-5</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="6"/>
-        <v>2.4006045466271695E-5</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="3"/>
         <v>1.972223202269598E-5</v>
       </c>
       <c r="P21">
-        <f>O21-'No Model 65 MPH'!I21</f>
-        <v>1.4373658823629674E-5</v>
+        <f>O21-'No Model 65 MPH'!$O$8</f>
+        <v>1.9313388207479393E-5</v>
       </c>
       <c r="Q21">
         <f>F21/(M21*wing_area*wmac)</f>
@@ -7845,7 +9943,7 @@
         <v>-0.83599999999999997</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.83599999999999997</v>
       </c>
       <c r="F22">
@@ -7869,7 +9967,7 @@
         <v>2.3410508871305931E-5</v>
       </c>
       <c r="L22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8159671341318259E-9</v>
       </c>
       <c r="M22" s="11">
@@ -7877,16 +9975,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N22">
+        <f t="shared" si="5"/>
+        <v>5.2713158932311547E-5</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="6"/>
-        <v>5.2713158932311547E-5</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="3"/>
         <v>2.3254987265125305E-5</v>
       </c>
       <c r="P22">
-        <f>O22-'No Model 65 MPH'!I22</f>
-        <v>1.7570378053552212E-5</v>
+        <f>O22-'No Model 65 MPH'!$O$9</f>
+        <v>2.2067660020934669E-5</v>
       </c>
       <c r="Q22">
         <f>F22/(M22*wing_area*wmac)</f>
@@ -7912,7 +10010,7 @@
         <v>-0.83599999999999997</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.83599999999999997</v>
       </c>
       <c r="F23">
@@ -7936,7 +10034,7 @@
         <v>2.3410508871305931E-5</v>
       </c>
       <c r="L23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8159671341318259E-9</v>
       </c>
       <c r="M23" s="11">
@@ -7944,16 +10042,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N23">
+        <f t="shared" si="5"/>
+        <v>5.2713158932311547E-5</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="6"/>
-        <v>5.2713158932311547E-5</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="3"/>
         <v>2.3254987265125305E-5</v>
       </c>
       <c r="P23">
-        <f>O23-'No Model 65 MPH'!I23</f>
-        <v>1.7570378053552212E-5</v>
+        <f>O23-'No Model 65 MPH'!$O$9</f>
+        <v>2.2067660020934669E-5</v>
       </c>
       <c r="Q23">
         <f>F23/(M23*wing_area*wmac)</f>
@@ -7979,7 +10077,7 @@
         <v>-0.83599999999999997</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.83599999999999997</v>
       </c>
       <c r="F24">
@@ -8003,7 +10101,7 @@
         <v>2.3410508871305931E-5</v>
       </c>
       <c r="L24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8159671341318259E-9</v>
       </c>
       <c r="M24" s="11">
@@ -8011,16 +10109,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N24">
+        <f t="shared" si="5"/>
+        <v>5.2713158932311547E-5</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="6"/>
-        <v>5.2713158932311547E-5</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="3"/>
         <v>2.3254987265125305E-5</v>
       </c>
       <c r="P24">
-        <f>O24-'No Model 65 MPH'!I24</f>
-        <v>1.7570378053552212E-5</v>
+        <f>O24-'No Model 65 MPH'!$O$9</f>
+        <v>2.2067660020934669E-5</v>
       </c>
       <c r="Q24">
         <f>F24/(M24*wing_area*wmac)</f>
@@ -8046,7 +10144,7 @@
         <v>-0.83599999999999997</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.83599999999999997</v>
       </c>
       <c r="F25">
@@ -8070,7 +10168,7 @@
         <v>2.3410508871305931E-5</v>
       </c>
       <c r="L25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8159671341318259E-9</v>
       </c>
       <c r="M25" s="11">
@@ -8078,16 +10176,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N25">
+        <f t="shared" si="5"/>
+        <v>5.2713158932311547E-5</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="6"/>
-        <v>5.2713158932311547E-5</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="3"/>
         <v>2.3254987265125305E-5</v>
       </c>
       <c r="P25">
-        <f>O25-'No Model 65 MPH'!I25</f>
-        <v>1.496609895662464E-5</v>
+        <f>O25-'No Model 65 MPH'!$O$9</f>
+        <v>2.2067660020934669E-5</v>
       </c>
       <c r="Q25">
         <f>F25/(M25*wing_area*wmac)</f>
@@ -8113,7 +10211,7 @@
         <v>-0.83599999999999997</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.83599999999999997</v>
       </c>
       <c r="F26">
@@ -8137,7 +10235,7 @@
         <v>2.3410508871305931E-5</v>
       </c>
       <c r="L26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8159671341318259E-9</v>
       </c>
       <c r="M26" s="11">
@@ -8145,16 +10243,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N26">
+        <f t="shared" si="5"/>
+        <v>5.2713158932311547E-5</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="6"/>
-        <v>5.2713158932311547E-5</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="3"/>
         <v>2.3254987265125305E-5</v>
       </c>
       <c r="P26">
-        <f>O26-'No Model 65 MPH'!I26</f>
-        <v>1.496609895662464E-5</v>
+        <f>O26-'No Model 65 MPH'!$O$9</f>
+        <v>2.2067660020934669E-5</v>
       </c>
       <c r="Q26">
         <f>F26/(M26*wing_area*wmac)</f>
@@ -8180,7 +10278,7 @@
         <v>-0.79800000000000004</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.79800000000000004</v>
       </c>
       <c r="F27">
@@ -8204,7 +10302,7 @@
         <v>2.2346394831701119E-5</v>
       </c>
       <c r="L27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.9241095335290972E-9</v>
       </c>
       <c r="M27" s="11">
@@ -8212,16 +10310,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N27">
+        <f t="shared" si="5"/>
+        <v>6.2226562813499171E-5</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="6"/>
-        <v>6.2226562813499171E-5</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="3"/>
         <v>2.2197942389437792E-5</v>
       </c>
       <c r="P27">
-        <f>O27-'No Model 65 MPH'!I27</f>
-        <v>4.8080787422117345E-6</v>
+        <f>O27-'No Model 65 MPH'!$O$10</f>
+        <v>1.7022987796833323E-5</v>
       </c>
       <c r="Q27">
         <f>F27/(M27*wing_area*wmac)</f>
@@ -8247,7 +10345,7 @@
         <v>-0.75700000000000001</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.75700000000000001</v>
       </c>
       <c r="F28">
@@ -8271,7 +10369,7 @@
         <v>2.1198271788969605E-5</v>
       </c>
       <c r="L28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.8151714710040527E-9</v>
       </c>
       <c r="M28" s="11">
@@ -8279,16 +10377,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N28">
+        <f t="shared" si="5"/>
+        <v>6.8930452682991033E-5</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="6"/>
-        <v>6.8930452682991033E-5</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="3"/>
         <v>2.105744660251179E-5</v>
       </c>
       <c r="P28">
-        <f>O28-'No Model 65 MPH'!I28</f>
-        <v>3.6675829552857325E-6</v>
+        <f>O28-'No Model 65 MPH'!$O$10</f>
+        <v>1.5882492009907321E-5</v>
       </c>
       <c r="Q28">
         <f>F28/(M28*wing_area*wmac)</f>
@@ -8314,7 +10412,7 @@
         <v>-0.75700000000000001</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.75700000000000001</v>
       </c>
       <c r="F29">
@@ -8338,7 +10436,7 @@
         <v>2.1198271788969605E-5</v>
       </c>
       <c r="L29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.8151714710040527E-9</v>
       </c>
       <c r="M29" s="11">
@@ -8346,16 +10444,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N29">
+        <f t="shared" si="5"/>
+        <v>6.8930452682991033E-5</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="6"/>
-        <v>6.8930452682991033E-5</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="3"/>
         <v>2.105744660251179E-5</v>
       </c>
       <c r="P29">
-        <f>O29-'No Model 65 MPH'!I29</f>
-        <v>3.6675829552857325E-6</v>
+        <f>O29-'No Model 65 MPH'!$O$10</f>
+        <v>1.5882492009907321E-5</v>
       </c>
       <c r="Q29">
         <f>F29/(M29*wing_area*wmac)</f>
@@ -8381,7 +10479,7 @@
         <v>-0.75700000000000001</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.75700000000000001</v>
       </c>
       <c r="F30">
@@ -8405,7 +10503,7 @@
         <v>2.1198271788969605E-5</v>
       </c>
       <c r="L30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.8151714710040527E-9</v>
       </c>
       <c r="M30" s="11">
@@ -8413,16 +10511,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N30">
+        <f t="shared" si="5"/>
+        <v>6.8930452682991033E-5</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="6"/>
-        <v>6.8930452682991033E-5</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="3"/>
         <v>2.105744660251179E-5</v>
       </c>
       <c r="P30">
-        <f>O30-'No Model 65 MPH'!I30</f>
-        <v>5.2357510136507263E-6</v>
+        <f>O30-'No Model 65 MPH'!$O$10</f>
+        <v>1.5882492009907321E-5</v>
       </c>
       <c r="Q30">
         <f>F30/(M30*wing_area*wmac)</f>
@@ -8448,7 +10546,7 @@
         <v>-0.75700000000000001</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.75700000000000001</v>
       </c>
       <c r="F31">
@@ -8472,7 +10570,7 @@
         <v>2.1198271788969605E-5</v>
       </c>
       <c r="L31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.8151714710040527E-9</v>
       </c>
       <c r="M31" s="11">
@@ -8480,16 +10578,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N31">
+        <f t="shared" si="5"/>
+        <v>6.8930452682991033E-5</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="6"/>
-        <v>6.8930452682991033E-5</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="3"/>
         <v>2.105744660251179E-5</v>
       </c>
       <c r="P31">
-        <f>O31-'No Model 65 MPH'!I31</f>
-        <v>5.2357510136507263E-6</v>
+        <f>O31-'No Model 65 MPH'!$O$10</f>
+        <v>1.5882492009907321E-5</v>
       </c>
       <c r="Q31">
         <f>F31/(M31*wing_area*wmac)</f>
@@ -8515,7 +10613,7 @@
         <v>-0.68700000000000006</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.68700000000000006</v>
       </c>
       <c r="F32">
@@ -8539,7 +10637,7 @@
         <v>1.9238061716013371E-5</v>
       </c>
       <c r="L32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.7069802039397532E-9</v>
       </c>
       <c r="M32" s="11">
@@ -8547,16 +10645,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N32">
+        <f t="shared" si="5"/>
+        <v>8.7206202244219884E-5</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="6"/>
-        <v>8.7206202244219884E-5</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="3"/>
         <v>1.911025867361374E-5</v>
       </c>
       <c r="P32">
-        <f>O32-'No Model 65 MPH'!I32</f>
-        <v>3.372572087879369E-6</v>
+        <f>O32-'No Model 65 MPH'!$O$11</f>
+        <v>1.2383937823269619E-5</v>
       </c>
       <c r="Q32">
         <f>F32/(M32*wing_area*wmac)</f>
@@ -8582,7 +10680,7 @@
         <v>-0.68700000000000006</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.68700000000000006</v>
       </c>
       <c r="F33">
@@ -8606,7 +10704,7 @@
         <v>1.9238061716013371E-5</v>
       </c>
       <c r="L33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.7069802039397532E-9</v>
       </c>
       <c r="M33" s="11">
@@ -8614,16 +10712,16 @@
         <v>727.91914084511302</v>
       </c>
       <c r="N33">
+        <f t="shared" si="5"/>
+        <v>8.7206202244219884E-5</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="6"/>
-        <v>8.7206202244219884E-5</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="3"/>
         <v>1.911025867361374E-5</v>
       </c>
       <c r="P33">
-        <f>O33-'No Model 65 MPH'!I33</f>
-        <v>3.372572087879369E-6</v>
+        <f>O33-'No Model 65 MPH'!$O$11</f>
+        <v>1.2383937823269619E-5</v>
       </c>
       <c r="Q33">
         <f>F33/(M33*wing_area*wmac)</f>
@@ -8649,7 +10747,7 @@
         <v>-0.83099999999999996</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.83099999999999996</v>
       </c>
       <c r="F34">
@@ -8673,7 +10771,7 @@
         <v>2.3270493866094771E-5</v>
       </c>
       <c r="L34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.7950729941904794E-9</v>
       </c>
       <c r="M34" s="11">
@@ -8689,8 +10787,8 @@
         <v>2.3115902413061155E-5</v>
       </c>
       <c r="P34">
-        <f>O34-'No Model 65 MPH'!I34</f>
-        <v>7.3782158273267843E-6</v>
+        <f>O34-'No Model 65 MPH'!$O$11</f>
+        <v>1.6389581562717032E-5</v>
       </c>
       <c r="Q34">
         <f>F34/(M34*wing_area*wmac)</f>
@@ -8716,7 +10814,7 @@
         <v>-0.83099999999999996</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.83099999999999996</v>
       </c>
       <c r="F35">
@@ -8740,7 +10838,7 @@
         <v>2.3270493866094771E-5</v>
       </c>
       <c r="L35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.7950729941904794E-9</v>
       </c>
       <c r="M35" s="11">
@@ -8756,8 +10854,8 @@
         <v>2.3115902413061155E-5</v>
       </c>
       <c r="P35">
-        <f>O35-'No Model 65 MPH'!I35</f>
-        <v>8.638350874227223E-6</v>
+        <f>O35-'No Model 65 MPH'!$O$11</f>
+        <v>1.6389581562717032E-5</v>
       </c>
       <c r="Q35">
         <f>F35/(M35*wing_area*wmac)</f>
@@ -8783,7 +10881,7 @@
         <v>-0.83099999999999996</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.83099999999999996</v>
       </c>
       <c r="F36">
@@ -8807,7 +10905,7 @@
         <v>2.3270493866094771E-5</v>
       </c>
       <c r="L36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.7950729941904794E-9</v>
       </c>
       <c r="M36" s="11">
@@ -8823,8 +10921,8 @@
         <v>2.3115902413061155E-5</v>
       </c>
       <c r="P36">
-        <f>O36-'No Model 65 MPH'!I36</f>
-        <v>8.638350874227223E-6</v>
+        <f>O36-'No Model 65 MPH'!$O$11</f>
+        <v>1.6389581562717032E-5</v>
       </c>
       <c r="Q36">
         <f>F36/(M36*wing_area*wmac)</f>
@@ -8850,7 +10948,7 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="F37">
@@ -8874,7 +10972,7 @@
         <v>2.6462835984909216E-5</v>
       </c>
       <c r="L37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.865782346723716E-9</v>
       </c>
       <c r="M37" s="11">
@@ -8890,8 +10988,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P37">
-        <f>O37-'No Model 65 MPH'!I37</f>
-        <v>8.8971733928976416E-6</v>
+        <f>O37-'No Model 65 MPH'!$O$12</f>
+        <v>9.5244406162436412E-6</v>
       </c>
       <c r="Q37">
         <f>F37/(M37*wing_area*wmac)</f>
@@ -8917,7 +11015,7 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="F38">
@@ -8941,7 +11039,7 @@
         <v>2.6462835984909216E-5</v>
       </c>
       <c r="L38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.865782346723716E-9</v>
       </c>
       <c r="M38" s="11">
@@ -8957,8 +11055,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P38">
-        <f>O38-'No Model 65 MPH'!I38</f>
-        <v>8.8971733928976416E-6</v>
+        <f>O38-'No Model 65 MPH'!$O$12</f>
+        <v>9.5244406162436412E-6</v>
       </c>
       <c r="Q38">
         <f>F38/(M38*wing_area*wmac)</f>
@@ -8984,7 +11082,7 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="F39">
@@ -9008,7 +11106,7 @@
         <v>2.6462835984909216E-5</v>
       </c>
       <c r="L39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.865782346723716E-9</v>
       </c>
       <c r="M39" s="11">
@@ -9024,8 +11122,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P39">
-        <f>O39-'No Model 65 MPH'!I39</f>
-        <v>8.8971733928976416E-6</v>
+        <f>O39-'No Model 65 MPH'!$O$12</f>
+        <v>9.5244406162436412E-6</v>
       </c>
       <c r="Q39">
         <f>F39/(M39*wing_area*wmac)</f>
@@ -9051,7 +11149,7 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="F40">
@@ -9075,7 +11173,7 @@
         <v>2.6462835984909216E-5</v>
       </c>
       <c r="L40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.865782346723716E-9</v>
       </c>
       <c r="M40" s="11">
@@ -9091,8 +11189,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P40">
-        <f>O40-'No Model 65 MPH'!I40</f>
-        <v>7.7490503501661308E-6</v>
+        <f>O40-'No Model 65 MPH'!$O$12</f>
+        <v>9.5244406162436412E-6</v>
       </c>
       <c r="Q40">
         <f>F40/(M40*wing_area*wmac)</f>
@@ -9118,7 +11216,7 @@
         <v>-0.94499999999999995</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="F41">
@@ -9142,7 +11240,7 @@
         <v>2.6462835984909216E-5</v>
       </c>
       <c r="L41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.865782346723716E-9</v>
       </c>
       <c r="M41" s="11">
@@ -9158,8 +11256,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P41">
-        <f>O41-'No Model 65 MPH'!I41</f>
-        <v>7.7490503501661308E-6</v>
+        <f>O41-'No Model 65 MPH'!$O$12</f>
+        <v>9.5244406162436412E-6</v>
       </c>
       <c r="Q41">
         <f>F41/(M41*wing_area*wmac)</f>
@@ -9185,7 +11283,7 @@
         <v>-0.996</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.996</v>
       </c>
       <c r="F42">
@@ -9209,7 +11307,7 @@
         <v>2.7890989038063049E-5</v>
       </c>
       <c r="L42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6070527863160038E-8</v>
       </c>
       <c r="M42" s="11">
@@ -9225,8 +11323,8 @@
         <v>2.7705702531177993E-5</v>
       </c>
       <c r="P42">
-        <f>O42-'No Model 65 MPH'!I42</f>
-        <v>8.4396378141223944E-6</v>
+        <f>O42-'No Model 65 MPH'!$O$13</f>
+        <v>1.2472069964203796E-5</v>
       </c>
       <c r="Q42">
         <f>F42/(M42*wing_area*wmac)</f>
@@ -9252,7 +11350,7 @@
         <v>-0.996</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.996</v>
       </c>
       <c r="F43">
@@ -9276,7 +11374,7 @@
         <v>2.7890989038063049E-5</v>
       </c>
       <c r="L43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6070527863160038E-8</v>
       </c>
       <c r="M43" s="11">
@@ -9292,8 +11390,8 @@
         <v>2.7705702531177993E-5</v>
       </c>
       <c r="P43">
-        <f>O43-'No Model 65 MPH'!I43</f>
-        <v>8.4396378141223944E-6</v>
+        <f>O43-'No Model 65 MPH'!$O$13</f>
+        <v>1.2472069964203796E-5</v>
       </c>
       <c r="Q43">
         <f>F43/(M43*wing_area*wmac)</f>
@@ -9319,7 +11417,7 @@
         <v>-1.0860000000000001</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0860000000000001</v>
       </c>
       <c r="F44">
@@ -9343,7 +11441,7 @@
         <v>3.0411259131863927E-5</v>
       </c>
       <c r="L44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5181493784307306E-8</v>
       </c>
       <c r="M44" s="11">
@@ -9359,8 +11457,8 @@
         <v>3.0209229868332636E-5</v>
       </c>
       <c r="P44">
-        <f>O44-'No Model 65 MPH'!I44</f>
-        <v>8.3108830533072313E-6</v>
+        <f>O44-'No Model 65 MPH'!$O$13</f>
+        <v>1.4975597301358439E-5</v>
       </c>
       <c r="Q44">
         <f>F44/(M44*wing_area*wmac)</f>
@@ -9386,7 +11484,7 @@
         <v>-1.0860000000000001</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0860000000000001</v>
       </c>
       <c r="F45">
@@ -9410,7 +11508,7 @@
         <v>3.0411259131863927E-5</v>
       </c>
       <c r="L45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5181493784307306E-8</v>
       </c>
       <c r="M45" s="11">
@@ -9426,8 +11524,8 @@
         <v>3.0209229868332636E-5</v>
       </c>
       <c r="P45">
-        <f>O45-'No Model 65 MPH'!I45</f>
-        <v>8.3108830533072313E-6</v>
+        <f>O45-'No Model 65 MPH'!$O$13</f>
+        <v>1.4975597301358439E-5</v>
       </c>
       <c r="Q45">
         <f>F45/(M45*wing_area*wmac)</f>
@@ -9453,7 +11551,7 @@
         <v>-1.0860000000000001</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0860000000000001</v>
       </c>
       <c r="F46">
@@ -9477,7 +11575,7 @@
         <v>3.0411259131863927E-5</v>
       </c>
       <c r="L46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5181493784307306E-8</v>
       </c>
       <c r="M46" s="11">
@@ -9493,8 +11591,8 @@
         <v>3.0209229868332636E-5</v>
       </c>
       <c r="P46">
-        <f>O46-'No Model 65 MPH'!I46</f>
-        <v>8.3108830533072313E-6</v>
+        <f>O46-'No Model 65 MPH'!$O$13</f>
+        <v>1.4975597301358439E-5</v>
       </c>
       <c r="Q46">
         <f>F46/(M46*wing_area*wmac)</f>
@@ -9520,7 +11618,7 @@
         <v>-1.165</v>
       </c>
       <c r="E47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.165</v>
       </c>
       <c r="F47">
@@ -9544,7 +11642,7 @@
         <v>3.2623496214200252E-5</v>
       </c>
       <c r="L47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.2018969615112213E-8</v>
       </c>
       <c r="M47" s="11">
@@ -9560,8 +11658,8 @@
         <v>3.2406770530946151E-5</v>
       </c>
       <c r="P47">
-        <f>O47-'No Model 65 MPH'!I47</f>
-        <v>7.0080485856417469E-6</v>
+        <f>O47-'No Model 65 MPH'!$O$14</f>
+        <v>1.4557657666627493E-5</v>
       </c>
       <c r="Q47">
         <f>F47/(M47*wing_area*wmac)</f>
@@ -9587,7 +11685,7 @@
         <v>-1.165</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.165</v>
       </c>
       <c r="F48">
@@ -9611,7 +11709,7 @@
         <v>3.2623496214200252E-5</v>
       </c>
       <c r="L48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.2018969615112213E-8</v>
       </c>
       <c r="M48" s="11">
@@ -9627,8 +11725,8 @@
         <v>3.2406770530946151E-5</v>
       </c>
       <c r="P48">
-        <f>O48-'No Model 65 MPH'!I48</f>
-        <v>7.0080485856417469E-6</v>
+        <f>O48-'No Model 65 MPH'!$O$14</f>
+        <v>1.4557657666627493E-5</v>
       </c>
       <c r="Q48">
         <f>F48/(M48*wing_area*wmac)</f>
@@ -9654,7 +11752,7 @@
         <v>-1.272</v>
       </c>
       <c r="E49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.272</v>
       </c>
       <c r="F49">
@@ -9678,7 +11776,7 @@
         <v>3.5619817325719073E-5</v>
       </c>
       <c r="L49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.3755599979633578E-8</v>
       </c>
       <c r="M49" s="11">
@@ -9694,8 +11792,8 @@
         <v>3.5383186365118883E-5</v>
       </c>
       <c r="P49">
-        <f>O49-'No Model 65 MPH'!I49</f>
-        <v>9.396401397927608E-6</v>
+        <f>O49-'No Model 65 MPH'!$O$14</f>
+        <v>1.7534073500800225E-5</v>
       </c>
       <c r="Q49">
         <f>F49/(M49*wing_area*wmac)</f>
@@ -9721,7 +11819,7 @@
         <v>-1.272</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.272</v>
       </c>
       <c r="F50">
@@ -9745,7 +11843,7 @@
         <v>3.5619817325719073E-5</v>
       </c>
       <c r="L50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.3755599979633578E-8</v>
       </c>
       <c r="M50" s="11">
@@ -9761,8 +11859,8 @@
         <v>3.5383186365118883E-5</v>
       </c>
       <c r="P50">
-        <f>O50-'No Model 65 MPH'!I50</f>
-        <v>9.396401397927608E-6</v>
+        <f>O50-'No Model 65 MPH'!$O$14</f>
+        <v>1.7534073500800225E-5</v>
       </c>
       <c r="Q50">
         <f>F50/(M50*wing_area*wmac)</f>
@@ -9788,7 +11886,7 @@
         <v>-1.272</v>
       </c>
       <c r="E51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.272</v>
       </c>
       <c r="F51">
@@ -9812,7 +11910,7 @@
         <v>3.5619817325719073E-5</v>
       </c>
       <c r="L51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.3755599979633578E-8</v>
       </c>
       <c r="M51" s="11">
@@ -9828,8 +11926,8 @@
         <v>3.5383186365118883E-5</v>
       </c>
       <c r="P51">
-        <f>O51-'No Model 65 MPH'!I51</f>
-        <v>9.396401397927608E-6</v>
+        <f>O51-'No Model 65 MPH'!$O$14</f>
+        <v>1.7534073500800225E-5</v>
       </c>
       <c r="Q51">
         <f>F51/(M51*wing_area*wmac)</f>
@@ -9855,7 +11953,7 @@
         <v>-1.554</v>
       </c>
       <c r="E52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.554</v>
       </c>
       <c r="F52">
@@ -9879,7 +11977,7 @@
         <v>4.3516663619628489E-5</v>
       </c>
       <c r="L52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.9006944549743138E-8</v>
       </c>
       <c r="M52" s="11">
@@ -9895,8 +11993,8 @@
         <v>4.3227572021536751E-5</v>
       </c>
       <c r="P52">
-        <f>O52-'No Model 65 MPH'!I52</f>
-        <v>1.9088985123132789E-5</v>
+        <f>O52-'No Model 65 MPH'!$O$15</f>
+        <v>2.2382138045699268E-5</v>
       </c>
       <c r="Q52">
         <f>F52/(M52*wing_area*wmac)</f>
@@ -9922,7 +12020,7 @@
         <v>-1.4950000000000001</v>
       </c>
       <c r="E53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4950000000000001</v>
       </c>
       <c r="F53">
@@ -9946,7 +12044,7 @@
         <v>4.186448655813681E-5</v>
       </c>
       <c r="L53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5899509986650089E-8</v>
       </c>
       <c r="M53" s="11">
@@ -9962,8 +12060,8 @@
         <v>4.1586370767179821E-5</v>
       </c>
       <c r="P53">
-        <f>O53-'No Model 65 MPH'!I53</f>
-        <v>1.7447783868775859E-5</v>
+        <f>O53-'No Model 65 MPH'!$O$15</f>
+        <v>2.0740936791342339E-5</v>
       </c>
       <c r="Q53">
         <f>F53/(M53*wing_area*wmac)</f>
@@ -9989,7 +12087,7 @@
         <v>-1.4950000000000001</v>
       </c>
       <c r="E54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4950000000000001</v>
       </c>
       <c r="F54">
@@ -10013,7 +12111,7 @@
         <v>4.186448655813681E-5</v>
       </c>
       <c r="L54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5899509986650089E-8</v>
       </c>
       <c r="M54" s="11">
@@ -10029,8 +12127,8 @@
         <v>4.1586370767179821E-5</v>
       </c>
       <c r="P54">
-        <f>O54-'No Model 65 MPH'!I54</f>
-        <v>1.7447783868775859E-5</v>
+        <f>O54-'No Model 65 MPH'!$O$15</f>
+        <v>2.0740936791342339E-5</v>
       </c>
       <c r="Q54">
         <f>F54/(M54*wing_area*wmac)</f>
@@ -10056,7 +12154,7 @@
         <v>-1.4950000000000001</v>
       </c>
       <c r="E55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4950000000000001</v>
       </c>
       <c r="F55">
@@ -10080,7 +12178,7 @@
         <v>4.186448655813681E-5</v>
       </c>
       <c r="L55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5899509986650089E-8</v>
       </c>
       <c r="M55" s="11">
@@ -10096,8 +12194,8 @@
         <v>4.1586370767179821E-5</v>
       </c>
       <c r="P55">
-        <f>O55-'No Model 65 MPH'!I55</f>
-        <v>1.845589190629621E-5</v>
+        <f>O55-'No Model 65 MPH'!$O$15</f>
+        <v>2.0740936791342339E-5</v>
       </c>
       <c r="Q55">
         <f>F55/(M55*wing_area*wmac)</f>
@@ -10123,7 +12221,7 @@
         <v>-1.4950000000000001</v>
       </c>
       <c r="E56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4950000000000001</v>
       </c>
       <c r="F56">
@@ -10147,7 +12245,7 @@
         <v>4.186448655813681E-5</v>
       </c>
       <c r="L56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5899509986650089E-8</v>
       </c>
       <c r="M56" s="11">
@@ -10163,8 +12261,8 @@
         <v>4.1586370767179821E-5</v>
       </c>
       <c r="P56">
-        <f>O56-'No Model 65 MPH'!I56</f>
-        <v>7.5067184987835059E-6</v>
+        <f>O56-'No Model 65 MPH'!$O$15</f>
+        <v>2.0740936791342339E-5</v>
       </c>
       <c r="Q56">
         <f>F56/(M56*wing_area*wmac)</f>
@@ -10190,7 +12288,7 @@
         <v>-1.7070000000000001</v>
       </c>
       <c r="E57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.7070000000000001</v>
       </c>
       <c r="F57">
@@ -10214,7 +12312,7 @@
         <v>4.7801122779089987E-5</v>
       </c>
       <c r="L57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2451610590209183E-8</v>
       </c>
       <c r="M57" s="11">
@@ -10230,8 +12328,8 @@
         <v>4.7483568494699638E-5</v>
       </c>
       <c r="P57">
-        <f>O57-'No Model 65 MPH'!I57</f>
-        <v>1.3403916226303323E-5</v>
+        <f>O57-'No Model 65 MPH'!$O$16</f>
+        <v>2.1732008736263115E-5</v>
       </c>
       <c r="Q57">
         <f>F57/(M57*wing_area*wmac)</f>
@@ -10257,7 +12355,7 @@
         <v>-1.7070000000000001</v>
       </c>
       <c r="E58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.7070000000000001</v>
       </c>
       <c r="F58">
@@ -10281,7 +12379,7 @@
         <v>4.7801122779089987E-5</v>
       </c>
       <c r="L58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2451610590209183E-8</v>
       </c>
       <c r="M58" s="11">
@@ -10297,8 +12395,8 @@
         <v>4.7483568494699638E-5</v>
       </c>
       <c r="P58">
-        <f>O58-'No Model 65 MPH'!I58</f>
-        <v>1.3403916226303323E-5</v>
+        <f>O58-'No Model 65 MPH'!$O$16</f>
+        <v>2.1732008736263115E-5</v>
       </c>
       <c r="Q58">
         <f>F58/(M58*wing_area*wmac)</f>
@@ -10324,7 +12422,7 @@
         <v>-1.6180000000000001</v>
       </c>
       <c r="E59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6180000000000001</v>
       </c>
       <c r="F59">
@@ -10348,7 +12446,7 @@
         <v>4.5308855686331342E-5</v>
       </c>
       <c r="L59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2572792786668466E-8</v>
       </c>
       <c r="M59" s="11">
@@ -10364,8 +12462,8 @@
         <v>4.500785812795783E-5</v>
       </c>
       <c r="P59">
-        <f>O59-'No Model 65 MPH'!I59</f>
-        <v>1.6388791062796749E-5</v>
+        <f>O59-'No Model 65 MPH'!$O$16</f>
+        <v>1.9256298369521307E-5</v>
       </c>
       <c r="Q59">
         <f>F59/(M59*wing_area*wmac)</f>
@@ -10391,7 +12489,7 @@
         <v>-1.6180000000000001</v>
       </c>
       <c r="E60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6180000000000001</v>
       </c>
       <c r="F60">
@@ -10415,7 +12513,7 @@
         <v>4.5308855686331342E-5</v>
       </c>
       <c r="L60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2572792786668466E-8</v>
       </c>
       <c r="M60" s="11">
@@ -10431,8 +12529,8 @@
         <v>4.500785812795783E-5</v>
       </c>
       <c r="P60">
-        <f>O60-'No Model 65 MPH'!I60</f>
-        <v>1.6388791062796749E-5</v>
+        <f>O60-'No Model 65 MPH'!$O$16</f>
+        <v>1.9256298369521307E-5</v>
       </c>
       <c r="Q60">
         <f>F60/(M60*wing_area*wmac)</f>
@@ -10458,7 +12556,7 @@
         <v>-1.6180000000000001</v>
       </c>
       <c r="E61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6180000000000001</v>
       </c>
       <c r="F61">
@@ -10482,7 +12580,7 @@
         <v>4.5308855686331342E-5</v>
       </c>
       <c r="L61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2572792786668466E-8</v>
       </c>
       <c r="M61" s="11">
@@ -10498,8 +12596,8 @@
         <v>4.500785812795783E-5</v>
       </c>
       <c r="P61">
-        <f>O61-'No Model 65 MPH'!I61</f>
-        <v>9.6680708126610764E-6</v>
+        <f>O61-'No Model 65 MPH'!$O$16</f>
+        <v>1.9256298369521307E-5</v>
       </c>
       <c r="Q61">
         <f>F61/(M61*wing_area*wmac)</f>
@@ -10525,7 +12623,7 @@
         <v>-1.861</v>
       </c>
       <c r="E62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.861</v>
       </c>
       <c r="F62">
@@ -10549,7 +12647,7 @@
         <v>5.2113584939593704E-5</v>
       </c>
       <c r="L62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.0122279891789308E-8</v>
       </c>
       <c r="M62" s="11">
@@ -10565,8 +12663,8 @@
         <v>5.1767381938275346E-5</v>
       </c>
       <c r="P62">
-        <f>O62-'No Model 65 MPH'!I62</f>
-        <v>1.6427594622978593E-5</v>
+        <f>O62-'No Model 65 MPH'!$O$17</f>
+        <v>2.7880822049251472E-5</v>
       </c>
       <c r="Q62">
         <f>F62/(M62*wing_area*wmac)</f>
@@ -10592,7 +12690,7 @@
         <v>-1.861</v>
       </c>
       <c r="E63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.861</v>
       </c>
       <c r="F63">
@@ -10616,7 +12714,7 @@
         <v>5.2113584939593704E-5</v>
       </c>
       <c r="L63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.0122279891789308E-8</v>
       </c>
       <c r="M63" s="11">
@@ -10632,8 +12730,8 @@
         <v>5.1767381938275346E-5</v>
       </c>
       <c r="P63">
-        <f>O63-'No Model 65 MPH'!I63</f>
-        <v>1.6427594622978593E-5</v>
+        <f>O63-'No Model 65 MPH'!$O$17</f>
+        <v>2.7880822049251472E-5</v>
       </c>
       <c r="Q63">
         <f>F63/(M63*wing_area*wmac)</f>
@@ -10659,7 +12757,7 @@
         <v>-1.861</v>
       </c>
       <c r="E64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.861</v>
       </c>
       <c r="F64">
@@ -10683,7 +12781,7 @@
         <v>5.2113584939593704E-5</v>
       </c>
       <c r="L64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.0122279891789308E-8</v>
       </c>
       <c r="M64" s="11">
@@ -10699,8 +12797,8 @@
         <v>5.1767381938275346E-5</v>
       </c>
       <c r="P64">
-        <f>O64-'No Model 65 MPH'!I64</f>
-        <v>2.0348014768891069E-5</v>
+        <f>O64-'No Model 65 MPH'!$O$17</f>
+        <v>2.7880822049251472E-5</v>
       </c>
       <c r="Q64">
         <f>F64/(M64*wing_area*wmac)</f>
@@ -10726,7 +12824,7 @@
         <v>-1.8220000000000001</v>
       </c>
       <c r="E65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.8220000000000001</v>
       </c>
       <c r="F65">
@@ -10750,7 +12848,7 @@
         <v>5.1021467898946664E-5</v>
       </c>
       <c r="L65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.8150266582653179E-8</v>
       </c>
       <c r="M65" s="11">
@@ -10766,8 +12864,8 @@
         <v>5.0682520092175009E-5</v>
       </c>
       <c r="P65">
-        <f>O65-'No Model 65 MPH'!I65</f>
-        <v>1.9263152922790731E-5</v>
+        <f>O65-'No Model 65 MPH'!$O$17</f>
+        <v>2.6795960203151135E-5</v>
       </c>
       <c r="Q65">
         <f>F65/(M65*wing_area*wmac)</f>
@@ -10793,7 +12891,7 @@
         <v>-1.8220000000000001</v>
       </c>
       <c r="E66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.8220000000000001</v>
       </c>
       <c r="F66">
@@ -10817,7 +12915,7 @@
         <v>5.1021467898946664E-5</v>
       </c>
       <c r="L66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.8150266582653179E-8</v>
       </c>
       <c r="M66" s="11">
@@ -10833,8 +12931,8 @@
         <v>5.0682520092175009E-5</v>
       </c>
       <c r="P66">
-        <f>O66-'No Model 65 MPH'!I66</f>
-        <v>1.2262402662232732E-5</v>
+        <f>O66-'No Model 65 MPH'!$O$17</f>
+        <v>2.6795960203151135E-5</v>
       </c>
       <c r="Q66">
         <f>F66/(M66*wing_area*wmac)</f>
@@ -10900,8 +12998,8 @@
         <v>5.524450323987901E-5</v>
       </c>
       <c r="P67">
-        <f>O67-'No Model 65 MPH'!I67</f>
-        <v>1.6824385809936733E-5</v>
+        <f>O67-'No Model 65 MPH'!$O$18</f>
+        <v>2.1472883982947247E-5</v>
       </c>
       <c r="Q67">
         <f>F67/(M67*wing_area*wmac)</f>
@@ -10967,8 +13065,8 @@
         <v>5.524450323987901E-5</v>
       </c>
       <c r="P68">
-        <f>O68-'No Model 65 MPH'!I68</f>
-        <v>1.6824385809936733E-5</v>
+        <f>O68-'No Model 65 MPH'!$O$18</f>
+        <v>2.1472883982947247E-5</v>
       </c>
       <c r="Q68">
         <f>F68/(M68*wing_area*wmac)</f>
@@ -11034,8 +13132,8 @@
         <v>5.7469860872905352E-5</v>
       </c>
       <c r="P69">
-        <f>O69-'No Model 65 MPH'!I69</f>
-        <v>1.9189758448174242E-5</v>
+        <f>O69-'No Model 65 MPH'!$O$18</f>
+        <v>2.3698241615973589E-5</v>
       </c>
       <c r="Q69">
         <f>F69/(M69*wing_area*wmac)</f>
@@ -11101,8 +13199,8 @@
         <v>5.7469860872905352E-5</v>
       </c>
       <c r="P70">
-        <f>O70-'No Model 65 MPH'!I70</f>
-        <v>1.9189758448174242E-5</v>
+        <f>O70-'No Model 65 MPH'!$O$18</f>
+        <v>2.3698241615973589E-5</v>
       </c>
       <c r="Q70">
         <f>F70/(M70*wing_area*wmac)</f>
@@ -11168,8 +13266,8 @@
         <v>5.7469860872905352E-5</v>
       </c>
       <c r="P71">
-        <f>O71-'No Model 65 MPH'!I71</f>
-        <v>5.1113179636318695E-5</v>
+        <f>O71-'No Model 65 MPH'!$O$18</f>
+        <v>2.3698241615973589E-5</v>
       </c>
       <c r="Q71">
         <f>F71/(M71*wing_area*wmac)</f>
@@ -11235,8 +13333,8 @@
         <v>6.7789956896065028E-5</v>
       </c>
       <c r="P72">
-        <f>O72-'No Model 65 MPH'!I72</f>
-        <v>6.1433275659478364E-5</v>
+        <f>O72-'No Model 65 MPH'!$O$19</f>
+        <v>3.637058972668075E-5</v>
       </c>
       <c r="Q72">
         <f>F72/(M72*wing_area*wmac)</f>
@@ -11302,8 +13400,8 @@
         <v>6.7789956896065028E-5</v>
       </c>
       <c r="P73">
-        <f>O73-'No Model 65 MPH'!I73</f>
-        <v>6.1433275659478364E-5</v>
+        <f>O73-'No Model 65 MPH'!$O$19</f>
+        <v>3.637058972668075E-5</v>
       </c>
       <c r="Q73">
         <f>F73/(M73*wing_area*wmac)</f>
@@ -11369,8 +13467,8 @@
         <v>6.9264256327944987E-5</v>
       </c>
       <c r="P74">
-        <f>O74-'No Model 65 MPH'!I74</f>
-        <v>5.9099166949614782E-5</v>
+        <f>O74-'No Model 65 MPH'!$O$19</f>
+        <v>3.7844889158560709E-5</v>
       </c>
       <c r="Q74">
         <f>F74/(M74*wing_area*wmac)</f>
@@ -11436,8 +13534,8 @@
         <v>6.9264256327944987E-5</v>
       </c>
       <c r="P75">
-        <f>O75-'No Model 65 MPH'!I75</f>
-        <v>5.9099166949614782E-5</v>
+        <f>O75-'No Model 65 MPH'!$O$19</f>
+        <v>3.7844889158560709E-5</v>
       </c>
       <c r="Q75">
         <f>F75/(M75*wing_area*wmac)</f>
@@ -11503,8 +13601,8 @@
         <v>6.8262845393083138E-5</v>
       </c>
       <c r="P76">
-        <f>O76-'No Model 65 MPH'!I76</f>
-        <v>6.8262845393083138E-5</v>
+        <f>O76-'No Model 65 MPH'!$O$19</f>
+        <v>3.6843478223698861E-5</v>
       </c>
       <c r="Q76">
         <f>F76/(M76*wing_area*wmac)</f>
@@ -11570,8 +13668,8 @@
         <v>6.8262845393083138E-5</v>
       </c>
       <c r="P77">
-        <f>O77-'No Model 65 MPH'!I77</f>
-        <v>6.8262845393083138E-5</v>
+        <f>O77-'No Model 65 MPH'!$O$20</f>
+        <v>2.9912735465746445E-5</v>
       </c>
       <c r="Q77">
         <f>F77/(M77*wing_area*wmac)</f>
@@ -11637,8 +13735,8 @@
         <v>7.1600881842622639E-5</v>
       </c>
       <c r="P78">
-        <f>O78-'No Model 65 MPH'!I78</f>
-        <v>7.1600881842622639E-5</v>
+        <f>O78-'No Model 65 MPH'!$O$20</f>
+        <v>3.3250771915285945E-5</v>
       </c>
       <c r="Q78">
         <f>F78/(M78*wing_area*wmac)</f>
@@ -11704,8 +13802,8 @@
         <v>7.1600881842622639E-5</v>
       </c>
       <c r="P79">
-        <f>O79-'No Model 65 MPH'!I79</f>
-        <v>7.1600881842622639E-5</v>
+        <f>O79-'No Model 65 MPH'!$O$20</f>
+        <v>3.3250771915285945E-5</v>
       </c>
       <c r="Q79">
         <f>F79/(M79*wing_area*wmac)</f>
@@ -11771,8 +13869,8 @@
         <v>7.1600881842622639E-5</v>
       </c>
       <c r="P80">
-        <f>O80-'No Model 65 MPH'!I80</f>
-        <v>7.1600881842622639E-5</v>
+        <f>O80-'No Model 65 MPH'!$O$20</f>
+        <v>3.3250771915285945E-5</v>
       </c>
       <c r="Q80">
         <f>F80/(M80*wing_area*wmac)</f>
@@ -11838,8 +13936,8 @@
         <v>3.0904654128653364E-5</v>
       </c>
       <c r="P81">
-        <f>O81-'No Model 65 MPH'!I81</f>
-        <v>3.0904654128653364E-5</v>
+        <f>O81-'No Model 65 MPH'!$O$20</f>
+        <v>-7.4454557986833295E-6</v>
       </c>
       <c r="Q81">
         <f>F81/(M81*wing_area*wmac)</f>
@@ -12125,10 +14223,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12144,11 +14242,12 @@
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12195,13 +14294,16 @@
         <v>138</v>
       </c>
       <c r="P1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -12256,15 +14358,19 @@
         <v>2.3477523028427936E-5</v>
       </c>
       <c r="P2">
+        <f>O2-'No Model 65 MPH'!$O$12</f>
+        <v>6.7149266045478789E-6</v>
+      </c>
+      <c r="Q2">
         <f>F2/(M2*wing_area*wmac)</f>
         <v>-1.1469607534393671E-4</v>
       </c>
-      <c r="Q2">
-        <f>P2-deltaCmcgt</f>
+      <c r="R2">
+        <f>Q2-deltaCmcgt</f>
         <v>-1.1388205716632299E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -12319,15 +14425,19 @@
         <v>2.3477523028427936E-5</v>
       </c>
       <c r="P3">
+        <f>O3-'No Model 65 MPH'!$O$12</f>
+        <v>6.7149266045478789E-6</v>
+      </c>
+      <c r="Q3">
         <f>F3/(M3*wing_area*wmac)</f>
         <v>-1.1469607534393671E-4</v>
       </c>
-      <c r="Q3">
-        <f>P3-deltaCmcgt</f>
+      <c r="R3">
+        <f>Q3-deltaCmcgt</f>
         <v>-1.1388205716632299E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -12382,15 +14492,19 @@
         <v>2.3839143643794718E-5</v>
       </c>
       <c r="P4">
+        <f>O4-'No Model 65 MPH'!$O$12</f>
+        <v>7.0765472199146603E-6</v>
+      </c>
+      <c r="Q4">
         <f>F4/(M4*wing_area*wmac)</f>
         <v>-1.0404473485250462E-4</v>
       </c>
-      <c r="Q4">
-        <f>P4-deltaCmcgt</f>
+      <c r="R4">
+        <f>Q4-deltaCmcgt</f>
         <v>-1.032307166748909E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -12445,15 +14559,19 @@
         <v>2.3839143643794718E-5</v>
       </c>
       <c r="P5">
+        <f>O5-'No Model 65 MPH'!$O$12</f>
+        <v>7.0765472199146603E-6</v>
+      </c>
+      <c r="Q5">
         <f>F5/(M5*wing_area*wmac)</f>
         <v>-1.0404473485250462E-4</v>
       </c>
-      <c r="Q5">
-        <f>P5-deltaCmcgt</f>
+      <c r="R5">
+        <f>Q5-deltaCmcgt</f>
         <v>-1.032307166748909E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -12508,15 +14626,19 @@
         <v>2.3839143643794718E-5</v>
       </c>
       <c r="P6">
+        <f>O6-'No Model 65 MPH'!$O$12</f>
+        <v>7.0765472199146603E-6</v>
+      </c>
+      <c r="Q6">
         <f>F6/(M6*wing_area*wmac)</f>
         <v>-1.0404473485250462E-4</v>
       </c>
-      <c r="Q6">
-        <f>P6-deltaCmcgt</f>
+      <c r="R6">
+        <f>Q6-deltaCmcgt</f>
         <v>-1.032307166748909E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-7.9809999999999999</v>
       </c>
@@ -12571,15 +14693,19 @@
         <v>2.5202175194023358E-5</v>
       </c>
       <c r="P7">
+        <f>O7-'No Model 65 MPH'!$O$8</f>
+        <v>2.4793331378806771E-5</v>
+      </c>
+      <c r="Q7">
         <f>F7/(M7*wing_area*wmac)</f>
         <v>-1.5190642239929126E-4</v>
       </c>
-      <c r="Q7">
-        <f>P7-deltaCmcgt</f>
+      <c r="R7">
+        <f>Q7-deltaCmcgt</f>
         <v>-1.5109240422167756E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-7.9809999999999999</v>
       </c>
@@ -12634,15 +14760,19 @@
         <v>2.5202175194023358E-5</v>
       </c>
       <c r="P8">
+        <f>O8-'No Model 65 MPH'!$O$8</f>
+        <v>2.4793331378806771E-5</v>
+      </c>
+      <c r="Q8">
         <f>F8/(M8*wing_area*wmac)</f>
         <v>-1.5190642239929126E-4</v>
       </c>
-      <c r="Q8">
-        <f>P8-deltaCmcgt</f>
+      <c r="R8">
+        <f>Q8-deltaCmcgt</f>
         <v>-1.5109240422167756E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-7.9980000000000002</v>
       </c>
@@ -12697,15 +14827,19 @@
         <v>2.5202175194023358E-5</v>
       </c>
       <c r="P9">
+        <f>O9-'No Model 65 MPH'!$O$8</f>
+        <v>2.4793331378806771E-5</v>
+      </c>
+      <c r="Q9">
         <f>F9/(M9*wing_area*wmac)</f>
         <v>-1.340571057163836E-4</v>
       </c>
-      <c r="Q9">
-        <f>P9-deltaCmcgt</f>
+      <c r="R9">
+        <f>Q9-deltaCmcgt</f>
         <v>-1.3324308753876989E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-7.9980000000000002</v>
       </c>
@@ -12760,15 +14894,19 @@
         <v>2.5202175194023358E-5</v>
       </c>
       <c r="P10">
+        <f>O10-'No Model 65 MPH'!$O$8</f>
+        <v>2.4793331378806771E-5</v>
+      </c>
+      <c r="Q10">
         <f>F10/(M10*wing_area*wmac)</f>
         <v>-1.340571057163836E-4</v>
       </c>
-      <c r="Q10">
-        <f>P10-deltaCmcgt</f>
+      <c r="R10">
+        <f>Q10-deltaCmcgt</f>
         <v>-1.3324308753876989E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-7.9980000000000002</v>
       </c>
@@ -12823,15 +14961,19 @@
         <v>2.5202175194023358E-5</v>
       </c>
       <c r="P11">
+        <f>O11-'No Model 65 MPH'!$O$8</f>
+        <v>2.4793331378806771E-5</v>
+      </c>
+      <c r="Q11">
         <f>F11/(M11*wing_area*wmac)</f>
         <v>-1.340571057163836E-4</v>
       </c>
-      <c r="Q11">
-        <f>P11-deltaCmcgt</f>
+      <c r="R11">
+        <f>Q11-deltaCmcgt</f>
         <v>-1.3324308753876989E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-6.0140000000000002</v>
       </c>
@@ -12886,15 +15028,19 @@
         <v>1.6662365277284756E-5</v>
       </c>
       <c r="P12">
+        <f>O12-'No Model 65 MPH'!$O$9</f>
+        <v>1.547503803309412E-5</v>
+      </c>
+      <c r="Q12">
         <f>F12/(M12*wing_area*wmac)</f>
         <v>-8.5224592864388288E-5</v>
       </c>
-      <c r="Q12">
-        <f>P12-deltaCmcgt</f>
+      <c r="R12">
+        <f>Q12-deltaCmcgt</f>
         <v>-8.4410574686774568E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-6.0140000000000002</v>
       </c>
@@ -12949,15 +15095,19 @@
         <v>1.6662365277284756E-5</v>
       </c>
       <c r="P13">
+        <f>O13-'No Model 65 MPH'!$O$9</f>
+        <v>1.547503803309412E-5</v>
+      </c>
+      <c r="Q13">
         <f>F13/(M13*wing_area*wmac)</f>
         <v>-8.5224592864388288E-5</v>
       </c>
-      <c r="Q13">
-        <f>P13-deltaCmcgt</f>
+      <c r="R13">
+        <f>Q13-deltaCmcgt</f>
         <v>-8.4410574686774568E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-6.0140000000000002</v>
       </c>
@@ -13012,15 +15162,19 @@
         <v>1.6662365277284756E-5</v>
       </c>
       <c r="P14">
+        <f>O14-'No Model 65 MPH'!$O$9</f>
+        <v>1.547503803309412E-5</v>
+      </c>
+      <c r="Q14">
         <f>F14/(M14*wing_area*wmac)</f>
         <v>-8.5224592864388288E-5</v>
       </c>
-      <c r="Q14">
-        <f>P14-deltaCmcgt</f>
+      <c r="R14">
+        <f>Q14-deltaCmcgt</f>
         <v>-8.4410574686774568E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.0019999999999998</v>
       </c>
@@ -13075,15 +15229,19 @@
         <v>1.8136664709164712E-5</v>
       </c>
       <c r="P15">
+        <f>O15-'No Model 65 MPH'!$O$9</f>
+        <v>1.6949337464974076E-5</v>
+      </c>
+      <c r="Q15">
         <f>F15/(M15*wing_area*wmac)</f>
         <v>-8.3920913168822388E-5</v>
       </c>
-      <c r="Q15">
-        <f>P15-deltaCmcgt</f>
+      <c r="R15">
+        <f>Q15-deltaCmcgt</f>
         <v>-8.3106894991208667E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.0019999999999998</v>
       </c>
@@ -13138,15 +15296,19 @@
         <v>1.8136664709164712E-5</v>
       </c>
       <c r="P16">
+        <f>O16-'No Model 65 MPH'!$O$9</f>
+        <v>1.6949337464974076E-5</v>
+      </c>
+      <c r="Q16">
         <f>F16/(M16*wing_area*wmac)</f>
         <v>-8.3920913168822388E-5</v>
       </c>
-      <c r="Q16">
-        <f>P16-deltaCmcgt</f>
+      <c r="R16">
+        <f>Q16-deltaCmcgt</f>
         <v>-8.3106894991208667E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.9990000000000001</v>
       </c>
@@ -13201,15 +15363,19 @@
         <v>1.8609553206182812E-5</v>
       </c>
       <c r="P17">
+        <f>O17-'No Model 65 MPH'!$O$10</f>
+        <v>1.3434598613578344E-5</v>
+      </c>
+      <c r="Q17">
         <f>F17/(M17*wing_area*wmac)</f>
         <v>-9.3199229300030799E-5</v>
       </c>
-      <c r="Q17">
-        <f>P17-deltaCmcgt</f>
+      <c r="R17">
+        <f>Q17-deltaCmcgt</f>
         <v>-9.2385211122417079E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3.9990000000000001</v>
       </c>
@@ -13264,15 +15430,19 @@
         <v>1.8609553206182812E-5</v>
       </c>
       <c r="P18">
+        <f>O18-'No Model 65 MPH'!$O$10</f>
+        <v>1.3434598613578344E-5</v>
+      </c>
+      <c r="Q18">
         <f>F18/(M18*wing_area*wmac)</f>
         <v>-9.3199229300030799E-5</v>
       </c>
-      <c r="Q18">
-        <f>P18-deltaCmcgt</f>
+      <c r="R18">
+        <f>Q18-deltaCmcgt</f>
         <v>-9.2385211122417079E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.9990000000000001</v>
       </c>
@@ -13327,15 +15497,19 @@
         <v>1.8609553206182812E-5</v>
       </c>
       <c r="P19">
+        <f>O19-'No Model 65 MPH'!$O$10</f>
+        <v>1.3434598613578344E-5</v>
+      </c>
+      <c r="Q19">
         <f>F19/(M19*wing_area*wmac)</f>
         <v>-9.3199229300030799E-5</v>
       </c>
-      <c r="Q19">
-        <f>P19-deltaCmcgt</f>
+      <c r="R19">
+        <f>Q19-deltaCmcgt</f>
         <v>-9.2385211122417079E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.9929999999999999</v>
       </c>
@@ -13390,15 +15564,19 @@
         <v>1.8359200472467347E-5</v>
       </c>
       <c r="P20">
+        <f>O20-'No Model 65 MPH'!$O$10</f>
+        <v>1.3184245879862878E-5</v>
+      </c>
+      <c r="Q20">
         <f>F20/(M20*wing_area*wmac)</f>
         <v>-9.4281006068691882E-5</v>
       </c>
-      <c r="Q20">
-        <f>P20-deltaCmcgt</f>
+      <c r="R20">
+        <f>Q20-deltaCmcgt</f>
         <v>-9.3466987891078162E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.9929999999999999</v>
       </c>
@@ -13453,15 +15631,19 @@
         <v>1.8359200472467347E-5</v>
       </c>
       <c r="P21">
+        <f>O21-'No Model 65 MPH'!$O$10</f>
+        <v>1.3184245879862878E-5</v>
+      </c>
+      <c r="Q21">
         <f>F21/(M21*wing_area*wmac)</f>
         <v>-9.4281006068691882E-5</v>
       </c>
-      <c r="Q21">
-        <f>P21-deltaCmcgt</f>
+      <c r="R21">
+        <f>Q21-deltaCmcgt</f>
         <v>-9.3466987891078162E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.976</v>
       </c>
@@ -13516,15 +15698,19 @@
         <v>1.927716049609071E-5</v>
       </c>
       <c r="P22">
+        <f>O22-'No Model 65 MPH'!$O$11</f>
+        <v>1.2550839645746589E-5</v>
+      </c>
+      <c r="Q22">
         <f>F22/(M22*wing_area*wmac)</f>
         <v>-1.0857987592112219E-4</v>
       </c>
-      <c r="Q22">
-        <f>P22-deltaCmcgt</f>
+      <c r="R22">
+        <f>Q22-deltaCmcgt</f>
         <v>-1.0776585774350847E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.976</v>
       </c>
@@ -13579,15 +15765,19 @@
         <v>1.927716049609071E-5</v>
       </c>
       <c r="P23">
+        <f>O23-'No Model 65 MPH'!$O$11</f>
+        <v>1.2550839645746589E-5</v>
+      </c>
+      <c r="Q23">
         <f>F23/(M23*wing_area*wmac)</f>
         <v>-1.0857987592112219E-4</v>
       </c>
-      <c r="Q23">
-        <f>P23-deltaCmcgt</f>
+      <c r="R23">
+        <f>Q23-deltaCmcgt</f>
         <v>-1.0776585774350847E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.976</v>
       </c>
@@ -13642,15 +15832,19 @@
         <v>1.927716049609071E-5</v>
       </c>
       <c r="P24">
+        <f>O24-'No Model 65 MPH'!$O$11</f>
+        <v>1.2550839645746589E-5</v>
+      </c>
+      <c r="Q24">
         <f>F24/(M24*wing_area*wmac)</f>
         <v>-1.0857987592112219E-4</v>
       </c>
-      <c r="Q24">
-        <f>P24-deltaCmcgt</f>
+      <c r="R24">
+        <f>Q24-deltaCmcgt</f>
         <v>-1.0776585774350847E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.966</v>
       </c>
@@ -13705,15 +15899,19 @@
         <v>1.9444062318567687E-5</v>
       </c>
       <c r="P25">
+        <f>O25-'No Model 65 MPH'!$O$11</f>
+        <v>1.2717741468223566E-5</v>
+      </c>
+      <c r="Q25">
         <f>F25/(M25*wing_area*wmac)</f>
         <v>-1.0679078357295197E-4</v>
       </c>
-      <c r="Q25">
-        <f>P25-deltaCmcgt</f>
+      <c r="R25">
+        <f>Q25-deltaCmcgt</f>
         <v>-1.0597676539533824E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.966</v>
       </c>
@@ -13768,15 +15966,19 @@
         <v>1.9444062318567687E-5</v>
       </c>
       <c r="P26">
+        <f>O26-'No Model 65 MPH'!$O$11</f>
+        <v>1.2717741468223566E-5</v>
+      </c>
+      <c r="Q26">
         <f>F26/(M26*wing_area*wmac)</f>
         <v>-1.0679078357295197E-4</v>
       </c>
-      <c r="Q26">
-        <f>P26-deltaCmcgt</f>
+      <c r="R26">
+        <f>Q26-deltaCmcgt</f>
         <v>-1.0597676539533824E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -13831,15 +16033,19 @@
         <v>1.9972584756411446E-5</v>
       </c>
       <c r="P27">
+        <f>O27-'No Model 65 MPH'!$O$12</f>
+        <v>3.209988332531388E-6</v>
+      </c>
+      <c r="Q27">
         <f>F27/(M27*wing_area*wmac)</f>
         <v>-1.3954920315727826E-4</v>
       </c>
-      <c r="Q27">
-        <f>P27-deltaCmcgt</f>
+      <c r="R27">
+        <f>Q27-deltaCmcgt</f>
         <v>-1.3873518497966455E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -13894,15 +16100,19 @@
         <v>1.9972584756411446E-5</v>
       </c>
       <c r="P28">
+        <f>O28-'No Model 65 MPH'!$O$12</f>
+        <v>3.209988332531388E-6</v>
+      </c>
+      <c r="Q28">
         <f>F28/(M28*wing_area*wmac)</f>
         <v>-1.3954920315727826E-4</v>
       </c>
-      <c r="Q28">
-        <f>P28-deltaCmcgt</f>
+      <c r="R28">
+        <f>Q28-deltaCmcgt</f>
         <v>-1.3873518497966455E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -13957,15 +16167,19 @@
         <v>1.9972584756411446E-5</v>
       </c>
       <c r="P29">
+        <f>O29-'No Model 65 MPH'!$O$12</f>
+        <v>3.209988332531388E-6</v>
+      </c>
+      <c r="Q29">
         <f>F29/(M29*wing_area*wmac)</f>
         <v>-1.3954920315727826E-4</v>
       </c>
-      <c r="Q29">
-        <f>P29-deltaCmcgt</f>
+      <c r="R29">
+        <f>Q29-deltaCmcgt</f>
         <v>-1.3873518497966455E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -14020,15 +16234,19 @@
         <v>1.9972584756411446E-5</v>
       </c>
       <c r="P30">
+        <f>O30-'No Model 65 MPH'!$O$12</f>
+        <v>3.209988332531388E-6</v>
+      </c>
+      <c r="Q30">
         <f>F30/(M30*wing_area*wmac)</f>
         <v>-1.3954920315727826E-4</v>
       </c>
-      <c r="Q30">
-        <f>P30-deltaCmcgt</f>
+      <c r="R30">
+        <f>Q30-deltaCmcgt</f>
         <v>-1.3873518497966455E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -14083,15 +16301,19 @@
         <v>1.9332794436916371E-5</v>
       </c>
       <c r="P31">
+        <f>O31-'No Model 65 MPH'!$O$12</f>
+        <v>2.5701980130363139E-6</v>
+      </c>
+      <c r="Q31">
         <f>F31/(M31*wing_area*wmac)</f>
         <v>-1.338490717224103E-4</v>
       </c>
-      <c r="Q31">
-        <f>P31-deltaCmcgt</f>
+      <c r="R31">
+        <f>Q31-deltaCmcgt</f>
         <v>-1.330350535447966E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.966</v>
       </c>
@@ -14146,15 +16368,19 @@
         <v>2.2726464827281547E-5</v>
       </c>
       <c r="P32">
+        <f>O32-'No Model 65 MPH'!$O$13</f>
+        <v>7.4928322603073495E-6</v>
+      </c>
+      <c r="Q32">
         <f>F32/(M32*wing_area*wmac)</f>
         <v>-1.5612257801048314E-4</v>
       </c>
-      <c r="Q32">
-        <f>P32-deltaCmcgt</f>
+      <c r="R32">
+        <f>Q32-deltaCmcgt</f>
         <v>-1.5530855983286943E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.0270000000000001</v>
       </c>
@@ -14209,15 +16435,19 @@
         <v>2.1725053892419694E-5</v>
       </c>
       <c r="P33">
+        <f>O33-'No Model 65 MPH'!$O$13</f>
+        <v>6.4914213254454974E-6</v>
+      </c>
+      <c r="Q33">
         <f>F33/(M33*wing_area*wmac)</f>
         <v>-1.4732967453187905E-4</v>
       </c>
-      <c r="Q33">
-        <f>P33-deltaCmcgt</f>
+      <c r="R33">
+        <f>Q33-deltaCmcgt</f>
         <v>-1.4651565635426535E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.0270000000000001</v>
       </c>
@@ -14272,15 +16502,19 @@
         <v>2.1725053892419694E-5</v>
       </c>
       <c r="P34">
+        <f>O34-'No Model 65 MPH'!$O$13</f>
+        <v>6.4914213254454974E-6</v>
+      </c>
+      <c r="Q34">
         <f>F34/(M34*wing_area*wmac)</f>
         <v>-1.4732967453187905E-4</v>
       </c>
-      <c r="Q34">
-        <f>P34-deltaCmcgt</f>
+      <c r="R34">
+        <f>Q34-deltaCmcgt</f>
         <v>-1.4651565635426535E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.0270000000000001</v>
       </c>
@@ -14335,15 +16569,19 @@
         <v>2.1725053892419694E-5</v>
       </c>
       <c r="P35">
+        <f>O35-'No Model 65 MPH'!$O$13</f>
+        <v>6.4914213254454974E-6</v>
+      </c>
+      <c r="Q35">
         <f>F35/(M35*wing_area*wmac)</f>
         <v>-1.4732967453187905E-4</v>
       </c>
-      <c r="Q35">
-        <f>P35-deltaCmcgt</f>
+      <c r="R35">
+        <f>Q35-deltaCmcgt</f>
         <v>-1.4651565635426535E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.0270000000000001</v>
       </c>
@@ -14398,15 +16636,19 @@
         <v>2.1725053892419694E-5</v>
       </c>
       <c r="P36">
+        <f>O36-'No Model 65 MPH'!$O$13</f>
+        <v>6.4914213254454974E-6</v>
+      </c>
+      <c r="Q36">
         <f>F36/(M36*wing_area*wmac)</f>
         <v>-1.4732967453187905E-4</v>
       </c>
-      <c r="Q36">
-        <f>P36-deltaCmcgt</f>
+      <c r="R36">
+        <f>Q36-deltaCmcgt</f>
         <v>-1.4651565635426535E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.976</v>
       </c>
@@ -14461,15 +16703,19 @@
         <v>2.7038095241270089E-5</v>
       </c>
       <c r="P37">
+        <f>O37-'No Model 65 MPH'!$O$14</f>
+        <v>9.1889823769514307E-6</v>
+      </c>
+      <c r="Q37">
         <f>F37/(M37*wing_area*wmac)</f>
         <v>-1.9541326500557054E-4</v>
       </c>
-      <c r="Q37">
-        <f>P37-deltaCmcgt</f>
+      <c r="R37">
+        <f>Q37-deltaCmcgt</f>
         <v>-1.9459924682795683E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.976</v>
       </c>
@@ -14524,15 +16770,19 @@
         <v>2.7038095241270089E-5</v>
       </c>
       <c r="P38">
+        <f>O38-'No Model 65 MPH'!$O$14</f>
+        <v>9.1889823769514307E-6</v>
+      </c>
+      <c r="Q38">
         <f>F38/(M38*wing_area*wmac)</f>
         <v>-1.9541326500557054E-4</v>
       </c>
-      <c r="Q38">
-        <f>P38-deltaCmcgt</f>
+      <c r="R38">
+        <f>Q38-deltaCmcgt</f>
         <v>-1.9459924682795683E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.976</v>
       </c>
@@ -14587,15 +16837,19 @@
         <v>2.7038095241270089E-5</v>
       </c>
       <c r="P39">
+        <f>O39-'No Model 65 MPH'!$O$14</f>
+        <v>9.1889823769514307E-6</v>
+      </c>
+      <c r="Q39">
         <f>F39/(M39*wing_area*wmac)</f>
         <v>-1.9541326500557054E-4</v>
       </c>
-      <c r="Q39">
-        <f>P39-deltaCmcgt</f>
+      <c r="R39">
+        <f>Q39-deltaCmcgt</f>
         <v>-1.9459924682795683E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.0709999999999997</v>
       </c>
@@ -14650,15 +16904,19 @@
         <v>2.6843376448380284E-5</v>
       </c>
       <c r="P40">
+        <f>O40-'No Model 65 MPH'!$O$14</f>
+        <v>8.9942635840616264E-6</v>
+      </c>
+      <c r="Q40">
         <f>F40/(M40*wing_area*wmac)</f>
         <v>-1.8728607030768095E-4</v>
       </c>
-      <c r="Q40">
-        <f>P40-deltaCmcgt</f>
+      <c r="R40">
+        <f>Q40-deltaCmcgt</f>
         <v>-1.8647205213006724E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4.0709999999999997</v>
       </c>
@@ -14713,15 +16971,19 @@
         <v>2.6843376448380284E-5</v>
       </c>
       <c r="P41">
+        <f>O41-'No Model 65 MPH'!$O$14</f>
+        <v>8.9942635840616264E-6</v>
+      </c>
+      <c r="Q41">
         <f>F41/(M41*wing_area*wmac)</f>
         <v>-1.8728607030768095E-4</v>
       </c>
-      <c r="Q41">
-        <f>P41-deltaCmcgt</f>
+      <c r="R41">
+        <f>Q41-deltaCmcgt</f>
         <v>-1.8647205213006724E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.9749999999999996</v>
       </c>
@@ -14776,15 +17038,19 @@
         <v>2.9346903785534923E-5</v>
       </c>
       <c r="P42">
+        <f>O42-'No Model 65 MPH'!$O$15</f>
+        <v>8.5014698096974409E-6</v>
+      </c>
+      <c r="Q42">
         <f>F42/(M42*wing_area*wmac)</f>
         <v>-1.8734154603940715E-4</v>
       </c>
-      <c r="Q42">
-        <f>P42-deltaCmcgt</f>
+      <c r="R42">
+        <f>Q42-deltaCmcgt</f>
         <v>-1.8652752786179344E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.9749999999999996</v>
       </c>
@@ -14839,15 +17105,19 @@
         <v>2.9346903785534923E-5</v>
       </c>
       <c r="P43">
+        <f>O43-'No Model 65 MPH'!$O$15</f>
+        <v>8.5014698096974409E-6</v>
+      </c>
+      <c r="Q43">
         <f>F43/(M43*wing_area*wmac)</f>
         <v>-1.8734154603940715E-4</v>
       </c>
-      <c r="Q43">
-        <f>P43-deltaCmcgt</f>
+      <c r="R43">
+        <f>Q43-deltaCmcgt</f>
         <v>-1.8652752786179344E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.9749999999999996</v>
       </c>
@@ -14902,15 +17172,19 @@
         <v>2.9346903785534923E-5</v>
       </c>
       <c r="P44">
+        <f>O44-'No Model 65 MPH'!$O$15</f>
+        <v>8.5014698096974409E-6</v>
+      </c>
+      <c r="Q44">
         <f>F44/(M44*wing_area*wmac)</f>
         <v>-1.8734154603940715E-4</v>
       </c>
-      <c r="Q44">
-        <f>P44-deltaCmcgt</f>
+      <c r="R44">
+        <f>Q44-deltaCmcgt</f>
         <v>-1.8652752786179344E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.9960000000000004</v>
       </c>
@@ -14965,15 +17239,19 @@
         <v>2.739971585663687E-5</v>
       </c>
       <c r="P45">
+        <f>O45-'No Model 65 MPH'!$O$15</f>
+        <v>6.5542818807993878E-6</v>
+      </c>
+      <c r="Q45">
         <f>F45/(M45*wing_area*wmac)</f>
         <v>-1.9491398342003468E-4</v>
       </c>
-      <c r="Q45">
-        <f>P45-deltaCmcgt</f>
+      <c r="R45">
+        <f>Q45-deltaCmcgt</f>
         <v>-1.9409996524242097E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.9960000000000004</v>
       </c>
@@ -15028,15 +17306,19 @@
         <v>2.739971585663687E-5</v>
       </c>
       <c r="P46">
+        <f>O46-'No Model 65 MPH'!$O$15</f>
+        <v>6.5542818807993878E-6</v>
+      </c>
+      <c r="Q46">
         <f>F46/(M46*wing_area*wmac)</f>
         <v>-1.9491398342003468E-4</v>
       </c>
-      <c r="Q46">
-        <f>P46-deltaCmcgt</f>
+      <c r="R46">
+        <f>Q46-deltaCmcgt</f>
         <v>-1.9409996524242097E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8.0299999999999994</v>
       </c>
@@ -15091,15 +17373,19 @@
         <v>3.3936703903651758E-5</v>
       </c>
       <c r="P47">
+        <f>O47-'No Model 65 MPH'!$O$16</f>
+        <v>8.1851441452152346E-6</v>
+      </c>
+      <c r="Q47">
         <f>F47/(M47*wing_area*wmac)</f>
         <v>-2.2936441282201035E-4</v>
       </c>
-      <c r="Q47">
-        <f>P47-deltaCmcgt</f>
+      <c r="R47">
+        <f>Q47-deltaCmcgt</f>
         <v>-2.2855039464439664E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8.0299999999999994</v>
       </c>
@@ -15154,15 +17440,19 @@
         <v>3.3936703903651758E-5</v>
       </c>
       <c r="P48">
+        <f>O48-'No Model 65 MPH'!$O$16</f>
+        <v>8.1851441452152346E-6</v>
+      </c>
+      <c r="Q48">
         <f>F48/(M48*wing_area*wmac)</f>
         <v>-2.2936441282201035E-4</v>
       </c>
-      <c r="Q48">
-        <f>P48-deltaCmcgt</f>
+      <c r="R48">
+        <f>Q48-deltaCmcgt</f>
         <v>-2.2855039464439664E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8.0299999999999994</v>
       </c>
@@ -15217,15 +17507,19 @@
         <v>3.3936703903651758E-5</v>
       </c>
       <c r="P49">
+        <f>O49-'No Model 65 MPH'!$O$16</f>
+        <v>8.1851441452152346E-6</v>
+      </c>
+      <c r="Q49">
         <f>F49/(M49*wing_area*wmac)</f>
         <v>-2.2936441282201035E-4</v>
       </c>
-      <c r="Q49">
-        <f>P49-deltaCmcgt</f>
+      <c r="R49">
+        <f>Q49-deltaCmcgt</f>
         <v>-2.2855039464439664E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8.0310000000000006</v>
       </c>
@@ -15280,15 +17574,19 @@
         <v>3.5828257891724153E-5</v>
       </c>
       <c r="P50">
+        <f>O50-'No Model 65 MPH'!$O$16</f>
+        <v>1.007669813328763E-5</v>
+      </c>
+      <c r="Q50">
         <f>F50/(M50*wing_area*wmac)</f>
         <v>-2.4008509797810018E-4</v>
       </c>
-      <c r="Q50">
-        <f>P50-deltaCmcgt</f>
+      <c r="R50">
+        <f>Q50-deltaCmcgt</f>
         <v>-2.3927107980048647E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8.0310000000000006</v>
       </c>
@@ -15343,15 +17641,19 @@
         <v>3.5828257891724153E-5</v>
       </c>
       <c r="P51">
+        <f>O51-'No Model 65 MPH'!$O$16</f>
+        <v>1.007669813328763E-5</v>
+      </c>
+      <c r="Q51">
         <f>F51/(M51*wing_area*wmac)</f>
         <v>-2.4008509797810018E-4</v>
       </c>
-      <c r="Q51">
-        <f>P51-deltaCmcgt</f>
+      <c r="R51">
+        <f>Q51-deltaCmcgt</f>
         <v>-2.3927107980048647E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9.984</v>
       </c>
@@ -15406,15 +17708,19 @@
         <v>3.8025798554337669E-5</v>
       </c>
       <c r="P52">
+        <f>O52-'No Model 65 MPH'!$O$17</f>
+        <v>1.4139238665313794E-5</v>
+      </c>
+      <c r="Q52">
         <f>F52/(M52*wing_area*wmac)</f>
         <v>-2.6665797347495424E-4</v>
       </c>
-      <c r="Q52">
-        <f>P52-deltaCmcgt</f>
+      <c r="R52">
+        <f>Q52-deltaCmcgt</f>
         <v>-2.6584395529734051E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9.984</v>
       </c>
@@ -15469,15 +17775,19 @@
         <v>3.8025798554337669E-5</v>
       </c>
       <c r="P53">
+        <f>O53-'No Model 65 MPH'!$O$17</f>
+        <v>1.4139238665313794E-5</v>
+      </c>
+      <c r="Q53">
         <f>F53/(M53*wing_area*wmac)</f>
         <v>-2.6665797347495424E-4</v>
       </c>
-      <c r="Q53">
-        <f>P53-deltaCmcgt</f>
+      <c r="R53">
+        <f>Q53-deltaCmcgt</f>
         <v>-2.6584395529734051E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9.984</v>
       </c>
@@ -15532,15 +17842,19 @@
         <v>3.8025798554337669E-5</v>
       </c>
       <c r="P54">
+        <f>O54-'No Model 65 MPH'!$O$17</f>
+        <v>1.4139238665313794E-5</v>
+      </c>
+      <c r="Q54">
         <f>F54/(M54*wing_area*wmac)</f>
         <v>-2.6665797347495424E-4</v>
       </c>
-      <c r="Q54">
-        <f>P54-deltaCmcgt</f>
+      <c r="R54">
+        <f>Q54-deltaCmcgt</f>
         <v>-2.6584395529734051E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9.984</v>
       </c>
@@ -15595,15 +17909,19 @@
         <v>3.8025798554337669E-5</v>
       </c>
       <c r="P55">
+        <f>O55-'No Model 65 MPH'!$O$17</f>
+        <v>1.4139238665313794E-5</v>
+      </c>
+      <c r="Q55">
         <f>F55/(M55*wing_area*wmac)</f>
         <v>-2.6665797347495424E-4</v>
       </c>
-      <c r="Q55">
-        <f>P55-deltaCmcgt</f>
+      <c r="R55">
+        <f>Q55-deltaCmcgt</f>
         <v>-2.6584395529734051E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10.005000000000001</v>
       </c>
@@ -15658,15 +17976,19 @@
         <v>3.7024387619475813E-5</v>
       </c>
       <c r="P56">
+        <f>O56-'No Model 65 MPH'!$O$17</f>
+        <v>1.3137827730451939E-5</v>
+      </c>
+      <c r="Q56">
         <f>F56/(M56*wing_area*wmac)</f>
         <v>-2.5457813289157225E-4</v>
       </c>
-      <c r="Q56">
-        <f>P56-deltaCmcgt</f>
+      <c r="R56">
+        <f>Q56-deltaCmcgt</f>
         <v>-2.5376411471395851E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11.971</v>
       </c>
@@ -15721,15 +18043,19 @@
         <v>4.2949402317408458E-5</v>
       </c>
       <c r="P57">
+        <f>O57-'No Model 65 MPH'!$O$18</f>
+        <v>9.1777830604766945E-6</v>
+      </c>
+      <c r="Q57">
         <f>F57/(M57*wing_area*wmac)</f>
         <v>-3.0974874809328691E-4</v>
       </c>
-      <c r="Q57">
-        <f>P57-deltaCmcgt</f>
+      <c r="R57">
+        <f>Q57-deltaCmcgt</f>
         <v>-3.0893472991567317E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11.971</v>
       </c>
@@ -15784,15 +18110,19 @@
         <v>4.2949402317408458E-5</v>
       </c>
       <c r="P58">
+        <f>O58-'No Model 65 MPH'!$O$18</f>
+        <v>9.1777830604766945E-6</v>
+      </c>
+      <c r="Q58">
         <f>F58/(M58*wing_area*wmac)</f>
         <v>-3.0974874809328691E-4</v>
       </c>
-      <c r="Q58">
-        <f>P58-deltaCmcgt</f>
+      <c r="R58">
+        <f>Q58-deltaCmcgt</f>
         <v>-3.0893472991567317E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11.971</v>
       </c>
@@ -15847,15 +18177,19 @@
         <v>4.2949402317408458E-5</v>
       </c>
       <c r="P59">
+        <f>O59-'No Model 65 MPH'!$O$18</f>
+        <v>9.1777830604766945E-6</v>
+      </c>
+      <c r="Q59">
         <f>F59/(M59*wing_area*wmac)</f>
         <v>-3.0974874809328691E-4</v>
       </c>
-      <c r="Q59">
-        <f>P59-deltaCmcgt</f>
+      <c r="R59">
+        <f>Q59-deltaCmcgt</f>
         <v>-3.0893472991567317E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11.988</v>
       </c>
@@ -15910,15 +18244,19 @@
         <v>4.2921585346995624E-5</v>
       </c>
       <c r="P60">
+        <f>O60-'No Model 65 MPH'!$O$18</f>
+        <v>9.1499660900638604E-6</v>
+      </c>
+      <c r="Q60">
         <f>F60/(M60*wing_area*wmac)</f>
         <v>-3.0888887425153065E-4</v>
       </c>
-      <c r="Q60">
-        <f>P60-deltaCmcgt</f>
+      <c r="R60">
+        <f>Q60-deltaCmcgt</f>
         <v>-3.0807485607391692E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11.988</v>
       </c>
@@ -15973,15 +18311,19 @@
         <v>4.2921585346995624E-5</v>
       </c>
       <c r="P61">
+        <f>O61-'No Model 65 MPH'!$O$18</f>
+        <v>9.1499660900638604E-6</v>
+      </c>
+      <c r="Q61">
         <f>F61/(M61*wing_area*wmac)</f>
         <v>-3.0888887425153065E-4</v>
       </c>
-      <c r="Q61">
-        <f>P61-deltaCmcgt</f>
+      <c r="R61">
+        <f>Q61-deltaCmcgt</f>
         <v>-3.0807485607391692E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13.962999999999999</v>
       </c>
@@ -16036,15 +18378,19 @@
         <v>4.7845189110066413E-5</v>
       </c>
       <c r="P62">
+        <f>O62-'No Model 65 MPH'!$O$19</f>
+        <v>1.6425821940682135E-5</v>
+      </c>
+      <c r="Q62">
         <f>F62/(M62*wing_area*wmac)</f>
         <v>-3.3091273974683556E-4</v>
       </c>
-      <c r="Q62">
-        <f>P62-deltaCmcgt</f>
+      <c r="R62">
+        <f>Q62-deltaCmcgt</f>
         <v>-3.3009872156922182E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13.962999999999999</v>
       </c>
@@ -16099,15 +18445,19 @@
         <v>4.7845189110066413E-5</v>
       </c>
       <c r="P63">
+        <f>O63-'No Model 65 MPH'!$O$19</f>
+        <v>1.6425821940682135E-5</v>
+      </c>
+      <c r="Q63">
         <f>F63/(M63*wing_area*wmac)</f>
         <v>-3.3091273974683556E-4</v>
       </c>
-      <c r="Q63">
-        <f>P63-deltaCmcgt</f>
+      <c r="R63">
+        <f>Q63-deltaCmcgt</f>
         <v>-3.3009872156922182E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13.962999999999999</v>
       </c>
@@ -16162,15 +18512,19 @@
         <v>4.7845189110066413E-5</v>
       </c>
       <c r="P64">
+        <f>O64-'No Model 65 MPH'!$O$19</f>
+        <v>1.6425821940682135E-5</v>
+      </c>
+      <c r="Q64">
         <f>F64/(M64*wing_area*wmac)</f>
         <v>-3.3091273974683556E-4</v>
       </c>
-      <c r="Q64">
-        <f>P64-deltaCmcgt</f>
+      <c r="R64">
+        <f>Q64-deltaCmcgt</f>
         <v>-3.3009872156922182E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13.976000000000001</v>
       </c>
@@ -16225,15 +18579,19 @@
         <v>4.7650470317176615E-5</v>
       </c>
       <c r="P65">
+        <f>O65-'No Model 65 MPH'!$O$19</f>
+        <v>1.6231103147792337E-5</v>
+      </c>
+      <c r="Q65">
         <f>F65/(M65*wing_area*wmac)</f>
         <v>-3.3816619167003736E-4</v>
       </c>
-      <c r="Q65">
-        <f>P65-deltaCmcgt</f>
+      <c r="R65">
+        <f>Q65-deltaCmcgt</f>
         <v>-3.3735217349242363E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13.976000000000001</v>
       </c>
@@ -16288,15 +18646,19 @@
         <v>4.7650470317176615E-5</v>
       </c>
       <c r="P66">
+        <f>O66-'No Model 65 MPH'!$O$19</f>
+        <v>1.6231103147792337E-5</v>
+      </c>
+      <c r="Q66">
         <f>F66/(M66*wing_area*wmac)</f>
         <v>-3.3816619167003736E-4</v>
       </c>
-      <c r="Q66">
-        <f>P66-deltaCmcgt</f>
+      <c r="R66">
+        <f>Q66-deltaCmcgt</f>
         <v>-3.3735217349242363E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>16</v>
       </c>
@@ -16351,15 +18713,19 @@
         <v>5.8443454837354381E-5</v>
       </c>
       <c r="P67">
+        <f>O67-'No Model 65 MPH'!$O$20</f>
+        <v>2.0093344910017687E-5</v>
+      </c>
+      <c r="Q67">
         <f>F67/(M67*wing_area*wmac)</f>
         <v>-3.7576486884747541E-4</v>
       </c>
-      <c r="Q67">
-        <f>P67-deltaCmcgt</f>
+      <c r="R67">
+        <f>Q67-deltaCmcgt</f>
         <v>-3.7495085066986168E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16</v>
       </c>
@@ -16414,15 +18780,19 @@
         <v>5.8443454837354381E-5</v>
       </c>
       <c r="P68">
+        <f>O68-'No Model 65 MPH'!$O$20</f>
+        <v>2.0093344910017687E-5</v>
+      </c>
+      <c r="Q68">
         <f>F68/(M68*wing_area*wmac)</f>
         <v>-3.7576486884747541E-4</v>
       </c>
-      <c r="Q68">
-        <f>P68-deltaCmcgt</f>
+      <c r="R68">
+        <f>Q68-deltaCmcgt</f>
         <v>-3.7495085066986168E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
@@ -16477,15 +18847,19 @@
         <v>5.8443454837354381E-5</v>
       </c>
       <c r="P69">
+        <f>O69-'No Model 65 MPH'!$O$20</f>
+        <v>2.0093344910017687E-5</v>
+      </c>
+      <c r="Q69">
         <f>F69/(M69*wing_area*wmac)</f>
         <v>-3.7576486884747541E-4</v>
       </c>
-      <c r="Q69">
-        <f>P69-deltaCmcgt</f>
+      <c r="R69">
+        <f>Q69-deltaCmcgt</f>
         <v>-3.7495085066986168E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
@@ -16540,15 +18914,19 @@
         <v>5.8443454837354381E-5</v>
       </c>
       <c r="P70">
+        <f>O70-'No Model 65 MPH'!$O$20</f>
+        <v>2.0093344910017687E-5</v>
+      </c>
+      <c r="Q70">
         <f>F70/(M70*wing_area*wmac)</f>
         <v>-3.7576486884747541E-4</v>
       </c>
-      <c r="Q70">
-        <f>P70-deltaCmcgt</f>
+      <c r="R70">
+        <f>Q70-deltaCmcgt</f>
         <v>-3.7495085066986168E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16.016999999999999</v>
       </c>
@@ -16603,15 +18981,19 @@
         <v>5.7191691168777066E-5</v>
       </c>
       <c r="P71">
+        <f>O71-'No Model 65 MPH'!$O$20</f>
+        <v>1.8841581241440373E-5</v>
+      </c>
+      <c r="Q71">
         <f>F71/(M71*wing_area*wmac)</f>
         <v>-3.4826277484420741E-4</v>
       </c>
-      <c r="Q71">
-        <f>P71-deltaCmcgt</f>
+      <c r="R71">
+        <f>Q71-deltaCmcgt</f>
         <v>-3.4744875666659368E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.4E-2</v>
       </c>
@@ -16666,15 +19048,19 @@
         <v>2.2587379975217404E-5</v>
       </c>
       <c r="P72">
+        <f>O72-'No Model 65 MPH'!$O$19</f>
+        <v>-8.8319871941668742E-6</v>
+      </c>
+      <c r="Q72">
         <f>F72/(M72*wing_area*wmac)</f>
         <v>-1.4549897538491415E-4</v>
       </c>
-      <c r="Q72">
-        <f>P72-deltaCmcgt</f>
+      <c r="R72">
+        <f>Q72-deltaCmcgt</f>
         <v>-1.4468495720730044E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.4E-2</v>
       </c>
@@ -16729,15 +19115,19 @@
         <v>2.2587379975217404E-5</v>
       </c>
       <c r="P73">
+        <f>O73-'No Model 65 MPH'!$O$19</f>
+        <v>-8.8319871941668742E-6</v>
+      </c>
+      <c r="Q73">
         <f>F73/(M73*wing_area*wmac)</f>
         <v>-1.4549897538491415E-4</v>
       </c>
-      <c r="Q73">
-        <f>P73-deltaCmcgt</f>
+      <c r="R73">
+        <f>Q73-deltaCmcgt</f>
         <v>-1.4468495720730044E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2.4E-2</v>
       </c>
@@ -16792,15 +19182,19 @@
         <v>2.2587379975217404E-5</v>
       </c>
       <c r="P74">
+        <f>O74-'No Model 65 MPH'!$O$19</f>
+        <v>-8.8319871941668742E-6</v>
+      </c>
+      <c r="Q74">
         <f>F74/(M74*wing_area*wmac)</f>
         <v>-1.4549897538491415E-4</v>
       </c>
-      <c r="Q74">
-        <f>P74-deltaCmcgt</f>
+      <c r="R74">
+        <f>Q74-deltaCmcgt</f>
         <v>-1.4468495720730044E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.3E-2</v>
       </c>
@@ -16855,15 +19249,19 @@
         <v>2.2309210271089111E-5</v>
       </c>
       <c r="P75">
+        <f>O75-'No Model 65 MPH'!$O$19</f>
+        <v>-9.110156898295167E-6</v>
+      </c>
+      <c r="Q75">
         <f>F75/(M75*wing_area*wmac)</f>
         <v>-1.6259936968951805E-4</v>
       </c>
-      <c r="Q75">
-        <f>P75-deltaCmcgt</f>
+      <c r="R75">
+        <f>Q75-deltaCmcgt</f>
         <v>-1.6178535151190434E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.3E-2</v>
       </c>
@@ -16918,24 +19316,28 @@
         <v>2.2309210271089111E-5</v>
       </c>
       <c r="P76">
+        <f>O76-'No Model 65 MPH'!$O$19</f>
+        <v>-9.110156898295167E-6</v>
+      </c>
+      <c r="Q76">
         <f>F76/(M76*wing_area*wmac)</f>
         <v>-1.6259936968951805E-4</v>
       </c>
-      <c r="Q76">
-        <f>P76-deltaCmcgt</f>
+      <c r="R76">
+        <f>Q76-deltaCmcgt</f>
         <v>-1.6178535151190434E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M80" s="11"/>
     </row>
     <row r="81" spans="13:13" x14ac:dyDescent="0.25">
@@ -16960,10 +19362,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16978,9 +19380,10 @@
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17012,7 +19415,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2.5999999999999999E-2</v>
       </c>
@@ -17047,7 +19450,7 @@
         <v>0.522729</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-2.5999999999999999E-2</v>
       </c>
@@ -17082,7 +19485,7 @@
         <v>0.522729</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1.6E-2</v>
       </c>
@@ -17117,7 +19520,7 @@
         <v>0.579121</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1.6E-2</v>
       </c>
@@ -17152,7 +19555,7 @@
         <v>0.579121</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1.7000000000000001E-2</v>
       </c>
@@ -17187,7 +19590,7 @@
         <v>0.79388100000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-8.0630000000000006</v>
       </c>
@@ -17198,8 +19601,8 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-4.4999999999999998E-2</v>
+        <f>C7</f>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E7">
         <v>3.1190000000000002</v>
@@ -17215,14 +19618,14 @@
       </c>
       <c r="I7">
         <f>D7/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>-1.2601350469004389E-6</v>
+        <v>1.2601350469004389E-6</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
         <v>9.4090000000000007E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-8.0739999999999998</v>
       </c>
@@ -17256,8 +19659,15 @@
         <f t="shared" si="1"/>
         <v>5.7600000000000001E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(I7:I11)</f>
+        <v>4.0884381521658688E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-8.0739999999999998</v>
       </c>
@@ -17291,8 +19701,15 @@
         <f t="shared" si="1"/>
         <v>5.7600000000000001E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE(I12:I16)</f>
+        <v>1.187327244190636E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-8.0739999999999998</v>
       </c>
@@ -17326,8 +19743,15 @@
         <f t="shared" si="1"/>
         <v>5.7600000000000001E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE(I17:I21)</f>
+        <v>5.174954592604469E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-8.0739999999999998</v>
       </c>
@@ -17361,8 +19785,15 @@
         <f t="shared" si="1"/>
         <v>5.7600000000000001E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <f>AVERAGE(I22:I26)</f>
+        <v>6.726320850344121E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-5.992</v>
       </c>
@@ -17396,8 +19827,15 @@
         <f t="shared" si="1"/>
         <v>0.25401600000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>AVERAGE(I27:I31)</f>
+        <v>1.6762596423880058E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-5.992</v>
       </c>
@@ -17431,8 +19869,15 @@
         <f t="shared" si="1"/>
         <v>0.25401600000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <f>AVERAGE(I32:I36)</f>
+        <v>1.5233632566974197E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-5.992</v>
       </c>
@@ -17466,8 +19911,15 @@
         <f t="shared" si="1"/>
         <v>0.25401600000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGE(I37:I41)</f>
+        <v>1.7849112864318658E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-5.9359999999999999</v>
       </c>
@@ -17501,8 +19953,15 @@
         <f t="shared" si="1"/>
         <v>0.16321600000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <f>AVERAGE(I42:I46)</f>
+        <v>2.0845433975837482E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-5.9359999999999999</v>
       </c>
@@ -17536,8 +19995,15 @@
         <f t="shared" si="1"/>
         <v>0.16321600000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE(I47:I51)</f>
+        <v>2.5751559758436524E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.472</v>
       </c>
@@ -17571,8 +20037,15 @@
         <f t="shared" si="1"/>
         <v>0.25704900000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(I52:I55)</f>
+        <v>2.3886559889023874E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3.4609999999999999</v>
       </c>
@@ -17606,8 +20079,15 @@
         <f t="shared" si="1"/>
         <v>0.31584400000000007</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>12</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(I61:I65)</f>
+        <v>3.3771619256931763E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.4609999999999999</v>
       </c>
@@ -17641,8 +20121,15 @@
         <f t="shared" si="1"/>
         <v>0.31584400000000007</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>14</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGE(I64:I65)</f>
+        <v>3.1419367169384278E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.4609999999999999</v>
       </c>
@@ -17676,8 +20163,15 @@
         <f t="shared" si="1"/>
         <v>0.31584400000000007</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>16</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(I67:I70)</f>
+        <v>3.8350109927336694E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.4609999999999999</v>
       </c>
@@ -17712,7 +20206,7 @@
         <v>0.31584400000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-2.044</v>
       </c>
@@ -17747,7 +20241,7 @@
         <v>0.50979599999999992</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-2.044</v>
       </c>
@@ -17782,7 +20276,7 @@
         <v>0.50979599999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-2.044</v>
       </c>
@@ -17817,7 +20311,7 @@
         <v>0.50979599999999992</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2.0529999999999999</v>
       </c>
@@ -17852,7 +20346,7 @@
         <v>0.59752899999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-2.0529999999999999</v>
       </c>
@@ -17887,7 +20381,7 @@
         <v>0.59752899999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -17922,7 +20416,7 @@
         <v>0.46785600000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -17957,7 +20451,7 @@
         <v>0.46785600000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -17992,7 +20486,7 @@
         <v>0.46785600000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.3E-2</v>
       </c>
@@ -18027,7 +20521,7 @@
         <v>0.60996100000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.3E-2</v>
       </c>
@@ -18062,7 +20556,7 @@
         <v>0.60996100000000009</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.9810000000000001</v>
       </c>

--- a/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
+++ b/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="No wind" sheetId="1" r:id="rId1"/>
@@ -12,10 +12,11 @@
     <sheet name="Cd vs Cl^2 No Tail" sheetId="7" r:id="rId3"/>
     <sheet name="CL vs Alpha " sheetId="8" r:id="rId4"/>
     <sheet name="CD vs Alpha" sheetId="9" r:id="rId5"/>
-    <sheet name="Tail On 65 MPH" sheetId="2" r:id="rId6"/>
-    <sheet name="Tail OFf 65 MPH" sheetId="3" r:id="rId7"/>
-    <sheet name="No Model 65 MPH" sheetId="4" r:id="rId8"/>
-    <sheet name="Airplane Characteristics" sheetId="5" r:id="rId9"/>
+    <sheet name="Cm vs Alpha" sheetId="10" r:id="rId6"/>
+    <sheet name="Tail On 65 MPH" sheetId="2" r:id="rId7"/>
+    <sheet name="Tail OFf 65 MPH" sheetId="3" r:id="rId8"/>
+    <sheet name="No Model 65 MPH" sheetId="4" r:id="rId9"/>
+    <sheet name="Airplane Characteristics" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="atnt">'Airplane Characteristics'!$K$11</definedName>
@@ -53,14 +54,14 @@
     <definedName name="lamda_vt">'Airplane Characteristics'!$C$28</definedName>
     <definedName name="lamda_w">'Airplane Characteristics'!$C$6</definedName>
     <definedName name="lbar">'Airplane Characteristics'!$C$23</definedName>
-    <definedName name="NoModel65mph" localSheetId="7">'No Model 65 MPH'!$A$1:$M$75</definedName>
+    <definedName name="NoModel65mph" localSheetId="8">'No Model 65 MPH'!$A$1:$N$75</definedName>
     <definedName name="nowind" localSheetId="0">'No wind'!$A$1:$H$70</definedName>
     <definedName name="Rc_">'Airplane Characteristics'!$C$4</definedName>
     <definedName name="strut_area">'Airplane Characteristics'!$G$30</definedName>
     <definedName name="t_tail">'Airplane Characteristics'!$C$17</definedName>
     <definedName name="t_wing">'Airplane Characteristics'!$C$7</definedName>
-    <definedName name="tailoff65mph" localSheetId="6">'Tail OFf 65 MPH'!$A$1:$I$76</definedName>
-    <definedName name="tailon65mph" localSheetId="5">'Tail On 65 MPH'!$A$1:$I$85</definedName>
+    <definedName name="tailoff65mph" localSheetId="7">'Tail OFf 65 MPH'!$A$1:$I$76</definedName>
+    <definedName name="tailon65mph" localSheetId="6">'Tail On 65 MPH'!$A$1:$I$85</definedName>
     <definedName name="tamc">'Airplane Characteristics'!$C$21</definedName>
     <definedName name="tau_wing">'Airplane Characteristics'!$G$13</definedName>
     <definedName name="tau1_">'Airplane Characteristics'!$G$6</definedName>
@@ -131,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
   <si>
     <t>Alpha (deg)</t>
   </si>
@@ -588,6 +589,12 @@
   <si>
     <t>cm (corrected)</t>
   </si>
+  <si>
+    <t>cmu</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
 </sst>
 </file>
 
@@ -4898,241 +4905,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>9.0237351488127168E-6</c:v>
+                  <c:v>9.1350930835731504E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0237351488127168E-6</c:v>
+                  <c:v>9.1350930835731504E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0237351488127168E-6</c:v>
+                  <c:v>9.1350930835731504E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0237351488127168E-6</c:v>
+                  <c:v>9.1350930835731504E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3547169240429565E-6</c:v>
+                  <c:v>7.46607485880339E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0501411843636885E-6</c:v>
+                  <c:v>8.1614991191241221E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0501411843636885E-6</c:v>
+                  <c:v>8.1614991191241221E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0501411843636885E-6</c:v>
+                  <c:v>8.1614991191241221E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0501411843636885E-6</c:v>
+                  <c:v>8.1614991191241221E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0223242139508579E-6</c:v>
+                  <c:v>8.1336821487112915E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8526005217501698E-6</c:v>
+                  <c:v>5.9639584565106034E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.5244406162436412E-6</c:v>
+                  <c:v>9.6357985510040747E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.5244406162436412E-6</c:v>
+                  <c:v>9.6357985510040747E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5244406162436412E-6</c:v>
+                  <c:v>9.6357985510040747E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.5244406162436412E-6</c:v>
+                  <c:v>9.6357985510040747E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9313388207479393E-5</c:v>
+                  <c:v>1.9316104254668672E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9313388207479393E-5</c:v>
+                  <c:v>1.9316104254668672E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9313388207479393E-5</c:v>
+                  <c:v>1.9316104254668672E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9313388207479393E-5</c:v>
+                  <c:v>1.9316104254668672E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9313388207479393E-5</c:v>
+                  <c:v>1.9316104254668672E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2067660020934669E-5</c:v>
+                  <c:v>2.2075547719621341E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2067660020934669E-5</c:v>
+                  <c:v>2.2075547719621341E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2067660020934669E-5</c:v>
+                  <c:v>2.2075547719621341E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2067660020934669E-5</c:v>
+                  <c:v>2.2075547719621341E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2067660020934669E-5</c:v>
+                  <c:v>2.2075547719621341E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7022987796833323E-5</c:v>
+                  <c:v>1.7057366257146935E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5882492009907321E-5</c:v>
+                  <c:v>1.5916870470220933E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5882492009907321E-5</c:v>
+                  <c:v>1.5916870470220933E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.5882492009907321E-5</c:v>
+                  <c:v>1.5916870470220933E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5882492009907321E-5</c:v>
+                  <c:v>1.5916870470220933E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2383937823269619E-5</c:v>
+                  <c:v>1.242862238045214E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2383937823269619E-5</c:v>
+                  <c:v>1.242862238045214E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6389581562717032E-5</c:v>
+                  <c:v>1.6434266119899553E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6389581562717032E-5</c:v>
+                  <c:v>1.6434266119899553E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.6389581562717032E-5</c:v>
+                  <c:v>1.6434266119899553E-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.5244406162436412E-6</c:v>
+                  <c:v>9.6357985510040747E-6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.5244406162436412E-6</c:v>
+                  <c:v>9.6357985510040747E-6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.5244406162436412E-6</c:v>
+                  <c:v>9.6357985510040747E-6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.5244406162436412E-6</c:v>
+                  <c:v>9.6357985510040747E-6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.5244406162436412E-6</c:v>
+                  <c:v>9.6357985510040747E-6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2472069964203796E-5</c:v>
+                  <c:v>1.2573270626598848E-5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2472069964203796E-5</c:v>
+                  <c:v>1.2573270626598848E-5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4975597301358439E-5</c:v>
+                  <c:v>1.5076797963753491E-5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4975597301358439E-5</c:v>
+                  <c:v>1.5076797963753491E-5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4975597301358439E-5</c:v>
+                  <c:v>1.5076797963753491E-5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4557657666627493E-5</c:v>
+                  <c:v>1.4676233589808747E-5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.4557657666627493E-5</c:v>
+                  <c:v>1.4676233589808747E-5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.7534073500800225E-5</c:v>
+                  <c:v>1.765264942398148E-5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.7534073500800225E-5</c:v>
+                  <c:v>1.765264942398148E-5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.7534073500800225E-5</c:v>
+                  <c:v>1.765264942398148E-5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.2382138045699268E-5</c:v>
+                  <c:v>2.2520619246226611E-5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.0740936791342339E-5</c:v>
+                  <c:v>2.0879417991869681E-5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.0740936791342339E-5</c:v>
+                  <c:v>2.0879417991869681E-5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.0740936791342339E-5</c:v>
+                  <c:v>2.0879417991869681E-5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0740936791342339E-5</c:v>
+                  <c:v>2.0879417991869681E-5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.1732008736263115E-5</c:v>
+                  <c:v>2.1903082503061806E-5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.1732008736263115E-5</c:v>
+                  <c:v>2.1903082503061806E-5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.9256298369521307E-5</c:v>
+                  <c:v>1.9427372136319998E-5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.9256298369521307E-5</c:v>
+                  <c:v>1.9427372136319998E-5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.9256298369521307E-5</c:v>
+                  <c:v>1.9427372136319998E-5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.7880822049251472E-5</c:v>
+                  <c:v>2.8039506176131941E-5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.7880822049251472E-5</c:v>
+                  <c:v>2.8039506176131941E-5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.7880822049251472E-5</c:v>
+                  <c:v>2.8039506176131941E-5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.6795960203151135E-5</c:v>
+                  <c:v>2.6954644330031604E-5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.6795960203151135E-5</c:v>
+                  <c:v>2.6954644330031604E-5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.1472883982947247E-5</c:v>
+                  <c:v>2.169723692200686E-5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.1472883982947247E-5</c:v>
+                  <c:v>2.169723692200686E-5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.3698241615973589E-5</c:v>
+                  <c:v>2.3922594555033203E-5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.3698241615973589E-5</c:v>
+                  <c:v>2.3922594555033203E-5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.3698241615973589E-5</c:v>
+                  <c:v>2.3922594555033203E-5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.637058972668075E-5</c:v>
+                  <c:v>3.6579316092870537E-5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.637058972668075E-5</c:v>
+                  <c:v>3.6579316092870537E-5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.7844889158560709E-5</c:v>
+                  <c:v>3.8053615524750496E-5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.7844889158560709E-5</c:v>
+                  <c:v>3.8053615524750496E-5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.6843478223698861E-5</c:v>
+                  <c:v>3.7052204589888647E-5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.9912735465746445E-5</c:v>
+                  <c:v>3.0167504412713398E-5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.3250771915285945E-5</c:v>
+                  <c:v>3.3505540862252898E-5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.3250771915285945E-5</c:v>
+                  <c:v>3.3505540862252898E-5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.3250771915285945E-5</c:v>
+                  <c:v>3.3505540862252898E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5827,214 +5834,214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>6.7149266045478789E-6</c:v>
+                  <c:v>6.8262845393083125E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7149266045478789E-6</c:v>
+                  <c:v>6.8262845393083125E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0765472199146603E-6</c:v>
+                  <c:v>7.1879051546750938E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0765472199146603E-6</c:v>
+                  <c:v>7.1879051546750938E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0765472199146603E-6</c:v>
+                  <c:v>7.1879051546750938E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4793331378806771E-5</c:v>
+                  <c:v>2.479604742599605E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4793331378806771E-5</c:v>
+                  <c:v>2.479604742599605E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4793331378806771E-5</c:v>
+                  <c:v>2.479604742599605E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4793331378806771E-5</c:v>
+                  <c:v>2.479604742599605E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4793331378806771E-5</c:v>
+                  <c:v>2.479604742599605E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.547503803309412E-5</c:v>
+                  <c:v>1.5482925731780791E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.547503803309412E-5</c:v>
+                  <c:v>1.5482925731780791E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.547503803309412E-5</c:v>
+                  <c:v>1.5482925731780791E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6949337464974076E-5</c:v>
+                  <c:v>1.6957225163660747E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6949337464974076E-5</c:v>
+                  <c:v>1.6957225163660747E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3434598613578344E-5</c:v>
+                  <c:v>1.3468977073891956E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3434598613578344E-5</c:v>
+                  <c:v>1.3468977073891956E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3434598613578344E-5</c:v>
+                  <c:v>1.3468977073891956E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3184245879862878E-5</c:v>
+                  <c:v>1.321862434017649E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3184245879862878E-5</c:v>
+                  <c:v>1.321862434017649E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2550839645746589E-5</c:v>
+                  <c:v>1.259552420292911E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2550839645746589E-5</c:v>
+                  <c:v>1.259552420292911E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2550839645746589E-5</c:v>
+                  <c:v>1.259552420292911E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2717741468223566E-5</c:v>
+                  <c:v>1.2762426025406087E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2717741468223566E-5</c:v>
+                  <c:v>1.2762426025406087E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.209988332531388E-6</c:v>
+                  <c:v>3.3213462672918216E-6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.209988332531388E-6</c:v>
+                  <c:v>3.3213462672918216E-6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.209988332531388E-6</c:v>
+                  <c:v>3.3213462672918216E-6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.209988332531388E-6</c:v>
+                  <c:v>3.3213462672918216E-6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.5701980130363139E-6</c:v>
+                  <c:v>2.6815559477967474E-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.4928322603073495E-6</c:v>
+                  <c:v>7.5940329227024015E-6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.4914213254454974E-6</c:v>
+                  <c:v>6.5926219878405494E-6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.4914213254454974E-6</c:v>
+                  <c:v>6.5926219878405494E-6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.4914213254454974E-6</c:v>
+                  <c:v>6.5926219878405494E-6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.4914213254454974E-6</c:v>
+                  <c:v>6.5926219878405494E-6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.1889823769514307E-6</c:v>
+                  <c:v>9.3075583001326847E-6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.1889823769514307E-6</c:v>
+                  <c:v>9.3075583001326847E-6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.1889823769514307E-6</c:v>
+                  <c:v>9.3075583001326847E-6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.9942635840616264E-6</c:v>
+                  <c:v>9.1128395072428804E-6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.9942635840616264E-6</c:v>
+                  <c:v>9.1128395072428804E-6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.5014698096974409E-6</c:v>
+                  <c:v>8.6399510102247833E-6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.5014698096974409E-6</c:v>
+                  <c:v>8.6399510102247833E-6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.5014698096974409E-6</c:v>
+                  <c:v>8.6399510102247833E-6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.5542818807993878E-6</c:v>
+                  <c:v>6.6927630813267302E-6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.5542818807993878E-6</c:v>
+                  <c:v>6.6927630813267302E-6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.1851441452152346E-6</c:v>
+                  <c:v>8.3562179120139264E-6</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.1851441452152346E-6</c:v>
+                  <c:v>8.3562179120139264E-6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.1851441452152346E-6</c:v>
+                  <c:v>8.3562179120139264E-6</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.007669813328763E-5</c:v>
+                  <c:v>1.0247771900086322E-5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.007669813328763E-5</c:v>
+                  <c:v>1.0247771900086322E-5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.4139238665313794E-5</c:v>
+                  <c:v>1.4297922792194263E-5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4139238665313794E-5</c:v>
+                  <c:v>1.4297922792194263E-5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.4139238665313794E-5</c:v>
+                  <c:v>1.4297922792194263E-5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4139238665313794E-5</c:v>
+                  <c:v>1.4297922792194263E-5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.3137827730451939E-5</c:v>
+                  <c:v>1.3296511857332408E-5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.1777830604766945E-6</c:v>
+                  <c:v>9.4021359995363082E-6</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.1777830604766945E-6</c:v>
+                  <c:v>9.4021359995363082E-6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.1777830604766945E-6</c:v>
+                  <c:v>9.4021359995363082E-6</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.1499660900638604E-6</c:v>
+                  <c:v>9.3743190291234742E-6</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.1499660900638604E-6</c:v>
+                  <c:v>9.3743190291234742E-6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.6425821940682135E-5</c:v>
+                  <c:v>1.6634548306871922E-5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.6425821940682135E-5</c:v>
+                  <c:v>1.6634548306871922E-5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.6425821940682135E-5</c:v>
+                  <c:v>1.6634548306871922E-5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6231103147792337E-5</c:v>
+                  <c:v>1.6439829513982124E-5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6231103147792337E-5</c:v>
+                  <c:v>1.6439829513982124E-5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.0093344910017687E-5</c:v>
+                  <c:v>2.0348113856984641E-5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.0093344910017687E-5</c:v>
+                  <c:v>2.0348113856984641E-5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.0093344910017687E-5</c:v>
+                  <c:v>2.0348113856984641E-5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.0093344910017687E-5</c:v>
+                  <c:v>2.0348113856984641E-5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.8841581241440373E-5</c:v>
+                  <c:v>1.9096350188407326E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6140,6 +6147,2062 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>CM vs Alpha both With and Without Tail with Freestream Airspeed of 65 fps, Static Temp 70 ⁰F, and Standard Atmospheric Pressure</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Non-Corrected Tail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$A$2:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.992</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.0010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.9880000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.9880000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.0570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.0570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.0570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.037000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.037000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.99</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.99</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.958</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.958</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$R$2:$R$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>-1.2429762579791874E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2429762579791874E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2429762579791874E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2429762579791874E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4916462254419181E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5261798684414833E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5261798684414833E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5261798684414833E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5261798684414833E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.475419573912002E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5217418099033867E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7494696886394736E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7494696886394736E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.7494696886394736E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.7494696886394736E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.6214534680578079E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.6214534680578079E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.6214534680578079E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.6214534680578079E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.6214534680578079E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.2429314702966049E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.2429314702966049E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.2429314702966049E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.2429314702966049E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.2429314702966049E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3127369906248946E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2085813043089376E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2085813043089376E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2085813043089376E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.2085813043089376E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.0463147890097768E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.0463147890097768E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.0500594009012959E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0500594009012959E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.0500594009012959E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.3729281595478314E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.3729281595478314E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3729281595478314E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.3729281595478314E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.3729281595478314E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.7615356602899241E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.7615356602899241E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.9697083435925224E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.9697083435925224E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.9697083435925224E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.4350110434460988E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.4350110434460988E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.4884064352325748E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.4884064352325748E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.4884064352325748E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.340513674547142E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.2220729873116863E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.2220729873116863E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.2220729873116863E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.2220729873116863E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.6926458816792529E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.6926458816792529E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.498896888625468E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.498896888625468E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.498896888625468E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.6934780176551462E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.6934780176551462E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.6934780176551462E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.7823778777463954E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.7823778777463954E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-4.2017744095965338E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-4.2017744095965338E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-4.2869296577962646E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-4.2869296577962646E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-4.2869296577962646E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-4.8461250335964491E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-4.8461250335964491E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-4.8720599381784523E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-4.8720599381784523E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-4.9204625141095694E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-4.9204625141095694E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-5.217535057503418E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-5.217535057503418E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-5.217535057503418E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Corrected Tail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$A$2:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.992</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.0010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.9880000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.9880000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.0570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.0570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.0570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.037000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.037000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.99</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.99</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.958</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.958</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$S$2:$S$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>1.5137852109320794E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5137852109320794E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5137852109320794E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5137852109320794E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.7291446369522779E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3182508936908794E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3182508936908794E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3182508936908794E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3182508936908794E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.1064794839606671E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.2738703083099132E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.551149095670783E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.551149095670783E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.551149095670783E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.551149095670783E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3220943226661456E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0979349573810142E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.0979349573810142E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.0979349573810142E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.0979349573810142E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8.6008275760489388E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.4716190567619567E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.4716190567619567E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.4716190567619567E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.4716190567619567E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.6356057492714299E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.4707596124470006E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.4707596124470006E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.4707596124470006E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.4707596124470006E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.3084930971478398E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.0024612230802088E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.0062058349717279E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0062058349717279E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.0062058349717279E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.3290745936182633E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1426619524563982E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1426619524563982E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1426619524563982E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1426619524563982E-6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.6718088121752879E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.2387984909003429E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.1320525323926326E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.1320525323926326E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.1320525323926326E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.597355232246209E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.6359108657959239E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.6893062575824001E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.6893062575824001E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6893062575824001E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.5414134968969673E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.6947983550232945E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.6947983550232945E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.6947983550232945E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.6947983550232945E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.1653712493908611E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.5034403585303777E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.3096913654765925E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.3096913654765925E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.3096913654765925E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.5042724945062704E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.8752262379963234E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.8752262379963234E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.9641260980875726E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.9641260980875726E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.416559822550494E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.416559822550494E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.5017150707502248E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.5017150707502248E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.5017150707502248E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.1382158787108818E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.1382158787108818E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.164150783292885E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.164150783292885E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.2839783638214955E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.2839783638214955E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.5810509072153441E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.5810509072153441E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.5810509072153441E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Non-Corrected No Tail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$A$2:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.9980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.9980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.9980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.0019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.0019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.9929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.9929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.976</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.966</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.966</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.966</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.976</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.976</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.976</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.0709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.9960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.9960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.0310000000000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.0310000000000006</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.984</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.984</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.984</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.984</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.005000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.971</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.971</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.971</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.988</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.988</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13.962999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.962999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.962999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.016999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$R$2:$R$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>-1.1388205716632299E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1388205716632299E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.032307166748909E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.032307166748909E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.032307166748909E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5109240422167756E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5109240422167756E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3324308753876989E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3324308753876989E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3324308753876989E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.4410574686774568E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.4410574686774568E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.4410574686774568E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.3106894991208667E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.3106894991208667E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.2385211122417079E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.2385211122417079E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.2385211122417079E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.3466987891078162E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.3466987891078162E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.0776585774350847E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.0776585774350847E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.0776585774350847E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.0597676539533824E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.0597676539533824E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3873518497966455E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.3873518497966455E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.3873518497966455E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3873518497966455E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.330350535447966E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.5530855983286943E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.4651565635426535E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.4651565635426535E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.4651565635426535E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.4651565635426535E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.9459924682795683E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.9459924682795683E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.9459924682795683E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.8647205213006724E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.8647205213006724E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.8652752786179344E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.8652752786179344E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.8652752786179344E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.9409996524242097E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.9409996524242097E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.2855039464439664E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.2855039464439664E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.2855039464439664E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.3927107980048647E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.3927107980048647E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.6584395529734051E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.6584395529734051E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.6584395529734051E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.6584395529734051E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.5376411471395851E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.0893472991567317E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.0893472991567317E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.0893472991567317E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.0807485607391692E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.0807485607391692E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.3009872156922182E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.3009872156922182E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.3009872156922182E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.3735217349242363E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.3735217349242363E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.7495085066986168E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-3.7495085066986168E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-3.7495085066986168E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-3.7495085066986168E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Corrected No Tail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$B$2:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>0.1135743435201037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1135743435201037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1135743435201037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1135743435201037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1135743435201037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.8734256564798963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.8734256564798963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.8904256564798967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.8904256564798967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.8904256564798967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.9064256564798967</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.9064256564798967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.9064256564798967</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.8944256564798962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.8944256564798962</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.8914256564798966</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.8914256564798966</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.8914256564798966</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.8854256564798964</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8854256564798964</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.8684256564798962</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.8684256564798962</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.8684256564798962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.8584256564798962</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8584256564798962</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1205743435201037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1205743435201037</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1205743435201037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1205743435201037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.13357434352010369</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0735743435201037</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1345743435201037</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1345743435201037</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1345743435201037</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1345743435201037</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0835743435201035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0835743435201035</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.0835743435201035</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1785743435201033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1785743435201033</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.0825743435201032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.0825743435201032</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.0825743435201032</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.103574343520104</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.103574343520104</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.1375743435201038</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.1375743435201038</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.1375743435201038</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.138574343520105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.138574343520105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.091574343520104</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.091574343520104</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.091574343520104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.091574343520104</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.112574343520105</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.078574343520105</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.078574343520105</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.078574343520105</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.095574343520104</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.095574343520104</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.070574343520104</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.070574343520104</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.070574343520104</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.083574343520105</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.083574343520105</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.107574343520103</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.107574343520103</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.107574343520103</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.107574343520103</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.124574343520102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$S$2:$S$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>2.5553420740916544E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5553420740916544E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6204761232348635E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6204761232348635E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6204761232348635E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.946713652792009E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.946713652792009E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7682204859629323E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7682204859629323E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7682204859629323E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1669745055142809E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1669745055142809E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.1669745055142809E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.1539377085586219E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.1539377085586219E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.1860304193622336E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.1860304193622336E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.1860304193622336E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.1968481870488445E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1968481870488445E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.0338050115055167E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.0338050115055167E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.0338050115055167E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.0159140880238144E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.0159140880238144E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0029292757498138E-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0029292757498138E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0029292757498138E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0029292757498138E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.4004243624429379E-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.1542978712880448E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.2750075234276363E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6.2750075234276363E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-6.2750075234276363E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6.2750075234276363E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.1468922906293935E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.1468922906293935E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.1468922906293935E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.0656203436504976E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.0656203436504976E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.380006463295427E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.380006463295427E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.380006463295427E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.1372502013581797E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4.1372502013581797E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.096298423295091E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.096298423295091E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.096298423295091E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.2035052748559893E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.2035052748559893E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-8.4018777331458229E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-8.4018777331458229E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-8.4018777331458229E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.4018777331458229E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-7.1938936748076231E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.0413271211069196E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.0413271211069196E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.0413271211069196E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.9553397369312944E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.9553397369312944E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-5.9307806080665087E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-5.9307806080665087E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-5.9307806080665087E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-6.6561258003866889E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-6.6561258003866889E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.1130243564105429E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.1130243564105429E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.1130243564105429E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.1130243564105429E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-8.3800341637786289E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="157400064"/>
+        <c:axId val="175854336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="157400064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Alpha (deg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175854336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175854336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>CM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157400064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -6174,6 +8237,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -6266,6 +8340,33 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8508,10 +10609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P85"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8530,9 +10631,10 @@
     <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8587,8 +10689,11 @@
       <c r="R1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4.7E-2</v>
       </c>
@@ -8643,8 +10748,8 @@
         <v>2.5786331572692774E-5</v>
       </c>
       <c r="P2">
-        <f>O2-'No Model 65 MPH'!$O$12</f>
-        <v>9.0237351488127168E-6</v>
+        <f>O2-'No Model 65 MPH'!$P$12</f>
+        <v>9.1350930835731504E-6</v>
       </c>
       <c r="Q2">
         <f>F2/(M2*wing_area*wmac)</f>
@@ -8654,8 +10759,12 @@
         <f>Q2-deltaCmcgt</f>
         <v>-1.2429762579791874E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <f>R2-'No Model 65 MPH'!$Q$12</f>
+        <v>1.5137852109320794E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-4.7E-2</v>
       </c>
@@ -8710,8 +10819,8 @@
         <v>2.5786331572692774E-5</v>
       </c>
       <c r="P3">
-        <f>O3-'No Model 65 MPH'!$O$12</f>
-        <v>9.0237351488127168E-6</v>
+        <f>O3-'No Model 65 MPH'!$P$12</f>
+        <v>9.1350930835731504E-6</v>
       </c>
       <c r="Q3">
         <f>F3/(M3*wing_area*wmac)</f>
@@ -8721,8 +10830,12 @@
         <f>Q3-deltaCmcgt</f>
         <v>-1.2429762579791874E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <f>R3-'No Model 65 MPH'!$Q$12</f>
+        <v>1.5137852109320794E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.7E-2</v>
       </c>
@@ -8777,8 +10890,8 @@
         <v>2.5786331572692774E-5</v>
       </c>
       <c r="P4">
-        <f>O4-'No Model 65 MPH'!$O$12</f>
-        <v>9.0237351488127168E-6</v>
+        <f>O4-'No Model 65 MPH'!$P$12</f>
+        <v>9.1350930835731504E-6</v>
       </c>
       <c r="Q4">
         <f>F4/(M4*wing_area*wmac)</f>
@@ -8788,8 +10901,12 @@
         <f>Q4-deltaCmcgt</f>
         <v>-1.2429762579791874E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <f>R4-'No Model 65 MPH'!$Q$12</f>
+        <v>1.5137852109320794E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-4.7E-2</v>
       </c>
@@ -8844,8 +10961,8 @@
         <v>2.5786331572692774E-5</v>
       </c>
       <c r="P5">
-        <f>O5-'No Model 65 MPH'!$O$12</f>
-        <v>9.0237351488127168E-6</v>
+        <f>O5-'No Model 65 MPH'!$P$12</f>
+        <v>9.1350930835731504E-6</v>
       </c>
       <c r="Q5">
         <f>F5/(M5*wing_area*wmac)</f>
@@ -8855,8 +10972,12 @@
         <f>Q5-deltaCmcgt</f>
         <v>-1.2429762579791874E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <f>R5-'No Model 65 MPH'!$Q$12</f>
+        <v>1.5137852109320794E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-4.2000000000000003E-2</v>
       </c>
@@ -8911,8 +11032,8 @@
         <v>2.4117313347923014E-5</v>
       </c>
       <c r="P6">
-        <f>O6-'No Model 65 MPH'!$O$12</f>
-        <v>7.3547169240429565E-6</v>
+        <f>O6-'No Model 65 MPH'!$P$12</f>
+        <v>7.46607485880339E-6</v>
       </c>
       <c r="Q6">
         <f>F6/(M6*wing_area*wmac)</f>
@@ -8922,8 +11043,12 @@
         <f>Q6-deltaCmcgt</f>
         <v>-1.4916462254419181E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <f>R6-'No Model 65 MPH'!$Q$12</f>
+        <v>-9.7291446369522779E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-4.7E-2</v>
       </c>
@@ -8978,8 +11103,8 @@
         <v>2.4812737608243746E-5</v>
       </c>
       <c r="P7">
-        <f>O7-'No Model 65 MPH'!$O$12</f>
-        <v>8.0501411843636885E-6</v>
+        <f>O7-'No Model 65 MPH'!$P$12</f>
+        <v>8.1614991191241221E-6</v>
       </c>
       <c r="Q7">
         <f>F7/(M7*wing_area*wmac)</f>
@@ -8989,8 +11114,12 @@
         <f>Q7-deltaCmcgt</f>
         <v>-1.5261798684414833E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <f>R7-'No Model 65 MPH'!$Q$12</f>
+        <v>-1.3182508936908794E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-4.7E-2</v>
       </c>
@@ -9045,8 +11174,8 @@
         <v>2.4812737608243746E-5</v>
       </c>
       <c r="P8">
-        <f>O8-'No Model 65 MPH'!$O$12</f>
-        <v>8.0501411843636885E-6</v>
+        <f>O8-'No Model 65 MPH'!$P$12</f>
+        <v>8.1614991191241221E-6</v>
       </c>
       <c r="Q8">
         <f>F8/(M8*wing_area*wmac)</f>
@@ -9056,8 +11185,12 @@
         <f>Q8-deltaCmcgt</f>
         <v>-1.5261798684414833E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <f>R8-'No Model 65 MPH'!$Q$12</f>
+        <v>-1.3182508936908794E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-4.7E-2</v>
       </c>
@@ -9112,8 +11245,8 @@
         <v>2.4812737608243746E-5</v>
       </c>
       <c r="P9">
-        <f>O9-'No Model 65 MPH'!$O$12</f>
-        <v>8.0501411843636885E-6</v>
+        <f>O9-'No Model 65 MPH'!$P$12</f>
+        <v>8.1614991191241221E-6</v>
       </c>
       <c r="Q9">
         <f>F9/(M9*wing_area*wmac)</f>
@@ -9123,8 +11256,12 @@
         <f>Q9-deltaCmcgt</f>
         <v>-1.5261798684414833E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <f>R9-'No Model 65 MPH'!$Q$12</f>
+        <v>-1.3182508936908794E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4.7E-2</v>
       </c>
@@ -9179,8 +11316,8 @@
         <v>2.4812737608243746E-5</v>
       </c>
       <c r="P10">
-        <f>O10-'No Model 65 MPH'!$O$12</f>
-        <v>8.0501411843636885E-6</v>
+        <f>O10-'No Model 65 MPH'!$P$12</f>
+        <v>8.1614991191241221E-6</v>
       </c>
       <c r="Q10">
         <f>F10/(M10*wing_area*wmac)</f>
@@ -9190,8 +11327,12 @@
         <f>Q10-deltaCmcgt</f>
         <v>-1.5261798684414833E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <f>R10-'No Model 65 MPH'!$Q$12</f>
+        <v>-1.3182508936908794E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4.4999999999999998E-2</v>
       </c>
@@ -9246,8 +11387,8 @@
         <v>2.4784920637830915E-5</v>
       </c>
       <c r="P11">
-        <f>O11-'No Model 65 MPH'!$O$12</f>
-        <v>8.0223242139508579E-6</v>
+        <f>O11-'No Model 65 MPH'!$P$12</f>
+        <v>8.1336821487112915E-6</v>
       </c>
       <c r="Q11">
         <f>F11/(M11*wing_area*wmac)</f>
@@ -9257,8 +11398,12 @@
         <f>Q11-deltaCmcgt</f>
         <v>-1.475419573912002E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <f>R11-'No Model 65 MPH'!$Q$12</f>
+        <v>-8.1064794839606671E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4.5999999999999999E-2</v>
       </c>
@@ -9313,8 +11458,8 @@
         <v>2.2615196945630227E-5</v>
       </c>
       <c r="P12">
-        <f>O12-'No Model 65 MPH'!$O$12</f>
-        <v>5.8526005217501698E-6</v>
+        <f>O12-'No Model 65 MPH'!$P$12</f>
+        <v>5.9639584565106034E-6</v>
       </c>
       <c r="Q12">
         <f>F12/(M12*wing_area*wmac)</f>
@@ -9324,8 +11469,12 @@
         <f>Q12-deltaCmcgt</f>
         <v>-1.5217418099033867E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <f>R12-'No Model 65 MPH'!$Q$12</f>
+        <v>-1.2738703083099132E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.7E-2</v>
       </c>
@@ -9380,8 +11529,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P13">
-        <f>O13-'No Model 65 MPH'!$O$12</f>
-        <v>9.5244406162436412E-6</v>
+        <f>O13-'No Model 65 MPH'!$P$12</f>
+        <v>9.6357985510040747E-6</v>
       </c>
       <c r="Q13">
         <f>F13/(M13*wing_area*wmac)</f>
@@ -9391,8 +11540,12 @@
         <f>Q13-deltaCmcgt</f>
         <v>-1.7494696886394736E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <f>R13-'No Model 65 MPH'!$Q$12</f>
+        <v>-3.551149095670783E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-4.7E-2</v>
       </c>
@@ -9447,8 +11600,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P14">
-        <f>O14-'No Model 65 MPH'!$O$12</f>
-        <v>9.5244406162436412E-6</v>
+        <f>O14-'No Model 65 MPH'!$P$12</f>
+        <v>9.6357985510040747E-6</v>
       </c>
       <c r="Q14">
         <f>F14/(M14*wing_area*wmac)</f>
@@ -9458,8 +11611,12 @@
         <f>Q14-deltaCmcgt</f>
         <v>-1.7494696886394736E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <f>R14-'No Model 65 MPH'!$Q$12</f>
+        <v>-3.551149095670783E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-4.7E-2</v>
       </c>
@@ -9514,8 +11671,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P15">
-        <f>O15-'No Model 65 MPH'!$O$12</f>
-        <v>9.5244406162436412E-6</v>
+        <f>O15-'No Model 65 MPH'!$P$12</f>
+        <v>9.6357985510040747E-6</v>
       </c>
       <c r="Q15">
         <f>F15/(M15*wing_area*wmac)</f>
@@ -9525,8 +11682,12 @@
         <f>Q15-deltaCmcgt</f>
         <v>-1.7494696886394736E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <f>R15-'No Model 65 MPH'!$Q$12</f>
+        <v>-3.551149095670783E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-4.7E-2</v>
       </c>
@@ -9581,8 +11742,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P16">
-        <f>O16-'No Model 65 MPH'!$O$12</f>
-        <v>9.5244406162436412E-6</v>
+        <f>O16-'No Model 65 MPH'!$P$12</f>
+        <v>9.6357985510040747E-6</v>
       </c>
       <c r="Q16">
         <f>F16/(M16*wing_area*wmac)</f>
@@ -9592,8 +11753,12 @@
         <f>Q16-deltaCmcgt</f>
         <v>-1.7494696886394736E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <f>R16-'No Model 65 MPH'!$Q$12</f>
+        <v>-3.551149095670783E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-8.0860000000000003</v>
       </c>
@@ -9648,8 +11813,8 @@
         <v>1.972223202269598E-5</v>
       </c>
       <c r="P17">
-        <f>O17-'No Model 65 MPH'!$O$8</f>
-        <v>1.9313388207479393E-5</v>
+        <f>O17-'No Model 65 MPH'!$P$8</f>
+        <v>1.9316104254668672E-5</v>
       </c>
       <c r="Q17">
         <f>F17/(M17*wing_area*wmac)</f>
@@ -9659,8 +11824,12 @@
         <f>Q17-deltaCmcgt</f>
         <v>-6.6214534680578079E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <f>R17-'No Model 65 MPH'!$Q$12</f>
+        <v>7.3220943226661456E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-8.0860000000000003</v>
       </c>
@@ -9715,8 +11884,8 @@
         <v>1.972223202269598E-5</v>
       </c>
       <c r="P18">
-        <f>O18-'No Model 65 MPH'!$O$8</f>
-        <v>1.9313388207479393E-5</v>
+        <f>O18-'No Model 65 MPH'!$P$8</f>
+        <v>1.9316104254668672E-5</v>
       </c>
       <c r="Q18">
         <f>F18/(M18*wing_area*wmac)</f>
@@ -9726,8 +11895,12 @@
         <f>Q18-deltaCmcgt</f>
         <v>-6.6214534680578079E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <f>R18-'No Model 65 MPH'!$Q$8</f>
+        <v>-1.0979349573810142E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-8.0860000000000003</v>
       </c>
@@ -9782,8 +11955,8 @@
         <v>1.972223202269598E-5</v>
       </c>
       <c r="P19">
-        <f>O19-'No Model 65 MPH'!$O$8</f>
-        <v>1.9313388207479393E-5</v>
+        <f>O19-'No Model 65 MPH'!$P$8</f>
+        <v>1.9316104254668672E-5</v>
       </c>
       <c r="Q19">
         <f>F19/(M19*wing_area*wmac)</f>
@@ -9793,8 +11966,12 @@
         <f>Q19-deltaCmcgt</f>
         <v>-6.6214534680578079E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <f>R19-'No Model 65 MPH'!$Q$8</f>
+        <v>-1.0979349573810142E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-8.0860000000000003</v>
       </c>
@@ -9849,8 +12026,8 @@
         <v>1.972223202269598E-5</v>
       </c>
       <c r="P20">
-        <f>O20-'No Model 65 MPH'!$O$8</f>
-        <v>1.9313388207479393E-5</v>
+        <f>O20-'No Model 65 MPH'!$P$8</f>
+        <v>1.9316104254668672E-5</v>
       </c>
       <c r="Q20">
         <f>F20/(M20*wing_area*wmac)</f>
@@ -9860,8 +12037,12 @@
         <f>Q20-deltaCmcgt</f>
         <v>-6.6214534680578079E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <f>R20-'No Model 65 MPH'!$Q$8</f>
+        <v>-1.0979349573810142E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-8.0860000000000003</v>
       </c>
@@ -9916,8 +12097,8 @@
         <v>1.972223202269598E-5</v>
       </c>
       <c r="P21">
-        <f>O21-'No Model 65 MPH'!$O$8</f>
-        <v>1.9313388207479393E-5</v>
+        <f>O21-'No Model 65 MPH'!$P$8</f>
+        <v>1.9316104254668672E-5</v>
       </c>
       <c r="Q21">
         <f>F21/(M21*wing_area*wmac)</f>
@@ -9927,8 +12108,12 @@
         <f>Q21-deltaCmcgt</f>
         <v>-6.6214534680578079E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <f>R21-'No Model 65 MPH'!$Q$8</f>
+        <v>-1.0979349573810142E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-6.0060000000000002</v>
       </c>
@@ -9983,8 +12168,8 @@
         <v>2.3254987265125305E-5</v>
       </c>
       <c r="P22">
-        <f>O22-'No Model 65 MPH'!$O$9</f>
-        <v>2.2067660020934669E-5</v>
+        <f>O22-'No Model 65 MPH'!$P$9</f>
+        <v>2.2075547719621341E-5</v>
       </c>
       <c r="Q22">
         <f>F22/(M22*wing_area*wmac)</f>
@@ -9994,8 +12179,12 @@
         <f>Q22-deltaCmcgt</f>
         <v>-4.2429314702966049E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <f>R22-'No Model 65 MPH'!$Q$8</f>
+        <v>-8.6008275760489388E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-6.0060000000000002</v>
       </c>
@@ -10050,8 +12239,8 @@
         <v>2.3254987265125305E-5</v>
       </c>
       <c r="P23">
-        <f>O23-'No Model 65 MPH'!$O$9</f>
-        <v>2.2067660020934669E-5</v>
+        <f>O23-'No Model 65 MPH'!$P$9</f>
+        <v>2.2075547719621341E-5</v>
       </c>
       <c r="Q23">
         <f>F23/(M23*wing_area*wmac)</f>
@@ -10061,8 +12250,12 @@
         <f>Q23-deltaCmcgt</f>
         <v>-4.2429314702966049E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <f>R23-'No Model 65 MPH'!$Q$9</f>
+        <v>-7.4716190567619567E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-6.0060000000000002</v>
       </c>
@@ -10117,8 +12310,8 @@
         <v>2.3254987265125305E-5</v>
       </c>
       <c r="P24">
-        <f>O24-'No Model 65 MPH'!$O$9</f>
-        <v>2.2067660020934669E-5</v>
+        <f>O24-'No Model 65 MPH'!$P$9</f>
+        <v>2.2075547719621341E-5</v>
       </c>
       <c r="Q24">
         <f>F24/(M24*wing_area*wmac)</f>
@@ -10128,8 +12321,12 @@
         <f>Q24-deltaCmcgt</f>
         <v>-4.2429314702966049E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <f>R24-'No Model 65 MPH'!$Q$9</f>
+        <v>-7.4716190567619567E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-6.0060000000000002</v>
       </c>
@@ -10184,8 +12381,8 @@
         <v>2.3254987265125305E-5</v>
       </c>
       <c r="P25">
-        <f>O25-'No Model 65 MPH'!$O$9</f>
-        <v>2.2067660020934669E-5</v>
+        <f>O25-'No Model 65 MPH'!$P$9</f>
+        <v>2.2075547719621341E-5</v>
       </c>
       <c r="Q25">
         <f>F25/(M25*wing_area*wmac)</f>
@@ -10195,8 +12392,12 @@
         <f>Q25-deltaCmcgt</f>
         <v>-4.2429314702966049E-5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <f>R25-'No Model 65 MPH'!$Q$9</f>
+        <v>-7.4716190567619567E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-6.0060000000000002</v>
       </c>
@@ -10251,8 +12452,8 @@
         <v>2.3254987265125305E-5</v>
       </c>
       <c r="P26">
-        <f>O26-'No Model 65 MPH'!$O$9</f>
-        <v>2.2067660020934669E-5</v>
+        <f>O26-'No Model 65 MPH'!$P$9</f>
+        <v>2.2075547719621341E-5</v>
       </c>
       <c r="Q26">
         <f>F26/(M26*wing_area*wmac)</f>
@@ -10262,8 +12463,12 @@
         <f>Q26-deltaCmcgt</f>
         <v>-4.2429314702966049E-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <f>R26-'No Model 65 MPH'!$Q$9</f>
+        <v>-7.4716190567619567E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-3.9950000000000001</v>
       </c>
@@ -10318,8 +12523,8 @@
         <v>2.2197942389437792E-5</v>
       </c>
       <c r="P27">
-        <f>O27-'No Model 65 MPH'!$O$10</f>
-        <v>1.7022987796833323E-5</v>
+        <f>O27-'No Model 65 MPH'!$P$10</f>
+        <v>1.7057366257146935E-5</v>
       </c>
       <c r="Q27">
         <f>F27/(M27*wing_area*wmac)</f>
@@ -10329,8 +12534,12 @@
         <f>Q27-deltaCmcgt</f>
         <v>-1.3127369906248946E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <f>R27-'No Model 65 MPH'!$Q$9</f>
+        <v>-1.6356057492714299E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.9950000000000001</v>
       </c>
@@ -10385,8 +12594,8 @@
         <v>2.105744660251179E-5</v>
       </c>
       <c r="P28">
-        <f>O28-'No Model 65 MPH'!$O$10</f>
-        <v>1.5882492009907321E-5</v>
+        <f>O28-'No Model 65 MPH'!$P$10</f>
+        <v>1.5916870470220933E-5</v>
       </c>
       <c r="Q28">
         <f>F28/(M28*wing_area*wmac)</f>
@@ -10396,8 +12605,12 @@
         <f>Q28-deltaCmcgt</f>
         <v>-1.2085813043089376E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <f>R28-'No Model 65 MPH'!$Q$10</f>
+        <v>-1.4707596124470006E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-3.9950000000000001</v>
       </c>
@@ -10452,8 +12665,8 @@
         <v>2.105744660251179E-5</v>
       </c>
       <c r="P29">
-        <f>O29-'No Model 65 MPH'!$O$10</f>
-        <v>1.5882492009907321E-5</v>
+        <f>O29-'No Model 65 MPH'!$P$10</f>
+        <v>1.5916870470220933E-5</v>
       </c>
       <c r="Q29">
         <f>F29/(M29*wing_area*wmac)</f>
@@ -10463,8 +12676,12 @@
         <f>Q29-deltaCmcgt</f>
         <v>-1.2085813043089376E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <f>R29-'No Model 65 MPH'!$Q$10</f>
+        <v>-1.4707596124470006E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-3.9950000000000001</v>
       </c>
@@ -10519,8 +12736,8 @@
         <v>2.105744660251179E-5</v>
       </c>
       <c r="P30">
-        <f>O30-'No Model 65 MPH'!$O$10</f>
-        <v>1.5882492009907321E-5</v>
+        <f>O30-'No Model 65 MPH'!$P$10</f>
+        <v>1.5916870470220933E-5</v>
       </c>
       <c r="Q30">
         <f>F30/(M30*wing_area*wmac)</f>
@@ -10530,8 +12747,12 @@
         <f>Q30-deltaCmcgt</f>
         <v>-1.2085813043089376E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <f>R30-'No Model 65 MPH'!$Q$10</f>
+        <v>-1.4707596124470006E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-3.9950000000000001</v>
       </c>
@@ -10586,8 +12807,8 @@
         <v>2.105744660251179E-5</v>
       </c>
       <c r="P31">
-        <f>O31-'No Model 65 MPH'!$O$10</f>
-        <v>1.5882492009907321E-5</v>
+        <f>O31-'No Model 65 MPH'!$P$10</f>
+        <v>1.5916870470220933E-5</v>
       </c>
       <c r="Q31">
         <f>F31/(M31*wing_area*wmac)</f>
@@ -10597,8 +12818,12 @@
         <f>Q31-deltaCmcgt</f>
         <v>-1.2085813043089376E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <f>R31-'No Model 65 MPH'!$Q$10</f>
+        <v>-1.4707596124470006E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-2.0299999999999998</v>
       </c>
@@ -10653,8 +12878,8 @@
         <v>1.911025867361374E-5</v>
       </c>
       <c r="P32">
-        <f>O32-'No Model 65 MPH'!$O$11</f>
-        <v>1.2383937823269619E-5</v>
+        <f>O32-'No Model 65 MPH'!$P$11</f>
+        <v>1.242862238045214E-5</v>
       </c>
       <c r="Q32">
         <f>F32/(M32*wing_area*wmac)</f>
@@ -10664,8 +12889,12 @@
         <f>Q32-deltaCmcgt</f>
         <v>-1.0463147890097768E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <f>R32-'No Model 65 MPH'!$Q$10</f>
+        <v>-1.3084930971478398E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-2.0299999999999998</v>
       </c>
@@ -10720,8 +12949,8 @@
         <v>1.911025867361374E-5</v>
       </c>
       <c r="P33">
-        <f>O33-'No Model 65 MPH'!$O$11</f>
-        <v>1.2383937823269619E-5</v>
+        <f>O33-'No Model 65 MPH'!$P$11</f>
+        <v>1.242862238045214E-5</v>
       </c>
       <c r="Q33">
         <f>F33/(M33*wing_area*wmac)</f>
@@ -10731,8 +12960,12 @@
         <f>Q33-deltaCmcgt</f>
         <v>-1.0463147890097768E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <f>R33-'No Model 65 MPH'!$Q$11</f>
+        <v>-1.0024612230802088E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.976</v>
       </c>
@@ -10787,8 +13020,8 @@
         <v>2.3115902413061155E-5</v>
       </c>
       <c r="P34">
-        <f>O34-'No Model 65 MPH'!$O$11</f>
-        <v>1.6389581562717032E-5</v>
+        <f>O34-'No Model 65 MPH'!$P$11</f>
+        <v>1.6434266119899553E-5</v>
       </c>
       <c r="Q34">
         <f>F34/(M34*wing_area*wmac)</f>
@@ -10798,8 +13031,12 @@
         <f>Q34-deltaCmcgt</f>
         <v>-1.0500594009012959E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <f>R34-'No Model 65 MPH'!$Q$11</f>
+        <v>-1.0062058349717279E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.976</v>
       </c>
@@ -10854,8 +13091,8 @@
         <v>2.3115902413061155E-5</v>
       </c>
       <c r="P35">
-        <f>O35-'No Model 65 MPH'!$O$11</f>
-        <v>1.6389581562717032E-5</v>
+        <f>O35-'No Model 65 MPH'!$P$11</f>
+        <v>1.6434266119899553E-5</v>
       </c>
       <c r="Q35">
         <f>F35/(M35*wing_area*wmac)</f>
@@ -10865,8 +13102,12 @@
         <f>Q35-deltaCmcgt</f>
         <v>-1.0500594009012959E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <f>R35-'No Model 65 MPH'!$Q$11</f>
+        <v>-1.0062058349717279E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.976</v>
       </c>
@@ -10921,8 +13162,8 @@
         <v>2.3115902413061155E-5</v>
       </c>
       <c r="P36">
-        <f>O36-'No Model 65 MPH'!$O$11</f>
-        <v>1.6389581562717032E-5</v>
+        <f>O36-'No Model 65 MPH'!$P$11</f>
+        <v>1.6434266119899553E-5</v>
       </c>
       <c r="Q36">
         <f>F36/(M36*wing_area*wmac)</f>
@@ -10932,8 +13173,12 @@
         <f>Q36-deltaCmcgt</f>
         <v>-1.0500594009012959E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <f>R36-'No Model 65 MPH'!$Q$11</f>
+        <v>-1.0062058349717279E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.9E-2</v>
       </c>
@@ -10988,8 +13233,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P37">
-        <f>O37-'No Model 65 MPH'!$O$12</f>
-        <v>9.5244406162436412E-6</v>
+        <f>O37-'No Model 65 MPH'!$P$12</f>
+        <v>9.6357985510040747E-6</v>
       </c>
       <c r="Q37">
         <f>F37/(M37*wing_area*wmac)</f>
@@ -10999,8 +13244,12 @@
         <f>Q37-deltaCmcgt</f>
         <v>-1.3729281595478314E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <f>R37-'No Model 65 MPH'!$Q$11</f>
+        <v>-1.3290745936182633E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.9E-2</v>
       </c>
@@ -11055,8 +13304,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P38">
-        <f>O38-'No Model 65 MPH'!$O$12</f>
-        <v>9.5244406162436412E-6</v>
+        <f>O38-'No Model 65 MPH'!$P$12</f>
+        <v>9.6357985510040747E-6</v>
       </c>
       <c r="Q38">
         <f>F38/(M38*wing_area*wmac)</f>
@@ -11066,8 +13315,12 @@
         <f>Q38-deltaCmcgt</f>
         <v>-1.3729281595478314E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <f>R38-'No Model 65 MPH'!$Q$12</f>
+        <v>2.1426619524563982E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.9E-2</v>
       </c>
@@ -11122,8 +13375,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P39">
-        <f>O39-'No Model 65 MPH'!$O$12</f>
-        <v>9.5244406162436412E-6</v>
+        <f>O39-'No Model 65 MPH'!$P$12</f>
+        <v>9.6357985510040747E-6</v>
       </c>
       <c r="Q39">
         <f>F39/(M39*wing_area*wmac)</f>
@@ -11133,8 +13386,12 @@
         <f>Q39-deltaCmcgt</f>
         <v>-1.3729281595478314E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <f>R39-'No Model 65 MPH'!$Q$12</f>
+        <v>2.1426619524563982E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1.9E-2</v>
       </c>
@@ -11189,8 +13446,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P40">
-        <f>O40-'No Model 65 MPH'!$O$12</f>
-        <v>9.5244406162436412E-6</v>
+        <f>O40-'No Model 65 MPH'!$P$12</f>
+        <v>9.6357985510040747E-6</v>
       </c>
       <c r="Q40">
         <f>F40/(M40*wing_area*wmac)</f>
@@ -11200,8 +13457,12 @@
         <f>Q40-deltaCmcgt</f>
         <v>-1.3729281595478314E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <f>R40-'No Model 65 MPH'!$Q$12</f>
+        <v>2.1426619524563982E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.9E-2</v>
       </c>
@@ -11256,8 +13517,8 @@
         <v>2.6287037040123699E-5</v>
       </c>
       <c r="P41">
-        <f>O41-'No Model 65 MPH'!$O$12</f>
-        <v>9.5244406162436412E-6</v>
+        <f>O41-'No Model 65 MPH'!$P$12</f>
+        <v>9.6357985510040747E-6</v>
       </c>
       <c r="Q41">
         <f>F41/(M41*wing_area*wmac)</f>
@@ -11267,8 +13528,12 @@
         <f>Q41-deltaCmcgt</f>
         <v>-1.3729281595478314E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <f>R41-'No Model 65 MPH'!$Q$12</f>
+        <v>2.1426619524563982E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1.992</v>
       </c>
@@ -11323,8 +13588,8 @@
         <v>2.7705702531177993E-5</v>
       </c>
       <c r="P42">
-        <f>O42-'No Model 65 MPH'!$O$13</f>
-        <v>1.2472069964203796E-5</v>
+        <f>O42-'No Model 65 MPH'!$P$13</f>
+        <v>1.2573270626598848E-5</v>
       </c>
       <c r="Q42">
         <f>F42/(M42*wing_area*wmac)</f>
@@ -11334,8 +13599,12 @@
         <f>Q42-deltaCmcgt</f>
         <v>-1.7615356602899241E-4</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <f>R42-'No Model 65 MPH'!$Q$12</f>
+        <v>-3.6718088121752879E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.992</v>
       </c>
@@ -11390,8 +13659,8 @@
         <v>2.7705702531177993E-5</v>
       </c>
       <c r="P43">
-        <f>O43-'No Model 65 MPH'!$O$13</f>
-        <v>1.2472069964203796E-5</v>
+        <f>O43-'No Model 65 MPH'!$P$13</f>
+        <v>1.2573270626598848E-5</v>
       </c>
       <c r="Q43">
         <f>F43/(M43*wing_area*wmac)</f>
@@ -11401,8 +13670,12 @@
         <f>Q43-deltaCmcgt</f>
         <v>-1.7615356602899241E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <f>R43-'No Model 65 MPH'!$Q$13</f>
+        <v>-9.2387984909003429E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.99</v>
       </c>
@@ -11457,8 +13730,8 @@
         <v>3.0209229868332636E-5</v>
       </c>
       <c r="P44">
-        <f>O44-'No Model 65 MPH'!$O$13</f>
-        <v>1.4975597301358439E-5</v>
+        <f>O44-'No Model 65 MPH'!$P$13</f>
+        <v>1.5076797963753491E-5</v>
       </c>
       <c r="Q44">
         <f>F44/(M44*wing_area*wmac)</f>
@@ -11468,8 +13741,12 @@
         <f>Q44-deltaCmcgt</f>
         <v>-1.9697083435925224E-4</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <f>R44-'No Model 65 MPH'!$Q$13</f>
+        <v>-1.1320525323926326E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.99</v>
       </c>
@@ -11524,8 +13801,8 @@
         <v>3.0209229868332636E-5</v>
       </c>
       <c r="P45">
-        <f>O45-'No Model 65 MPH'!$O$13</f>
-        <v>1.4975597301358439E-5</v>
+        <f>O45-'No Model 65 MPH'!$P$13</f>
+        <v>1.5076797963753491E-5</v>
       </c>
       <c r="Q45">
         <f>F45/(M45*wing_area*wmac)</f>
@@ -11535,8 +13812,12 @@
         <f>Q45-deltaCmcgt</f>
         <v>-1.9697083435925224E-4</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <f>R45-'No Model 65 MPH'!$Q$13</f>
+        <v>-1.1320525323926326E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.99</v>
       </c>
@@ -11591,8 +13872,8 @@
         <v>3.0209229868332636E-5</v>
       </c>
       <c r="P46">
-        <f>O46-'No Model 65 MPH'!$O$13</f>
-        <v>1.4975597301358439E-5</v>
+        <f>O46-'No Model 65 MPH'!$P$13</f>
+        <v>1.5076797963753491E-5</v>
       </c>
       <c r="Q46">
         <f>F46/(M46*wing_area*wmac)</f>
@@ -11602,8 +13883,12 @@
         <f>Q46-deltaCmcgt</f>
         <v>-1.9697083435925224E-4</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <f>R46-'No Model 65 MPH'!$Q$13</f>
+        <v>-1.1320525323926326E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3.9750000000000001</v>
       </c>
@@ -11658,8 +13943,8 @@
         <v>3.2406770530946151E-5</v>
       </c>
       <c r="P47">
-        <f>O47-'No Model 65 MPH'!$O$14</f>
-        <v>1.4557657666627493E-5</v>
+        <f>O47-'No Model 65 MPH'!$P$14</f>
+        <v>1.4676233589808747E-5</v>
       </c>
       <c r="Q47">
         <f>F47/(M47*wing_area*wmac)</f>
@@ -11669,8 +13954,12 @@
         <f>Q47-deltaCmcgt</f>
         <v>-2.4350110434460988E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <f>R47-'No Model 65 MPH'!$Q$13</f>
+        <v>-1.597355232246209E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3.9750000000000001</v>
       </c>
@@ -11725,8 +14014,8 @@
         <v>3.2406770530946151E-5</v>
       </c>
       <c r="P48">
-        <f>O48-'No Model 65 MPH'!$O$14</f>
-        <v>1.4557657666627493E-5</v>
+        <f>O48-'No Model 65 MPH'!$P$14</f>
+        <v>1.4676233589808747E-5</v>
       </c>
       <c r="Q48">
         <f>F48/(M48*wing_area*wmac)</f>
@@ -11736,8 +14025,12 @@
         <f>Q48-deltaCmcgt</f>
         <v>-2.4350110434460988E-4</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <f>R48-'No Model 65 MPH'!$Q$14</f>
+        <v>-1.6359108657959239E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.0259999999999998</v>
       </c>
@@ -11792,8 +14085,8 @@
         <v>3.5383186365118883E-5</v>
       </c>
       <c r="P49">
-        <f>O49-'No Model 65 MPH'!$O$14</f>
-        <v>1.7534073500800225E-5</v>
+        <f>O49-'No Model 65 MPH'!$P$14</f>
+        <v>1.765264942398148E-5</v>
       </c>
       <c r="Q49">
         <f>F49/(M49*wing_area*wmac)</f>
@@ -11803,8 +14096,12 @@
         <f>Q49-deltaCmcgt</f>
         <v>-2.4884064352325748E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <f>R49-'No Model 65 MPH'!$Q$14</f>
+        <v>-1.6893062575824001E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4.0259999999999998</v>
       </c>
@@ -11859,8 +14156,8 @@
         <v>3.5383186365118883E-5</v>
       </c>
       <c r="P50">
-        <f>O50-'No Model 65 MPH'!$O$14</f>
-        <v>1.7534073500800225E-5</v>
+        <f>O50-'No Model 65 MPH'!$P$14</f>
+        <v>1.765264942398148E-5</v>
       </c>
       <c r="Q50">
         <f>F50/(M50*wing_area*wmac)</f>
@@ -11870,8 +14167,12 @@
         <f>Q50-deltaCmcgt</f>
         <v>-2.4884064352325748E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <f>R50-'No Model 65 MPH'!$Q$14</f>
+        <v>-1.6893062575824001E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4.0259999999999998</v>
       </c>
@@ -11926,8 +14227,8 @@
         <v>3.5383186365118883E-5</v>
       </c>
       <c r="P51">
-        <f>O51-'No Model 65 MPH'!$O$14</f>
-        <v>1.7534073500800225E-5</v>
+        <f>O51-'No Model 65 MPH'!$P$14</f>
+        <v>1.765264942398148E-5</v>
       </c>
       <c r="Q51">
         <f>F51/(M51*wing_area*wmac)</f>
@@ -11937,8 +14238,12 @@
         <f>Q51-deltaCmcgt</f>
         <v>-2.4884064352325748E-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <f>R51-'No Model 65 MPH'!$Q$14</f>
+        <v>-1.6893062575824001E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6.0010000000000003</v>
       </c>
@@ -11993,8 +14298,8 @@
         <v>4.3227572021536751E-5</v>
       </c>
       <c r="P52">
-        <f>O52-'No Model 65 MPH'!$O$15</f>
-        <v>2.2382138045699268E-5</v>
+        <f>O52-'No Model 65 MPH'!$P$15</f>
+        <v>2.2520619246226611E-5</v>
       </c>
       <c r="Q52">
         <f>F52/(M52*wing_area*wmac)</f>
@@ -12004,8 +14309,12 @@
         <f>Q52-deltaCmcgt</f>
         <v>-3.340513674547142E-4</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <f>R52-'No Model 65 MPH'!$Q$14</f>
+        <v>-2.5414134968969673E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6.0149999999999997</v>
       </c>
@@ -12060,8 +14369,8 @@
         <v>4.1586370767179821E-5</v>
       </c>
       <c r="P53">
-        <f>O53-'No Model 65 MPH'!$O$15</f>
-        <v>2.0740936791342339E-5</v>
+        <f>O53-'No Model 65 MPH'!$P$15</f>
+        <v>2.0879417991869681E-5</v>
       </c>
       <c r="Q53">
         <f>F53/(M53*wing_area*wmac)</f>
@@ -12071,8 +14380,12 @@
         <f>Q53-deltaCmcgt</f>
         <v>-3.2220729873116863E-4</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <f>R53-'No Model 65 MPH'!$Q$15</f>
+        <v>-1.6947983550232945E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6.0149999999999997</v>
       </c>
@@ -12127,8 +14440,8 @@
         <v>4.1586370767179821E-5</v>
       </c>
       <c r="P54">
-        <f>O54-'No Model 65 MPH'!$O$15</f>
-        <v>2.0740936791342339E-5</v>
+        <f>O54-'No Model 65 MPH'!$P$15</f>
+        <v>2.0879417991869681E-5</v>
       </c>
       <c r="Q54">
         <f>F54/(M54*wing_area*wmac)</f>
@@ -12138,8 +14451,12 @@
         <f>Q54-deltaCmcgt</f>
         <v>-3.2220729873116863E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <f>R54-'No Model 65 MPH'!$Q$15</f>
+        <v>-1.6947983550232945E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6.0149999999999997</v>
       </c>
@@ -12194,8 +14511,8 @@
         <v>4.1586370767179821E-5</v>
       </c>
       <c r="P55">
-        <f>O55-'No Model 65 MPH'!$O$15</f>
-        <v>2.0740936791342339E-5</v>
+        <f>O55-'No Model 65 MPH'!$P$15</f>
+        <v>2.0879417991869681E-5</v>
       </c>
       <c r="Q55">
         <f>F55/(M55*wing_area*wmac)</f>
@@ -12205,8 +14522,12 @@
         <f>Q55-deltaCmcgt</f>
         <v>-3.2220729873116863E-4</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <f>R55-'No Model 65 MPH'!$Q$15</f>
+        <v>-1.6947983550232945E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6.0149999999999997</v>
       </c>
@@ -12261,8 +14582,8 @@
         <v>4.1586370767179821E-5</v>
       </c>
       <c r="P56">
-        <f>O56-'No Model 65 MPH'!$O$15</f>
-        <v>2.0740936791342339E-5</v>
+        <f>O56-'No Model 65 MPH'!$P$15</f>
+        <v>2.0879417991869681E-5</v>
       </c>
       <c r="Q56">
         <f>F56/(M56*wing_area*wmac)</f>
@@ -12272,8 +14593,12 @@
         <f>Q56-deltaCmcgt</f>
         <v>-3.2220729873116863E-4</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <f>R56-'No Model 65 MPH'!$Q$15</f>
+        <v>-1.6947983550232945E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7.9880000000000004</v>
       </c>
@@ -12328,8 +14653,8 @@
         <v>4.7483568494699638E-5</v>
       </c>
       <c r="P57">
-        <f>O57-'No Model 65 MPH'!$O$16</f>
-        <v>2.1732008736263115E-5</v>
+        <f>O57-'No Model 65 MPH'!$P$16</f>
+        <v>2.1903082503061806E-5</v>
       </c>
       <c r="Q57">
         <f>F57/(M57*wing_area*wmac)</f>
@@ -12339,8 +14664,12 @@
         <f>Q57-deltaCmcgt</f>
         <v>-3.6926458816792529E-4</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <f>R57-'No Model 65 MPH'!$Q$15</f>
+        <v>-2.1653712493908611E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7.9880000000000004</v>
       </c>
@@ -12395,8 +14724,8 @@
         <v>4.7483568494699638E-5</v>
       </c>
       <c r="P58">
-        <f>O58-'No Model 65 MPH'!$O$16</f>
-        <v>2.1732008736263115E-5</v>
+        <f>O58-'No Model 65 MPH'!$P$16</f>
+        <v>2.1903082503061806E-5</v>
       </c>
       <c r="Q58">
         <f>F58/(M58*wing_area*wmac)</f>
@@ -12406,8 +14735,12 @@
         <f>Q58-deltaCmcgt</f>
         <v>-3.6926458816792529E-4</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <f>R58-'No Model 65 MPH'!$Q$16</f>
+        <v>-2.5034403585303777E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8.0570000000000004</v>
       </c>
@@ -12462,8 +14795,8 @@
         <v>4.500785812795783E-5</v>
       </c>
       <c r="P59">
-        <f>O59-'No Model 65 MPH'!$O$16</f>
-        <v>1.9256298369521307E-5</v>
+        <f>O59-'No Model 65 MPH'!$P$16</f>
+        <v>1.9427372136319998E-5</v>
       </c>
       <c r="Q59">
         <f>F59/(M59*wing_area*wmac)</f>
@@ -12473,8 +14806,12 @@
         <f>Q59-deltaCmcgt</f>
         <v>-3.498896888625468E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <f>R59-'No Model 65 MPH'!$Q$16</f>
+        <v>-2.3096913654765925E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8.0570000000000004</v>
       </c>
@@ -12529,8 +14866,8 @@
         <v>4.500785812795783E-5</v>
       </c>
       <c r="P60">
-        <f>O60-'No Model 65 MPH'!$O$16</f>
-        <v>1.9256298369521307E-5</v>
+        <f>O60-'No Model 65 MPH'!$P$16</f>
+        <v>1.9427372136319998E-5</v>
       </c>
       <c r="Q60">
         <f>F60/(M60*wing_area*wmac)</f>
@@ -12540,8 +14877,12 @@
         <f>Q60-deltaCmcgt</f>
         <v>-3.498896888625468E-4</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <f>R60-'No Model 65 MPH'!$Q$16</f>
+        <v>-2.3096913654765925E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8.0570000000000004</v>
       </c>
@@ -12596,8 +14937,8 @@
         <v>4.500785812795783E-5</v>
       </c>
       <c r="P61">
-        <f>O61-'No Model 65 MPH'!$O$16</f>
-        <v>1.9256298369521307E-5</v>
+        <f>O61-'No Model 65 MPH'!$P$16</f>
+        <v>1.9427372136319998E-5</v>
       </c>
       <c r="Q61">
         <f>F61/(M61*wing_area*wmac)</f>
@@ -12607,8 +14948,12 @@
         <f>Q61-deltaCmcgt</f>
         <v>-3.498896888625468E-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <f>R61-'No Model 65 MPH'!$Q$16</f>
+        <v>-2.3096913654765925E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9.9619999999999997</v>
       </c>
@@ -12663,8 +15008,8 @@
         <v>5.1767381938275346E-5</v>
       </c>
       <c r="P62">
-        <f>O62-'No Model 65 MPH'!$O$17</f>
-        <v>2.7880822049251472E-5</v>
+        <f>O62-'No Model 65 MPH'!$P$17</f>
+        <v>2.8039506176131941E-5</v>
       </c>
       <c r="Q62">
         <f>F62/(M62*wing_area*wmac)</f>
@@ -12674,8 +15019,12 @@
         <f>Q62-deltaCmcgt</f>
         <v>-3.6934780176551462E-4</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <f>R62-'No Model 65 MPH'!$Q$16</f>
+        <v>-2.5042724945062704E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9.9619999999999997</v>
       </c>
@@ -12730,8 +15079,8 @@
         <v>5.1767381938275346E-5</v>
       </c>
       <c r="P63">
-        <f>O63-'No Model 65 MPH'!$O$17</f>
-        <v>2.7880822049251472E-5</v>
+        <f>O63-'No Model 65 MPH'!$P$17</f>
+        <v>2.8039506176131941E-5</v>
       </c>
       <c r="Q63">
         <f>F63/(M63*wing_area*wmac)</f>
@@ -12741,8 +15090,12 @@
         <f>Q63-deltaCmcgt</f>
         <v>-3.6934780176551462E-4</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <f>R63-'No Model 65 MPH'!$Q$17</f>
+        <v>-1.8752262379963234E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9.9619999999999997</v>
       </c>
@@ -12797,8 +15150,8 @@
         <v>5.1767381938275346E-5</v>
       </c>
       <c r="P64">
-        <f>O64-'No Model 65 MPH'!$O$17</f>
-        <v>2.7880822049251472E-5</v>
+        <f>O64-'No Model 65 MPH'!$P$17</f>
+        <v>2.8039506176131941E-5</v>
       </c>
       <c r="Q64">
         <f>F64/(M64*wing_area*wmac)</f>
@@ -12808,8 +15161,12 @@
         <f>Q64-deltaCmcgt</f>
         <v>-3.6934780176551462E-4</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <f>R64-'No Model 65 MPH'!$Q$17</f>
+        <v>-1.8752262379963234E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10.037000000000001</v>
       </c>
@@ -12864,8 +15221,8 @@
         <v>5.0682520092175009E-5</v>
       </c>
       <c r="P65">
-        <f>O65-'No Model 65 MPH'!$O$17</f>
-        <v>2.6795960203151135E-5</v>
+        <f>O65-'No Model 65 MPH'!$P$17</f>
+        <v>2.6954644330031604E-5</v>
       </c>
       <c r="Q65">
         <f>F65/(M65*wing_area*wmac)</f>
@@ -12875,8 +15232,12 @@
         <f>Q65-deltaCmcgt</f>
         <v>-3.7823778777463954E-4</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <f>R65-'No Model 65 MPH'!$Q$17</f>
+        <v>-1.9641260980875726E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10.037000000000001</v>
       </c>
@@ -12931,8 +15292,8 @@
         <v>5.0682520092175009E-5</v>
       </c>
       <c r="P66">
-        <f>O66-'No Model 65 MPH'!$O$17</f>
-        <v>2.6795960203151135E-5</v>
+        <f>O66-'No Model 65 MPH'!$P$17</f>
+        <v>2.6954644330031604E-5</v>
       </c>
       <c r="Q66">
         <f>F66/(M66*wing_area*wmac)</f>
@@ -12942,8 +15303,12 @@
         <f>Q66-deltaCmcgt</f>
         <v>-3.7823778777463954E-4</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <f>R66-'No Model 65 MPH'!$Q$17</f>
+        <v>-1.9641260980875726E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11.99</v>
       </c>
@@ -12998,8 +15363,8 @@
         <v>5.524450323987901E-5</v>
       </c>
       <c r="P67">
-        <f>O67-'No Model 65 MPH'!$O$18</f>
-        <v>2.1472883982947247E-5</v>
+        <f>O67-'No Model 65 MPH'!$P$18</f>
+        <v>2.169723692200686E-5</v>
       </c>
       <c r="Q67">
         <f>F67/(M67*wing_area*wmac)</f>
@@ -13009,8 +15374,12 @@
         <f>Q67-deltaCmcgt</f>
         <v>-4.2017744095965338E-4</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <f>R67-'No Model 65 MPH'!$Q$18</f>
+        <v>-1.416559822550494E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11.99</v>
       </c>
@@ -13065,8 +15434,8 @@
         <v>5.524450323987901E-5</v>
       </c>
       <c r="P68">
-        <f>O68-'No Model 65 MPH'!$O$18</f>
-        <v>2.1472883982947247E-5</v>
+        <f>O68-'No Model 65 MPH'!$P$18</f>
+        <v>2.169723692200686E-5</v>
       </c>
       <c r="Q68">
         <f>F68/(M68*wing_area*wmac)</f>
@@ -13076,8 +15445,12 @@
         <f>Q68-deltaCmcgt</f>
         <v>-4.2017744095965338E-4</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <f>R68-'No Model 65 MPH'!$Q$18</f>
+        <v>-1.416559822550494E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12.003</v>
       </c>
@@ -13132,8 +15505,8 @@
         <v>5.7469860872905352E-5</v>
       </c>
       <c r="P69">
-        <f>O69-'No Model 65 MPH'!$O$18</f>
-        <v>2.3698241615973589E-5</v>
+        <f>O69-'No Model 65 MPH'!$P$18</f>
+        <v>2.3922594555033203E-5</v>
       </c>
       <c r="Q69">
         <f>F69/(M69*wing_area*wmac)</f>
@@ -13143,8 +15516,12 @@
         <f>Q69-deltaCmcgt</f>
         <v>-4.2869296577962646E-4</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <f>R69-'No Model 65 MPH'!$Q$18</f>
+        <v>-1.5017150707502248E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12.003</v>
       </c>
@@ -13199,8 +15576,8 @@
         <v>5.7469860872905352E-5</v>
       </c>
       <c r="P70">
-        <f>O70-'No Model 65 MPH'!$O$18</f>
-        <v>2.3698241615973589E-5</v>
+        <f>O70-'No Model 65 MPH'!$P$18</f>
+        <v>2.3922594555033203E-5</v>
       </c>
       <c r="Q70">
         <f>F70/(M70*wing_area*wmac)</f>
@@ -13210,8 +15587,12 @@
         <f>Q70-deltaCmcgt</f>
         <v>-4.2869296577962646E-4</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <f>R70-'No Model 65 MPH'!$Q$18</f>
+        <v>-1.5017150707502248E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12.003</v>
       </c>
@@ -13266,8 +15647,8 @@
         <v>5.7469860872905352E-5</v>
       </c>
       <c r="P71">
-        <f>O71-'No Model 65 MPH'!$O$18</f>
-        <v>2.3698241615973589E-5</v>
+        <f>O71-'No Model 65 MPH'!$P$18</f>
+        <v>2.3922594555033203E-5</v>
       </c>
       <c r="Q71">
         <f>F71/(M71*wing_area*wmac)</f>
@@ -13277,8 +15658,12 @@
         <f>Q71-deltaCmcgt</f>
         <v>-4.2869296577962646E-4</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <f>R71-'No Model 65 MPH'!$Q$18</f>
+        <v>-1.5017150707502248E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>13.958</v>
       </c>
@@ -13333,8 +15718,8 @@
         <v>6.7789956896065028E-5</v>
       </c>
       <c r="P72">
-        <f>O72-'No Model 65 MPH'!$O$19</f>
-        <v>3.637058972668075E-5</v>
+        <f>O72-'No Model 65 MPH'!$P$19</f>
+        <v>3.6579316092870537E-5</v>
       </c>
       <c r="Q72">
         <f>F72/(M72*wing_area*wmac)</f>
@@ -13344,8 +15729,12 @@
         <f>Q72-deltaCmcgt</f>
         <v>-4.8461250335964491E-4</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <f>R72-'No Model 65 MPH'!$Q$19</f>
+        <v>-2.1382158787108818E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>13.958</v>
       </c>
@@ -13400,8 +15789,8 @@
         <v>6.7789956896065028E-5</v>
       </c>
       <c r="P73">
-        <f>O73-'No Model 65 MPH'!$O$19</f>
-        <v>3.637058972668075E-5</v>
+        <f>O73-'No Model 65 MPH'!$P$19</f>
+        <v>3.6579316092870537E-5</v>
       </c>
       <c r="Q73">
         <f>F73/(M73*wing_area*wmac)</f>
@@ -13411,8 +15800,12 @@
         <f>Q73-deltaCmcgt</f>
         <v>-4.8461250335964491E-4</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <f>R73-'No Model 65 MPH'!$Q$19</f>
+        <v>-2.1382158787108818E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13.976000000000001</v>
       </c>
@@ -13467,8 +15860,8 @@
         <v>6.9264256327944987E-5</v>
       </c>
       <c r="P74">
-        <f>O74-'No Model 65 MPH'!$O$19</f>
-        <v>3.7844889158560709E-5</v>
+        <f>O74-'No Model 65 MPH'!$P$19</f>
+        <v>3.8053615524750496E-5</v>
       </c>
       <c r="Q74">
         <f>F74/(M74*wing_area*wmac)</f>
@@ -13478,8 +15871,12 @@
         <f>Q74-deltaCmcgt</f>
         <v>-4.8720599381784523E-4</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <f>R74-'No Model 65 MPH'!$Q$19</f>
+        <v>-2.164150783292885E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13.976000000000001</v>
       </c>
@@ -13534,8 +15931,8 @@
         <v>6.9264256327944987E-5</v>
       </c>
       <c r="P75">
-        <f>O75-'No Model 65 MPH'!$O$19</f>
-        <v>3.7844889158560709E-5</v>
+        <f>O75-'No Model 65 MPH'!$P$19</f>
+        <v>3.8053615524750496E-5</v>
       </c>
       <c r="Q75">
         <f>F75/(M75*wing_area*wmac)</f>
@@ -13545,8 +15942,12 @@
         <f>Q75-deltaCmcgt</f>
         <v>-4.8720599381784523E-4</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <f>R75-'No Model 65 MPH'!$Q$19</f>
+        <v>-2.164150783292885E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15.951000000000001</v>
       </c>
@@ -13601,8 +16002,8 @@
         <v>6.8262845393083138E-5</v>
       </c>
       <c r="P76">
-        <f>O76-'No Model 65 MPH'!$O$19</f>
-        <v>3.6843478223698861E-5</v>
+        <f>O76-'No Model 65 MPH'!$P$19</f>
+        <v>3.7052204589888647E-5</v>
       </c>
       <c r="Q76">
         <f>F76/(M76*wing_area*wmac)</f>
@@ -13612,8 +16013,12 @@
         <f>Q76-deltaCmcgt</f>
         <v>-4.9204625141095694E-4</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <f>R76-'No Model 65 MPH'!$Q$20</f>
+        <v>-2.2839783638214955E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>15.951000000000001</v>
       </c>
@@ -13668,8 +16073,8 @@
         <v>6.8262845393083138E-5</v>
       </c>
       <c r="P77">
-        <f>O77-'No Model 65 MPH'!$O$20</f>
-        <v>2.9912735465746445E-5</v>
+        <f>O77-'No Model 65 MPH'!$P$20</f>
+        <v>3.0167504412713398E-5</v>
       </c>
       <c r="Q77">
         <f>F77/(M77*wing_area*wmac)</f>
@@ -13679,8 +16084,12 @@
         <f>Q77-deltaCmcgt</f>
         <v>-4.9204625141095694E-4</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <f>R77-'No Model 65 MPH'!$Q$20</f>
+        <v>-2.2839783638214955E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>15.996</v>
       </c>
@@ -13735,8 +16144,8 @@
         <v>7.1600881842622639E-5</v>
       </c>
       <c r="P78">
-        <f>O78-'No Model 65 MPH'!$O$20</f>
-        <v>3.3250771915285945E-5</v>
+        <f>O78-'No Model 65 MPH'!$P$20</f>
+        <v>3.3505540862252898E-5</v>
       </c>
       <c r="Q78">
         <f>F78/(M78*wing_area*wmac)</f>
@@ -13746,8 +16155,12 @@
         <f>Q78-deltaCmcgt</f>
         <v>-5.217535057503418E-4</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78">
+        <f>R78-'No Model 65 MPH'!$Q$20</f>
+        <v>-2.5810509072153441E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>15.996</v>
       </c>
@@ -13802,8 +16215,8 @@
         <v>7.1600881842622639E-5</v>
       </c>
       <c r="P79">
-        <f>O79-'No Model 65 MPH'!$O$20</f>
-        <v>3.3250771915285945E-5</v>
+        <f>O79-'No Model 65 MPH'!$P$20</f>
+        <v>3.3505540862252898E-5</v>
       </c>
       <c r="Q79">
         <f>F79/(M79*wing_area*wmac)</f>
@@ -13813,8 +16226,12 @@
         <f>Q79-deltaCmcgt</f>
         <v>-5.217535057503418E-4</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79">
+        <f>R79-'No Model 65 MPH'!$Q$20</f>
+        <v>-2.5810509072153441E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>15.996</v>
       </c>
@@ -13869,8 +16286,8 @@
         <v>7.1600881842622639E-5</v>
       </c>
       <c r="P80">
-        <f>O80-'No Model 65 MPH'!$O$20</f>
-        <v>3.3250771915285945E-5</v>
+        <f>O80-'No Model 65 MPH'!$P$20</f>
+        <v>3.3505540862252898E-5</v>
       </c>
       <c r="Q80">
         <f>F80/(M80*wing_area*wmac)</f>
@@ -13880,8 +16297,12 @@
         <f>Q80-deltaCmcgt</f>
         <v>-5.217535057503418E-4</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80">
+        <f>R80-'No Model 65 MPH'!$Q$20</f>
+        <v>-2.5810509072153441E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -13936,8 +16357,8 @@
         <v>3.0904654128653364E-5</v>
       </c>
       <c r="P81">
-        <f>O81-'No Model 65 MPH'!$O$20</f>
-        <v>-7.4454557986833295E-6</v>
+        <f>O81-'No Model 65 MPH'!$P$20</f>
+        <v>-7.1906868517163759E-6</v>
       </c>
       <c r="Q81">
         <f>F81/(M81*wing_area*wmac)</f>
@@ -13947,8 +16368,12 @@
         <f>Q81-deltaCmcgt</f>
         <v>-1.7443381834547991E-4</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81">
+        <f>R81-'No Model 65 MPH'!$P$20</f>
+        <v>-2.1252915932584964E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -14014,8 +16439,12 @@
         <f>Q82-deltaCmcgt</f>
         <v>-1.7443381834547991E-4</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82">
+        <f>R82-'No Model 65 MPH'!L82</f>
+        <v>-1.7443381834547991E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -14081,8 +16510,12 @@
         <f>Q83-deltaCmcgt</f>
         <v>-1.4815219044018849E-4</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83">
+        <f>R83-'No Model 65 MPH'!L83</f>
+        <v>-1.4815219044018849E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -14148,8 +16581,12 @@
         <f>Q84-deltaCmcgt</f>
         <v>-1.4815219044018849E-4</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84">
+        <f>R84-'No Model 65 MPH'!L84</f>
+        <v>-1.4815219044018849E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -14213,6 +16650,10 @@
       </c>
       <c r="R85">
         <f>Q85-deltaCmcgt</f>
+        <v>-1.4815219044018849E-4</v>
+      </c>
+      <c r="S85">
+        <f>R85-'No Model 65 MPH'!L85</f>
         <v>-1.4815219044018849E-4</v>
       </c>
     </row>
@@ -14223,10 +16664,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="S73" sqref="S73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14245,9 +16686,10 @@
     <col min="16" max="16" width="14.140625" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14302,8 +16744,11 @@
       <c r="R1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -14358,8 +16803,8 @@
         <v>2.3477523028427936E-5</v>
       </c>
       <c r="P2">
-        <f>O2-'No Model 65 MPH'!$O$12</f>
-        <v>6.7149266045478789E-6</v>
+        <f>O2-'No Model 65 MPH'!$P$12</f>
+        <v>6.8262845393083125E-6</v>
       </c>
       <c r="Q2">
         <f>F2/(M2*wing_area*wmac)</f>
@@ -14369,8 +16814,12 @@
         <f>Q2-deltaCmcgt</f>
         <v>-1.1388205716632299E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <f>R2-'No Model 65 MPH'!$Q$12</f>
+        <v>2.5553420740916544E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -14425,8 +16874,8 @@
         <v>2.3477523028427936E-5</v>
       </c>
       <c r="P3">
-        <f>O3-'No Model 65 MPH'!$O$12</f>
-        <v>6.7149266045478789E-6</v>
+        <f>O3-'No Model 65 MPH'!$P$12</f>
+        <v>6.8262845393083125E-6</v>
       </c>
       <c r="Q3">
         <f>F3/(M3*wing_area*wmac)</f>
@@ -14436,8 +16885,12 @@
         <f>Q3-deltaCmcgt</f>
         <v>-1.1388205716632299E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <f>R3-'No Model 65 MPH'!$Q$12</f>
+        <v>2.5553420740916544E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -14492,8 +16945,8 @@
         <v>2.3839143643794718E-5</v>
       </c>
       <c r="P4">
-        <f>O4-'No Model 65 MPH'!$O$12</f>
-        <v>7.0765472199146603E-6</v>
+        <f>O4-'No Model 65 MPH'!$P$12</f>
+        <v>7.1879051546750938E-6</v>
       </c>
       <c r="Q4">
         <f>F4/(M4*wing_area*wmac)</f>
@@ -14503,8 +16956,12 @@
         <f>Q4-deltaCmcgt</f>
         <v>-1.032307166748909E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <f>R4-'No Model 65 MPH'!$Q$12</f>
+        <v>3.6204761232348635E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -14559,8 +17016,8 @@
         <v>2.3839143643794718E-5</v>
       </c>
       <c r="P5">
-        <f>O5-'No Model 65 MPH'!$O$12</f>
-        <v>7.0765472199146603E-6</v>
+        <f>O5-'No Model 65 MPH'!$P$12</f>
+        <v>7.1879051546750938E-6</v>
       </c>
       <c r="Q5">
         <f>F5/(M5*wing_area*wmac)</f>
@@ -14570,8 +17027,12 @@
         <f>Q5-deltaCmcgt</f>
         <v>-1.032307166748909E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <f>R5-'No Model 65 MPH'!$Q$12</f>
+        <v>3.6204761232348635E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -14626,8 +17087,8 @@
         <v>2.3839143643794718E-5</v>
       </c>
       <c r="P6">
-        <f>O6-'No Model 65 MPH'!$O$12</f>
-        <v>7.0765472199146603E-6</v>
+        <f>O6-'No Model 65 MPH'!$P$12</f>
+        <v>7.1879051546750938E-6</v>
       </c>
       <c r="Q6">
         <f>F6/(M6*wing_area*wmac)</f>
@@ -14637,8 +17098,12 @@
         <f>Q6-deltaCmcgt</f>
         <v>-1.032307166748909E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <f>R6-'No Model 65 MPH'!$Q$12</f>
+        <v>3.6204761232348635E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-7.9809999999999999</v>
       </c>
@@ -14693,8 +17158,8 @@
         <v>2.5202175194023358E-5</v>
       </c>
       <c r="P7">
-        <f>O7-'No Model 65 MPH'!$O$8</f>
-        <v>2.4793331378806771E-5</v>
+        <f>O7-'No Model 65 MPH'!$P$8</f>
+        <v>2.479604742599605E-5</v>
       </c>
       <c r="Q7">
         <f>F7/(M7*wing_area*wmac)</f>
@@ -14704,8 +17169,12 @@
         <f>Q7-deltaCmcgt</f>
         <v>-1.5109240422167756E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <f>R7-'No Model 65 MPH'!$Q$8</f>
+        <v>-1.946713652792009E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-7.9809999999999999</v>
       </c>
@@ -14760,8 +17229,8 @@
         <v>2.5202175194023358E-5</v>
       </c>
       <c r="P8">
-        <f>O8-'No Model 65 MPH'!$O$8</f>
-        <v>2.4793331378806771E-5</v>
+        <f>O8-'No Model 65 MPH'!$P$8</f>
+        <v>2.479604742599605E-5</v>
       </c>
       <c r="Q8">
         <f>F8/(M8*wing_area*wmac)</f>
@@ -14771,8 +17240,12 @@
         <f>Q8-deltaCmcgt</f>
         <v>-1.5109240422167756E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <f>R8-'No Model 65 MPH'!$Q$8</f>
+        <v>-1.946713652792009E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-7.9980000000000002</v>
       </c>
@@ -14827,8 +17300,8 @@
         <v>2.5202175194023358E-5</v>
       </c>
       <c r="P9">
-        <f>O9-'No Model 65 MPH'!$O$8</f>
-        <v>2.4793331378806771E-5</v>
+        <f>O9-'No Model 65 MPH'!$P$8</f>
+        <v>2.479604742599605E-5</v>
       </c>
       <c r="Q9">
         <f>F9/(M9*wing_area*wmac)</f>
@@ -14838,8 +17311,12 @@
         <f>Q9-deltaCmcgt</f>
         <v>-1.3324308753876989E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <f>R9-'No Model 65 MPH'!$Q$8</f>
+        <v>-1.7682204859629323E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-7.9980000000000002</v>
       </c>
@@ -14894,8 +17371,8 @@
         <v>2.5202175194023358E-5</v>
       </c>
       <c r="P10">
-        <f>O10-'No Model 65 MPH'!$O$8</f>
-        <v>2.4793331378806771E-5</v>
+        <f>O10-'No Model 65 MPH'!$P$8</f>
+        <v>2.479604742599605E-5</v>
       </c>
       <c r="Q10">
         <f>F10/(M10*wing_area*wmac)</f>
@@ -14905,8 +17382,12 @@
         <f>Q10-deltaCmcgt</f>
         <v>-1.3324308753876989E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <f>R10-'No Model 65 MPH'!$Q$8</f>
+        <v>-1.7682204859629323E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-7.9980000000000002</v>
       </c>
@@ -14961,8 +17442,8 @@
         <v>2.5202175194023358E-5</v>
       </c>
       <c r="P11">
-        <f>O11-'No Model 65 MPH'!$O$8</f>
-        <v>2.4793331378806771E-5</v>
+        <f>O11-'No Model 65 MPH'!$P$8</f>
+        <v>2.479604742599605E-5</v>
       </c>
       <c r="Q11">
         <f>F11/(M11*wing_area*wmac)</f>
@@ -14972,8 +17453,12 @@
         <f>Q11-deltaCmcgt</f>
         <v>-1.3324308753876989E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <f>R11-'No Model 65 MPH'!$Q$8</f>
+        <v>-1.7682204859629323E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-6.0140000000000002</v>
       </c>
@@ -15028,8 +17513,8 @@
         <v>1.6662365277284756E-5</v>
       </c>
       <c r="P12">
-        <f>O12-'No Model 65 MPH'!$O$9</f>
-        <v>1.547503803309412E-5</v>
+        <f>O12-'No Model 65 MPH'!$P$9</f>
+        <v>1.5482925731780791E-5</v>
       </c>
       <c r="Q12">
         <f>F12/(M12*wing_area*wmac)</f>
@@ -15039,8 +17524,12 @@
         <f>Q12-deltaCmcgt</f>
         <v>-8.4410574686774568E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <f>R12-'No Model 65 MPH'!$Q$9</f>
+        <v>-1.1669745055142809E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-6.0140000000000002</v>
       </c>
@@ -15095,8 +17584,8 @@
         <v>1.6662365277284756E-5</v>
       </c>
       <c r="P13">
-        <f>O13-'No Model 65 MPH'!$O$9</f>
-        <v>1.547503803309412E-5</v>
+        <f>O13-'No Model 65 MPH'!$P$9</f>
+        <v>1.5482925731780791E-5</v>
       </c>
       <c r="Q13">
         <f>F13/(M13*wing_area*wmac)</f>
@@ -15106,8 +17595,12 @@
         <f>Q13-deltaCmcgt</f>
         <v>-8.4410574686774568E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <f>R13-'No Model 65 MPH'!$Q$9</f>
+        <v>-1.1669745055142809E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-6.0140000000000002</v>
       </c>
@@ -15162,8 +17655,8 @@
         <v>1.6662365277284756E-5</v>
       </c>
       <c r="P14">
-        <f>O14-'No Model 65 MPH'!$O$9</f>
-        <v>1.547503803309412E-5</v>
+        <f>O14-'No Model 65 MPH'!$P$9</f>
+        <v>1.5482925731780791E-5</v>
       </c>
       <c r="Q14">
         <f>F14/(M14*wing_area*wmac)</f>
@@ -15173,8 +17666,12 @@
         <f>Q14-deltaCmcgt</f>
         <v>-8.4410574686774568E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <f>R14-'No Model 65 MPH'!$Q$9</f>
+        <v>-1.1669745055142809E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.0019999999999998</v>
       </c>
@@ -15229,8 +17726,8 @@
         <v>1.8136664709164712E-5</v>
       </c>
       <c r="P15">
-        <f>O15-'No Model 65 MPH'!$O$9</f>
-        <v>1.6949337464974076E-5</v>
+        <f>O15-'No Model 65 MPH'!$P$9</f>
+        <v>1.6957225163660747E-5</v>
       </c>
       <c r="Q15">
         <f>F15/(M15*wing_area*wmac)</f>
@@ -15240,8 +17737,12 @@
         <f>Q15-deltaCmcgt</f>
         <v>-8.3106894991208667E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <f>R15-'No Model 65 MPH'!$Q$9</f>
+        <v>-1.1539377085586219E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.0019999999999998</v>
       </c>
@@ -15296,8 +17797,8 @@
         <v>1.8136664709164712E-5</v>
       </c>
       <c r="P16">
-        <f>O16-'No Model 65 MPH'!$O$9</f>
-        <v>1.6949337464974076E-5</v>
+        <f>O16-'No Model 65 MPH'!$P$9</f>
+        <v>1.6957225163660747E-5</v>
       </c>
       <c r="Q16">
         <f>F16/(M16*wing_area*wmac)</f>
@@ -15307,8 +17808,12 @@
         <f>Q16-deltaCmcgt</f>
         <v>-8.3106894991208667E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <f>R16-'No Model 65 MPH'!$Q$9</f>
+        <v>-1.1539377085586219E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.9990000000000001</v>
       </c>
@@ -15363,8 +17868,8 @@
         <v>1.8609553206182812E-5</v>
       </c>
       <c r="P17">
-        <f>O17-'No Model 65 MPH'!$O$10</f>
-        <v>1.3434598613578344E-5</v>
+        <f>O17-'No Model 65 MPH'!$P$10</f>
+        <v>1.3468977073891956E-5</v>
       </c>
       <c r="Q17">
         <f>F17/(M17*wing_area*wmac)</f>
@@ -15374,8 +17879,12 @@
         <f>Q17-deltaCmcgt</f>
         <v>-9.2385211122417079E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <f>R17-'No Model 65 MPH'!$Q$10</f>
+        <v>-1.1860304193622336E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3.9990000000000001</v>
       </c>
@@ -15430,8 +17939,8 @@
         <v>1.8609553206182812E-5</v>
       </c>
       <c r="P18">
-        <f>O18-'No Model 65 MPH'!$O$10</f>
-        <v>1.3434598613578344E-5</v>
+        <f>O18-'No Model 65 MPH'!$P$10</f>
+        <v>1.3468977073891956E-5</v>
       </c>
       <c r="Q18">
         <f>F18/(M18*wing_area*wmac)</f>
@@ -15441,8 +17950,12 @@
         <f>Q18-deltaCmcgt</f>
         <v>-9.2385211122417079E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <f>R18-'No Model 65 MPH'!$Q$10</f>
+        <v>-1.1860304193622336E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.9990000000000001</v>
       </c>
@@ -15497,8 +18010,8 @@
         <v>1.8609553206182812E-5</v>
       </c>
       <c r="P19">
-        <f>O19-'No Model 65 MPH'!$O$10</f>
-        <v>1.3434598613578344E-5</v>
+        <f>O19-'No Model 65 MPH'!$P$10</f>
+        <v>1.3468977073891956E-5</v>
       </c>
       <c r="Q19">
         <f>F19/(M19*wing_area*wmac)</f>
@@ -15508,8 +18021,12 @@
         <f>Q19-deltaCmcgt</f>
         <v>-9.2385211122417079E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <f>R19-'No Model 65 MPH'!$Q$10</f>
+        <v>-1.1860304193622336E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.9929999999999999</v>
       </c>
@@ -15564,8 +18081,8 @@
         <v>1.8359200472467347E-5</v>
       </c>
       <c r="P20">
-        <f>O20-'No Model 65 MPH'!$O$10</f>
-        <v>1.3184245879862878E-5</v>
+        <f>O20-'No Model 65 MPH'!$P$10</f>
+        <v>1.321862434017649E-5</v>
       </c>
       <c r="Q20">
         <f>F20/(M20*wing_area*wmac)</f>
@@ -15575,8 +18092,12 @@
         <f>Q20-deltaCmcgt</f>
         <v>-9.3466987891078162E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <f>R20-'No Model 65 MPH'!$Q$10</f>
+        <v>-1.1968481870488445E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.9929999999999999</v>
       </c>
@@ -15631,8 +18152,8 @@
         <v>1.8359200472467347E-5</v>
       </c>
       <c r="P21">
-        <f>O21-'No Model 65 MPH'!$O$10</f>
-        <v>1.3184245879862878E-5</v>
+        <f>O21-'No Model 65 MPH'!$P$10</f>
+        <v>1.321862434017649E-5</v>
       </c>
       <c r="Q21">
         <f>F21/(M21*wing_area*wmac)</f>
@@ -15642,8 +18163,12 @@
         <f>Q21-deltaCmcgt</f>
         <v>-9.3466987891078162E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <f>R21-'No Model 65 MPH'!$Q$10</f>
+        <v>-1.1968481870488445E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.976</v>
       </c>
@@ -15698,8 +18223,8 @@
         <v>1.927716049609071E-5</v>
       </c>
       <c r="P22">
-        <f>O22-'No Model 65 MPH'!$O$11</f>
-        <v>1.2550839645746589E-5</v>
+        <f>O22-'No Model 65 MPH'!$P$11</f>
+        <v>1.259552420292911E-5</v>
       </c>
       <c r="Q22">
         <f>F22/(M22*wing_area*wmac)</f>
@@ -15709,8 +18234,12 @@
         <f>Q22-deltaCmcgt</f>
         <v>-1.0776585774350847E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <f>R22-'No Model 65 MPH'!$Q$11</f>
+        <v>-1.0338050115055167E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.976</v>
       </c>
@@ -15765,8 +18294,8 @@
         <v>1.927716049609071E-5</v>
       </c>
       <c r="P23">
-        <f>O23-'No Model 65 MPH'!$O$11</f>
-        <v>1.2550839645746589E-5</v>
+        <f>O23-'No Model 65 MPH'!$P$11</f>
+        <v>1.259552420292911E-5</v>
       </c>
       <c r="Q23">
         <f>F23/(M23*wing_area*wmac)</f>
@@ -15776,8 +18305,12 @@
         <f>Q23-deltaCmcgt</f>
         <v>-1.0776585774350847E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <f>R23-'No Model 65 MPH'!$Q$11</f>
+        <v>-1.0338050115055167E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.976</v>
       </c>
@@ -15832,8 +18365,8 @@
         <v>1.927716049609071E-5</v>
       </c>
       <c r="P24">
-        <f>O24-'No Model 65 MPH'!$O$11</f>
-        <v>1.2550839645746589E-5</v>
+        <f>O24-'No Model 65 MPH'!$P$11</f>
+        <v>1.259552420292911E-5</v>
       </c>
       <c r="Q24">
         <f>F24/(M24*wing_area*wmac)</f>
@@ -15843,8 +18376,12 @@
         <f>Q24-deltaCmcgt</f>
         <v>-1.0776585774350847E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <f>R24-'No Model 65 MPH'!$Q$11</f>
+        <v>-1.0338050115055167E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.966</v>
       </c>
@@ -15899,8 +18436,8 @@
         <v>1.9444062318567687E-5</v>
       </c>
       <c r="P25">
-        <f>O25-'No Model 65 MPH'!$O$11</f>
-        <v>1.2717741468223566E-5</v>
+        <f>O25-'No Model 65 MPH'!$P$11</f>
+        <v>1.2762426025406087E-5</v>
       </c>
       <c r="Q25">
         <f>F25/(M25*wing_area*wmac)</f>
@@ -15910,8 +18447,12 @@
         <f>Q25-deltaCmcgt</f>
         <v>-1.0597676539533824E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <f>R25-'No Model 65 MPH'!$Q$11</f>
+        <v>-1.0159140880238144E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.966</v>
       </c>
@@ -15966,8 +18507,8 @@
         <v>1.9444062318567687E-5</v>
       </c>
       <c r="P26">
-        <f>O26-'No Model 65 MPH'!$O$11</f>
-        <v>1.2717741468223566E-5</v>
+        <f>O26-'No Model 65 MPH'!$P$11</f>
+        <v>1.2762426025406087E-5</v>
       </c>
       <c r="Q26">
         <f>F26/(M26*wing_area*wmac)</f>
@@ -15977,8 +18518,12 @@
         <f>Q26-deltaCmcgt</f>
         <v>-1.0597676539533824E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <f>R26-'No Model 65 MPH'!$Q$11</f>
+        <v>-1.0159140880238144E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -16033,8 +18578,8 @@
         <v>1.9972584756411446E-5</v>
       </c>
       <c r="P27">
-        <f>O27-'No Model 65 MPH'!$O$12</f>
-        <v>3.209988332531388E-6</v>
+        <f>O27-'No Model 65 MPH'!$P$12</f>
+        <v>3.3213462672918216E-6</v>
       </c>
       <c r="Q27">
         <f>F27/(M27*wing_area*wmac)</f>
@@ -16044,8 +18589,12 @@
         <f>Q27-deltaCmcgt</f>
         <v>-1.3873518497966455E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <f>R27-'No Model 65 MPH'!$Q$12</f>
+        <v>7.0029292757498138E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -16100,8 +18649,8 @@
         <v>1.9972584756411446E-5</v>
       </c>
       <c r="P28">
-        <f>O28-'No Model 65 MPH'!$O$12</f>
-        <v>3.209988332531388E-6</v>
+        <f>O28-'No Model 65 MPH'!$P$12</f>
+        <v>3.3213462672918216E-6</v>
       </c>
       <c r="Q28">
         <f>F28/(M28*wing_area*wmac)</f>
@@ -16111,8 +18660,12 @@
         <f>Q28-deltaCmcgt</f>
         <v>-1.3873518497966455E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <f>R28-'No Model 65 MPH'!$Q$12</f>
+        <v>7.0029292757498138E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -16167,8 +18720,8 @@
         <v>1.9972584756411446E-5</v>
       </c>
       <c r="P29">
-        <f>O29-'No Model 65 MPH'!$O$12</f>
-        <v>3.209988332531388E-6</v>
+        <f>O29-'No Model 65 MPH'!$P$12</f>
+        <v>3.3213462672918216E-6</v>
       </c>
       <c r="Q29">
         <f>F29/(M29*wing_area*wmac)</f>
@@ -16178,8 +18731,12 @@
         <f>Q29-deltaCmcgt</f>
         <v>-1.3873518497966455E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <f>R29-'No Model 65 MPH'!$Q$12</f>
+        <v>7.0029292757498138E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -16234,8 +18791,8 @@
         <v>1.9972584756411446E-5</v>
       </c>
       <c r="P30">
-        <f>O30-'No Model 65 MPH'!$O$12</f>
-        <v>3.209988332531388E-6</v>
+        <f>O30-'No Model 65 MPH'!$P$12</f>
+        <v>3.3213462672918216E-6</v>
       </c>
       <c r="Q30">
         <f>F30/(M30*wing_area*wmac)</f>
@@ -16245,8 +18802,12 @@
         <f>Q30-deltaCmcgt</f>
         <v>-1.3873518497966455E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <f>R30-'No Model 65 MPH'!$Q$12</f>
+        <v>7.0029292757498138E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -16301,8 +18862,8 @@
         <v>1.9332794436916371E-5</v>
       </c>
       <c r="P31">
-        <f>O31-'No Model 65 MPH'!$O$12</f>
-        <v>2.5701980130363139E-6</v>
+        <f>O31-'No Model 65 MPH'!$P$12</f>
+        <v>2.6815559477967474E-6</v>
       </c>
       <c r="Q31">
         <f>F31/(M31*wing_area*wmac)</f>
@@ -16312,8 +18873,12 @@
         <f>Q31-deltaCmcgt</f>
         <v>-1.330350535447966E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <f>R31-'No Model 65 MPH'!$Q$12</f>
+        <v>6.4004243624429379E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.966</v>
       </c>
@@ -16368,8 +18933,8 @@
         <v>2.2726464827281547E-5</v>
       </c>
       <c r="P32">
-        <f>O32-'No Model 65 MPH'!$O$13</f>
-        <v>7.4928322603073495E-6</v>
+        <f>O32-'No Model 65 MPH'!$P$13</f>
+        <v>7.5940329227024015E-6</v>
       </c>
       <c r="Q32">
         <f>F32/(M32*wing_area*wmac)</f>
@@ -16379,8 +18944,12 @@
         <f>Q32-deltaCmcgt</f>
         <v>-1.5530855983286943E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <f>R32-'No Model 65 MPH'!$Q$13</f>
+        <v>-7.1542978712880448E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.0270000000000001</v>
       </c>
@@ -16435,8 +19004,8 @@
         <v>2.1725053892419694E-5</v>
       </c>
       <c r="P33">
-        <f>O33-'No Model 65 MPH'!$O$13</f>
-        <v>6.4914213254454974E-6</v>
+        <f>O33-'No Model 65 MPH'!$P$13</f>
+        <v>6.5926219878405494E-6</v>
       </c>
       <c r="Q33">
         <f>F33/(M33*wing_area*wmac)</f>
@@ -16446,8 +19015,12 @@
         <f>Q33-deltaCmcgt</f>
         <v>-1.4651565635426535E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <f>R33-'No Model 65 MPH'!$Q$13</f>
+        <v>-6.2750075234276363E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.0270000000000001</v>
       </c>
@@ -16502,8 +19075,8 @@
         <v>2.1725053892419694E-5</v>
       </c>
       <c r="P34">
-        <f>O34-'No Model 65 MPH'!$O$13</f>
-        <v>6.4914213254454974E-6</v>
+        <f>O34-'No Model 65 MPH'!$P$13</f>
+        <v>6.5926219878405494E-6</v>
       </c>
       <c r="Q34">
         <f>F34/(M34*wing_area*wmac)</f>
@@ -16513,8 +19086,12 @@
         <f>Q34-deltaCmcgt</f>
         <v>-1.4651565635426535E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <f>R34-'No Model 65 MPH'!$Q$13</f>
+        <v>-6.2750075234276363E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.0270000000000001</v>
       </c>
@@ -16569,8 +19146,8 @@
         <v>2.1725053892419694E-5</v>
       </c>
       <c r="P35">
-        <f>O35-'No Model 65 MPH'!$O$13</f>
-        <v>6.4914213254454974E-6</v>
+        <f>O35-'No Model 65 MPH'!$P$13</f>
+        <v>6.5926219878405494E-6</v>
       </c>
       <c r="Q35">
         <f>F35/(M35*wing_area*wmac)</f>
@@ -16580,8 +19157,12 @@
         <f>Q35-deltaCmcgt</f>
         <v>-1.4651565635426535E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <f>R35-'No Model 65 MPH'!$Q$13</f>
+        <v>-6.2750075234276363E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.0270000000000001</v>
       </c>
@@ -16636,8 +19217,8 @@
         <v>2.1725053892419694E-5</v>
       </c>
       <c r="P36">
-        <f>O36-'No Model 65 MPH'!$O$13</f>
-        <v>6.4914213254454974E-6</v>
+        <f>O36-'No Model 65 MPH'!$P$13</f>
+        <v>6.5926219878405494E-6</v>
       </c>
       <c r="Q36">
         <f>F36/(M36*wing_area*wmac)</f>
@@ -16647,8 +19228,12 @@
         <f>Q36-deltaCmcgt</f>
         <v>-1.4651565635426535E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <f>R36-'No Model 65 MPH'!$Q$13</f>
+        <v>-6.2750075234276363E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.976</v>
       </c>
@@ -16703,8 +19288,8 @@
         <v>2.7038095241270089E-5</v>
       </c>
       <c r="P37">
-        <f>O37-'No Model 65 MPH'!$O$14</f>
-        <v>9.1889823769514307E-6</v>
+        <f>O37-'No Model 65 MPH'!$P$14</f>
+        <v>9.3075583001326847E-6</v>
       </c>
       <c r="Q37">
         <f>F37/(M37*wing_area*wmac)</f>
@@ -16714,8 +19299,12 @@
         <f>Q37-deltaCmcgt</f>
         <v>-1.9459924682795683E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <f>R37-'No Model 65 MPH'!$Q$14</f>
+        <v>-1.1468922906293935E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.976</v>
       </c>
@@ -16770,8 +19359,8 @@
         <v>2.7038095241270089E-5</v>
       </c>
       <c r="P38">
-        <f>O38-'No Model 65 MPH'!$O$14</f>
-        <v>9.1889823769514307E-6</v>
+        <f>O38-'No Model 65 MPH'!$P$14</f>
+        <v>9.3075583001326847E-6</v>
       </c>
       <c r="Q38">
         <f>F38/(M38*wing_area*wmac)</f>
@@ -16781,8 +19370,12 @@
         <f>Q38-deltaCmcgt</f>
         <v>-1.9459924682795683E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <f>R38-'No Model 65 MPH'!$Q$14</f>
+        <v>-1.1468922906293935E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.976</v>
       </c>
@@ -16837,8 +19430,8 @@
         <v>2.7038095241270089E-5</v>
       </c>
       <c r="P39">
-        <f>O39-'No Model 65 MPH'!$O$14</f>
-        <v>9.1889823769514307E-6</v>
+        <f>O39-'No Model 65 MPH'!$P$14</f>
+        <v>9.3075583001326847E-6</v>
       </c>
       <c r="Q39">
         <f>F39/(M39*wing_area*wmac)</f>
@@ -16848,8 +19441,12 @@
         <f>Q39-deltaCmcgt</f>
         <v>-1.9459924682795683E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <f>R39-'No Model 65 MPH'!$Q$14</f>
+        <v>-1.1468922906293935E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.0709999999999997</v>
       </c>
@@ -16904,8 +19501,8 @@
         <v>2.6843376448380284E-5</v>
       </c>
       <c r="P40">
-        <f>O40-'No Model 65 MPH'!$O$14</f>
-        <v>8.9942635840616264E-6</v>
+        <f>O40-'No Model 65 MPH'!$P$14</f>
+        <v>9.1128395072428804E-6</v>
       </c>
       <c r="Q40">
         <f>F40/(M40*wing_area*wmac)</f>
@@ -16915,8 +19512,12 @@
         <f>Q40-deltaCmcgt</f>
         <v>-1.8647205213006724E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <f>R40-'No Model 65 MPH'!$Q$14</f>
+        <v>-1.0656203436504976E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4.0709999999999997</v>
       </c>
@@ -16971,8 +19572,8 @@
         <v>2.6843376448380284E-5</v>
       </c>
       <c r="P41">
-        <f>O41-'No Model 65 MPH'!$O$14</f>
-        <v>8.9942635840616264E-6</v>
+        <f>O41-'No Model 65 MPH'!$P$14</f>
+        <v>9.1128395072428804E-6</v>
       </c>
       <c r="Q41">
         <f>F41/(M41*wing_area*wmac)</f>
@@ -16982,8 +19583,12 @@
         <f>Q41-deltaCmcgt</f>
         <v>-1.8647205213006724E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <f>R41-'No Model 65 MPH'!$Q$14</f>
+        <v>-1.0656203436504976E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.9749999999999996</v>
       </c>
@@ -17038,8 +19643,8 @@
         <v>2.9346903785534923E-5</v>
       </c>
       <c r="P42">
-        <f>O42-'No Model 65 MPH'!$O$15</f>
-        <v>8.5014698096974409E-6</v>
+        <f>O42-'No Model 65 MPH'!$P$15</f>
+        <v>8.6399510102247833E-6</v>
       </c>
       <c r="Q42">
         <f>F42/(M42*wing_area*wmac)</f>
@@ -17049,8 +19654,12 @@
         <f>Q42-deltaCmcgt</f>
         <v>-1.8652752786179344E-4</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <f>R42-'No Model 65 MPH'!$Q$15</f>
+        <v>-3.380006463295427E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.9749999999999996</v>
       </c>
@@ -17105,8 +19714,8 @@
         <v>2.9346903785534923E-5</v>
       </c>
       <c r="P43">
-        <f>O43-'No Model 65 MPH'!$O$15</f>
-        <v>8.5014698096974409E-6</v>
+        <f>O43-'No Model 65 MPH'!$P$15</f>
+        <v>8.6399510102247833E-6</v>
       </c>
       <c r="Q43">
         <f>F43/(M43*wing_area*wmac)</f>
@@ -17116,8 +19725,12 @@
         <f>Q43-deltaCmcgt</f>
         <v>-1.8652752786179344E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <f>R43-'No Model 65 MPH'!$Q$15</f>
+        <v>-3.380006463295427E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.9749999999999996</v>
       </c>
@@ -17172,8 +19785,8 @@
         <v>2.9346903785534923E-5</v>
       </c>
       <c r="P44">
-        <f>O44-'No Model 65 MPH'!$O$15</f>
-        <v>8.5014698096974409E-6</v>
+        <f>O44-'No Model 65 MPH'!$P$15</f>
+        <v>8.6399510102247833E-6</v>
       </c>
       <c r="Q44">
         <f>F44/(M44*wing_area*wmac)</f>
@@ -17183,8 +19796,12 @@
         <f>Q44-deltaCmcgt</f>
         <v>-1.8652752786179344E-4</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <f>R44-'No Model 65 MPH'!$Q$15</f>
+        <v>-3.380006463295427E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.9960000000000004</v>
       </c>
@@ -17239,8 +19856,8 @@
         <v>2.739971585663687E-5</v>
       </c>
       <c r="P45">
-        <f>O45-'No Model 65 MPH'!$O$15</f>
-        <v>6.5542818807993878E-6</v>
+        <f>O45-'No Model 65 MPH'!$P$15</f>
+        <v>6.6927630813267302E-6</v>
       </c>
       <c r="Q45">
         <f>F45/(M45*wing_area*wmac)</f>
@@ -17250,8 +19867,12 @@
         <f>Q45-deltaCmcgt</f>
         <v>-1.9409996524242097E-4</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <f>R45-'No Model 65 MPH'!$Q$15</f>
+        <v>-4.1372502013581797E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.9960000000000004</v>
       </c>
@@ -17306,8 +19927,8 @@
         <v>2.739971585663687E-5</v>
       </c>
       <c r="P46">
-        <f>O46-'No Model 65 MPH'!$O$15</f>
-        <v>6.5542818807993878E-6</v>
+        <f>O46-'No Model 65 MPH'!$P$15</f>
+        <v>6.6927630813267302E-6</v>
       </c>
       <c r="Q46">
         <f>F46/(M46*wing_area*wmac)</f>
@@ -17317,8 +19938,12 @@
         <f>Q46-deltaCmcgt</f>
         <v>-1.9409996524242097E-4</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <f>R46-'No Model 65 MPH'!$Q$15</f>
+        <v>-4.1372502013581797E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8.0299999999999994</v>
       </c>
@@ -17373,8 +19998,8 @@
         <v>3.3936703903651758E-5</v>
       </c>
       <c r="P47">
-        <f>O47-'No Model 65 MPH'!$O$16</f>
-        <v>8.1851441452152346E-6</v>
+        <f>O47-'No Model 65 MPH'!$P$16</f>
+        <v>8.3562179120139264E-6</v>
       </c>
       <c r="Q47">
         <f>F47/(M47*wing_area*wmac)</f>
@@ -17384,8 +20009,12 @@
         <f>Q47-deltaCmcgt</f>
         <v>-2.2855039464439664E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <f>R47-'No Model 65 MPH'!$Q$16</f>
+        <v>-1.096298423295091E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8.0299999999999994</v>
       </c>
@@ -17440,8 +20069,8 @@
         <v>3.3936703903651758E-5</v>
       </c>
       <c r="P48">
-        <f>O48-'No Model 65 MPH'!$O$16</f>
-        <v>8.1851441452152346E-6</v>
+        <f>O48-'No Model 65 MPH'!$P$16</f>
+        <v>8.3562179120139264E-6</v>
       </c>
       <c r="Q48">
         <f>F48/(M48*wing_area*wmac)</f>
@@ -17451,8 +20080,12 @@
         <f>Q48-deltaCmcgt</f>
         <v>-2.2855039464439664E-4</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <f>R48-'No Model 65 MPH'!$Q$16</f>
+        <v>-1.096298423295091E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8.0299999999999994</v>
       </c>
@@ -17507,8 +20140,8 @@
         <v>3.3936703903651758E-5</v>
       </c>
       <c r="P49">
-        <f>O49-'No Model 65 MPH'!$O$16</f>
-        <v>8.1851441452152346E-6</v>
+        <f>O49-'No Model 65 MPH'!$P$16</f>
+        <v>8.3562179120139264E-6</v>
       </c>
       <c r="Q49">
         <f>F49/(M49*wing_area*wmac)</f>
@@ -17518,8 +20151,12 @@
         <f>Q49-deltaCmcgt</f>
         <v>-2.2855039464439664E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <f>R49-'No Model 65 MPH'!$Q$16</f>
+        <v>-1.096298423295091E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8.0310000000000006</v>
       </c>
@@ -17574,8 +20211,8 @@
         <v>3.5828257891724153E-5</v>
       </c>
       <c r="P50">
-        <f>O50-'No Model 65 MPH'!$O$16</f>
-        <v>1.007669813328763E-5</v>
+        <f>O50-'No Model 65 MPH'!$P$16</f>
+        <v>1.0247771900086322E-5</v>
       </c>
       <c r="Q50">
         <f>F50/(M50*wing_area*wmac)</f>
@@ -17585,8 +20222,12 @@
         <f>Q50-deltaCmcgt</f>
         <v>-2.3927107980048647E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <f>R50-'No Model 65 MPH'!$Q$16</f>
+        <v>-1.2035052748559893E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8.0310000000000006</v>
       </c>
@@ -17641,8 +20282,8 @@
         <v>3.5828257891724153E-5</v>
       </c>
       <c r="P51">
-        <f>O51-'No Model 65 MPH'!$O$16</f>
-        <v>1.007669813328763E-5</v>
+        <f>O51-'No Model 65 MPH'!$P$16</f>
+        <v>1.0247771900086322E-5</v>
       </c>
       <c r="Q51">
         <f>F51/(M51*wing_area*wmac)</f>
@@ -17652,8 +20293,12 @@
         <f>Q51-deltaCmcgt</f>
         <v>-2.3927107980048647E-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <f>R51-'No Model 65 MPH'!$Q$16</f>
+        <v>-1.2035052748559893E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9.984</v>
       </c>
@@ -17708,8 +20353,8 @@
         <v>3.8025798554337669E-5</v>
       </c>
       <c r="P52">
-        <f>O52-'No Model 65 MPH'!$O$17</f>
-        <v>1.4139238665313794E-5</v>
+        <f>O52-'No Model 65 MPH'!$P$17</f>
+        <v>1.4297922792194263E-5</v>
       </c>
       <c r="Q52">
         <f>F52/(M52*wing_area*wmac)</f>
@@ -17719,8 +20364,12 @@
         <f>Q52-deltaCmcgt</f>
         <v>-2.6584395529734051E-4</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <f>R52-'No Model 65 MPH'!$Q$17</f>
+        <v>-8.4018777331458229E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9.984</v>
       </c>
@@ -17775,8 +20424,8 @@
         <v>3.8025798554337669E-5</v>
       </c>
       <c r="P53">
-        <f>O53-'No Model 65 MPH'!$O$17</f>
-        <v>1.4139238665313794E-5</v>
+        <f>O53-'No Model 65 MPH'!$P$17</f>
+        <v>1.4297922792194263E-5</v>
       </c>
       <c r="Q53">
         <f>F53/(M53*wing_area*wmac)</f>
@@ -17786,8 +20435,12 @@
         <f>Q53-deltaCmcgt</f>
         <v>-2.6584395529734051E-4</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <f>R53-'No Model 65 MPH'!$Q$17</f>
+        <v>-8.4018777331458229E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9.984</v>
       </c>
@@ -17842,8 +20495,8 @@
         <v>3.8025798554337669E-5</v>
       </c>
       <c r="P54">
-        <f>O54-'No Model 65 MPH'!$O$17</f>
-        <v>1.4139238665313794E-5</v>
+        <f>O54-'No Model 65 MPH'!$P$17</f>
+        <v>1.4297922792194263E-5</v>
       </c>
       <c r="Q54">
         <f>F54/(M54*wing_area*wmac)</f>
@@ -17853,8 +20506,12 @@
         <f>Q54-deltaCmcgt</f>
         <v>-2.6584395529734051E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <f>R54-'No Model 65 MPH'!$Q$17</f>
+        <v>-8.4018777331458229E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9.984</v>
       </c>
@@ -17909,8 +20566,8 @@
         <v>3.8025798554337669E-5</v>
       </c>
       <c r="P55">
-        <f>O55-'No Model 65 MPH'!$O$17</f>
-        <v>1.4139238665313794E-5</v>
+        <f>O55-'No Model 65 MPH'!$P$17</f>
+        <v>1.4297922792194263E-5</v>
       </c>
       <c r="Q55">
         <f>F55/(M55*wing_area*wmac)</f>
@@ -17920,8 +20577,12 @@
         <f>Q55-deltaCmcgt</f>
         <v>-2.6584395529734051E-4</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <f>R55-'No Model 65 MPH'!$Q$17</f>
+        <v>-8.4018777331458229E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10.005000000000001</v>
       </c>
@@ -17976,8 +20637,8 @@
         <v>3.7024387619475813E-5</v>
       </c>
       <c r="P56">
-        <f>O56-'No Model 65 MPH'!$O$17</f>
-        <v>1.3137827730451939E-5</v>
+        <f>O56-'No Model 65 MPH'!$P$17</f>
+        <v>1.3296511857332408E-5</v>
       </c>
       <c r="Q56">
         <f>F56/(M56*wing_area*wmac)</f>
@@ -17987,8 +20648,12 @@
         <f>Q56-deltaCmcgt</f>
         <v>-2.5376411471395851E-4</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <f>R56-'No Model 65 MPH'!$Q$17</f>
+        <v>-7.1938936748076231E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11.971</v>
       </c>
@@ -18043,8 +20708,8 @@
         <v>4.2949402317408458E-5</v>
       </c>
       <c r="P57">
-        <f>O57-'No Model 65 MPH'!$O$18</f>
-        <v>9.1777830604766945E-6</v>
+        <f>O57-'No Model 65 MPH'!$P$18</f>
+        <v>9.4021359995363082E-6</v>
       </c>
       <c r="Q57">
         <f>F57/(M57*wing_area*wmac)</f>
@@ -18054,8 +20719,12 @@
         <f>Q57-deltaCmcgt</f>
         <v>-3.0893472991567317E-4</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <f>R57-'No Model 65 MPH'!$Q$18</f>
+        <v>-3.0413271211069196E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11.971</v>
       </c>
@@ -18110,8 +20779,8 @@
         <v>4.2949402317408458E-5</v>
       </c>
       <c r="P58">
-        <f>O58-'No Model 65 MPH'!$O$18</f>
-        <v>9.1777830604766945E-6</v>
+        <f>O58-'No Model 65 MPH'!$P$18</f>
+        <v>9.4021359995363082E-6</v>
       </c>
       <c r="Q58">
         <f>F58/(M58*wing_area*wmac)</f>
@@ -18121,8 +20790,12 @@
         <f>Q58-deltaCmcgt</f>
         <v>-3.0893472991567317E-4</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <f>R58-'No Model 65 MPH'!$Q$18</f>
+        <v>-3.0413271211069196E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11.971</v>
       </c>
@@ -18177,8 +20850,8 @@
         <v>4.2949402317408458E-5</v>
       </c>
       <c r="P59">
-        <f>O59-'No Model 65 MPH'!$O$18</f>
-        <v>9.1777830604766945E-6</v>
+        <f>O59-'No Model 65 MPH'!$P$18</f>
+        <v>9.4021359995363082E-6</v>
       </c>
       <c r="Q59">
         <f>F59/(M59*wing_area*wmac)</f>
@@ -18188,8 +20861,12 @@
         <f>Q59-deltaCmcgt</f>
         <v>-3.0893472991567317E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <f>R59-'No Model 65 MPH'!$Q$18</f>
+        <v>-3.0413271211069196E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11.988</v>
       </c>
@@ -18244,8 +20921,8 @@
         <v>4.2921585346995624E-5</v>
       </c>
       <c r="P60">
-        <f>O60-'No Model 65 MPH'!$O$18</f>
-        <v>9.1499660900638604E-6</v>
+        <f>O60-'No Model 65 MPH'!$P$18</f>
+        <v>9.3743190291234742E-6</v>
       </c>
       <c r="Q60">
         <f>F60/(M60*wing_area*wmac)</f>
@@ -18255,8 +20932,12 @@
         <f>Q60-deltaCmcgt</f>
         <v>-3.0807485607391692E-4</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <f>R60-'No Model 65 MPH'!$Q$18</f>
+        <v>-2.9553397369312944E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11.988</v>
       </c>
@@ -18311,8 +20992,8 @@
         <v>4.2921585346995624E-5</v>
       </c>
       <c r="P61">
-        <f>O61-'No Model 65 MPH'!$O$18</f>
-        <v>9.1499660900638604E-6</v>
+        <f>O61-'No Model 65 MPH'!$P$18</f>
+        <v>9.3743190291234742E-6</v>
       </c>
       <c r="Q61">
         <f>F61/(M61*wing_area*wmac)</f>
@@ -18322,8 +21003,12 @@
         <f>Q61-deltaCmcgt</f>
         <v>-3.0807485607391692E-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <f>R61-'No Model 65 MPH'!$Q$18</f>
+        <v>-2.9553397369312944E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13.962999999999999</v>
       </c>
@@ -18378,8 +21063,8 @@
         <v>4.7845189110066413E-5</v>
       </c>
       <c r="P62">
-        <f>O62-'No Model 65 MPH'!$O$19</f>
-        <v>1.6425821940682135E-5</v>
+        <f>O62-'No Model 65 MPH'!$P$19</f>
+        <v>1.6634548306871922E-5</v>
       </c>
       <c r="Q62">
         <f>F62/(M62*wing_area*wmac)</f>
@@ -18389,8 +21074,12 @@
         <f>Q62-deltaCmcgt</f>
         <v>-3.3009872156922182E-4</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <f>R62-'No Model 65 MPH'!$Q$19</f>
+        <v>-5.9307806080665087E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13.962999999999999</v>
       </c>
@@ -18445,8 +21134,8 @@
         <v>4.7845189110066413E-5</v>
       </c>
       <c r="P63">
-        <f>O63-'No Model 65 MPH'!$O$19</f>
-        <v>1.6425821940682135E-5</v>
+        <f>O63-'No Model 65 MPH'!$P$19</f>
+        <v>1.6634548306871922E-5</v>
       </c>
       <c r="Q63">
         <f>F63/(M63*wing_area*wmac)</f>
@@ -18456,8 +21145,12 @@
         <f>Q63-deltaCmcgt</f>
         <v>-3.3009872156922182E-4</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <f>R63-'No Model 65 MPH'!$Q$19</f>
+        <v>-5.9307806080665087E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13.962999999999999</v>
       </c>
@@ -18512,8 +21205,8 @@
         <v>4.7845189110066413E-5</v>
       </c>
       <c r="P64">
-        <f>O64-'No Model 65 MPH'!$O$19</f>
-        <v>1.6425821940682135E-5</v>
+        <f>O64-'No Model 65 MPH'!$P$19</f>
+        <v>1.6634548306871922E-5</v>
       </c>
       <c r="Q64">
         <f>F64/(M64*wing_area*wmac)</f>
@@ -18523,8 +21216,12 @@
         <f>Q64-deltaCmcgt</f>
         <v>-3.3009872156922182E-4</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <f>R64-'No Model 65 MPH'!$Q$19</f>
+        <v>-5.9307806080665087E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13.976000000000001</v>
       </c>
@@ -18579,8 +21276,8 @@
         <v>4.7650470317176615E-5</v>
       </c>
       <c r="P65">
-        <f>O65-'No Model 65 MPH'!$O$19</f>
-        <v>1.6231103147792337E-5</v>
+        <f>O65-'No Model 65 MPH'!$P$19</f>
+        <v>1.6439829513982124E-5</v>
       </c>
       <c r="Q65">
         <f>F65/(M65*wing_area*wmac)</f>
@@ -18590,8 +21287,12 @@
         <f>Q65-deltaCmcgt</f>
         <v>-3.3735217349242363E-4</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <f>R65-'No Model 65 MPH'!$Q$19</f>
+        <v>-6.6561258003866889E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13.976000000000001</v>
       </c>
@@ -18646,8 +21347,8 @@
         <v>4.7650470317176615E-5</v>
       </c>
       <c r="P66">
-        <f>O66-'No Model 65 MPH'!$O$19</f>
-        <v>1.6231103147792337E-5</v>
+        <f>O66-'No Model 65 MPH'!$P$19</f>
+        <v>1.6439829513982124E-5</v>
       </c>
       <c r="Q66">
         <f>F66/(M66*wing_area*wmac)</f>
@@ -18657,8 +21358,12 @@
         <f>Q66-deltaCmcgt</f>
         <v>-3.3735217349242363E-4</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <f>R66-'No Model 65 MPH'!$Q$19</f>
+        <v>-6.6561258003866889E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>16</v>
       </c>
@@ -18713,8 +21418,8 @@
         <v>5.8443454837354381E-5</v>
       </c>
       <c r="P67">
-        <f>O67-'No Model 65 MPH'!$O$20</f>
-        <v>2.0093344910017687E-5</v>
+        <f>O67-'No Model 65 MPH'!$P$20</f>
+        <v>2.0348113856984641E-5</v>
       </c>
       <c r="Q67">
         <f>F67/(M67*wing_area*wmac)</f>
@@ -18724,8 +21429,12 @@
         <f>Q67-deltaCmcgt</f>
         <v>-3.7495085066986168E-4</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <f>R67-'No Model 65 MPH'!$Q$20</f>
+        <v>-1.1130243564105429E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16</v>
       </c>
@@ -18780,8 +21489,8 @@
         <v>5.8443454837354381E-5</v>
       </c>
       <c r="P68">
-        <f>O68-'No Model 65 MPH'!$O$20</f>
-        <v>2.0093344910017687E-5</v>
+        <f>O68-'No Model 65 MPH'!$P$20</f>
+        <v>2.0348113856984641E-5</v>
       </c>
       <c r="Q68">
         <f>F68/(M68*wing_area*wmac)</f>
@@ -18791,8 +21500,12 @@
         <f>Q68-deltaCmcgt</f>
         <v>-3.7495085066986168E-4</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <f>R68-'No Model 65 MPH'!$Q$20</f>
+        <v>-1.1130243564105429E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
@@ -18847,8 +21560,8 @@
         <v>5.8443454837354381E-5</v>
       </c>
       <c r="P69">
-        <f>O69-'No Model 65 MPH'!$O$20</f>
-        <v>2.0093344910017687E-5</v>
+        <f>O69-'No Model 65 MPH'!$P$20</f>
+        <v>2.0348113856984641E-5</v>
       </c>
       <c r="Q69">
         <f>F69/(M69*wing_area*wmac)</f>
@@ -18858,8 +21571,12 @@
         <f>Q69-deltaCmcgt</f>
         <v>-3.7495085066986168E-4</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <f>R69-'No Model 65 MPH'!$Q$20</f>
+        <v>-1.1130243564105429E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
@@ -18914,8 +21631,8 @@
         <v>5.8443454837354381E-5</v>
       </c>
       <c r="P70">
-        <f>O70-'No Model 65 MPH'!$O$20</f>
-        <v>2.0093344910017687E-5</v>
+        <f>O70-'No Model 65 MPH'!$P$20</f>
+        <v>2.0348113856984641E-5</v>
       </c>
       <c r="Q70">
         <f>F70/(M70*wing_area*wmac)</f>
@@ -18925,8 +21642,12 @@
         <f>Q70-deltaCmcgt</f>
         <v>-3.7495085066986168E-4</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <f>R70-'No Model 65 MPH'!$Q$20</f>
+        <v>-1.1130243564105429E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16.016999999999999</v>
       </c>
@@ -18981,8 +21702,8 @@
         <v>5.7191691168777066E-5</v>
       </c>
       <c r="P71">
-        <f>O71-'No Model 65 MPH'!$O$20</f>
-        <v>1.8841581241440373E-5</v>
+        <f>O71-'No Model 65 MPH'!$P$20</f>
+        <v>1.9096350188407326E-5</v>
       </c>
       <c r="Q71">
         <f>F71/(M71*wing_area*wmac)</f>
@@ -18992,8 +21713,12 @@
         <f>Q71-deltaCmcgt</f>
         <v>-3.4744875666659368E-4</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <f>R71-'No Model 65 MPH'!$Q$20</f>
+        <v>-8.3800341637786289E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.4E-2</v>
       </c>
@@ -19048,8 +21773,8 @@
         <v>2.2587379975217404E-5</v>
       </c>
       <c r="P72">
-        <f>O72-'No Model 65 MPH'!$O$19</f>
-        <v>-8.8319871941668742E-6</v>
+        <f>O72-'No Model 65 MPH'!$P$19</f>
+        <v>-8.6232608279770876E-6</v>
       </c>
       <c r="Q72">
         <f>F72/(M72*wing_area*wmac)</f>
@@ -19059,8 +21784,12 @@
         <f>Q72-deltaCmcgt</f>
         <v>-1.4468495720730044E-4</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <f>R72-'No Model 65 MPH'!$Q$19</f>
+        <v>1.2610595828125629E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.4E-2</v>
       </c>
@@ -19115,8 +21844,8 @@
         <v>2.2587379975217404E-5</v>
       </c>
       <c r="P73">
-        <f>O73-'No Model 65 MPH'!$O$19</f>
-        <v>-8.8319871941668742E-6</v>
+        <f>O73-'No Model 65 MPH'!$P$19</f>
+        <v>-8.6232608279770876E-6</v>
       </c>
       <c r="Q73">
         <f>F73/(M73*wing_area*wmac)</f>
@@ -19126,8 +21855,12 @@
         <f>Q73-deltaCmcgt</f>
         <v>-1.4468495720730044E-4</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <f>R73-'No Model 65 MPH'!$Q$19</f>
+        <v>1.2610595828125629E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2.4E-2</v>
       </c>
@@ -19182,8 +21915,8 @@
         <v>2.2587379975217404E-5</v>
       </c>
       <c r="P74">
-        <f>O74-'No Model 65 MPH'!$O$19</f>
-        <v>-8.8319871941668742E-6</v>
+        <f>O74-'No Model 65 MPH'!$P$19</f>
+        <v>-8.6232608279770876E-6</v>
       </c>
       <c r="Q74">
         <f>F74/(M74*wing_area*wmac)</f>
@@ -19193,8 +21926,12 @@
         <f>Q74-deltaCmcgt</f>
         <v>-1.4468495720730044E-4</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <f>R74-'No Model 65 MPH'!$Q$19</f>
+        <v>1.2610595828125629E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.3E-2</v>
       </c>
@@ -19249,8 +21986,8 @@
         <v>2.2309210271089111E-5</v>
       </c>
       <c r="P75">
-        <f>O75-'No Model 65 MPH'!$O$19</f>
-        <v>-9.110156898295167E-6</v>
+        <f>O75-'No Model 65 MPH'!$P$19</f>
+        <v>-8.9014305321053805E-6</v>
       </c>
       <c r="Q75">
         <f>F75/(M75*wing_area*wmac)</f>
@@ -19260,8 +21997,12 @@
         <f>Q75-deltaCmcgt</f>
         <v>-1.6178535151190434E-4</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <f>R75-'No Model 65 MPH'!$Q$19</f>
+        <v>1.090055639766524E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.3E-2</v>
       </c>
@@ -19316,8 +22057,8 @@
         <v>2.2309210271089111E-5</v>
       </c>
       <c r="P76">
-        <f>O76-'No Model 65 MPH'!$O$19</f>
-        <v>-9.110156898295167E-6</v>
+        <f>O76-'No Model 65 MPH'!$P$19</f>
+        <v>-8.9014305321053805E-6</v>
       </c>
       <c r="Q76">
         <f>F76/(M76*wing_area*wmac)</f>
@@ -19327,33 +22068,53 @@
         <f>Q76-deltaCmcgt</f>
         <v>-1.6178535151190434E-4</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <f>R76-'No Model 65 MPH'!$Q$20</f>
+        <v>1.0186306351690305E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:19" x14ac:dyDescent="0.25">
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="13:19" x14ac:dyDescent="0.25">
       <c r="M82" s="11"/>
-    </row>
-    <row r="83" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="S82">
+        <f>R82-'No Model 65 MPH'!L82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="13:19" x14ac:dyDescent="0.25">
       <c r="M83" s="11"/>
-    </row>
-    <row r="84" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="S83">
+        <f>R83-'No Model 65 MPH'!L83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="13:19" x14ac:dyDescent="0.25">
       <c r="M84" s="11"/>
-    </row>
-    <row r="85" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="S84">
+        <f>R84-'No Model 65 MPH'!L84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="13:19" x14ac:dyDescent="0.25">
       <c r="M85" s="11"/>
+      <c r="S85">
+        <f>R85-'No Model 65 MPH'!L85</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19362,10 +22123,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19377,13 +22138,14 @@
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19412,10 +22174,13 @@
         <v>104</v>
       </c>
       <c r="J1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2.5999999999999999E-2</v>
       </c>
@@ -19442,15 +22207,19 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="I2">
-        <f>D2/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.3749473511735899E-5</v>
+        <f>D2/('Tail OFf 65 MPH'!M2*wing_area)</f>
+        <v>1.3658132472699192E-5</v>
       </c>
       <c r="J2">
+        <f>E2/('Tail OFf 65 MPH'!M2*wing_area*wmac)</f>
+        <v>-1.0923171576890516E-4</v>
+      </c>
+      <c r="K2">
         <f>H2^2</f>
         <v>0.522729</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-2.5999999999999999E-2</v>
       </c>
@@ -19477,15 +22246,19 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="I3">
-        <f>D3/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.3749473511735899E-5</v>
+        <f>D3/('Tail OFf 65 MPH'!M3*wing_area)</f>
+        <v>1.3658132472699192E-5</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">H3^2</f>
+        <f>E3/('Tail OFf 65 MPH'!M3*wing_area*wmac)</f>
+        <v>-1.0923171576890516E-4</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">H3^2</f>
         <v>0.522729</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1.6E-2</v>
       </c>
@@ -19512,15 +22285,19 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="I4">
-        <f>D4/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.0277101382499135E-5</v>
+        <f>D4/('Tail OFf 65 MPH'!M4*wing_area)</f>
+        <v>1.0208828141508358E-5</v>
       </c>
       <c r="J4">
+        <f>E4/('Tail OFf 65 MPH'!M4*wing_area*wmac)</f>
+        <v>-7.3075407616348566E-5</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>0.579121</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1.6E-2</v>
       </c>
@@ -19547,15 +22324,19 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="I5">
-        <f>D5/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.0277101382499135E-5</v>
+        <f>D5/('Tail OFf 65 MPH'!M5*wing_area)</f>
+        <v>1.0208828141508358E-5</v>
       </c>
       <c r="J5">
+        <f>E5/('Tail OFf 65 MPH'!M5*wing_area*wmac)</f>
+        <v>-7.3075407616348566E-5</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>0.579121</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1.7000000000000001E-2</v>
       </c>
@@ -19582,15 +22363,19 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="I6">
-        <f>D6/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.2097296450244213E-5</v>
+        <f>D6/('Tail OFf 65 MPH'!M6*wing_area)</f>
+        <v>1.2016931218342263E-5</v>
       </c>
       <c r="J6">
+        <f>E6/('Tail OFf 65 MPH'!M6*wing_area*wmac)</f>
+        <v>-5.2188794621430941E-5</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>0.79388100000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-8.0630000000000006</v>
       </c>
@@ -19617,15 +22402,19 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="I7">
-        <f>D7/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.2601350469004389E-6</v>
+        <f>D7/('Tail OFf 65 MPH'!M7*wing_area)</f>
+        <v>1.251763668577319E-6</v>
       </c>
       <c r="J7">
+        <f>E7/('Tail OFf 65 MPH'!M7*wing_area*wmac)</f>
+        <v>4.3257201813511326E-5</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>9.4090000000000007E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-8.0739999999999998</v>
       </c>
@@ -19652,22 +22441,30 @@
         <v>2.4E-2</v>
       </c>
       <c r="I8">
-        <f>D8/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.9602100729562385E-7</v>
+        <f>D8/('Tail OFf 65 MPH'!M8*wing_area)</f>
+        <v>1.9471879288980517E-7</v>
       </c>
       <c r="J8">
+        <f>E8/('Tail OFf 65 MPH'!M8*wing_area*wmac)</f>
+        <v>4.3659400868526338E-5</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>5.7600000000000001E-4</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>8</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f>AVERAGE(I7:I11)</f>
-        <v>4.0884381521658688E-7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.0612776802730792E-7</v>
+      </c>
+      <c r="Q8">
+        <f>AVERAGE(J7:J11)</f>
+        <v>4.357896105752334E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-8.0739999999999998</v>
       </c>
@@ -19694,22 +22491,30 @@
         <v>2.4E-2</v>
       </c>
       <c r="I9">
-        <f>D9/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.9602100729562385E-7</v>
+        <f>D9/('Tail OFf 65 MPH'!M9*wing_area)</f>
+        <v>1.9471879288980517E-7</v>
       </c>
       <c r="J9">
+        <f>E9/('Tail OFf 65 MPH'!M9*wing_area*wmac)</f>
+        <v>4.3659400868526338E-5</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>5.7600000000000001E-4</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>6</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <f>AVERAGE(I12:I16)</f>
-        <v>1.187327244190636E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1794395455039629E-6</v>
+      </c>
+      <c r="Q9">
+        <f>AVERAGE(J12:J16)</f>
+        <v>3.2286875864653519E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-8.0739999999999998</v>
       </c>
@@ -19736,22 +22541,30 @@
         <v>2.4E-2</v>
       </c>
       <c r="I10">
-        <f>D10/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.9602100729562385E-7</v>
+        <f>D10/('Tail OFf 65 MPH'!M10*wing_area)</f>
+        <v>1.9471879288980517E-7</v>
       </c>
       <c r="J10">
+        <f>E10/('Tail OFf 65 MPH'!M10*wing_area*wmac)</f>
+        <v>4.3659400868526338E-5</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>5.7600000000000001E-4</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>4</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f>AVERAGE(I17:I21)</f>
-        <v>5.174954592604469E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.1405761322908565E-6</v>
+      </c>
+      <c r="Q10">
+        <f>AVERAGE(J17:J21)</f>
+        <v>2.6217830813806288E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-8.0739999999999998</v>
       </c>
@@ -19778,22 +22591,30 @@
         <v>2.4E-2</v>
       </c>
       <c r="I11">
-        <f>D11/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.9602100729562385E-7</v>
+        <f>D11/('Tail OFf 65 MPH'!M11*wing_area)</f>
+        <v>1.9471879288980517E-7</v>
       </c>
       <c r="J11">
+        <f>E11/('Tail OFf 65 MPH'!M11*wing_area*wmac)</f>
+        <v>4.3659400868526338E-5</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>5.7600000000000001E-4</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <f>AVERAGE(I22:I26)</f>
-        <v>6.726320850344121E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.6816362931616003E-6</v>
+      </c>
+      <c r="Q11">
+        <f>AVERAGE(J22:J26)</f>
+        <v>-4.3853565929568064E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-5.992</v>
       </c>
@@ -19820,22 +22641,30 @@
         <v>0.504</v>
       </c>
       <c r="I12">
-        <f>D12/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>8.9609603335142327E-7</v>
+        <f>D12/('Tail OFf 65 MPH'!M12*wing_area)</f>
+        <v>8.9014305321053794E-7</v>
       </c>
       <c r="J12">
+        <f>E12/('Tail OFf 65 MPH'!M12*wing_area*wmac)</f>
+        <v>5.5503469592071914E-5</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>0.25401600000000002</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <f>AVERAGE(I27:I31)</f>
-        <v>1.6762596423880058E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.6651238489119624E-5</v>
+      </c>
+      <c r="Q12">
+        <f>AVERAGE(J27:J31)</f>
+        <v>-1.3943547790723953E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-5.992</v>
       </c>
@@ -19862,22 +22691,30 @@
         <v>0.504</v>
       </c>
       <c r="I13">
-        <f>D13/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>8.9609603335142327E-7</v>
+        <f>D13/('Tail OFf 65 MPH'!M13*wing_area)</f>
+        <v>8.9014305321053794E-7</v>
       </c>
       <c r="J13">
+        <f>E13/('Tail OFf 65 MPH'!M13*wing_area*wmac)</f>
+        <v>5.5503469592071914E-5</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>0.25401600000000002</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f>AVERAGE(I32:I36)</f>
-        <v>1.5233632566974197E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.5132431904579145E-5</v>
+      </c>
+      <c r="Q13">
+        <f>AVERAGE(J32:J36)</f>
+        <v>-8.3765581119988984E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-5.992</v>
       </c>
@@ -19904,22 +22741,30 @@
         <v>0.504</v>
       </c>
       <c r="I14">
-        <f>D14/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>8.9609603335142327E-7</v>
+        <f>D14/('Tail OFf 65 MPH'!M14*wing_area)</f>
+        <v>8.9014305321053794E-7</v>
       </c>
       <c r="J14">
+        <f>E14/('Tail OFf 65 MPH'!M14*wing_area*wmac)</f>
+        <v>5.5503469592071914E-5</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>0.25401600000000002</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>4</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <f>AVERAGE(I37:I41)</f>
-        <v>1.7849112864318658E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.7730536941137404E-5</v>
+      </c>
+      <c r="Q14">
+        <f>AVERAGE(J37:J41)</f>
+        <v>-7.9910017765017483E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-5.9359999999999999</v>
       </c>
@@ -19946,22 +22791,30 @@
         <v>0.40400000000000003</v>
       </c>
       <c r="I15">
-        <f>D15/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.6241740604494547E-6</v>
+        <f>D15/('Tail OFf 65 MPH'!M15*wing_area)</f>
+        <v>1.6133842839441001E-6</v>
       </c>
       <c r="J15">
+        <f>E15/('Tail OFf 65 MPH'!M15*wing_area*wmac)</f>
+        <v>-2.5380147264740529E-6</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>0.16321600000000003</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>6</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <f>AVERAGE(I42:I46)</f>
-        <v>2.0845433975837482E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.070695277531014E-5</v>
+      </c>
+      <c r="Q15">
+        <f>AVERAGE(J42:J46)</f>
+        <v>-1.5272746322883917E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-5.9359999999999999</v>
       </c>
@@ -19988,22 +22841,30 @@
         <v>0.40400000000000003</v>
       </c>
       <c r="I16">
-        <f>D16/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.6241740604494547E-6</v>
+        <f>D16/('Tail OFf 65 MPH'!M16*wing_area)</f>
+        <v>1.6133842839441001E-6</v>
       </c>
       <c r="J16">
+        <f>E16/('Tail OFf 65 MPH'!M16*wing_area*wmac)</f>
+        <v>-2.5380147264740529E-6</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>0.16321600000000003</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>8</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <f>AVERAGE(I47:I51)</f>
-        <v>2.5751559758436524E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.5580485991637832E-5</v>
+      </c>
+      <c r="Q16">
+        <f>AVERAGE(J47:J51)</f>
+        <v>-1.1892055231488754E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.472</v>
       </c>
@@ -20030,22 +22891,30 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="I17">
-        <f>D17/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>4.4804801667571161E-6</v>
+        <f>D17/('Tail OFf 65 MPH'!M17*wing_area)</f>
+        <v>4.4507152660526902E-6</v>
       </c>
       <c r="J17">
+        <f>E17/('Tail OFf 65 MPH'!M17*wing_area*wmac)</f>
+        <v>6.4906606119664315E-6</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>0.25704900000000003</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>10</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <f>AVERAGE(I52:I55)</f>
-        <v>2.3886559889023874E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.3727875762143405E-5</v>
+      </c>
+      <c r="Q17">
+        <f>AVERAGE(J52:J55)</f>
+        <v>-1.8182517796588228E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3.4609999999999999</v>
       </c>
@@ -20072,22 +22941,30 @@
         <v>0.56200000000000006</v>
       </c>
       <c r="I18">
-        <f>D18/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>5.3485731990663072E-6</v>
+        <f>D18/('Tail OFf 65 MPH'!M18*wing_area)</f>
+        <v>5.3130413488503985E-6</v>
       </c>
       <c r="J18">
+        <f>E18/('Tail OFf 65 MPH'!M18*wing_area*wmac)</f>
+        <v>3.1149623364266248E-5</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>0.31584400000000007</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>12</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <f>AVERAGE(I61:I65)</f>
-        <v>3.3771619256931763E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.354726631787215E-5</v>
+      </c>
+      <c r="Q18">
+        <f>AVERAGE(J61:J65)</f>
+        <v>-2.7852145870460398E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.4609999999999999</v>
       </c>
@@ -20114,22 +22991,30 @@
         <v>0.56200000000000006</v>
       </c>
       <c r="I19">
-        <f>D19/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>5.3485731990663072E-6</v>
+        <f>D19/('Tail OFf 65 MPH'!M19*wing_area)</f>
+        <v>5.3130413488503985E-6</v>
       </c>
       <c r="J19">
+        <f>E19/('Tail OFf 65 MPH'!M19*wing_area*wmac)</f>
+        <v>3.1149623364266248E-5</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>0.31584400000000007</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>14</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <f>AVERAGE(I64:I65)</f>
-        <v>3.1419367169384278E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1210640803194491E-5</v>
+      </c>
+      <c r="Q19">
+        <f>AVERAGE(J64:J65)</f>
+        <v>-2.7079091548855674E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.4609999999999999</v>
       </c>
@@ -20156,22 +23041,30 @@
         <v>0.56200000000000006</v>
       </c>
       <c r="I20">
-        <f>D20/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>5.3485731990663072E-6</v>
+        <f>D20/('Tail OFf 65 MPH'!M20*wing_area)</f>
+        <v>5.3130413488503985E-6</v>
       </c>
       <c r="J20">
+        <f>E20/('Tail OFf 65 MPH'!M20*wing_area*wmac)</f>
+        <v>3.1149623364266248E-5</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>0.31584400000000007</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>16</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <f>AVERAGE(I67:I70)</f>
-        <v>3.8350109927336694E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.809534098036974E-5</v>
+      </c>
+      <c r="Q20">
+        <f>AVERAGE(J67:J70)</f>
+        <v>-2.6364841502880739E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.4609999999999999</v>
       </c>
@@ -20198,15 +23091,19 @@
         <v>0.56200000000000006</v>
       </c>
       <c r="I21">
-        <f>D21/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>5.3485731990663072E-6</v>
+        <f>D21/('Tail OFf 65 MPH'!M21*wing_area)</f>
+        <v>5.3130413488503985E-6</v>
       </c>
       <c r="J21">
+        <f>E21/('Tail OFf 65 MPH'!M21*wing_area*wmac)</f>
+        <v>3.1149623364266248E-5</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>0.31584400000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-2.044</v>
       </c>
@@ -20233,15 +23130,19 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="I22">
-        <f>D22/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>5.6846092115730917E-6</v>
+        <f>D22/('Tail OFf 65 MPH'!M22*wing_area)</f>
+        <v>5.6468449938043509E-6</v>
       </c>
       <c r="J22">
+        <f>E22/('Tail OFf 65 MPH'!M22*wing_area*wmac)</f>
+        <v>1.1081277412310211E-5</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>0.50979599999999992</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-2.044</v>
       </c>
@@ -20268,15 +23169,19 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="I23">
-        <f>D23/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>5.6846092115730917E-6</v>
+        <f>D23/('Tail OFf 65 MPH'!M23*wing_area)</f>
+        <v>5.6468449938043509E-6</v>
       </c>
       <c r="J23">
+        <f>E23/('Tail OFf 65 MPH'!M23*wing_area*wmac)</f>
+        <v>1.1081277412310211E-5</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>0.50979599999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-2.044</v>
       </c>
@@ -20303,15 +23208,19 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="I24">
-        <f>D24/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>5.6846092115730917E-6</v>
+        <f>D24/('Tail OFf 65 MPH'!M24*wing_area)</f>
+        <v>5.6468449938043509E-6</v>
       </c>
       <c r="J24">
+        <f>E24/('Tail OFf 65 MPH'!M24*wing_area*wmac)</f>
+        <v>1.1081277412310211E-5</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>0.50979599999999992</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2.0529999999999999</v>
       </c>
@@ -20338,15 +23247,19 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="I25">
-        <f>D25/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>8.288888308500665E-6</v>
+        <f>D25/('Tail OFf 65 MPH'!M25*wing_area)</f>
+        <v>8.2338232421974756E-6</v>
       </c>
       <c r="J25">
+        <f>E25/('Tail OFf 65 MPH'!M25*wing_area*wmac)</f>
+        <v>-2.7585307600857333E-5</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>0.59752899999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-2.0529999999999999</v>
       </c>
@@ -20373,15 +23286,19 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="I26">
-        <f>D26/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>8.288888308500665E-6</v>
+        <f>D26/('Tail OFf 65 MPH'!M26*wing_area)</f>
+        <v>8.2338232421974756E-6</v>
       </c>
       <c r="J26">
+        <f>E26/('Tail OFf 65 MPH'!M26*wing_area*wmac)</f>
+        <v>-2.7585307600857333E-5</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>0.59752899999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -20408,15 +23325,19 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="I27">
-        <f>D27/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.7389863647226057E-5</v>
+        <f>D27/('Tail OFf 65 MPH'!M27*wing_area)</f>
+        <v>1.7274338626367003E-5</v>
       </c>
       <c r="J27">
+        <f>E27/('Tail OFf 65 MPH'!M27*wing_area*wmac)</f>
+        <v>-1.4180983922512126E-4</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>0.46785600000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -20443,15 +23364,19 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="I28">
-        <f>D28/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.7389863647226057E-5</v>
+        <f>D28/('Tail OFf 65 MPH'!M28*wing_area)</f>
+        <v>1.7274338626367003E-5</v>
       </c>
       <c r="J28">
+        <f>E28/('Tail OFf 65 MPH'!M28*wing_area*wmac)</f>
+        <v>-1.4180983922512126E-4</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="1"/>
         <v>0.46785600000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -20478,15 +23403,19 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="I29">
-        <f>D29/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.7389863647226057E-5</v>
+        <f>D29/('Tail OFf 65 MPH'!M29*wing_area)</f>
+        <v>1.7274338626367003E-5</v>
       </c>
       <c r="J29">
+        <f>E29/('Tail OFf 65 MPH'!M29*wing_area*wmac)</f>
+        <v>-1.4180983922512126E-4</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="1"/>
         <v>0.46785600000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.3E-2</v>
       </c>
@@ -20513,15 +23442,19 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="I30">
-        <f>D30/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.5821695588861063E-5</v>
+        <f>D30/('Tail OFf 65 MPH'!M30*wing_area)</f>
+        <v>1.5716588283248558E-5</v>
       </c>
       <c r="J30">
+        <f>E30/('Tail OFf 65 MPH'!M30*wing_area*wmac)</f>
+        <v>-1.3587393593041694E-4</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="1"/>
         <v>0.60996100000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.3E-2</v>
       </c>
@@ -20548,15 +23481,19 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="I31">
-        <f>D31/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.5821695588861063E-5</v>
+        <f>D31/('Tail OFf 65 MPH'!M31*wing_area)</f>
+        <v>1.5716588283248558E-5</v>
       </c>
       <c r="J31">
+        <f>E31/('Tail OFf 65 MPH'!M31*wing_area*wmac)</f>
+        <v>-1.3587393593041694E-4</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="1"/>
         <v>0.60996100000000009</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.9810000000000001</v>
       </c>
@@ -20583,15 +23520,19 @@
         <v>0.74</v>
       </c>
       <c r="I32">
-        <f>D32/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.5737686585734371E-5</v>
+        <f>D32/('Tail OFf 65 MPH'!M32*wing_area)</f>
+        <v>1.5633137372010076E-5</v>
       </c>
       <c r="J32">
+        <f>E32/('Tail OFf 65 MPH'!M32*wing_area*wmac)</f>
+        <v>-7.5904669934385213E-5</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>0.54759999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1.9810000000000001</v>
       </c>
@@ -20618,15 +23559,19 @@
         <v>0.74</v>
       </c>
       <c r="I33">
-        <f>D33/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.5737686585734371E-5</v>
+        <f>D33/('Tail OFf 65 MPH'!M33*wing_area)</f>
+        <v>1.5633137372010076E-5</v>
       </c>
       <c r="J33">
+        <f>E33/('Tail OFf 65 MPH'!M33*wing_area*wmac)</f>
+        <v>-7.5904669934385213E-5</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="1"/>
         <v>0.54759999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.9810000000000001</v>
       </c>
@@ -20653,15 +23598,19 @@
         <v>0.74</v>
       </c>
       <c r="I34">
-        <f>D34/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.5737686585734371E-5</v>
+        <f>D34/('Tail OFf 65 MPH'!M34*wing_area)</f>
+        <v>1.5633137372010076E-5</v>
       </c>
       <c r="J34">
+        <f>E34/('Tail OFf 65 MPH'!M34*wing_area*wmac)</f>
+        <v>-7.5904669934385213E-5</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="1"/>
         <v>0.54759999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.9930000000000001</v>
       </c>
@@ -20688,15 +23637,19 @@
         <v>0.875</v>
       </c>
       <c r="I35">
-        <f>D35/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.4477551538833932E-5</v>
+        <f>D35/('Tail OFf 65 MPH'!M35*wing_area)</f>
+        <v>1.4381373703432755E-5</v>
       </c>
       <c r="J35">
+        <f>E35/('Tail OFf 65 MPH'!M35*wing_area*wmac)</f>
+        <v>-9.5556947898394682E-5</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="1"/>
         <v>0.765625</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.9930000000000001</v>
       </c>
@@ -20723,15 +23676,19 @@
         <v>0.875</v>
       </c>
       <c r="I36">
-        <f>D36/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.4477551538833932E-5</v>
+        <f>D36/('Tail OFf 65 MPH'!M36*wing_area)</f>
+        <v>1.4381373703432755E-5</v>
       </c>
       <c r="J36">
+        <f>E36/('Tail OFf 65 MPH'!M36*wing_area*wmac)</f>
+        <v>-9.5556947898394682E-5</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="1"/>
         <v>0.765625</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4.01</v>
       </c>
@@ -20758,15 +23715,19 @@
         <v>0.69</v>
       </c>
       <c r="I37">
-        <f>D37/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.7389863647226057E-5</v>
+        <f>D37/('Tail OFf 65 MPH'!M37*wing_area)</f>
+        <v>1.7274338626367003E-5</v>
       </c>
       <c r="J37">
+        <f>E37/('Tail OFf 65 MPH'!M37*wing_area*wmac)</f>
+        <v>-7.3103145482211667E-5</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="1"/>
         <v>0.47609999999999991</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4.01</v>
       </c>
@@ -20793,15 +23754,19 @@
         <v>0.69</v>
       </c>
       <c r="I38">
-        <f>D38/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.7389863647226057E-5</v>
+        <f>D38/('Tail OFf 65 MPH'!M38*wing_area)</f>
+        <v>1.7274338626367003E-5</v>
       </c>
       <c r="J38">
+        <f>E38/('Tail OFf 65 MPH'!M38*wing_area*wmac)</f>
+        <v>-7.3103145482211667E-5</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="1"/>
         <v>0.47609999999999991</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4.01</v>
       </c>
@@ -20828,15 +23793,19 @@
         <v>0.69</v>
       </c>
       <c r="I39">
-        <f>D39/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.7389863647226057E-5</v>
+        <f>D39/('Tail OFf 65 MPH'!M39*wing_area)</f>
+        <v>1.7274338626367003E-5</v>
       </c>
       <c r="J39">
+        <f>E39/('Tail OFf 65 MPH'!M39*wing_area*wmac)</f>
+        <v>-7.3103145482211667E-5</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="1"/>
         <v>0.47609999999999991</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.0229999999999997</v>
       </c>
@@ -20863,15 +23832,19 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="I40">
-        <f>D40/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.8537986689957568E-5</v>
+        <f>D40/('Tail OFf 65 MPH'!M40*wing_area)</f>
+        <v>1.8414834413293004E-5</v>
       </c>
       <c r="J40">
+        <f>E40/('Tail OFf 65 MPH'!M40*wing_area*wmac)</f>
+        <v>-9.0120326189226221E-5</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="1"/>
         <v>0.54169599999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4.0229999999999997</v>
       </c>
@@ -20898,15 +23871,19 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="I41">
-        <f>D41/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.8537986689957568E-5</v>
+        <f>D41/('Tail OFf 65 MPH'!M41*wing_area)</f>
+        <v>1.8414834413293004E-5</v>
       </c>
       <c r="J41">
+        <f>E41/('Tail OFf 65 MPH'!M41*wing_area*wmac)</f>
+        <v>-9.0120326189226221E-5</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="1"/>
         <v>0.54169599999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.9580000000000002</v>
       </c>
@@ -20933,15 +23910,19 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="I42">
-        <f>D42/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.9266064717055599E-5</v>
+        <f>D42/('Tail OFf 65 MPH'!M42*wing_area)</f>
+        <v>1.9138075644026564E-5</v>
       </c>
       <c r="J42">
+        <f>E42/('Tail OFf 65 MPH'!M42*wing_area*wmac)</f>
+        <v>-1.2791316842770598E-4</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="1"/>
         <v>0.24108099999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.9580000000000002</v>
       </c>
@@ -20968,15 +23949,19 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="I43">
-        <f>D43/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.9266064717055599E-5</v>
+        <f>D43/('Tail OFf 65 MPH'!M43*wing_area)</f>
+        <v>1.9138075644026564E-5</v>
       </c>
       <c r="J43">
+        <f>E43/('Tail OFf 65 MPH'!M43*wing_area*wmac)</f>
+        <v>-1.2791316842770598E-4</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="1"/>
         <v>0.24108099999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.992</v>
       </c>
@@ -21003,15 +23988,19 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="I44">
-        <f>D44/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.1898346815025404E-5</v>
+        <f>D44/('Tail OFf 65 MPH'!M44*wing_area)</f>
+        <v>2.1752870862832522E-5</v>
       </c>
       <c r="J44">
+        <f>E44/('Tail OFf 65 MPH'!M44*wing_area*wmac)</f>
+        <v>-1.6927032642959463E-4</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="1"/>
         <v>0.24108099999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.992</v>
       </c>
@@ -21038,15 +24027,19 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="I45">
-        <f>D45/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.1898346815025404E-5</v>
+        <f>D45/('Tail OFf 65 MPH'!M45*wing_area)</f>
+        <v>2.1752870862832522E-5</v>
       </c>
       <c r="J45">
+        <f>E45/('Tail OFf 65 MPH'!M45*wing_area*wmac)</f>
+        <v>-1.6927032642959463E-4</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="1"/>
         <v>0.24108099999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.992</v>
       </c>
@@ -21073,15 +24066,19 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="I46">
-        <f>D46/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.1898346815025404E-5</v>
+        <f>D46/('Tail OFf 65 MPH'!M46*wing_area)</f>
+        <v>2.1752870862832522E-5</v>
       </c>
       <c r="J46">
+        <f>E46/('Tail OFf 65 MPH'!M46*wing_area*wmac)</f>
+        <v>-1.6927032642959463E-4</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="1"/>
         <v>0.24108099999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7.9649999999999999</v>
       </c>
@@ -21108,15 +24105,19 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="I47">
-        <f>D47/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.5398721945304404E-5</v>
+        <f>D47/('Tail OFf 65 MPH'!M47*wing_area)</f>
+        <v>2.5229992164436185E-5</v>
       </c>
       <c r="J47">
+        <f>E47/('Tail OFf 65 MPH'!M47*wing_area*wmac)</f>
+        <v>-1.1579172104552934E-4</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="1"/>
         <v>0.48302499999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7.9649999999999999</v>
       </c>
@@ -21143,15 +24144,19 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="I48">
-        <f>D48/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.5398721945304404E-5</v>
+        <f>D48/('Tail OFf 65 MPH'!M48*wing_area)</f>
+        <v>2.5229992164436185E-5</v>
       </c>
       <c r="J48">
+        <f>E48/('Tail OFf 65 MPH'!M48*wing_area*wmac)</f>
+        <v>-1.1579172104552934E-4</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="1"/>
         <v>0.48302499999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7.9729999999999999</v>
       </c>
@@ -21178,15 +24183,19 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="I49">
-        <f>D49/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.5986784967191275E-5</v>
+        <f>D49/('Tail OFf 65 MPH'!M49*wing_area)</f>
+        <v>2.5814148543105602E-5</v>
       </c>
       <c r="J49">
+        <f>E49/('Tail OFf 65 MPH'!M49*wing_area*wmac)</f>
+        <v>-1.2100643982779297E-4</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="1"/>
         <v>0.64160100000000009</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7.9729999999999999</v>
       </c>
@@ -21213,15 +24222,19 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="I50">
-        <f>D50/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.5986784967191275E-5</v>
+        <f>D50/('Tail OFf 65 MPH'!M50*wing_area)</f>
+        <v>2.5814148543105602E-5</v>
       </c>
       <c r="J50">
+        <f>E50/('Tail OFf 65 MPH'!M50*wing_area*wmac)</f>
+        <v>-1.2100643982779297E-4</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="1"/>
         <v>0.64160100000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7.9729999999999999</v>
       </c>
@@ -21248,15 +24261,19 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="I51">
-        <f>D51/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.5986784967191275E-5</v>
+        <f>D51/('Tail OFf 65 MPH'!M51*wing_area)</f>
+        <v>2.5814148543105602E-5</v>
       </c>
       <c r="J51">
+        <f>E51/('Tail OFf 65 MPH'!M51*wing_area*wmac)</f>
+        <v>-1.2100643982779297E-4</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="1"/>
         <v>0.64160100000000009</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9.9719999999999995</v>
       </c>
@@ -21283,15 +24300,19 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="I52">
-        <f>D52/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.4138586898403962E-5</v>
+        <f>D52/('Tail OFf 65 MPH'!M52*wing_area)</f>
+        <v>2.3978228495858868E-5</v>
       </c>
       <c r="J52">
+        <f>E52/('Tail OFf 65 MPH'!M52*wing_area*wmac)</f>
+        <v>-1.8107278835434557E-4</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="1"/>
         <v>0.47334399999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9.9719999999999995</v>
       </c>
@@ -21318,15 +24339,19 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="I53">
-        <f>D53/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.4138586898403962E-5</v>
+        <f>D53/('Tail OFf 65 MPH'!M53*wing_area)</f>
+        <v>2.3978228495858868E-5</v>
       </c>
       <c r="J53">
+        <f>E53/('Tail OFf 65 MPH'!M53*wing_area*wmac)</f>
+        <v>-1.8107278835434557E-4</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="1"/>
         <v>0.47334399999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9.9719999999999995</v>
       </c>
@@ -21353,15 +24378,19 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="I54">
-        <f>D54/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.4138586898403962E-5</v>
+        <f>D54/('Tail OFf 65 MPH'!M54*wing_area)</f>
+        <v>2.3978228495858868E-5</v>
       </c>
       <c r="J54">
+        <f>E54/('Tail OFf 65 MPH'!M54*wing_area*wmac)</f>
+        <v>-1.8107278835434557E-4</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="1"/>
         <v>0.47334399999999993</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9.9939999999999998</v>
       </c>
@@ -21388,15 +24417,19 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="I55">
-        <f>D55/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.3130478860883611E-5</v>
+        <f>D55/('Tail OFf 65 MPH'!M55*wing_area)</f>
+        <v>2.2976817560997009E-5</v>
       </c>
       <c r="J55">
+        <f>E55/('Tail OFf 65 MPH'!M55*wing_area*wmac)</f>
+        <v>-1.8408234680049239E-4</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="1"/>
         <v>0.66912399999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11.99</v>
       </c>
@@ -21423,15 +24456,19 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="I56">
-        <f>D56/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.4079652268396315E-5</v>
+        <f>D56/('Tail OFf 65 MPH'!M56*wing_area)</f>
+        <v>3.3853252992413276E-5</v>
       </c>
       <c r="J56">
+        <f>E56/('Tail OFf 65 MPH'!M56*wing_area*wmac)</f>
+        <v>-2.507641763353954E-4</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="1"/>
         <v>0.49843599999999993</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11.99</v>
       </c>
@@ -21458,15 +24495,19 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="I57">
-        <f>D57/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.4079652268396315E-5</v>
+        <f>D57/('Tail OFf 65 MPH'!M57*wing_area)</f>
+        <v>3.3853252992413276E-5</v>
       </c>
       <c r="J57">
+        <f>E57/('Tail OFf 65 MPH'!M57*wing_area*wmac)</f>
+        <v>-2.507641763353954E-4</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="1"/>
         <v>0.49843599999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11.99</v>
       </c>
@@ -21493,15 +24534,19 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="I58">
-        <f>D58/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.4079652268396315E-5</v>
+        <f>D58/('Tail OFf 65 MPH'!M58*wing_area)</f>
+        <v>3.3853252992413276E-5</v>
       </c>
       <c r="J58">
+        <f>E58/('Tail OFf 65 MPH'!M58*wing_area*wmac)</f>
+        <v>-2.507641763353954E-4</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="1"/>
         <v>0.49843599999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12.02</v>
       </c>
@@ -21528,15 +24573,19 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="I59">
-        <f>D59/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.8619067065161081E-5</v>
+        <f>D59/('Tail OFf 65 MPH'!M59*wing_area)</f>
+        <v>2.8428943761911556E-5</v>
       </c>
       <c r="J59">
+        <f>E59/('Tail OFf 65 MPH'!M59*wing_area*wmac)</f>
+        <v>-2.4197127285679128E-4</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="1"/>
         <v>0.66259599999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12.02</v>
       </c>
@@ -21563,15 +24612,19 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="I60">
-        <f>D60/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>2.8619067065161081E-5</v>
+        <f>D60/('Tail OFf 65 MPH'!M60*wing_area)</f>
+        <v>2.8428943761911556E-5</v>
       </c>
       <c r="J60">
+        <f>E60/('Tail OFf 65 MPH'!M60*wing_area*wmac)</f>
+        <v>-2.4197127285679128E-4</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="1"/>
         <v>0.66259599999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14</v>
       </c>
@@ -21598,15 +24651,19 @@
         <v>0.46200000000000002</v>
       </c>
       <c r="I61">
-        <f>D61/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.5339787315296754E-5</v>
+        <f>D61/('Tail OFf 65 MPH'!M61*wing_area)</f>
+        <v>3.5105016660990591E-5</v>
       </c>
       <c r="J61">
+        <f>E61/('Tail OFf 65 MPH'!M61*wing_area*wmac)</f>
+        <v>-2.8367515418196878E-4</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="1"/>
         <v>0.21344400000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14</v>
       </c>
@@ -21633,15 +24690,19 @@
         <v>0.46200000000000002</v>
       </c>
       <c r="I62">
-        <f>D62/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.5339787315296754E-5</v>
+        <f>D62/('Tail OFf 65 MPH'!M62*wing_area)</f>
+        <v>3.5105016660990591E-5</v>
       </c>
       <c r="J62">
+        <f>E62/('Tail OFf 65 MPH'!M62*wing_area*wmac)</f>
+        <v>-2.8367515418196878E-4</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="1"/>
         <v>0.21344400000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>14</v>
       </c>
@@ -21668,15 +24729,19 @@
         <v>0.46200000000000002</v>
       </c>
       <c r="I63">
-        <f>D63/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.5339787315296754E-5</v>
+        <f>D63/('Tail OFf 65 MPH'!M63*wing_area)</f>
+        <v>3.5105016660990591E-5</v>
       </c>
       <c r="J63">
+        <f>E63/('Tail OFf 65 MPH'!M63*wing_area*wmac)</f>
+        <v>-2.8367515418196878E-4</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="1"/>
         <v>0.21344400000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>14.007</v>
       </c>
@@ -21703,15 +24768,19 @@
         <v>0.498</v>
       </c>
       <c r="I64">
-        <f>D64/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.1419367169384278E-5</v>
+        <f>D64/('Tail OFf 65 MPH'!M64*wing_area)</f>
+        <v>3.1210640803194491E-5</v>
       </c>
       <c r="J64">
+        <f>E64/('Tail OFf 65 MPH'!M64*wing_area*wmac)</f>
+        <v>-2.7079091548855674E-4</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="1"/>
         <v>0.248004</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14.007</v>
       </c>
@@ -21738,15 +24807,19 @@
         <v>0.498</v>
       </c>
       <c r="I65">
-        <f>D65/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.1419367169384278E-5</v>
+        <f>D65/('Tail OFf 65 MPH'!M65*wing_area)</f>
+        <v>3.1210640803194491E-5</v>
       </c>
       <c r="J65">
+        <f>E65/('Tail OFf 65 MPH'!M65*wing_area*wmac)</f>
+        <v>-2.7079091548855674E-4</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="1"/>
         <v>0.248004</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15.964</v>
       </c>
@@ -21773,15 +24846,19 @@
         <v>0.65800000000000003</v>
       </c>
       <c r="I66">
-        <f>D66/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.8420117429942277E-5</v>
+        <f>D66/('Tail OFf 65 MPH'!M66*wing_area)</f>
+        <v>3.8164883406401818E-5</v>
       </c>
       <c r="J66">
+        <f>E66/('Tail OFf 65 MPH'!M66*wing_area*wmac)</f>
+        <v>-2.7011133777491071E-4</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="1"/>
         <v>0.43296400000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>15.964</v>
       </c>
@@ -21808,15 +24885,19 @@
         <v>0.65800000000000003</v>
       </c>
       <c r="I67">
-        <f>D67/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.8420117429942277E-5</v>
+        <f>D67/('Tail OFf 65 MPH'!M67*wing_area)</f>
+        <v>3.8164883406401818E-5</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J76" si="3">H67^2</f>
+        <f>E67/('Tail OFf 65 MPH'!M67*wing_area*wmac)</f>
+        <v>-2.7011133777491071E-4</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K76" si="3">H67^2</f>
         <v>0.43296400000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15.964</v>
       </c>
@@ -21843,15 +24924,19 @@
         <v>0.65800000000000003</v>
       </c>
       <c r="I68">
-        <f>D68/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.8420117429942277E-5</v>
+        <f>D68/('Tail OFf 65 MPH'!M68*wing_area)</f>
+        <v>3.8164883406401818E-5</v>
       </c>
       <c r="J68">
+        <f>E68/('Tail OFf 65 MPH'!M68*wing_area*wmac)</f>
+        <v>-2.7011133777491071E-4</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="3"/>
         <v>0.43296400000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>15.959</v>
       </c>
@@ -21878,15 +24963,19 @@
         <v>0.63900000000000001</v>
       </c>
       <c r="I69">
-        <f>D69/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.8280102424731111E-5</v>
+        <f>D69/('Tail OFf 65 MPH'!M69*wing_area)</f>
+        <v>3.8025798554337669E-5</v>
       </c>
       <c r="J69">
+        <f>E69/('Tail OFf 65 MPH'!M69*wing_area*wmac)</f>
+        <v>-2.5718549228270407E-4</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="3"/>
         <v>0.40832099999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>15.959</v>
       </c>
@@ -21913,15 +25002,19 @@
         <v>0.63900000000000001</v>
       </c>
       <c r="I70">
-        <f>D70/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>3.8280102424731111E-5</v>
+        <f>D70/('Tail OFf 65 MPH'!M70*wing_area)</f>
+        <v>3.8025798554337669E-5</v>
       </c>
       <c r="J70">
+        <f>E70/('Tail OFf 65 MPH'!M70*wing_area*wmac)</f>
+        <v>-2.5718549228270407E-4</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="3"/>
         <v>0.40832099999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-4.4999999999999998E-2</v>
       </c>
@@ -21948,15 +25041,19 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="I71">
-        <f>D71/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>6.356681236586659E-6</v>
+        <f>D71/('Tail OFf 65 MPH'!M71*wing_area)</f>
+        <v>6.314452283712254E-6</v>
       </c>
       <c r="J71">
+        <f>E71/('Tail OFf 65 MPH'!M71*wing_area*wmac)</f>
+        <v>-5.0760294529481059E-6</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="3"/>
         <v>0.50836899999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-4.4999999999999998E-2</v>
       </c>
@@ -21983,15 +25080,19 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="I72">
-        <f>D72/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>6.356681236586659E-6</v>
+        <f>D72/('Tail OFf 65 MPH'!M72*wing_area)</f>
+        <v>6.314452283712254E-6</v>
       </c>
       <c r="J72">
+        <f>E72/('Tail OFf 65 MPH'!M72*wing_area*wmac)</f>
+        <v>-5.0760294529481059E-6</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="3"/>
         <v>0.50836899999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-4.4999999999999998E-2</v>
       </c>
@@ -22018,15 +25119,19 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="I73">
-        <f>D73/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>6.356681236586659E-6</v>
+        <f>D73/('Tail OFf 65 MPH'!M73*wing_area)</f>
+        <v>6.314452283712254E-6</v>
       </c>
       <c r="J73">
+        <f>E73/('Tail OFf 65 MPH'!M73*wing_area*wmac)</f>
+        <v>-5.0760294529481059E-6</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="3"/>
         <v>0.50836899999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-5.6000000000000001E-2</v>
       </c>
@@ -22053,15 +25158,19 @@
         <v>0.76400000000000001</v>
       </c>
       <c r="I74">
-        <f>D74/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.0165089378330207E-5</v>
+        <f>D74/('Tail OFf 65 MPH'!M74*wing_area)</f>
+        <v>1.009756025985704E-5</v>
       </c>
       <c r="J74">
+        <f>E74/('Tail OFf 65 MPH'!M74*wing_area*wmac)</f>
+        <v>-5.5780848250702966E-5</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="3"/>
         <v>0.58369599999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-5.6000000000000001E-2</v>
       </c>
@@ -22088,10 +25197,14 @@
         <v>0.76400000000000001</v>
       </c>
       <c r="I75">
-        <f>D75/(0.5*0.002377*(65*12)^2*wing_area)</f>
-        <v>1.0165089378330207E-5</v>
+        <f>D75/('Tail OFf 65 MPH'!M75*wing_area)</f>
+        <v>1.009756025985704E-5</v>
       </c>
       <c r="J75">
+        <f>E75/('Tail OFf 65 MPH'!M75*wing_area*wmac)</f>
+        <v>-5.5780848250702966E-5</v>
+      </c>
+      <c r="K75">
         <f t="shared" si="3"/>
         <v>0.58369599999999999</v>
       </c>

--- a/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
+++ b/Formal_Lab_Tom/Wind_Tunnel_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="No wind" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,11 @@
     <sheet name="CL vs Alpha " sheetId="8" r:id="rId4"/>
     <sheet name="CD vs Alpha" sheetId="9" r:id="rId5"/>
     <sheet name="Cm vs Alpha" sheetId="10" r:id="rId6"/>
-    <sheet name="Tail On 65 MPH" sheetId="2" r:id="rId7"/>
-    <sheet name="Tail OFf 65 MPH" sheetId="3" r:id="rId8"/>
-    <sheet name="No Model 65 MPH" sheetId="4" r:id="rId9"/>
-    <sheet name="Airplane Characteristics" sheetId="5" r:id="rId10"/>
+    <sheet name="Cm vs Cl" sheetId="11" r:id="rId7"/>
+    <sheet name="Tail On 65 MPH" sheetId="2" r:id="rId8"/>
+    <sheet name="Tail OFf 65 MPH" sheetId="3" r:id="rId9"/>
+    <sheet name="No Model 65 MPH" sheetId="4" r:id="rId10"/>
+    <sheet name="Airplane Characteristics" sheetId="5" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="atnt">'Airplane Characteristics'!$K$11</definedName>
@@ -54,14 +55,14 @@
     <definedName name="lamda_vt">'Airplane Characteristics'!$C$28</definedName>
     <definedName name="lamda_w">'Airplane Characteristics'!$C$6</definedName>
     <definedName name="lbar">'Airplane Characteristics'!$C$23</definedName>
-    <definedName name="NoModel65mph" localSheetId="8">'No Model 65 MPH'!$A$1:$N$75</definedName>
+    <definedName name="NoModel65mph" localSheetId="9">'No Model 65 MPH'!$A$1:$N$75</definedName>
     <definedName name="nowind" localSheetId="0">'No wind'!$A$1:$H$70</definedName>
     <definedName name="Rc_">'Airplane Characteristics'!$C$4</definedName>
     <definedName name="strut_area">'Airplane Characteristics'!$G$30</definedName>
     <definedName name="t_tail">'Airplane Characteristics'!$C$17</definedName>
     <definedName name="t_wing">'Airplane Characteristics'!$C$7</definedName>
-    <definedName name="tailoff65mph" localSheetId="7">'Tail OFf 65 MPH'!$A$1:$I$76</definedName>
-    <definedName name="tailon65mph" localSheetId="6">'Tail On 65 MPH'!$A$1:$I$85</definedName>
+    <definedName name="tailoff65mph" localSheetId="8">'Tail OFf 65 MPH'!$A$1:$I$76</definedName>
+    <definedName name="tailon65mph" localSheetId="7">'Tail On 65 MPH'!$A$1:$I$85</definedName>
     <definedName name="tamc">'Airplane Characteristics'!$C$21</definedName>
     <definedName name="tau_wing">'Airplane Characteristics'!$G$13</definedName>
     <definedName name="tau1_">'Airplane Characteristics'!$G$6</definedName>
@@ -7009,7 +7010,7 @@
                   <c:v>-3.551149095670783E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3220943226661456E-5</c:v>
+                  <c:v>-1.0979349573810142E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-1.0979349573810142E-4</c:v>
@@ -7024,7 +7025,7 @@
                   <c:v>-1.0979349573810142E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8.6008275760489388E-5</c:v>
+                  <c:v>-7.4716190567619567E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-7.4716190567619567E-5</c:v>
@@ -7039,7 +7040,7 @@
                   <c:v>-7.4716190567619567E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.6356057492714299E-4</c:v>
+                  <c:v>-1.5749152987629575E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-1.4707596124470006E-4</c:v>
@@ -7054,7 +7055,7 @@
                   <c:v>-1.4707596124470006E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.3084930971478398E-4</c:v>
+                  <c:v>-1.0024612230802088E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1.0024612230802088E-4</c:v>
@@ -7069,7 +7070,7 @@
                   <c:v>-1.0062058349717279E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.3290745936182633E-4</c:v>
+                  <c:v>2.1426619524563982E-6</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2.1426619524563982E-6</c:v>
@@ -7084,7 +7085,7 @@
                   <c:v>2.1426619524563982E-6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-3.6718088121752879E-5</c:v>
+                  <c:v>-9.2387984909003429E-5</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-9.2387984909003429E-5</c:v>
@@ -7099,7 +7100,7 @@
                   <c:v>-1.1320525323926326E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.597355232246209E-4</c:v>
+                  <c:v>-1.6359108657959239E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-1.6359108657959239E-4</c:v>
@@ -7114,7 +7115,7 @@
                   <c:v>-1.6893062575824001E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.5414134968969673E-4</c:v>
+                  <c:v>-1.8132390422587503E-4</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-1.6947983550232945E-4</c:v>
@@ -7129,7 +7130,7 @@
                   <c:v>-1.6947983550232945E-4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-2.1653712493908611E-4</c:v>
+                  <c:v>-2.5034403585303777E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>-2.5034403585303777E-4</c:v>
@@ -7144,7 +7145,7 @@
                   <c:v>-2.3096913654765925E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-2.5042724945062704E-4</c:v>
+                  <c:v>-1.8752262379963234E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-1.8752262379963234E-4</c:v>
@@ -7159,46 +7160,46 @@
                   <c:v>-1.9641260980875726E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.416559822550494E-4</c:v>
+                  <c:v>-1.7293042601569962E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-1.416559822550494E-4</c:v>
+                  <c:v>-1.7293042601569962E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.5017150707502248E-4</c:v>
+                  <c:v>-1.814459508356727E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.5017150707502248E-4</c:v>
+                  <c:v>-1.814459508356727E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-1.5017150707502248E-4</c:v>
+                  <c:v>-1.814459508356727E-4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-2.1382158787108818E-4</c:v>
+                  <c:v>-2.0609104465504094E-4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-2.1382158787108818E-4</c:v>
+                  <c:v>-2.0609104465504094E-4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.164150783292885E-4</c:v>
+                  <c:v>-2.0868453511324126E-4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.164150783292885E-4</c:v>
+                  <c:v>-2.0868453511324126E-4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.2839783638214955E-4</c:v>
+                  <c:v>-2.2710525183292887E-4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.2839783638214955E-4</c:v>
+                  <c:v>-2.2710525183292887E-4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.5810509072153441E-4</c:v>
+                  <c:v>-2.5681250617231373E-4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-2.5810509072153441E-4</c:v>
+                  <c:v>-2.5681250617231373E-4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-2.5810509072153441E-4</c:v>
+                  <c:v>-2.5681250617231373E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8055,49 +8056,49 @@
                   <c:v>-7.1938936748076231E-5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-3.0413271211069196E-5</c:v>
+                  <c:v>-6.168771497171941E-5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-3.0413271211069196E-5</c:v>
+                  <c:v>-6.168771497171941E-5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3.0413271211069196E-5</c:v>
+                  <c:v>-6.168771497171941E-5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-2.9553397369312944E-5</c:v>
+                  <c:v>-6.0827841129963158E-5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-2.9553397369312944E-5</c:v>
+                  <c:v>-6.0827841129963158E-5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-5.9307806080665087E-5</c:v>
+                  <c:v>-5.1577262864617847E-5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-5.9307806080665087E-5</c:v>
+                  <c:v>-5.1577262864617847E-5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-5.9307806080665087E-5</c:v>
+                  <c:v>-5.1577262864617847E-5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-6.6561258003866889E-5</c:v>
+                  <c:v>-5.8830714787819649E-5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-6.6561258003866889E-5</c:v>
+                  <c:v>-5.8830714787819649E-5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.1130243564105429E-4</c:v>
+                  <c:v>-1.1000985109183362E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-1.1130243564105429E-4</c:v>
+                  <c:v>-1.1000985109183362E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.1130243564105429E-4</c:v>
+                  <c:v>-1.1000985109183362E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.1130243564105429E-4</c:v>
+                  <c:v>-1.1000985109183362E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-8.3800341637786289E-5</c:v>
+                  <c:v>-8.2507757088565615E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8203,6 +8204,2065 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>CM vs CL both With and Without Tail with Freestream Airspeed of 65 fps, Static Temp 70 ⁰F, and Standard Atmospheric Pressure</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Non-Corrected Tail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$J$2:$J$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>1.121800221751813E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.121800221751813E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.121800221751813E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.121800221751813E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1192799516580121E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1402822024396861E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1402822024396861E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1402822024396861E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1402822024396861E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1904075743052814E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5154197541504263E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.061313739500592E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.061313739500592E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.061313739500592E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.061313739500592E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4166589899446194E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4166589899446194E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4166589899446194E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4166589899446194E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4166589899446194E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3065686975029598E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3065686975029598E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.3065686975029598E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.3065686975029598E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3065686975029598E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.2642713331472938E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9391436582650837E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.9391436582650837E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.9391436582650837E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9391436582650837E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.7789408267397234E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.7789408267397234E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.378205049043489E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.378205049043489E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.378205049043489E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.932664469679682E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.932664469679682E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.932664469679682E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.932664469679682E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.932664469679682E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2676958571818415E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2676958571818415E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.232132045858207E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.232132045858207E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.232132045858207E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4838790252278726E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4838790252278726E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5412851773644479E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5412851773644479E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5412851773644479E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7031425233885489E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6093324698970716E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6093324698970716E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.6093324698970716E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6093324698970716E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.801433057046783E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.801433057046783E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.8047934171718508E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.8047934171718508E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8047934171718508E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0030546645508532E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0030546645508532E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.0030546645508532E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9532093226956801E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9532093226956801E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.1545509001893282E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.1545509001893282E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.0733421971668554E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.0733421971668554E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0733421971668554E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.074742347218967E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.074742347218967E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.074742347218967E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.074742347218967E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.1217873889699167E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1217873889699167E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1889945914712735E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1889945914712735E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.1889945914712735E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$R$2:$R$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>-1.2429762579791874E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2429762579791874E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2429762579791874E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2429762579791874E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4916462254419181E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5261798684414833E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5261798684414833E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5261798684414833E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5261798684414833E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.475419573912002E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5217418099033867E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7494696886394736E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7494696886394736E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.7494696886394736E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.7494696886394736E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.6214534680578079E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.6214534680578079E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.6214534680578079E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.6214534680578079E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.6214534680578079E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.2429314702966049E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.2429314702966049E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.2429314702966049E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.2429314702966049E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.2429314702966049E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3127369906248946E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2085813043089376E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2085813043089376E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2085813043089376E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.2085813043089376E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.0463147890097768E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.0463147890097768E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.0500594009012959E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0500594009012959E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.0500594009012959E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.3729281595478314E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.3729281595478314E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3729281595478314E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.3729281595478314E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.3729281595478314E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.7615356602899241E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.7615356602899241E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.9697083435925224E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.9697083435925224E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.9697083435925224E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.4350110434460988E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.4350110434460988E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.4884064352325748E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.4884064352325748E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.4884064352325748E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.340513674547142E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.2220729873116863E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.2220729873116863E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.2220729873116863E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.2220729873116863E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.6926458816792529E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.6926458816792529E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.498896888625468E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.498896888625468E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.498896888625468E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.6934780176551462E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.6934780176551462E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.6934780176551462E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.7823778777463954E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.7823778777463954E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-4.2017744095965338E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-4.2017744095965338E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-4.2869296577962646E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-4.2869296577962646E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-4.2869296577962646E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-4.8461250335964491E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-4.8461250335964491E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-4.8720599381784523E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-4.8720599381784523E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-4.9204625141095694E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-4.9204625141095694E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-5.217535057503418E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-5.217535057503418E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-5.217535057503418E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Corrected Tail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$N$2:$N$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>1.1143478347379423E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1143478347379423E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1143478347379423E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1143478347379423E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1118443074007875E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1327070352104096E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1327070352104096E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1327070352104096E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1327070352104096E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1824994122493741E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4522065462794E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0542631786462309E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0542631786462309E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0542631786462309E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0542631786462309E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4006045466271695E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4006045466271695E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4006045466271695E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4006045466271695E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4006045466271695E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2713158932311547E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2713158932311547E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.2713158932311547E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2713158932311547E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.2713158932311547E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.2226562813499171E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8930452682991033E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8930452682991033E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8930452682991033E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8930452682991033E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.7206202244219884E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.7206202244219884E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.3159033912565363E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3159033912565363E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.3159033912565363E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.8666794054305578E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.8666794054305578E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.8666794054305578E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.8666794054305578E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.8666794054305578E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.259274250588783E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.259274250588783E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2239466981644898E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2239466981644898E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2239466981644898E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4740212621758254E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4740212621758254E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5310460515221251E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5310460515221251E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5310460515221251E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.6918281405082787E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5986412896253004E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5986412896253004E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5986412896253004E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5986412896253004E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7894657066573096E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7894657066573096E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7928037431068491E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7928037431068491E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7928037431068491E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9897478936296807E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9897478936296807E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.9897478936296807E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9402336862948445E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9402336862948445E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.1402377035630873E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.1402377035630873E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.0595684893658821E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.0595684893658821E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0595684893658821E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.0609593378865236E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.0609593378865236E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.0609593378865236E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0609593378865236E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.1076918481800769E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1076918481800769E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1744525771708674E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1744525771708674E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.1744525771708674E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail On 65 MPH'!$S$2:$S$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>1.5137852109320794E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5137852109320794E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5137852109320794E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5137852109320794E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.7291446369522779E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3182508936908794E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3182508936908794E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3182508936908794E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3182508936908794E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.1064794839606671E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.2738703083099132E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.551149095670783E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.551149095670783E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.551149095670783E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.551149095670783E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.0979349573810142E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0979349573810142E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.0979349573810142E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.0979349573810142E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.0979349573810142E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.4716190567619567E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.4716190567619567E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.4716190567619567E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.4716190567619567E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.4716190567619567E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.5749152987629575E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.4707596124470006E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.4707596124470006E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.4707596124470006E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.4707596124470006E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.0024612230802088E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.0024612230802088E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.0062058349717279E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0062058349717279E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.0062058349717279E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1426619524563982E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1426619524563982E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1426619524563982E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1426619524563982E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1426619524563982E-6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9.2387984909003429E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.2387984909003429E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.1320525323926326E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.1320525323926326E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.1320525323926326E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.6359108657959239E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.6359108657959239E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.6893062575824001E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.6893062575824001E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6893062575824001E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.8132390422587503E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.6947983550232945E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.6947983550232945E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.6947983550232945E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.6947983550232945E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.5034403585303777E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.5034403585303777E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.3096913654765925E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.3096913654765925E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.3096913654765925E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.8752262379963234E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.8752262379963234E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.8752262379963234E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.9641260980875726E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.9641260980875726E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.7293042601569962E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.7293042601569962E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.814459508356727E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.814459508356727E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.814459508356727E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.0609104465504094E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.0609104465504094E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.0868453511324126E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.0868453511324126E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.2710525183292887E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.2710525183292887E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.5681250617231373E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.5681250617231373E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.5681250617231373E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Non-Corrected No Tail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$J$2:$J$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>1.0618737995214365E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0618737995214365E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0159488778121762E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0159488778121762E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0159488778121762E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9966139743111398E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9966139743111398E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6269743605536778E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6269743605536778E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6269743605536778E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9316213463293693E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9316213463293693E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9316213463293693E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3379577242340516E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3379577242340516E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4297819020887804E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4297819020887804E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4297819020887804E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9254350205362863E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.9254350205362863E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1292712025599431E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1292712025599431E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1292712025599431E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3504949107935763E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.3504949107935763E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.876658467595218E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.876658467595218E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.876658467595218E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.876658467595218E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5350218548799866E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1430825025439092E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0778355101155087E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0778355101155087E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0778355101155087E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0778355101155087E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3553452504440276E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3553452504440276E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3553452504440276E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4141515526327146E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4141515526327146E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6258542405119886E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6258542405119886E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6258542405119886E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5522063477709183E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5522063477709183E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7233046841389559E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7233046841389559E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7233046841389559E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7731500259941286E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7731500259941286E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9011237407571288E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9011237407571288E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.9011237407571288E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9011237407571288E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9358474620494965E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9232461115804923E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9232461115804923E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9232461115804923E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.9431282423204769E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9431282423204769E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9879330439880481E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9879330439880481E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.9879330439880481E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9798121736858007E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9798121736858007E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.986252863925514E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.986252863925514E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.986252863925514E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.986252863925514E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0013744844883194E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$R$2:$R$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>-1.1388205716632299E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1388205716632299E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.032307166748909E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.032307166748909E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.032307166748909E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5109240422167756E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5109240422167756E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3324308753876989E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3324308753876989E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3324308753876989E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.4410574686774568E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.4410574686774568E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.4410574686774568E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.3106894991208667E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.3106894991208667E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.2385211122417079E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.2385211122417079E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.2385211122417079E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.3466987891078162E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.3466987891078162E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.0776585774350847E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.0776585774350847E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.0776585774350847E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.0597676539533824E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.0597676539533824E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3873518497966455E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.3873518497966455E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.3873518497966455E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3873518497966455E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.330350535447966E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.5530855983286943E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.4651565635426535E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.4651565635426535E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.4651565635426535E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.4651565635426535E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.9459924682795683E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.9459924682795683E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.9459924682795683E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.8647205213006724E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.8647205213006724E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.8652752786179344E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.8652752786179344E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.8652752786179344E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.9409996524242097E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.9409996524242097E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.2855039464439664E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.2855039464439664E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.2855039464439664E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.3927107980048647E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.3927107980048647E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.6584395529734051E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.6584395529734051E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.6584395529734051E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.6584395529734051E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.5376411471395851E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.0893472991567317E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.0893472991567317E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.0893472991567317E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.0807485607391692E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.0807485607391692E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.3009872156922182E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.3009872156922182E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.3009872156922182E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.3735217349242363E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.3735217349242363E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.7495085066986168E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-3.7495085066986168E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-3.7495085066986168E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-3.7495085066986168E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-3.4744875666659368E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Corrected No Tail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$J$2:$J$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>1.0618737995214365E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0618737995214365E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0159488778121762E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0159488778121762E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0159488778121762E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9966139743111398E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9966139743111398E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6269743605536778E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6269743605536778E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6269743605536778E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9316213463293693E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9316213463293693E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9316213463293693E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3379577242340516E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3379577242340516E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4297819020887804E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4297819020887804E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4297819020887804E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9254350205362863E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.9254350205362863E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1292712025599431E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1292712025599431E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1292712025599431E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3504949107935763E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.3504949107935763E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.876658467595218E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.876658467595218E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.876658467595218E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.876658467595218E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5350218548799866E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1430825025439092E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0778355101155087E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0778355101155087E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0778355101155087E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0778355101155087E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3553452504440276E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3553452504440276E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3553452504440276E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4141515526327146E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4141515526327146E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6258542405119886E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6258542405119886E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6258542405119886E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5522063477709183E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5522063477709183E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7233046841389559E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7233046841389559E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7233046841389559E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7731500259941286E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7731500259941286E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9011237407571288E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9011237407571288E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.9011237407571288E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9011237407571288E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9358474620494965E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9232461115804923E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9232461115804923E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9232461115804923E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.9431282423204769E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9431282423204769E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9879330439880481E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9879330439880481E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.9879330439880481E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9798121736858007E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9798121736858007E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.986252863925514E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.986252863925514E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.986252863925514E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.986252863925514E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0013744844883194E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tail OFf 65 MPH'!$S$2:$S$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>2.5553420740916544E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5553420740916544E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6204761232348635E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6204761232348635E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6204761232348635E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.946713652792009E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.946713652792009E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7682204859629323E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7682204859629323E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7682204859629323E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1669745055142809E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1669745055142809E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.1669745055142809E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.1539377085586219E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.1539377085586219E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.1860304193622336E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.1860304193622336E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.1860304193622336E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.1968481870488445E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1968481870488445E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.0338050115055167E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.0338050115055167E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.0338050115055167E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.0159140880238144E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.0159140880238144E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0029292757498138E-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0029292757498138E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0029292757498138E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0029292757498138E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.4004243624429379E-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.1542978712880448E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.2750075234276363E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6.2750075234276363E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-6.2750075234276363E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6.2750075234276363E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.1468922906293935E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.1468922906293935E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.1468922906293935E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.0656203436504976E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.0656203436504976E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.380006463295427E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.380006463295427E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.380006463295427E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.1372502013581797E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4.1372502013581797E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.096298423295091E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.096298423295091E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.096298423295091E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.2035052748559893E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.2035052748559893E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-8.4018777331458229E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-8.4018777331458229E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-8.4018777331458229E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.4018777331458229E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-7.1938936748076231E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6.168771497171941E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-6.168771497171941E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-6.168771497171941E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-6.0827841129963158E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-6.0827841129963158E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-5.1577262864617847E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-5.1577262864617847E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-5.1577262864617847E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-5.8830714787819649E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-5.8830714787819649E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.1000985109183362E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.1000985109183362E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.1000985109183362E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.1000985109183362E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-8.2507757088565615E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="180172288"/>
+        <c:axId val="180173824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="180172288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>CL</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180173824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="180173824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>CM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180172288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -8248,6 +10308,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -8367,6 +10438,33 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -10611,8 +12709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R80"/>
+    <sheetView topLeftCell="F44" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11825,8 +13923,8 @@
         <v>-6.6214534680578079E-5</v>
       </c>
       <c r="S17">
-        <f>R17-'No Model 65 MPH'!$Q$12</f>
-        <v>7.3220943226661456E-5</v>
+        <f>R17-'No Model 65 MPH'!$Q$8</f>
+        <v>-1.0979349573810142E-4</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -12180,8 +14278,8 @@
         <v>-4.2429314702966049E-5</v>
       </c>
       <c r="S22">
-        <f>R22-'No Model 65 MPH'!$Q$8</f>
-        <v>-8.6008275760489388E-5</v>
+        <f>R22-'No Model 65 MPH'!$Q$9</f>
+        <v>-7.4716190567619567E-5</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -12535,8 +14633,8 @@
         <v>-1.3127369906248946E-4</v>
       </c>
       <c r="S27">
-        <f>R27-'No Model 65 MPH'!$Q$9</f>
-        <v>-1.6356057492714299E-4</v>
+        <f>R27-'No Model 65 MPH'!$Q$10</f>
+        <v>-1.5749152987629575E-4</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -12890,8 +14988,8 @@
         <v>-1.0463147890097768E-4</v>
       </c>
       <c r="S32">
-        <f>R32-'No Model 65 MPH'!$Q$10</f>
-        <v>-1.3084930971478398E-4</v>
+        <f>R32-'No Model 65 MPH'!$Q$11</f>
+        <v>-1.0024612230802088E-4</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -13245,8 +15343,8 @@
         <v>-1.3729281595478314E-4</v>
       </c>
       <c r="S37">
-        <f>R37-'No Model 65 MPH'!$Q$11</f>
-        <v>-1.3290745936182633E-4</v>
+        <f>R37-'No Model 65 MPH'!$Q$12</f>
+        <v>2.1426619524563982E-6</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -13600,8 +15698,8 @@
         <v>-1.7615356602899241E-4</v>
       </c>
       <c r="S42">
-        <f>R42-'No Model 65 MPH'!$Q$12</f>
-        <v>-3.6718088121752879E-5</v>
+        <f>R42-'No Model 65 MPH'!$Q$13</f>
+        <v>-9.2387984909003429E-5</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -13955,8 +16053,8 @@
         <v>-2.4350110434460988E-4</v>
       </c>
       <c r="S47">
-        <f>R47-'No Model 65 MPH'!$Q$13</f>
-        <v>-1.597355232246209E-4</v>
+        <f>R47-'No Model 65 MPH'!$Q$14</f>
+        <v>-1.6359108657959239E-4</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -14310,8 +16408,8 @@
         <v>-3.340513674547142E-4</v>
       </c>
       <c r="S52">
-        <f>R52-'No Model 65 MPH'!$Q$14</f>
-        <v>-2.5414134968969673E-4</v>
+        <f>R52-'No Model 65 MPH'!$Q$15</f>
+        <v>-1.8132390422587503E-4</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -14665,8 +16763,8 @@
         <v>-3.6926458816792529E-4</v>
       </c>
       <c r="S57">
-        <f>R57-'No Model 65 MPH'!$Q$15</f>
-        <v>-2.1653712493908611E-4</v>
+        <f>R57-'No Model 65 MPH'!$Q$16</f>
+        <v>-2.5034403585303777E-4</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -15020,8 +17118,8 @@
         <v>-3.6934780176551462E-4</v>
       </c>
       <c r="S62">
-        <f>R62-'No Model 65 MPH'!$Q$16</f>
-        <v>-2.5042724945062704E-4</v>
+        <f>R62-'No Model 65 MPH'!$Q$17</f>
+        <v>-1.8752262379963234E-4</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -15376,7 +17474,7 @@
       </c>
       <c r="S67">
         <f>R67-'No Model 65 MPH'!$Q$18</f>
-        <v>-1.416559822550494E-4</v>
+        <v>-1.7293042601569962E-4</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -15447,7 +17545,7 @@
       </c>
       <c r="S68">
         <f>R68-'No Model 65 MPH'!$Q$18</f>
-        <v>-1.416559822550494E-4</v>
+        <v>-1.7293042601569962E-4</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -15518,7 +17616,7 @@
       </c>
       <c r="S69">
         <f>R69-'No Model 65 MPH'!$Q$18</f>
-        <v>-1.5017150707502248E-4</v>
+        <v>-1.814459508356727E-4</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -15589,7 +17687,7 @@
       </c>
       <c r="S70">
         <f>R70-'No Model 65 MPH'!$Q$18</f>
-        <v>-1.5017150707502248E-4</v>
+        <v>-1.814459508356727E-4</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -15660,7 +17758,7 @@
       </c>
       <c r="S71">
         <f>R71-'No Model 65 MPH'!$Q$18</f>
-        <v>-1.5017150707502248E-4</v>
+        <v>-1.814459508356727E-4</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -15731,7 +17829,7 @@
       </c>
       <c r="S72">
         <f>R72-'No Model 65 MPH'!$Q$19</f>
-        <v>-2.1382158787108818E-4</v>
+        <v>-2.0609104465504094E-4</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -15802,7 +17900,7 @@
       </c>
       <c r="S73">
         <f>R73-'No Model 65 MPH'!$Q$19</f>
-        <v>-2.1382158787108818E-4</v>
+        <v>-2.0609104465504094E-4</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -15873,7 +17971,7 @@
       </c>
       <c r="S74">
         <f>R74-'No Model 65 MPH'!$Q$19</f>
-        <v>-2.164150783292885E-4</v>
+        <v>-2.0868453511324126E-4</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -15944,7 +18042,7 @@
       </c>
       <c r="S75">
         <f>R75-'No Model 65 MPH'!$Q$19</f>
-        <v>-2.164150783292885E-4</v>
+        <v>-2.0868453511324126E-4</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -16015,7 +18113,7 @@
       </c>
       <c r="S76">
         <f>R76-'No Model 65 MPH'!$Q$20</f>
-        <v>-2.2839783638214955E-4</v>
+        <v>-2.2710525183292887E-4</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -16086,7 +18184,7 @@
       </c>
       <c r="S77">
         <f>R77-'No Model 65 MPH'!$Q$20</f>
-        <v>-2.2839783638214955E-4</v>
+        <v>-2.2710525183292887E-4</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -16157,7 +18255,7 @@
       </c>
       <c r="S78">
         <f>R78-'No Model 65 MPH'!$Q$20</f>
-        <v>-2.5810509072153441E-4</v>
+        <v>-2.5681250617231373E-4</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -16228,7 +18326,7 @@
       </c>
       <c r="S79">
         <f>R79-'No Model 65 MPH'!$Q$20</f>
-        <v>-2.5810509072153441E-4</v>
+        <v>-2.5681250617231373E-4</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -16299,7 +18397,7 @@
       </c>
       <c r="S80">
         <f>R80-'No Model 65 MPH'!$Q$20</f>
-        <v>-2.5810509072153441E-4</v>
+        <v>-2.5681250617231373E-4</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -16666,8 +18764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="S73" sqref="S73"/>
+    <sheetView topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="S77" sqref="S77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20721,7 +22819,7 @@
       </c>
       <c r="S57">
         <f>R57-'No Model 65 MPH'!$Q$18</f>
-        <v>-3.0413271211069196E-5</v>
+        <v>-6.168771497171941E-5</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -20792,7 +22890,7 @@
       </c>
       <c r="S58">
         <f>R58-'No Model 65 MPH'!$Q$18</f>
-        <v>-3.0413271211069196E-5</v>
+        <v>-6.168771497171941E-5</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -20863,7 +22961,7 @@
       </c>
       <c r="S59">
         <f>R59-'No Model 65 MPH'!$Q$18</f>
-        <v>-3.0413271211069196E-5</v>
+        <v>-6.168771497171941E-5</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -20934,7 +23032,7 @@
       </c>
       <c r="S60">
         <f>R60-'No Model 65 MPH'!$Q$18</f>
-        <v>-2.9553397369312944E-5</v>
+        <v>-6.0827841129963158E-5</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -21005,7 +23103,7 @@
       </c>
       <c r="S61">
         <f>R61-'No Model 65 MPH'!$Q$18</f>
-        <v>-2.9553397369312944E-5</v>
+        <v>-6.0827841129963158E-5</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -21076,7 +23174,7 @@
       </c>
       <c r="S62">
         <f>R62-'No Model 65 MPH'!$Q$19</f>
-        <v>-5.9307806080665087E-5</v>
+        <v>-5.1577262864617847E-5</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -21147,7 +23245,7 @@
       </c>
       <c r="S63">
         <f>R63-'No Model 65 MPH'!$Q$19</f>
-        <v>-5.9307806080665087E-5</v>
+        <v>-5.1577262864617847E-5</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -21218,7 +23316,7 @@
       </c>
       <c r="S64">
         <f>R64-'No Model 65 MPH'!$Q$19</f>
-        <v>-5.9307806080665087E-5</v>
+        <v>-5.1577262864617847E-5</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -21289,7 +23387,7 @@
       </c>
       <c r="S65">
         <f>R65-'No Model 65 MPH'!$Q$19</f>
-        <v>-6.6561258003866889E-5</v>
+        <v>-5.8830714787819649E-5</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -21360,7 +23458,7 @@
       </c>
       <c r="S66">
         <f>R66-'No Model 65 MPH'!$Q$19</f>
-        <v>-6.6561258003866889E-5</v>
+        <v>-5.8830714787819649E-5</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -21431,7 +23529,7 @@
       </c>
       <c r="S67">
         <f>R67-'No Model 65 MPH'!$Q$20</f>
-        <v>-1.1130243564105429E-4</v>
+        <v>-1.1000985109183362E-4</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -21502,7 +23600,7 @@
       </c>
       <c r="S68">
         <f>R68-'No Model 65 MPH'!$Q$20</f>
-        <v>-1.1130243564105429E-4</v>
+        <v>-1.1000985109183362E-4</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -21573,7 +23671,7 @@
       </c>
       <c r="S69">
         <f>R69-'No Model 65 MPH'!$Q$20</f>
-        <v>-1.1130243564105429E-4</v>
+        <v>-1.1000985109183362E-4</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -21644,7 +23742,7 @@
       </c>
       <c r="S70">
         <f>R70-'No Model 65 MPH'!$Q$20</f>
-        <v>-1.1130243564105429E-4</v>
+        <v>-1.1000985109183362E-4</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -21715,7 +23813,7 @@
       </c>
       <c r="S71">
         <f>R71-'No Model 65 MPH'!$Q$20</f>
-        <v>-8.3800341637786289E-5</v>
+        <v>-8.2507757088565615E-5</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -21786,7 +23884,7 @@
       </c>
       <c r="S72">
         <f>R72-'No Model 65 MPH'!$Q$19</f>
-        <v>1.2610595828125629E-4</v>
+        <v>1.3383650149730353E-4</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -21857,7 +23955,7 @@
       </c>
       <c r="S73">
         <f>R73-'No Model 65 MPH'!$Q$19</f>
-        <v>1.2610595828125629E-4</v>
+        <v>1.3383650149730353E-4</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -21928,7 +24026,7 @@
       </c>
       <c r="S74">
         <f>R74-'No Model 65 MPH'!$Q$19</f>
-        <v>1.2610595828125629E-4</v>
+        <v>1.3383650149730353E-4</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -21999,7 +24097,7 @@
       </c>
       <c r="S75">
         <f>R75-'No Model 65 MPH'!$Q$19</f>
-        <v>1.090055639766524E-4</v>
+        <v>1.1673610719269964E-4</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -22070,7 +24168,7 @@
       </c>
       <c r="S76">
         <f>R76-'No Model 65 MPH'!$Q$20</f>
-        <v>1.0186306351690305E-4</v>
+        <v>1.0315564806612373E-4</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -22125,8 +24223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22141,8 +24239,7 @@
     <col min="9" max="10" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -22960,8 +25057,8 @@
         <v>3.354726631787215E-5</v>
       </c>
       <c r="Q18">
-        <f>AVERAGE(J61:J65)</f>
-        <v>-2.7852145870460398E-4</v>
+        <f>AVERAGE(J56:J60)</f>
+        <v>-2.4724701494395376E-4</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -23010,8 +25107,8 @@
         <v>3.1210640803194491E-5</v>
       </c>
       <c r="Q19">
-        <f>AVERAGE(J64:J65)</f>
-        <v>-2.7079091548855674E-4</v>
+        <f>AVERAGE(J61:J65)</f>
+        <v>-2.7852145870460398E-4</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -23060,8 +25157,8 @@
         <v>3.809534098036974E-5</v>
       </c>
       <c r="Q20">
-        <f>AVERAGE(J67:J70)</f>
-        <v>-2.6364841502880739E-4</v>
+        <f>AVERAGE(J66:J70)</f>
+        <v>-2.6494099957802806E-4</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
